--- a/기사데이터/토스/엑셀파일/news(토스, 2021.11.16~2021.11.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.11.16~2021.11.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>'연말 20%' 달성가능할까…9월말 카뱅·케뱅 중저신용대출 13%대</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012844881?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>9월말 카뱅 13.4%·케뱅 13.7%각 인터넷전문은행 중·저신용자 대상 신용대출 비중[은행연합회 홈페이지 캡처. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 중·저신용자 대상 신용대출 비중을 연말까지 20% 수준으로 끌어올리기로 한 카카오뱅크와 케이뱅크의 9월 말 현재 중·저신용자 신용대출 비중이 13%대 중후반으로 나타났다.    26일 각 인터넷 전문은행이 은행연합회에 공시한 '중·저신용자 대상 신용대출 비중(잔액 기준)'을 보면 올해 9월말 기준 카카오뱅크가 13.4%, 케이뱅크가 13.7%를 각각 기록했다.     토스뱅크는 10월부터 대출 서비스를 시작했던 만큼 이날 수치를 공시하지 않았으나, 대출 중단 시점을 기준으로 중·저신용자 신용대출 비중이 약 33%였던 것으로 파악됐다.    이 수치는 각 인터넷 은행의 전체 가계 신용대출에서 KCB 기준 신용평점 하위 50%(820점 이하) 대출자에 대한 대출이 차지하는 비중을 뜻한다.    금융당국은 지난 5월 인터넷 전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문했다.    당시 카카오뱅크는 20.8%, 케이뱅크는 21.5%, 토스뱅크는 34.9%를 올해 연말 중·저신용자 신용대출 비중 목표치로 제시했다. 단계적으로 비중을 확대해 2023년 말 30%를 상회하는 것을 목표로 했다.    9월 말 기준 실적을 보면 연말까지 목표 달성이 어려울 것이라는 전망에 무게가 실린다.     카카오뱅크와 케이뱅크는 그러나 연말까지 중저신용 고객을 더욱 확대하겠다는 의지를 거듭 강조했다.    카카오뱅크는 7월 말 10.9%였던 중저신용 고객 대출 비중이 매달 늘어 10월 말에는 14.6%로 증가하는 등 꾸준한 증가세를 보이고 있다고 강조했다.   또 중저신용고객 대상 자체 신용대출 신규 취급액이 3분기에는 2분기(1천998억원) 대비 3.4배 증가한 6천797억원이라고 밝혔다.    이에 따라 카카오뱅크의 9월 말 전체 신용대출 신규 취급액 가운데 중·저신용자 신규 대출 비중은 41.5%까지 올랐다.     카카오뱅크는 10월부터 고신용자 대상 신용대출 등을 중단하기도 했다.    카뱅 관계자는 "신용평가모형 고도화와 중저신용 고객 유입을 위한 노력을 이어나가겠다"고 말했다.    케이뱅크는 올해 1∼10월 누적 중저신용 대출 규모가 4천650억원으로, 작년 동기 대비 2.1배 늘었다고 밝혔다.     3분기에 케이뱅크의 중저신용 대출 비중이 2분기보다 감소한 것은 금융당국의 가계부채 관리 강화로 시중은행에서 대출을 받지 못한 고신용자들의 대출 수요가 몰린 영향이 있는 것으로 업계는 분석했다.     케이뱅크는 중·저신용 고객에게 두 달 치 이자를 돌려주는 캐시백 행사를 진행하고, 이달 11일부터 중저신용 고객 대상 대출상품 금리를 일제히 인하하는 등 중저신용 고객 유치에 나서고 있다고 강조했다.     viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>태평양 컨테이너 운임, 2년 만에 최대폭 하락 “해상 운송 수요 완화”</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001912991?sid=104</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>올초 4200달러에서 지금은 1만3295달러 3배 이상 급등지난 주와 비교하면 26% 하락…2년 만에 최대 낙폭 기록미 서부 해안의 롱비치 항만에 컨테이너를 가득 실은 운송 선박이 입항을 대기하고 있다. [AFP][헤럴드경제=김수한 기자] 글로벌 공급망 대란과 미국의 연말 쇼핑 시즌 수요가 겹치며 급등했던 태평양 횡단 컨테이너선 운임이 일주일 사이에 26% 하락해 2년 만에 최대 낙폭을 기록했다.미국 일간지 월스트리트저널(WSJ)은 15일(현지시간) 화물운송 가격 서비스 업체 프레이토스가 집계하는 해상 운임 지수(FBX)를 인용해 이렇게 보도했다.FBX에 따르면 중국에서 출발해 미국 서부 해안에 도착하는 컨테이너선 운임은 지난주 TEU(20피트짜리 컨테이너 1대)당 1만3295달러를 기록했다. 이는 4200달러였던 올해 초와 비교하면 여전히 3배 이상 높은 가격이다.하지만 지난주 컨테이너선 운임은 그 전주와 비교해 26% 하락해 2년 만에 가장 큰 폭으로 하락했다.프레이토스 리서치 책임자 유다 러빈은 화주들이 컨테이너선을 확보하기 위해 더 얹어줘야 했던 프리미엄도 6월 이후 처음으로 하락했다고 전했다.WSJ는 “태평양 횡단 컨테이너선 운송비가 4분의 1 이상 하락한 것은 마침내 해상 운송 수요가 완화하고 있음을 시사한다”고 진단했다.해상 운임 하락은 전통적인 성수기 종료와도 맞물려 있다. 연말 쇼핑 시즌을 겨냥한 미국 유통업체들의 대아시아 수입품 수요도 완화하는 조짐이다.미국 9월 도매 재고는 작년 동월과 비교해 13% 증가했는데, 아마존과 월마트, 홈디포 등 유통업체들이 글로벌 공급망 대란에 대비해 미리 제품을 확보한 것으로 보인다고 WSJ은 전했다.해상 운송업체들은 미국 유통업체가 임대해 태평양 노선에 투입했던 소형 화물선에 대한 수요 또한 줄면서 이들 선박이 소규모 해상 무역 경로로 다시 철수할 것이라고 내다봤다.다만 미국 로스앤젤레스(LA)와 롱비치 항만 앞바다에는 여전히 80여척의 화물선이 떠 있고 짐을 내리기 위해 최소 2주 이상 입항을 기다려야 하는 상황이 이어지고 있다.WSJ는 미국 서부 항만 병목 현상이 해소되려면 앞으로 몇 달이 더 걸릴 것이라며 “선박회사 임원들은 빨라야 내년 2월에 항만 정체가 완화될 것으로 기대하고 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>‘인터넷뱅커 공채 문’ 케뱅이 먼저 열었다</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003989799?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>출범 4년만에 인턴십 두자릿수 모집몸집 늘어난 카카오·토스뱅크는아직은 경력 중심 수시채용 집중[서울경제] 케이뱅크 사옥“문과도 뽑아요.” 한 금융권 취업 준비 네이버 카페에서 케이뱅크의 채용연계형 인턴십 공고를 본 대학생 A씨는 가슴이 쿵쾅거렸다. 금융의 미래인 인터넷은행에 신입직원으로 직행할 수 있는 흔치 않을 길이 열렸기 때문이다. 정성들여 입사지원서를 낸 A씨는 “인터넷뱅커의 꿈에 한발 다가섰다. 기회가 닿는다면 꼭 입행해 은행장 자리에까지 오르고 싶다”며 당찬 포부를 드러냈다.인터넷은행들은 그간 빠듯한 살림과 넘쳐나는 일거리에 ‘즉시 전력’ 감을 뽑아왔다. 하지만 제1호 인터넷은행인 케이뱅크가 변화의 물꼬를 텄다. 케이뱅크는 지난 12일부터 24일까지 채용 홈페이지를 통해 채용연계형 인턴십 지원자를 모집했다. 모집 직무는 △IT △마케팅 △데이터 △리스크 △준법 △재무·회계 △경영지원 등 총 7개 분야다. 모집 대상은 2021년 2월 이후 4년제 대학 졸업자 혹은 2022년 8월 졸업 예정자다. 사실상의 신입 공채다. 온오프라인 금융권 대졸 취업 커뮤니티가 들썩인 이유다. 케이뱅크 내부에서도 막내 행원을 맞을 준비에 분주한 모습이다. 접수 결과 2,000여명의 지원자가 몰린 것으로 집계됐다.이번에 채용하는 채용연계형 인턴십 총 선발 규모는 두 자릿수다. 지난 6월 말 기준 케이뱅크 총 임직원은 387명이니 결코 적지 않은 인원을 뽑는 셈이다. 인턴 기간 처우는 업계 최고 수준으로 월 300만 원이다. 웬만한 중견·중소 기업 정직원 첫 달 월급을 넘는 액수다. 인턴 기간은 3개월로 비교적 짧다. 최대한 취준생 입장을 배려해준 대목이다.전형은 ‘서류 접수→인성 검사→면접’으로 이뤄진다. 전 과정은 코로나19 확산세를 감안해 비대면으로 진행된다.서류 합격자 발표는 오는 30일이다. 곧바로 12월 1일부터 3일까지 정보기술(IT) 분야는 코딩테스트, 데이터 분야는 사전 과제가 주어질 예정이다. 면접(인터뷰)은 직무별로 6일부터 17일까지 숨가쁘게 진행된다. 합격자에게는 개별적으로 연락이 간다.합격자는 내년 1월 5일부터 3월 31일까지 3개월간 인턴십 과정을 완료하고 별도 정규 전환 심사를 통과하면 내년 4월 케이뱅크 정규직으로 최종 입사하게 된다. 케이뱅크 인사팀 관계자는 “채용 규모, 정규직 전환율 등을 정해놓지 않고 우수한 인재들을 모셔 최대한 많은 인원을 뽑으려고 생각 중”이라고 말했다.정규직 합격자에게는 재충전을 위해 인턴십 수료 후 입사 전까지 일주일간의 휴가인 ‘갭위크’를 제공한다. 장민 케이뱅크 경영기획본부장은 “이번 인턴 모집은 미래 금융 산업의 핵심으로 부상하고 있는 인터넷은행 업무 전반을 현장에서 생생하게 경험하고 정규직에 선발될 수 있는 좋은 기회가 될 것”이라며 “테크핀 기반의 모바일 금융 혁신을 이끌어갈 우수 인재의 많은 관심과 도전을 기대한다”고 말했다.2017년 4월 제1호 인터넷은행으로 닻을 올린 케이뱅크는 출범 이래 첫 흑자가 확실시되는 올해 가장 먼저 챙긴 건 청년층을 위한 일자리였다. 인터넷은행 주 고객층인 청년 세대는 아이러니하게도 중장년 경력 직원들에 치여 높은 채용 문턱에 걸려 넘어지기 일쑤였다.이번에 케이뱅크가 신호탄을 쏘아올리면서 카카오뱅크, 토스뱅크 등 2·3호 인터넷은행들도 몸이 달아오르고 있다. 열의와 애사심이 넘치고 스펙 좋은 사회 초년생을 붙잡는 게 장기적으로 효율적이라는 인식이 생겨나고 있다. 이들 인터넷은행은 출범 이후 몸집을 크게 불렸으나 주로 경력 직원을 데려오는 데 집중했다. 출범 첫해 300여명으로 시작했던 카카오뱅크는 1,000명이 넘는 임직원이 일하는 대기업으로 변모했다.한 번도 제대로 된 신입 공채를 진행하지 않았지만 카카오뱅크는 이미 취준생이 가장 가고 싶은 금융사 1위에 랭크돼 있다. 리딩 뱅크로 불리는 KB국민은행을 밀어내고서다. 이는 취업 플랫폼 잡코리아가 지난 5월 올해 신입 채용을 준비하는 4년제 대학 졸업 학력 ‘취업 준비생(취준생)’ 598명을 대상으로 ‘금융권 취업 선호도’를 조사한 결과를 통해 확인할 수 있다.인기 비결은 확실한 성과 보상에 있다. 올해 상장 대박을 터뜨린 카카오뱅크는 전 직원 임금을 1,000만 원 이상 일괄 인상하는 방안을 검토하고 있다. 카카오뱅크 관계자는 “그동안 빠른 속도로 성장해왔고 지속적인 성장을 위해 내부 구성원과 회사가 모두 만족할 수 있는 보상 방안을 도출해 임직원들에게 제시했다”고 했다. 직원들의 지갑을 두둑이 채워주는 배경에는 능력 있는 경력 직원을 모시려는 의도가 깔려 있다.카카오뱅크는 현재 API, 클라우드 등 분야에서 다년간 경험을 쌓은 인력을 수시 채용하고 있다. 인터넷은행 중 막내인 토스뱅크도 금융권 인력을 블랙홀처럼 빨아들이며 경계의 대상이 되고 있다. 토스뱅크 역시 카카오뱅크와 같이 아직 신입보다는 능력 있는 경력 직원을 선발하는 데 더 공을 들이고 있다. 지난달 200여명 규모로 출범한 토스뱅크는 연말까지 300명 규모로 인력을 늘린다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>인터넷은행 중저신용자 대출 '거북이걸음'… "공약 첫해부터 못 지킬 판"</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000643810?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>인터넷은행의 중·저신용자 신용대출 목표 비중. 그래픽=송정근 기자20.8%(카카오뱅크), 21.5%(케이뱅크), 34.9%(토스뱅크).인터넷전문은행들이 올해 말까지 달성하겠다고 다짐한 중·저신용자 신용대출 비중 목표와의 큰 격차를 여전히 메우지 못하고 있다. 연말이 한 달 남짓 남은 상황에서 이대로라면 공약을 내건 첫해부터 이행에 실패할 가능성이 높다. 인터넷은행들은 상반기 이례적으로 몰린 고신용자 신용대출 수요와 하반기 정부의 대출규제로 목표 달성이 어려운 상황임을 강조하지만, 금융당국은 공감하지 않는 분위기다. 28일 금융권에 따르면, 올해 10월 말까지 카카오뱅크의 중·저신용자(신용 4등급 이하) 대출 잔액 비중은 14.6%다. 6월 말(10.6%)보다는 꽤 올랐지만, 올해 말까지 도달하겠다고 약속한 목표치(20.8%)에는 한참 모자란다. 2분기까지 15.5% 수준이던 케이뱅크의 중·저신용자 대출 비중은 3분기  13.7%로 오히려 내려앉았다. 중·저신용자 대출액은 지난해보다 2배 늘었지만,  고신용자 대출이 더 많이 늘면서 비중이 낮아진 것이다. 올해 출범해 단 9일간 대출을 내준 토스뱅크는 28.2%로 비교적 높지만, 연말 목표치(34.9%)와는 상당한 괴리가 있는 상태로 '개점휴업' 중이다.올해 대출한도를 모두 소진한 토스뱅크를 제외한 두 인터넷은행은 남은 기간 중·저신용자 대출 비중을 끌어올리기 위해 안간힘을 쓰고 있다. 특히 카카오뱅크는 하반기 들어 중·저신용자 대출을 급격히 늘리고 있다. 10월까지 누적 중·저신용자 대출 (1조1,727억 원) 중 58%(6,797억 원)를  7~9월 사이 대출한 것으로 분석됐다. 케이뱅크도 중·저신용자 대출 확대를 위해 4분기에 금리 인하 및 캐시백 제도 등을 적극 도입하고 있다. 게티이미지뱅크하지만 현실적으로 인터넷은행들이 올해  중·저신용자 대출 공약을 지키기는 어려워 보인다. 시중은행보다 느슨한 가계부채 총량규제를 적용받고는 있지만, 어쨌든 대출총량이 제한된 상황에서 중·저신용자 대출만 늘리는 데는 한계가 있기 때문이다. 금융권 관계자는 "중·저신용자 대출은 아무래도 부실 위험이 높아  무턱대고  늘리기 쉽지 않다"고 말했다.이에 인터넷은행들은 금융당국에 대출총량 규제에서 중·저신용자 대출을 제외해달라고 요청하고 있다. 하지만 당국은 요지부동이다. 당국은 앞서 중·저신용자 대출 이행 현황을 분기별로 점검해 계획이 제대로 이행되지 않을 경우 인터넷은행에 신사업 관련 불이익을 줄 수 있다고 경고한 바 있다. 최근 업계는 특수상황임을 내세워 당국이 유연하게 대처해주길 바라고 있는 상황이다. 인터넷은행 관계자는 "궁극적인 목표는 2023년까지 중·저신용자 대출 비중을 30%대로 높이는 것인데, 추후 충분히 가능할 것으로 보고 있다"며 "남은 기간 동안 최대한 비중을 높여 목표치에 근접하도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>금융사 원앱 전략?…고객은 앱 깔다 지친다(종합)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005007821?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>5대 금융그룹 운영 앱만 77개 "고객님은 주식거래를 위해 최초 1회 증권 애플리케이션(앱)에 접속해 추가 정보를 등록해야 합니다. 앱을 실행하시겠습니까?" 최근 은행·증권 연계계좌를 개설한 강진영(40)씨는 은행 애플리케이션(앱)을 통해 증권 거래도 할 수 있다는 말을 듣고 앱 신규 가입자가 됐다. 하지만 은행 앱에서 주식 거래를 하려면 증권사 앱을 별도로 설치해야 하는 과정을 거쳐야 했다. 결국 강 씨의 스마트폰 금융앱 카테고리 안에는 이미 설치된 앱 5개에 2개의 앱이 추가됐다.하나의 모바일 앱으로 여러 금융권의 업무를 처리할 수 있는 은행들의 ‘원앱’ 전략이 제자리걸음을 하고 있다. 수십 개의 앱에 흩어져 있던 기능을 한 곳으로 모으는 통합 금융 플랫폼 작업을 벌이고 있지만 여전히 접근성이 떨어지고 소비자 불편도 이어졌다. 최근 금융당국이 은행권 앱 관련 규제 완화를 약속했지만 계열사 간 간극과 보안 문제로 빅테크(대형 정보기술기업), 핀테크(금융+기술)만큼 빠르고 가볍게 만들기는 쉽지 않을 것이란 관측도 나온다.30일 금융권에 따르면 KB·신한·하나·우리·NH농협 등 5개 금융그룹이 실효성이 있다는 판단 하에 운영하고 있는 금융 앱은 77개에 달한다. 가장 많은 곳은  각각 21개 앱을 서비스하고 있는 KB와 신한이다. 하나금융은 11개, 우리와 NH농협도 각각 10개, 14개의 모바일 플랫폼을 운영 중이다.앱이 가장 많은 분야는 금융그룹 내 비중이 높은 은행이다. KB금융은 은행 대표 통합앱 ‘KB스타뱅킹’을 운영하고 있지만 이를 포함해 ▲KB스타알림 ▲리브넥스트 ▲리브똑똑 ▲KB스타기업뱅킹 ▲KB부동산 ▲KB마이머니 등 7개 앱을 서비스하고 있다. 신한금융 역시 은행 대표 앱 ‘쏠’을 비롯해 ▲신한S뱅크미니 ▲쏠알리미 ▲쏠비즈신한기업뱅크 ▲쏠글로벌과 계열사 제주은행 관련 앱 2개 등 총 7개 은행 앱을 운영 중이다.금융그룹들은 빅테크·핀테크와의 경쟁에 대응하고 MZ(밀레니얼+Z세대)세대 고객 이탈을 막기 위해 ‘똘똘한 대표 앱’을 만들어 계열사 서비스를 통합하는 과정을 몇 년 전부터 진행 중에 있다. 하지만 다양한 금융서비스 관련 앱을 추가하다 보니 소비자 불편은 더욱 가중됐다. 사용 빈도가 많지 않고 기존 앱과 뒤섞여 방치되기 일쑤였다.예를 들어 KB금융의 대표 앱인 KB스타뱅킹 하나만 있으면 별도의 앱 설치 없이 금융그룹 6개 계열사 서비스 접근이 가능하다. 문제는 실제 이용 가능한 서비스는 제한적이라는 것이다. KB증권 계좌가 없는 고객이 KB스타뱅킹을 통해 새 증권 계좌를 만들려면 비대면 계좌 개설 서비스가 가능한 증권 앱을 별도 설치해야 한다.금융사들은 원앱 전략이 어려운 이유로 규제 장벽을 꼽았다. 금융권 관계자는 "그룹사 간 고객 정보 공유를 까다롭게 한 금융지주회사법과 자본시장통합법, 금융소비자보호법 등 법적인 제약이 많았다"고 설명했다.반면 빅테크·핀테크들은 슈퍼 앱 하나로 모든 서비스가 가능하다. 금융 앱 하나에 은행, 증권, 보험, 결제 등 서비스를 기능 형식으로 모두 담아 처음부터 여러 개의 앱 설치가 필요없도록 해 돌풍을 일으켰다. 토스의 경우 출범 초기부터 앱 하나로 토스가 제공하는 모든 금융 서비스를 이용할 수 있는 것을 목표로 했다.하나의 금융 플랫폼으로 기존 토스 서비스에 더해 토스증권·토스뱅크 등 계열사 서비스를 모두 한 앱에서 이용할 수 있도록 한 것이다. 금융사별로 여러 개 앱을 만든 후 중첩되는 부분에서 통합 과정을 거치고 있는 금융그룹들과 접근부터가 다르다. 토스 관계자는 "고객이 금융 관련 서비스가 필요할 때 어렵고 복잡한 앱 탐색 과정을 거치거나 고민할 필요없이 앱 한 곳에 들어오면 모든 것을 해결할 수 있도록 하는 게 진정한 원앱 전략"이라고 설명했다.금융거래 다 되는 ‘원앱’ 쉽지 않은 이유금융사들이 진정한 앱 통합을 못하고 있는 것은 금융업권별 규제와 이해관계가 복잡하게 얽혀있는 것이 가장 큰 원인으로 지목된다. 금융사들은 빅테크(대형 정보기술기업)들이 내세우는 ‘슈퍼 앱’에 대응하기 위해 여러 서비스를 품은 ‘금융 플랫폼’으로 반격에 나서고 있지만 넘어야 될 산이 많은 상황이다. 빅테크와 은행 간 ‘기울어진 운동장’ 논란을 해소하기 위해 금융당국 역시 제도적 기반을 지원하겠다고 약속했지만 소비자보호와 편의 사이에서 규제의 선을 새로 결정해야 하는 난관에 직면해 있다.국내 주요 금융그룹들이 세운 원앱 전략은 흩어져있는 은행 앱 기능들을 한 데 모은 통합 은행 앱을 만든 후 이를 기반으로 계열 금융사들의 서비스로 접근 범위를 넓히는 방식이다.내년 1월1일 응용 프로그램 인터페이스(API) 방식의 마이데이터 전면 시행을 계기로 금융 계열사 간 시너지를 극대화해야 되기 때문이다. 마이데이터 사업자는 고객의 은행·카드 등 거래내역, 보험정보, 투자정보 등을 분석해 유리한 금융상품을 추천할 수 있고, 고객은 원스톱 비교를 통해 맞춤형 상품 가입이 쉬워진다. 금융 분야별 포트폴리오를 갖추고 있는 금융그룹이 진정한 ‘원앱’ 서비스만 가능해지면 고객군을 확장하고 서비스 규모를 키우는 시너지를 낼 수 있는 셈이다.하지만 금융사들은 2014년 카드사의 개인정보유출 사태 이후 그룹사 간 고객 정보 공유가 쉽지 않다. 이를 방지하기 위해 금융지주회사법과 자본시장통합법, 금융소비자보호법 등 법적인 허들을 높인 탓에 금융 계열사의 모든 서비스를 원앱으로 통일하기 힘들어졌다.한 은행 관계자는 "시스템적으로는 은행 하나의 앱에서 증권, 카드, 보험 등 다른 금융 계열사 업무가 가능하지만 소비자 보호를 위해 비대면 실명인증을 거쳐 거래원장을 만들 때에는 해당 계열사를 직접 거치도록 하고 있다"고 설명했다. 그는 "금융당국의 권고대로 계좌개설 남용 방지와 고객 정보보호를 위한 것"이라고 덧붙였다.또 다른 은행 관계자도 "마이데이터로 인해 금융업권 간 장벽이 낮아지고는 있지만 여전히 하나의 앱으로 할 수 있는 금융 계열사 업무가 단순 조회에 치중돼 있는게 사실"이라며 "다양한 금융상품 가입, 거래 등이 활발해지려면 아직도 허물어져야 할 금융 규제가 많다"고 털어놨다.규제 완화 약속에도 숙제 산적금융당국도 금융그룹들이 제기한 ‘기울어진 운동장’ 지적에 대해 원앱이 구축될 수 있도록 지원하겠다는 의지를 밝혔다.정은보 금융감독원장이 최근 금융지주 회장들과의 간담회에서 "시너지 제고를 위해 금융그룹 내 정보 공유가 보다 원할하게 이뤄질 수 있는 방안을 검토해보겠다"고 한 것도 업계의 애로사항을 염두에 두고 한 발언이다. 고승범 금융위원장도 "하나의 슈퍼앱을 통해 은행·증권·보험 등 다양한 서비스를 고객의 니즈에 맞춰 제공하는 디지털 유니버셜 뱅크가 가능하도록 제도적 여건을 조성해 나가겠다"고 밝힌 바 있다.다만 금융당국은 금융권의 통합 플랫폼 구축 시도가 더딘 이유를 규제 탓으로만 돌릴 수는 없다는 입장이다. 금융소비자 보호와 금융업권법상 지켜야 할 원칙이 있기는 하지만 그룹 내 금융계열사 간 이해관계 간극이 큰 것을 더 큰 요인으로 봤다. 당국 관계자는 "통합 플랫폼 구축이 어려운 것은 규제 외에도 그룹사 내부의 복잡한 입장차가 있기 때문"이라며 "플랫폼 경쟁력 강화를 위한 제도적 여건을 조성하겠지만 그룹사 내에서도 업권별 이해관계가 달라 의견을 모아 추진하기가 쉽지 않을 것"이라고 진단했다.하나의 앱에 모든 금융서비스를 담고 있는 핀테크 업계에서도 은행권의 뒤늦은 ‘원앱’ 전략에 쉽지 않을 것이라고 평가했다. 핀테크 관계자는 "금융사들이 부랴부랴 원앱 전략을 펴고는 있지만 기존의 앱을 하나로 통합하고 중복되는 앱을 없애기도 힘들 것"이라며 "각 계열사간 이해관계가 충돌하기 때문에 큰 조직에서는 쉽지 않은 일"이라고 말했다.전문가들은 소비자 편익을 위해 금융, 비금융사업을 자유롭게 영위하고 있는 빅테크·핀테크와의 차별을 해결할 수 있는 형평성 제고 노력이 절실하다고 지적한다. 김우진 한국금융연구원 선임연구위원은 금융당국이 국내 금융지주의 비금융플랫폼까지 허용해야 한다고 주장하며 "당국이 디지털 유니버셜 뱅크 허용을 검토하겠다고 발표한 만큼 그 후속조치로써 규제의 형평성 제고를 위한 세부방안을 조속히 마련해야 한다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>‘후끈’ 달아오른 장외 시장…MZ세대 비상장 숨은 보석에 꽂히다</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000071682?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>장외 시장이 뜨겁다. MZ세대 젊은 투자자들이 비상장 주식에 관심을 가지면서 투자 열기가 부쩍 달아올랐다. 장외 시장이 젊은 층으로부터 관심을 받는 것은 브로커를 통해 번거로운 거래 과정을 거쳐야 했던 과거와 달리 앱으로 손쉬운 매매가 가능해졌고, 사기를 당할 우려도 크게 낮아졌기 때문이다. 최근 대어급 IPO(기업공개)의 잇따른 흥행도 영향을 미쳤다. 인기 공모주의 경우 청약을 해도 원하는 만큼 주식을 받지 못하다 보니 장외 시장에서 될성부른 떡잎에 미리 투자해 수익을 극대화하려는 투자자가 많아졌다.황세운 자본시장연구원 선임연구위원은 “IPO 기업이 뚜렷한 주가 상승을 보이면서 장외에서 신규 상장하는 기업을 찾으려는 투자자 수요가 급증하고 있다. 가상화폐, 그림, 게임 등 다양한 대상에 투자하는 MZ세대가 대거 비상장 주식 투자에 나서고 있다”고 설명했다.   ▶K-OTC, 30조원 시장 급성장 ▷올해 신규 상장 기업 6000% 수익률 K-OTC는 장외 주식을 사고팔 수 있는 대표적인 플랫폼이다. 과거 금융투자협회가 운영하던 비상장 주식 장외 매매 시장인 ‘프리보드’를 확대 개편한 것으로 ‘제도권 내에서 운영되는 장외 주식 시장’이라고 생각하면 이해가 쉽다.K-OTC는 가파른 성장세를 보이고 있다. 코로나19를 계기로 증시에 신규 유입되는 동학개미가 급증하면서 활기를 띠기 시작했다. 금융투자협회에 따르면 11월 17일 기준 K-OTC 시장 시가총액은 30조6297억원으로 전년 대비 90% 가까이 증가했다. 최근 5년 새 3배 넘게 몸집이 커졌다. 거래 규모도 매년 꾸준히 늘고 있다. 2016년만 해도 일평균 거래금액이 6억5000만원에 그쳤으나 2017년 10억9000만원, 2018년 27억7000만원, 2019년 40억3000만원, 2020년 51억5000만원에 이어 올해는 70억5849만원으로 급증했다.K-OTC 시장 인기는 이른바 ‘대박 종목’이 속출한 것이 한몫했다. 올해 K-OTC 시장에 신규 상장한 기업 13곳의 평균 수익률은 6000%에 달한다. 지난 9월 K-OTC 시장에 입성한 두올물산의 주가 상승률은 8만%에 육박한다. 100억원대였던 시가총액은 8조원까지 급증했다. 제도권 내 유일한 장외 거래 시장이다 보니 사설 플랫폼에 비해 안정성이 높다는 점도 K-OTC의 매력으로 꼽힌다. 삼성SDS, 미래에셋생명, 에이치엘비제약(옛 씨트리), 제주항공, 팍스넷, 카페24 등 K-OTC를 통해 상장에 성공하는 사례가 속속 등장하면서 K-OTC 시장에 주목하는 투자자가 늘고 있다. 소액주주에 대한 양도세 면제와 증권거래세 인하 등 세제 혜택도 투자자 유입을 이끈 요인이다. K-OTC 증권거래세는 2014년 시장 출범 이후 세 차례 인하 조치가 이뤄져 0.5%에서 0.23%까지 떨어졌다. 지분율 4% 미만, 투자금 10억원 미만의 소액주주에게 양도세를 면제해준다.장외 주식 시장이라고 해서 중소업체나 벤처기업만 거래되는 것은 아니다. K-OTC에는 포스코건설·SK에코플랜트 등 대기업 계열사나 비보존·아리바이오·오상헬스케어 등 유망 바이오 기업도 상장돼 있다.비상장 주식을 거래할 수 있는 플랫폼은 K-OTC 외에도 다양하다. 삼성증권이 두나무와 손잡고 2019년 11월 서비스를 시작한 ‘증권플러스 비상장’은 대표적인 국내 비상장 주식 거래 플랫폼으로 꼽힌다. 증권플러스 비상장은 80만명이 넘는 회원 수를 보유하고 있으며 거래 가능한 비상장 종목 수가 6000개에 육박한다. 신한금융투자가 피에스엑스(PSX)와 협업해 지난해 12월 내놓은 ‘서울거래소 비상장’ 역시 거래가 활성화된 플랫폼이다. 비바리퍼블리카(토스)를 비롯해 야놀자, 케이뱅크, 마켓컬리, 오아시스 등 IPO를 앞두고 있는 유니콘 기업을 포함해 약 400개에 달하는 비상장 주식 거래가 가능하다. 이 밖에도 ‘비마이 유니콘’ ‘비상장레이더’ ‘네고스탁’ 등이 비상장 주식 매매 플랫폼으로 서비스를 제공한다.   ▶IPO 유망주 선투자 노려볼까 ▷정보 제한·주가 급락 위험 고려해야 비상장 주식 투자의 큰 매력 중 하나는 뜰 만한 공모주에 한발 먼저 투자할 수 있다는 점이다. 카카오페이를 끝으로 올해 대어급 IPO가 마무리된 가운데 2022년에도 기업가치가 수조원대에 이르는 유망주가 줄줄이 상장에 나설 예정이어서 주목할 만하다.지난 9월 말 코스피 상장예비심사를 신청하고 결과를 기다리고 있는 현대엔지니어링은 2022년 초 증시 입성을 앞두고 장외 시장에서 관심이 뜨겁다. 최근 장외 시장에서 11만5000원 안팎에서 거래되며 기업가치가 8조7000억원대에 이른다. SK텔레콤과 SK스퀘어로 인적분할을 결정한 SK그룹은 원스토어, SK쉴더스, 11번가 등의 상장을 추진 중이다.이커머스 업체들도 상장 기대주로 꼽힌다. 신세계그룹 통합 온라인몰인 SSG닷컴과 마켓컬리 운영사인 컬리는 최근 대표 주간사를 선정하고 상장 준비를 본격화했다. SSG닷컴 목표 기업가치는 10조원 수준이다. 컬리는 당초 미국 증시 상장을 추진했으나 올해 거래소가 성장 잠재력이 큰 기업의 상장을 유치하기 위해 코스피 상장 규정을 완화하면서 국내 증시로 방향을 틀었다. 현재 장외 시장에서 기업가치 2조5000억원대를 형성하고 있다.테마별 접근도 고려해볼 만하다. 최근 장외 시장에서는 비바리퍼블리카, 케이뱅크, 두나무 등 핀테크 기업들의 약진이 두드러진다. 코로나19를 계기로 메타버스가 글로벌 화두로 떠오르면서 관련주에 대한 관심도 높다. 콘텐츠 기업 몸값이 고공행진을 이어가는 가운데 VR(가상현실) 기기·콘텐츠 전문기업 쓰리디팩토리가 눈길을 끈다.바이오는 ‘장외 시장의 스테디셀러’라고 불릴 만큼 비상장 주식 투자에서 빼놓을 수 없는 분야다. 특히 신약 개발은 어려운 만큼 성공했을 때 큰 수익을 안겨줘 관심이 높다. 퇴행성 뇌질환 등 다양한 임상 파이프라인을 보유한 디앤디파마텍, 세계 최초 경구용 치매 치료제 개발에서 성과를 내고 있는 아리바이오 등이 코스닥 특례상장을 준비 중인 신약 개발 기업이다.비상장 주식 투자 경험이 적다면 리스크를 최소화하는 방식으로 접근해보자. 장외 시장에도 ‘우량 종목’이 존재한다. 바로 제도권 내에서 운영되는 장외 주식 시장 ‘K-OTC’를 이용하는 것이다. K-OTC는 ‘자본전액잠식 상태가 아닐 것’ ‘매출액 5억원 이상’ ‘감사인의 감사의견이 적절일 것’ ‘전자등록된 주식’ 등 몇 가지 요건을 만족해야만 신규 등록이 가능하기 때문에 비상장 기업 가운데 비교적 검증된 기업을 사고팔 수 있다는 장점이 있다.‘동화일렉트로라이트’ ‘인동첨단소재’ ‘아이월드제약’ ‘메가젠임플란트’ ‘SK에코플랜트’ ‘삼성메디슨’ ‘비보존’ 등이 K-OTC 거래대금 상위 목록에 이름을 올린 종목이다. 거래가 활발하다는 것은 그만큼 시장의 관심이 뜨겁다는 것을 의미한다.장외 시장이 폭발적인 성장세를 기록하고 있지만 비상장 주식 투자는 기본적으로 ‘하이리스크 하이리턴’이라는 점을 기억해야 한다. 가격 거품 우려는 장외 시장에 늘 꼬리표처럼 따라다니는 논란이다. 거래량이 비교적 적은 탓에 주가 변동성이 크고, 상장이 무산되면 주가가 급락할 수도 있다. 거래량이 끊기면 원하는 시점에 매도하기 어려울 수 있다는 점도 위험 요인이다. 비상장 기업의 경우 경영 상황이나 기업가치 변화에 대한 정보를 확인하기 어렵다는 점도 충분히 고려해야 한다.금융투자업계 관계자는 “비상장 주식은 상장 주식과 비교해 정보의 비대칭성과 유동성 측면에서 개인 투자자에게 불리할 수밖에 없다. 깜깜이 투자가 될 가능성이 높은 만큼 다양한 정보를 충분히 확인해야 하고 신중한 접근이 필요하다”고 조언했다.[본 기사는 매경이코노미 제2135호 (2021.11.24~2021.11.30일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>‘1세대 VC’ KTB네트워크, 다음달 코스닥 입성...“초기 기업 옥석 가리기 필요”</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000776981?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>“시장 유동성 때문에 (투자 대상 기업의) 옥석 가리기가 절실한 상황이다. 스크리닝을 잘 하고 창업 초기 기업 위주로 투자를 지속해 다른 벤처캐피털(VC)들과의 차별화를 꾀하겠다.”김창규 KTB네트워크 대표이사는 29일 오후 비대면 상장 설명회를 열고 이 같이 말했다. KTB네트워크는 KTB투자증권의 자회사인 VC로, 다음 달 코스닥시장에 상장한다.김창규 KTB네트워크 대표이사가 29일 진행된 기업설명회에서 발표하고 있다. /기업설명회 화면 캡쳐        KTB네트워크는 지난 1981년 설립된 한국기술개발주식회사를 전신으로 한다. 설립 이후 58개의 벤처 펀드를 청산해 총 1조3397억원의 납입 총액을 기록했으며, 운용 자산(AUM)은 1조1745억원이다. 평균 내부 수익률(IRR)은 19.8%로 업계 평균치보다 높다고 회사 측은 설명했다.KTB네트워크는 국내 VC 중 최초로 해외 시장에 진출한 1세대 투자사다. 1988년에는 미국, 2006년에는 중국 시장에 진출해 현지 거점을 확보했다. 현재까지 미국 시장에서는 65개 기업, 중국 등 아시아 지역에서는 49개 기업에 투자했다. 현재는 인도와 동남아시아 시장까지 투자 포트폴리오를 확대해나가고 있다.KTB네트워크의 올 1~3분기 누적 영업수익은 1043억원이었다. 지난 한 해 동안 달성한 영업수익 670억원을 이미 크게 웃돌았다. 당기순이익은 631억원에 달했다. 누적 영업이익은 774억원을 기록해 지난해 연간 영업익(446억원)을 뛰어 넘었다.이날 간담회에서 김 대표는 투자를 심사하고 결정할 때 어떤 점을 고려하는지 소개했다. 그는 “초기 기업에 투자할 때는 창업자가 보유한 기술력을 많이 보고 향후 수 차례의 투자를 통해 얼마의 수익을 낼 수 있을 지 고민한다면, 후기 투자를 결정할 때는 밸류에이션(기업 가치 대비 주가 수준)을 많이 고려한다”고 설명했다.김 대표는 “2000년대에도 인터넷 기업들이 많이 나오며 많은 회사들이 투자를 집행했는데, 옥석 가리기에 실패한 경우 상당한 손실을 봐야 했다”며 “지금도 너무 많은 유동성이 풀려 있어 옥석 가리기가 절실한 상황”이라고 덧붙였다.김 대표는 KTB네트워크에서 투자한 우아한형제들(’배달의민족’ 운영사)과 비바리퍼블리카(’토스’ 운영사)에 대해서도 설명했다. 우아한형제들의 경우, 고유계정을 통해 투자한 121억원과 펀드을 통해 투자한 자금으로 올 3분기까지 2043억원의 영업수익을 냈다고 김 대표는 전했다. 수익률은 약 11.6%다.김 대표는 “우아한형제들보다 더 큰 투자 건은 비바리퍼블리카”라며 “최근 투자 받은 시점의 기업 가치가 8조원이었는데 현재는 이 밸류에이션보다 높은 가격에 지분이 거래되고 있어, 상당한 이익을 낼 것으로 예상된다”고 말했다.그 외에도 김 대표는 향후 배당 등 주주 친화적인 정책을 적극적으로 실시할 예정이라고 덧붙였다.KTB네트워크는 이달 29~30일 이틀 동안 기관 투자자들을 대상으로 수요 예측을 실시한 뒤 다음 달 6~7일 이틀 동안 일반 투자자들을 대상으로 공모주 청약을 받는다. 공모 자금은 벤처 펀드 결성에 활용할 계획이다.공모 주식 수는 총 2000만주로, 희망 공모가 범위(밴드)는 5800~7200원이다. 대표 주관사는 한국투자증권이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>이니텍, 토스·뱅크샐러드 전자서명인증사업자 획득</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010834302?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이승주 기자 = KT그룹 금융 보안기업 이니텍(053350)은 토스와 뱅크샐러드 2개 기업의 전자서명인증사업자 인정을 획득했다고 16일 밝혔다.사측에 따르면 이니텍은 지난 11일 과학기술정보통신부와 한국인터넷진흥원(KISA)에서 전자서명인증사업자로서 운영기준 준수 사실을 인증받았다.이니텍은 금융보안 전문 기업으로 금융과 공공, 기업 고객을 대상으로 인증과 암호화 기술 바탕의 다양한 정보보안 솔루션과 서비스를 제공하고 있다. 향후 확대되는 사설인증서 시장에 대응하기 위해 금융권과 일반기업 등을 대상으로 차세대 사설인증 솔루션 개발과 사설인증 구축사업에 참여하고 있다.배무건 이니텍 보안사업본부장은 "이번 토스와 뱅크샐러드 전자서명인증사업자 인정으로 최상의 파트너로서 입지를 공고히했다"며 "향후에도 공동인증 서비스를 구축하고 최신의 레퍼런스 경험을 기반으로 전자서명사업 영역에서 독보적인 우위를 지속하겠다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>SBA, 슈퍼루키 기업 총동문회 출범 행사 성료</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004886541?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>초대 회장단 중심으로 한 100개사 규합 결의 및 비전 선포 서울시 중소기업 지원기관 서울산업진흥원(SBA, 대표이사 김현우)은 지난 25일(목) 여의도 콘래드 호텔에서 개최된 'SBA 슈퍼루키 기업 총동문회 출범 행사'를 높은 관심 속에 성료했다고 30일 밝혔다.슈퍼루키 프로그램은 SBA 글로벌유통사관학교 사업의 일환으로 성장 잠재력 높은 국내 유망 중소기업을 발굴해 글로벌기업으로 성장할 수 있도록 집중 육성하는 프로그램이다. 2020년 하반기 1기부터 시작해 올해 4기까지 총 100개 기업을 선발하여 동문회를 구성, 이번 총동문회 출범 행사를 기점으로 활발한 활동을 진행할 예정이다.SBA 슈퍼루키 기업 총동문회는 뷰티/리빙/전자제품 등 제조업부터 물류/수출 등의 유통 분야, IT/소프트웨어/콘텐츠 플랫폼 기업까지 다양한 분야의 기업들이 한데 모여 서로 협업하며 성장할 수 있는 커뮤니티로 구성되어 있다. 동문회 내부적으로 협업 제품 출시뿐 아니라 해외 유통망 확보, IP를 활용한 콜라보레이션 등 기업 간 시너지를 낼 수 있는 다양한 형태의 협업이 활발히 진행되고 있다. 현재까지 총 109건 누적 134개사가 참여하는 등 중소기업 동반성장의 장이 되고 있다.이러한 성과를 바탕으로 동문회 발전에 기여한 기업에 교류 활성화 및 협업 활성화 두 부문으로 나누어 서울산업진흥원 대표이사 명의 공로패를 수여하였으며, 앞으로의 활동 계획과 비전도 밝혔다. '교류 활성화 부문'은 ▲(주)KDT 다이아몬드(강승기 대표) ▲인토스(주)(백일현 대표) ▲(주)신시아뷰(신경섭 대표) ▲(주)제이씨원(신종호 대표) ▲(주)라이트팜텍(김정숙 부회장) ▲주식회사 씨엠컴퍼니(최미영 대표) ▲(주)유니팩코리아(정병운 대표) ▲유웰데코㈜(김정희 대표) ▲(주)조아라(박명규 이사) ▲(주)레비레스코(박성주 대표) ▲(주)지유Inc(김민성 대표) ▲주식회사 레드빈(박성민 대표) 등 총 12개사가 수상의 영예를 안았다.  '협업 활성화 부문'은 ▲에스엔패션그룹(주)(정기열 이사) ▲(주)아이엠폼(김택원 대표) ▲(주)씨에스리(이춘식 대표) ▲주식회사 스타일셀러(안성국 대표) ▲(주)애니작(이병준 대표) ▲주식회사 더엔비피(옥수정 대표) ▲주식회사 현진씨엔티(정성한 대표) ▲(주)하트페이스(양용선 대표) ▲(주)후스구스(오진수 이사) ▲컴포트랩(황형수 이사) ▲(주)세이브앤코(박지원 대표) ▲(주)이로지스 아시아(이제훈 이사) ▲(주)씨네트웍스(송신명 대표) 등 총 13개사가 수상의 영예를 안았다.또한 백일현 대표(인토스)를 초대 총동문회 회장으로 추대하고, ▲박인철 대표(파워풀엑스) ▲이승훈 대표(아이가드시스템) ▲정병운 대표(유니팩코리아)를 부회장으로 추대하여 앞으로의 활동도 기대하게 했다. 백일현 총동문회장은 "이번 행사를 통해 총동문회가 본격적으로 시작되었으니, 앞으로 기업 간 교류를 더 활성화하고 역량을 강화시키는 동시에 동문 간 화합의 장을 만들어 함께 성장하는 총동문회가 되도록 하겠다"는 각오를 밝혔다.김용상 SBA 마케팅지원본부장은 "이번 총동문회 행사를 시작으로 SBA 슈퍼루키 기업 총동문회가 자생적으로 성장하고 활동할 수 있는 기반이 잡혔다고 생각한다. SBA는 앞으로도 우리 슈퍼루키 기업들이 유니콘 기업으로 성장해서 국가와 사회에 기여할 수 있도록 관심과 지원을 아끼지 않겠다."고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>칠레 대선서 '친시장' 우파 후보 예상밖 선전에 통화가치·증시 급등</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005003698?sid=104</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[이미지출처=EPA연합뉴스]중남미 국가 칠레의 대선에서 우파 후보들이 선전하자 예상 밖이라는 평가가 이어지고 있다. 1989년 민주화 이후 중도좌파 진영이 대부분 정권을 잡으면서 중남미 좌파 블록의 한 국가였던 칠레가 좌파로의 급격한 전환을 거부한 것이라는 분석이 나온다. 이에 시장의 불안감이 해소되며 칠레 페소화와 주요 증시가 급등했다. 지난 21일(현지시간) 치러진 칠레 대선 개표가 22일 기준 99.99% 마무리된 가운데 극우 성향 후보 호세 안토니오 카스트 후보가 27.91%로 1위를 차지해 결선투표에 진출했다. 그는 2위인 좌파 가브리엘 보리치 후보(25.83%)와 함께 결선 진출했다.호세 안토니오 카스트 [이미지출처=AP연합뉴스]이번 대선과 함께 치러진 의회 총선거의 경우 상·하원 모두에서 좌파 진영 정당들이 의석 수를 대거 잃으면서 그 어떤 진영도 과반 의석을 확보하지 못하게 됐다. 정치컨설팅 업체 트레퀸토스의 케네스 번커 대표는 "(이번 선거 결과에 따르면) 그 어떤 정당도 단독으로 법안을 통과할 수 없게 됐다"며 "이는 좌파 성향 정당들에 매우 부정적인 소식"이라고 평가했다.가브리엘 보리치 [이미지출처=로이터연합뉴스]앞서 좌파 진영이 승리할 것으로 예상됐던 이번 칠레 선거에서 우파 진영이 선전하면서 관심이 집중되고 있다. 특히 대선에서 보수 성향 경제학자 후보 파리시가 12.80%의 득표율로 '깜짝 3위'를 기록한 것도 주목된다. 보수 성향 후보들이 득표율 1, 3위를 기록하게 됐기 때문이다.칠레 대선이 열렸던 지난 21일(현지시간) 칠레 푼타아레나스의 한 투표소에서 가브리엘 보리치 후보가 투표하고 있는 모습 [이미지출처=로이터연합뉴스]이에 칠레의 시장경제 모델에도 중대한 변화가 올 것이라는 관측도 나온다. 특히 지난 30여년간 좌파 정권이 대부분 정권을 잡으며 중남미 대륙 좌파 블록의 한 축을 담당했던 칠레에서 이번 선거를 계기로 정치 지형의 변화가 이뤄질 수도 있다. 칠레 대선이 열렸던 지난 21일(현지시간) 칠레 산티아고의 한 투표소에서 호세 안토니오 카스트 후보가 투표하고 있는 모습 [이미지출처=로이터연합뉴스]칠레에서는 2019년 사회 불평등에 항의하는 대규모 시위 이후 신자유주의 경제 시스템에 대한 회의감이 높아지면서 좌파 정권교체 가능성이 높게 점쳐졌다.지난해 국민투표에서 80% 가까운 국민이 아우구스토 피노체트 군사정권(1973∼1990년) 시절 신자유주의를 기반으로 제정된 현행 헌법의 폐기를 택했고, 올해 제헌의회 선거에서도 좌파 후보들이 강세였다.최근 칠레에서 범죄율이 급증하고 경찰과 분리주의자 단체간 충돌이 이어지면서 사회 혼란이 가중되자 정국 불안감이 커졌다. 이에 변화보다 안정을 택한 국민들이 보수 성향 후보들을 지지하기 시작했다고 전문가들은 분석했다. [이미지출처=로이터연합뉴스]미겔 앙헬 로페즈 칠레대 교수는 "현재 칠레에서 범죄율이 급증하고 있는 상황에서 변화를 택할 경우 어떤 결과가 올지 알 수 없다는 점에서 국민들은 (좌파 후보) 보리치에 대한 지지를 철회했다"고 말했다. 이런 가운데 이번 선거에서 친시장적 보수 성향 후보가 선전하면서 시장의 불안감이 해소되자 주가와 통화가치도 급등한 것으로 나타났다. 페소화 가치는 한때 3.5%까지 치솟았다가 현재 2%대 강세를 보이며 달러당 812페소를 기록하고 있다.칠레 산티아고 증시의 S&amp;P IPSA 지수는 10% 안팎의 상승세를 기록했다. 지난해 3월 이후 가장 큰 상승 폭이다.자산운용사 픽텟에셋매니지먼트의 메리-테레스 바튼은 "시장의 반응은 매우 긍정적"이라고 말했다. [이미지출처=AP연합뉴스]RBC 캐피털마켓의 대니얼 리코 연구원은 "전날 대선 결과에서 분명해진 것은 칠레가 좌파로의 급격한 전환을 거부했다는 것"이라며 누가 최종 당선되든 "실용적이고 중도적인 정책에서 합의를 모색해야 할 것"이라고 말했다고 블룸버그통신은 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스, 자영업 사장님 위한 '급여명세서 발급' 서비스 선보여</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003805885?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>◇토스의 '사장님' 서비스에서 급여명세서 발급 기능을 이용하는 모습. 사진제공=토스토스가 자영업자를 위한 금융서비스인 '사장님' 메뉴에 급여명세서 발급 기능을 추가한다고 25일 밝혔다. 사장님은 자영업자를 위한 매장 장부관리 기능으로 지난해 11월 토스가 선보인 서비스다. 매장 장부관리, 배달 매출 늘리기, 숨은 카드매출 찾기 등 자영업자의 매장 운영에 필요한 기능을 제공하고 있다. 출시 3개월만에 7만명의 가입자가 서비스를 신청하고, 11월 현재 약 40만명이 이용중이다.이번에 새로 추가된 '급여명세서 보내기'는 지난 19일부터 시행된 근로기준법 개정안에 맞춰 준비됐다. 개정안에 따르면 앞으로 사업주는 임금지급일에 근로자에게 임금명세서를 의무로 교부해야 한다. 위반 시 사업주는 500만원 이하의 과태료를 부과받게 된다. 서비스 출시에 앞서 토스는 사장님 서비스를 사용하는 자영업자 약 1000명을 대상으로 설명조사를 진행했다. 그 결과 급여명세서 교부 의무화에 대해 알고 있는 사장님은 전체 응답자의 29.9%에 불과했고, 급여명세서를 발급하는 사장님의 약 57%가 직접 작성하는 것으로 답했다. 급여명세서 작성에 어려움을 느끼지만 비용부담 등의 이유로 전문가의 도움을 받는 경우는 38% 수준에 머물렀다. 안지영 토스 프로덕트오너는 "사장님 서비스를 이용하는 자영업자 고객의 70%가 개정된 급여명세서 교부 의무화를 모르고, 작성하는 데도 어려움을 가지고 있었다"며 "급여명세서 작성부터 교부까지 간편하게 사용할 수 있어 사장님의 매장 운영에 보다 실질적인 도움을 드릴 수 있길 기대한다"고 말했다.토스의 '급여명세서 보내기'는 5인 미만 월급제 근로자를 고용한 사장님을 우선 대상으로 26일부터 제공된다. 사장님은 토스 앱 내 '사장님' 메뉴에서 '급여명세서 보내기'를 통해 직원의 급여명세를 작성하고 발송할 수 있다. 월 급여와 식대, 상여금 등 지급항목을 입력하고, 건강보험공단에서 매월 발급되는 고용·건강보험료 항목만 입력하면 직원의 소득세와 지방소득세 등이 자동으로 계산된 급여명세서를 각 직원에게 발송할 수 있다.토스는 5인 미만 사업장을 운영하는 사장님을 시작으로 그 대상을 확대할 계획이다. 월급제 직원 외에 주급제, 일급제 직원을 대상으로 한 급여명세서, 5인 초과 사업장에 대한 서비스도 추가할 방침이다.이미선 기자 already@sportschosun.com▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>티맵모빌리티, 토스 전략 담당 출신 김유리 CPO 영입</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002492787?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>통합모빌리티 사업 본격화티맵모빌리티는 토스의 운영사 비바리퍼블리카의 김유리(사진) 전 비즈니스전략담당을 최고제품책임자(CPO)로 영입했다고 17일 밝혔다. 김 CPO는 다양한 직무수행 경험을 기반으로 티맵모빌리티의 서비스 전략을 담당할 예정이다. 이에 따라 김 CPO는 앞으로 통합모빌리티서비스(MaaS), 올인원모빌리티(AIM) 등의 조직을 이끌게 된다.김 CPO는 지난 2003년 삼성전자 무선사업부에 입사해 소프트웨어 개발자로 일했고 해외영업, 프로덕트 매니저(PM) 등을 거쳤다. 2011년부터는 애플 본사 글로벌 서플라이 매니저로 근무한 것을 비롯해 SK텔레콤, 쿠팡, 토스 등을 거치며 개발·사용자 경험(UX) 분야에서 다양한 경험을 쌓았다.김 CPO는 “이동에 관한 모든 고객 접점을 빠르게 점령할 것”이라며 “사람들이 이동하려 할 때 가장 먼저 떠올리는 강력한 모빌리티 플랫폼을 만들겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>타다 넥스트 2기 드라이버 모집···11월 25일 베타 서비스 출시</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003986690?sid=105</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[서울경제] ‘타다’ 운영사 브이씨엔씨(VCNC)는 이달 중 선보일 대형택시 서비스 ‘타다 넥스트’의 2기 드라이버를 모집한다고 18일 밝혔다.타다 넥스트는 택시 면허를 보유한 기사의 7인승 이상 차량을 기반으로 운영되는 호출 중개 서비스다. 현대자동차의 ‘스타리아’ 등 모빌리티 서비스에 최적화된 차량을 활용한다.타다 측은 1기 드라이버 모집이 조기 마감되며 2기 드라이버를 빠르게 모집하게 됐다고 전했다. 2기 드라이버에게도 △최대 1,000만 원의 홍보비 일시 지급 △12개월 동안 매월 50만 원의 활동비 지급(일정 운행 조건 충족 시) △계약 기간 동안 매월 플랫폼 수수료 50% 할인 등의 혜택이 주어진다. 아울러, 현재 ‘타다 라이트’ 혹은 ‘타다 플러스’를 운행 중인 드라이버가 ‘타다 넥스트’로 전환할 경우, 타다 서비스 참여 기간에 따라 최대 200만 원을 추가 지급한다.드라이버 신청 자격 요건은 △서울 개인택시 면허를 보유하고 △행정처분 이력이 없으며 △5년 무사고 경력의 중형 개인 택시 사업자이거나, 1년 무사고 경력의 대형 혹은 모범 개인 택시 사업자다.타다 넥스트는 오는 11월 25일 서울 지역 대상 베타(시범) 서비스 출시를 시작으로 서비스 안정화 및 토스의 결제 서비스 등과 연동을 거쳐 내년 초 정식 런칭할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>류영준 핀테크협회장 “한국 핀테크, 규제보다 육성할 때”</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000775976?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회 기자 간담회 개최  “전 세계 유니콘 핀테크 94곳 중 한국은 1곳”  “한국 핀테크 발전 순위 26위… 올해 8계단↓”  전금법·금융플랫폼 규제·망분리 등 현안 언급 “기존 금융기관이나 글로벌 핀테크 시장과 비교하면 아직 한국 핀테크는 초기 단계에 불과합니다. 앞으로 글로벌시장에서 경쟁할 수 있도록 지속적인 육성 지원책이 필요합니다.”류영준 한국핀테크산업협회장한국핀테크산업협회장을 맡고 있는 류영준 카카오페이 대표가 한국 핀테크 시장에 대해 규제보다는 육성이 필요할 때라고 쓴소리를 냈다. 은행 등 전통 금융사들은 그간 금융당국이 핀테크에 규제 유예 등 과도한 특혜를 줬다며 반발해 왔는데, 고승범 금융위원장도 최근 이런 ‘기울어진 운동장’ 인식에 동의했다. 이에 핀테크 업계에서는 규제가 강화해 산업이 위축되는 것이 아니냐는 우려가 일었다.류 회장은 24일 오전 서울 여의도 전경련회관에서 열린 한국핀테크산업협회 기자 간담회에서 “기존 금융기관이나 글로벌 핀테크 시장과 비교해 아직 한국 핀테크는 초기 단계에 불과하다”며 “앞으로 글로벌 시장에서 경쟁할 수 있는 핀테크 기업이 많이 등장할 수 있도록 지속적인 육성 지원책이 필요하다”고 말했다.류영준(가운데) 한국핀테크산업협회장이 24일 오전 서울 여의도 전경련회관에서 열린 '2021 한국핀테크산업협회 기자 간담회'에서 발언하고 있다. /한국핀테크산업협회 제공        그는 전 세계 핀테크 유니콘 기업 94곳 중 한국 기업은 단 1곳(토스)에 불과하며, 국내 전체 핀테크 종사자 수 역시 글로벌 핀테크 기업 1개사 수준이라고 지적했다. 올해 한국 핀테크 산업 발전 순위는 지난해와 비교했을 때 8계단 하락한 26위를 기록했다.류 회장은 “해외 핀테크 기업의 경우 유니콘을 넘어 강력한 드래곤으로 성장하고 있다”며 “아직은 핀테크에 대한 규제보단 육성에 집중해야 할 때”라고 말했다. 이어 “국내 핀테크 산업의 지속적인 성장을 위해 전문 인력 양성 허브 구축, 국내외 투자 활성화, 글로벌 혁신 사례 벤치마킹 지원 등 협회 차원에서도 제 역할을 해나가겠다”고 밝혔다.이날 간담회에서는 ▲전자금융거래법(전금법) 개정안 ▲금융 플랫폼 규제 ▲망 분리 등의 현안도 언급됐다. 장성원 한국핀테크산업협회 사무처장은 “전금법 개정안이 통과되면 ‘스몰 라이선스’(small license·소규모 인허가) 도입으로 신규 플레이어의 진입이 원활해질 것”이라며 “이는 금융 생태계 조성에 이바지하고 결국 소비자 편익 증진으로 이어질 것”이라고 주장했다.또 “전금법 개정안으로 촉발된 ‘동일기능 동일규제’ 이슈에 대해서는 ‘동일라이선스 동일규제’로 접근해야 한다”며 “라이선스의 특성에 따라 수익의 구조나 보장받는 혜택이 다른 상황에서 표면의 ‘기능’만 동일한 규제를 적용한다는 것은 불합리하다”고 말했다.온라인 금융 플랫폼 특성을 고려한 새로운 규제 방식이 고민돼야 한다고도 지적했다. 김시목 핀산협 감사는 “핀테크 분야 진출을 고민하는 스타트업의 고민이 깊다”며 “온라인 금융 플랫폼 서비스 특성을 감안한 새로운 맞춤형 규율 체계가 마련돼야 한다”고 했다.망 분리 규제와 관련해서는 핀테크를 포함한 금융권 전체의 기술 경쟁력을 저하하고 있다는 우려가 나왔다. 정인영 핀산협 부회장은 “망 분리 규제로 인해 모바일 개발 시에 필수적인 오픈 소스나 라이브러리 사용이 제한돼 개발자들이 핀테크 기업을 꺼린다”며 “기술 변화의 흐름을 거스를 수 없다면 연결을 차단하지 않으면서 중요 서비스와 데이터를 보호할 수 있는 최선의 방안을 찾아야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>붕어빵 먹고 싶은데 어디로 가지?</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003113488?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[경향신문] 앱 ‘가슴속 3천원’ MZ세대 인기위치 넣으면 근처 노점상 알려줘후기·폐업 정보 등 의견 교환도앱 캡처찬 바람이 불면 입소문을 타고 다운로드 수가 증가하는 애플리케이션(앱)이 있다. ‘가슴속 3천원’이다. 붕어빵이나 계란빵을 파는 노점상 정보를 알려주는 앱으로, 지난해 2월 iOS 버전으로 출시된 데 이어 지난 2월 안드로이드 버전이 나왔다. 다운로드는 구글 플레이 1만회, 애플 앱스토어 5만회 이상을 기록했다. 앱 이름은 ‘겨울철 붕어빵을 사먹을 수 있도록 3000원 정도는 품고 다녀야 한다’는 우스갯소리에서 착안했다. MZ세대(1980년대 초~2000년대 초 출생)에게 ‘가슴속 3천원’은 붕어빵과 짝을 이루는 개념이다. 빅데이터 분석 플랫폼 썸트렌드에 따르면 지난 3개월간 온라인상에서 ‘붕어빵’ 언급이 가장 많았던 날은 11월20일(1만6166건)과 10월20일(1만2779건)이었다. ‘가슴속 3천원’ 언급량도 비슷했다. 10월20일(2352건)과 11월25일(1740건)에 최대치를 기록했다. 앱에서 제공하는 노점상 정보는 붕어빵, 계란빵 외에도 호떡, 어묵, 와플, 국화빵, 군고구마 등 다양하다. 지난 10월부터는 넷플릭스 오리지널 시리즈 &lt;오징어 게임&gt;으로 인기를 끈 ‘달고나’ 노점 위치 정보도 추가됐다. 이용자가 앱을 켜면 지도 서비스를 기반으로 반경 1㎞ 이내의 노점상 정보를 알려준다. 노점뿐만 아니라 겨울 간식을 파는 매장형 점포도 포함된다.  ‘가슴속 3천원’의 특징은 이용자들의 ‘집단지성’으로 간식 지도를 완성한다는 점이다. 누구나 자신 근처에 있는 노점상 정보를 제보할 수 있다. 위치 정보뿐만 아니라 메뉴와 가격 정보, 별점, 간단 후기도 등록된다. 가입 절차는 간단하다. 구글이나 카카오 계정으로 로그인할 수 있다. 30일 오전 서울 서대문구 지하철 2호선 ‘이대역’ 근처에서 앱을 작동시켰다. 역 주변에 5개의 노점이 등장했다. 평점이 가장 높은(5점 만점에 5점) 1번 출구 앞 호떡 노점을 찾았다. 비가 온 탓인지 노점은 보이지 않았다. 앱을 확인하자 “올겨울은 언제 오실까요”라는 리뷰 글이 보였다. 또 다른 이용자는 “겨울마다 돌아오는 노점인데, 영업 개시를 하지 않은 것 같다”는 설명을 달았다. 코로나19 영향은 ‘가슴속 3천원’ 앱도 받고 있었다. 이대역에서부터 이화여대 정문까지 난 도로에는 붕어빵과 계란빵 노점이 각각 1개씩 표시됐지만 모두 보이지 않았다. 근처 상인은 “유동인구가 줄면서 노점 수가 확 줄었다”고 말했다. 즐겨 찾던 노점이 영영 문을 닫은 경우는 앱 내 ‘삭제요청’ 탭을 활용하면 된다. 폐업, 허위 제보, 중복 제보 등 이유로 3건 이상 삭제 요청이 접수될 경우 해당 노점 정보는 지도에서 사라지게 된다. 현금이나 신용카드가 없어도 걱정할 필요 없다. 올 초부터 금융 앱 토스를 통한 송금하기 기능이 추가됐다. 이 기능을 사용하면 스마트폰으로 손쉽게 계좌이체를 할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>[콘텐츠 핫&amp;뉴] 카카오게임즈 신작 PC 생존게임 ‘디스테라’ 2차 테스트</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004879988?sid=105</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>카카오게임즈(각자대표 남궁훈, 조계현)는 리얼리티매직(대표 김성균)이 개발 중인 신작 PC온라인 생존 슈팅게임 ‘디스테라’의 2차 베타 테스트를 오는 23일까지 실시한다고 16일 밝혔다.이번 ‘디스테라’ 2차 베타 테스트는 PC게임 유통 플랫폼 ‘스팀’을 통해 신청해 참여할 수 있다.‘디스테라’는 ‘생존’과 ‘슈팅 전투’에 집중할 수 있도록 복잡한 시스템을 간소화한 것이 특장점이다.이번 2차 베타 테스트의 경우 최적화된 초보자 튜토리얼이 제공돼 기본적인 생존 법칙을 학습할 수 있게 구성됐다. 이후 다른 이용자와 협력해 거점을 점령하고 지구를 멸망시키거나 혹은 지구의 수명을 늘리는 등의 활동을 경험할 수 있다.◆ 컴투스프로야구, 최강 클럽 가린다…‘토너먼트 대회’ 개최컴투스(대표 송재준, 이주환)는 모바일 야구 게임 ‘컴투스프로야구2021’의 ‘클럽 토너먼트 대회’를 진행한다.올해로 세 번째 시즌을 맞은 ‘클럽 토너먼트 대회’는 게임 내 대표적인 협동 콘텐츠 ‘클럽 대전’을 활용해 팀들 간 실력 경쟁을 펼칠 수 있는 온라인 대항전이다. 클럽에 소속된 이용자라면 누구나 참여할 수 있다.‘클럽 토너먼트 대회’ 예선은 오는 12월 4일까지 매주 월요일부터 토요일까지 펼쳐진다. 비슷한 실력의 경쟁 팀들을 상대로 클럽 구성원들이 각각 대결을 벌이는 방식이다. 팀 전체의 누적 트로피 획득 개수에 따라 최종 본선에 진출할 8개 팀이 선발된다. 파이널 라운드는 오는 12월 19일 진행된다. 본선 무대 진출 클럽에게는 최강의 클럽을 상징하는 기념 마크와 게임 내 각종 아이템 선물이 보상으로 주어진다.결선 무대에 오를 팀들을 미리 예측하고 결과에 따라 선물을 받는 ‘승부예측 이벤트’도 진행한다.◆ 게임빌 ‘드래곤 블레이즈’ 신규 영웅 ‘아자토스’ 추가게임빌(대표 이용국)은 모바일 RPG ‘드래곤 블레이즈’에 신규 세컨드임팩트 영웅 ‘아자토스’를 추가했다. 딜러 포지션에서 활약하는 영웅으로 강력한 공격으로 상대방의 피해를 증가시키는 스킬들을 보유했다.게임빌은 각종 이벤트도 진행한다. 12월 7일까지 게임 내 미션 수행을 통해 보상을 획득할 수 있는 ‘별꽃 축제’ 이벤트를 실시해 주요 퍼스트임팩트 영웅들의 인피니티 카드와 ‘퍼스트임팩트 +2 강화권’, ‘스페셜 인피니티X3 소환권’ 등을 선물한다. 오는 30일까지 인피니티 소환과 프리미엄 소환 확률 업 이벤트도 실시한다.◆ 스노우파이프, AR 모바일게임 ‘트랜스포머스 얼라이언스’ 티징 영상 공개스노우파이프(대표 김정익)는 신작 모바일게임 ‘트랜스포머스 얼라이언스’의 공식 티징 영상을 공개했다고 16일 밝혔다.내년 일본 출시를 준비 중인 ‘트랜스포머스 얼라이언스’는 증강현실(AR)과 위치기반서비스(LBS)를 접목한 모바일게임이다. 이용자는 주변의 자동차, 스마트폰 등의 사물을 촬영해 트랜스포머를 수집하고 전투를 펼칠 수 있다. 현실세계를 복제한 가상공간에 무작위로 출연하는 보스를 제압하는 ‘레이드’와 상대 진영의 스페이스 브릿지를 점령해 영역을 확장해 나가는 ‘점령전’ 등의 콘텐츠도 갖췄다.이번 티징 영상은 1분 가량으로 제작됐으며 일본 도쿄 도심 곳곳에 출현한 트랜스포머들의 모습을 담아냈다. 옵티머스 프라임, 범블비, 메가트론 등 각종 트랜스포머들이 등장한다.스노우파이프는 오는 17일 개막하는 게임전시회 ‘지스타2021’의 B2B관 참가도 확정했다.◆ 카카오게임즈, ‘프렌즈샷:누구나골프’ 마스터즈 대회 개최카카오게임즈(각자 대표 남궁훈, 조계현)는 16일 캐주얼 모바일 게임 ‘프렌즈샷: 누구나골프’가 롯데렌탈 카셰어링 자회사 ‘그린카’와 함께 ‘제6회 누구나 마스터즈 대회’를 오는 22일까지 개최한다. 이번 대회에서는 카셰어링 서비스 ‘그린카’가 단독 후원사로 참여, 이벤트에 참여한 이용자들 중 추첨을 통해 ‘한지민 프로골프 원 포인트 레슨권’ 및 ‘그린카 이용권’, ‘카카오프렌즈 굿즈’ 등 풍성한 경품을 증정한다. 더불어, ‘그린카’는 게임 내 ‘월드투어 모드’에 스페셜 스폰서로 등장해 차별화된 보상을 제공한다. ‘프렌즈샷: 누구나골프’는 ‘카카오프렌즈’ IP에 골프 소재를 접목한 모바일 캐주얼 게임이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>토스, 자영업 사장님을 위한 '급여명세서 보내기' 선보여</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005005184?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>토스가 자영업자를 위한 금융서비스인 ‘사장님’ 메뉴에 급여명세서 발급 기능을 추가한다고 25일밝혔다. 5인 미만 사업장을 운영하는 사업주는 무료로 이용할 수 있다. ‘사장님’ 서비스는 자영업자를 위한 매장 장부관리 기능으로 지난해 11월 첫 선을 보였다. ▲매장 장부관리 ▲배달 매출 늘리기 ▲숨은 카드매출 찾기 등 자영업자의 매장 운영에 필요한 기능을 제공하고 있다. 출시 3개월만에 7만명의 가입자가 서비스를 신청하고, 11월 현재 약 40만명이 ‘사장님’ 서비스를 사용하고 있다.이번에 새로 추가된 ‘급여명세서 보내기’는 이달 19일부터 시행된 근로기준법 개정안에 맞춰 준비됐다. 개정안에 따르면, 앞으로 사업주는 임금지급일에 근로자에게 임금명세서를 의무로 교부해야 한다. 위반 시 사업주는 500만원 이하의 과태료를 부과받게 된다.안지영 토스 프로덕트오너(Product Owner)는 “사장님 서비스를 이용하는 자영업자 고객의 70%가 개정된 급여명세서 교부 의무화를 모르고, 작성하는 데도 어려움을 가지고 있었다”며, “급여명세서 작성부터 교부까지 간편하게 사용할 수 있어 사장님의 매장 운영에 보다 실질적인 도움을 드릴 수 있길 기대한다”고 말했다.토스의 ‘급여명세서 보내기’는 월 급여와 식대, 상여금 등 지급항목을 입력하고, 건강보험공단에서 매월 발급되는 고용·건강보험료 항목만 입력하면 직원의 소득세와 지방소득세 등이 자동으로 계산된 급여명세서를 각 직원에게 발송할 수 있다.한편, 토스는 5인 미만 사업장을 운영하는 사장님을 시작으로 대상을 확대할 계획이다. 월급제 직원 외에 주급제, 일급제 직원을 대상으로 한 급여명세서, 5인 초과 사업장에 대한 서비스도 추가할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>사라진 택시기사... 모빌리티 후발주자들 기사님 모시기 쩐의 전쟁</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003653961?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>택시 호출 시장 1위 카카오모빌리티가 골목 상권 침해 논란으로 주춤하는 사이, 후발 주자 우티·타다가 자금력을 앞세워 사업을 확장하고 있다. 한 콜에 2만원(우티), 최대 1800만원 지급(타다) 같은 현금성 인센티브를 앞세워 운전 기사 모시기에 나선 것이다. 모빌리티 업계 관계자는 “코로나 장기화로 법인 택시 기사 수가 1년 새 24%가량 감소한 상황에서 최근 위드 코로나로 다시 택시 호출 수가 증가하자 업체들의 기사 확보 경쟁이 치열해지고 있다”고 했다.타다										지난달 핀테크 업체 토스에 인수된 타다는 최근 수백명 규모의 1기 기사 모집을 조기 마감하고, 2기 모집에 나섰다. 타다는 “1000만원을 일시금으로, 이후 12개월 동안 매월 50만원씩 활동비를 지급하겠다”고 했다. 또한 계약 기간에 플랫폼 수수료도 50% 할인해준다. 타다는 기사 모집을 완료하고, 올해 말부터 승합차를 이용한 대형 택시 서비스를 새로 시작한다는 계획이다.1일 온라인으로 열린 우티 출범 기자간담회에 참석한 김기년 우티 COO(왼쪽)와 톰 화이트 CEO /우티										지난 1일 정식 출범한 티맵모빌리티와 우버의 합작사 우티도 공격적인 기사 유인책을 펼치고 있다. 택시 업계에 따르면, 우티는 비가맹 택시가 첫 호출을 받을 시 2만원을 지급한다. 이후 3000원씩 최대 50회 지원금을 줘 최대 15만원의 추가 수익을 올리도록 했다. 우티는 “올해 가맹 택시를 1000여 대에서 1만대까지 늘리고, 내년에는 2만대가 목표”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>1200만 ‘신파일러’ 금융 新블루오션?</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000071783?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>1200만명 ‘신파일러(Thin Filer·금융이력 부족자)’들이 금융의 새로운 블루오션으로 주목받는다. 이들은 금융이력 부족으로 신용카드 발급 등에 제약이 따랐으나 핀테크 기술 고도화로 신용도를 다각도로 측정할 수 있게 되면서 판도가 변했다는 진단이다. 신파일러는 대출·상환 내역, 신용카드 사용 실적 등의 이력이 없어 고금리 대출·신용카드 발급 거절 등 불이익을 받는 사람들로 사회초년생, 노인, 주부 등이 다수다. 신용평가사는 통상 최근 2~3년간 기록이 없는 이들을 신파일러로 간주한다. 민형배 더불어민주당 의원이 신용평가사 나이스평가정보에서 받은 자료에 따르면 올 상반기 신파일러는 1280만여명에 달했다. 이는 신용등급을 매길 수 있는 국민 4730만여명 중 4분의 1을 넘는 수준이다. 연령별로는 20대 신파일러가 322만여명, 60세 이상이 417만여명으로 합치면 절반을 넘는다. 이들은 높은 신용등급을 줄 근거가 없기에 통상 중간 수준 신용등급인 4·5등급을 부여받는다.최근 네이버파이낸셜·토스·카카오페이 등 핀테크 기업들은 BNPL(Buy Now Pay Later·선구매 후지불) 서비스를 무기로 이들을 적극 공략 중이다. 이들 플랫폼 기업은 가입자의 결제·송금 데이터를 기반으로 신용도를 다각도로 분석해 정확도를 한층 높였다. 네이버파이낸셜은 지난 4월부터 신파일러층을 대상으로 신용에 따라 월 30만원 한도 소액 후불 결제 서비스를 시행 중이다. 토스도 동일한 서비스를 내년 3월 선보이는 것이 목표다. 카카오페이는 연내 출시를 목표로 선불·후불 결합형 모바일 교통카드 서비스를 준비하고 있다. 선불 충전금으로 교통요금을 우선 지불하되 충전금이 없으면 월 15만원까지 익월 후불 결제를 허용하는 방식이다.은행권은 신용등급 4등급 이하(KCB 820점 이하)인 중·저신용자층을 집중 공략한다. 카카오뱅크는 중·저신용자 신용대출 비중을 지난 6월 10.6%에서 8월 12.3%, 9월 13.4%로 꾸준히 높이고 있다. NH농협은행은 지난해 사회초년생을 겨냥한 ‘NH씬파일러 대출’을 선보였다. 이 상품은 재직 기간 6개월 이상이면서 연소득 2000만원 이상인 직장인에게 최대 2000만원까지 대출해준다. 해외는 BNPL 서비스가 더 활발하다. 스웨덴 클라르나가 가입자 수 8500만여명으로 대표적이고 호주 애프터페이(1000만명), 미국 어펌(620만명) 등이 뒤를 잇는다. 애플도 골드만삭스와 협력해 BNPL 서비스 ‘애플페이 레이터’를 준비하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>은행권 ‘슈퍼 플랫폼’ 전쟁 2라운드</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001913246?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>KB스타뱅킹, MAU 1500만 목표신한銀 SOL, 전년보다 20% 성장빅테크 맞서 자산관리 차별화 시도시중은행들의 플랫폼 전쟁이 2라운드로 접어들었다. 마이데이터 시대 개막, 금융당국의 슈퍼앱 지원까지 맞물리며 빅테크 공습을 이겨내기 위한 월간이용자수(MAU) 경쟁은 더욱 치열해질 전망이다.16일 금융권에 따르면 KB국민은행은 내년 ‘KB스타뱅킹’의 MAU 목표치를 1500만명 안팎으로 잡았다. 현재 MAU는 900만명 안팎으로 연내 1000만 달성이 가능할 것으로 보고 있다. 최근 ‘KB스타뱅킹’에 주식매매, 스마트보험금 청구 등 계열사 핵심서비스 등을 추가한 ‘KB뉴스타뱅킹’을 내놓았는데, 내달부터는 자산관리서비스, 지출관리서비스 등을 추가해 확장형 금융플랫폼 역할을 강화키로 했다.신한은행 쏠(SOL)의 성장세도 무섭다. SOL의 MAU는 지난달 말 800만명을 넘어 전년 대비 20%가 넘게 성장했다. 신한은행 또한 최근 신한SOL을 전면개편하는 ‘뉴앱(NEWS APP)’ 프로젝트에 돌입했다. 200억원의 예산이 들어가는 이번 사업에는 비대면상품 가입 프로세스를 재구축하고, 고객맞춤형 사용자인터페이스(UX/UI) 등이 재설계된다.하나은행 또한 하나원큐 내 자산관리 부분 서비스 개편을 앞두고 있고 우리은행은 내달 중 우리원(WON)뱅킹에서 개인의 신용, 자산상태 등을 통합해 볼 수 있는 ‘우리 마이데이터’ 서비스를 출시한다. 올원뱅크, NH스마트뱅킹 등을 통해 MAU 700만 이상을 달성 중인 농협은행도 마이데이터 시대에 맞춰 빅데이터 분석 플랫폼을 만들고 있다. 또한 외부 협업을 통해 데이터 관련 과제를 신속하게 추진하기 위한 고도화 작업을 추진하고 있다.은행들이 앱, 서비스 개편에 속도를 내는건 디지털 환경 변화에 대응하기 위해서다. 이미 토스, 카카오뱅크 등 빅테크 플랫폼은 하나의 앱을 통해 여러 서비스를 아우르는 ‘슈퍼앱’을 통해 영역을 넓히고 있다. 이들의 MAU는 1000만을 훨씬 넘긴지 오래다. 은행권 또한 내달 마이데이터 서비스 오픈, 금융당국의 슈퍼앱 지원에 힘입어 앱의 기능을 다각도로 강화하는 중이다.서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>“CSS 고도화뿐”…인뱅 중저신용자 비중 10% 탈출 가능할까</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001918040?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>중저신용자 대출 비중 20% 이하계열사, 모회사 데이터 반영[123rf][헤럴드경제=박자연 기자]인터넷전문은행들의 중저신용자(하위 50%, 820점 이하) 대출 비중이 좀처럼 오르지 않으면서 업계 내 고민도 깊어지고 있다. 이미 높은 한도로 대출을 받은 고신용자들이 많아, 이들이 해당 대출을 상환하지 않는 이상 중저신용자 대출 비중이 10%대를 벗어나는 것은 어렵다는 이야기도 나온다. 인터넷은행들은 신용평가시스템(CSS) 고도화를 통해 중저신용자 리스크를 보다 면밀하게 측정할 계획이다.은행연합회에 따르면 카카오뱅크와 케이뱅크의 3분기 중저신용자 비율은 각각 13.4%와 13.7%로 유사하다. 전 분기와 비교했을 때 카카오뱅크는 2.8%포인트 늘고 케이뱅크는 1.8%포인트 줄었다. 케이뱅크의 경우 다른 시중은행들이 한창 신용대출 연봉한도 제한을 시작했을 때 따로 제한을 걸지 않아 풍선효과의 영향을 받았다는 해석이다.금액은 크게 늘어난 상황이다. 케이뱅크는 올 10월까지 4650억원을 공급하며 전년 동기 대비 두 배 많은 금액을 중저신용자 대출에 투입했고, 카카오뱅크도 같은 기간 1조1727억원을 공급하며 중저신용자 대출 비중을 10월 말 기준 14.6%까지 끌어 올렸다.카카오뱅크와 케이뱅크의 연말 중저신용자 대출 목표는 각각 20.8%, 21.5%이며 두 은행은 현재 고신용자 대상 신용대출을 중단 또는 일부 제한하는 조치를 시행 중이다.마의 20% 벽을 넘기 위한 인터넷은행들의 비책은 CSS 고도화다. 중저신용자들은 통상적으로 집단 특성상 한도가 고신용자에 비해 적기 때문에, 고신용자들이 높은 한도로 대출을 받고 연장 등을 지속하면 중저신용자 대출 비중을 획기적으로 늘리기 어렵다. 실제 인터넷은행 중 초반부터 중저신용자에 초점을 맞춘 토스뱅크만 대출영업 중단 시까지 중저신용자 비중 20%대(28.2%)를 기록한 바 있다.이에 인터넷은행들은 정교한 CSS 모델을 구축해 대출 등 신용을 판단할 수 있는 기록이 부족해 점수가 낮은 이들에게 보다 높은 한도나 보다 낮은 금리를 제공하겠다는 계획이다.CSS 고도화를 위해서는 중저신용자나 금융이력부족자(신파일러)를 판단할 수 있는 풍부한 데이터가 필수적인데 카카오뱅크와 케이뱅크 역시 이 데이터를 확보하고 CSS에 반영하기 위해 노력하고 있다. 카카오뱅크는 모빌리티, 카카오페이 등 업무협약을 맺은 계열사 데이터를 포함해 제휴사들의 데이터를 CSS에 추가적으로 반영할 예정이다. 특히 카카오페이의 풍부한 결제 데이터가 내년께 반영될 예정이라, 더욱 많은 수요자들이 CSS 고도화 효과를 경험할 수 있을 전망이다. 케이뱅크 역시 모회사인 BC카드 결제 데이터와 KT의 통신 데이터를 반영해 CSS 모델을 향상할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>거듭된 빅테크 망분리 위반...내 선불충전금은 안전?</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004671379?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>금융 빅테크(IT대기업)의 반복되는 망분리 의무 위반 적발 사례가 비판의 도마 위에 올랐다. 네이버파이낸셜, 카카오페이, 토스 등 전자금융업자들은 내부 통신망과 외부 통신망을 분리·차단해야 한다. 해킹 등의 보안 문제가 발생할 수 있어서다. 그러나 이들 3사 모두 망분리 의무 규정을 위반했고 금융당국이 이를 적발해 제재했다. 네이버파이낸셜은 2019년에 이어 두번째다. 기존 제도권 금융사에서는 거의 없는 일이다. 이들은 사실상 예금과 다르지 않은 '선불충전금' 5600억원을 관리 중이다. '믿고 맡길 수 있을지'에 대한 논란이 제기된다. 머지포인트  사태가 일어나지 말라는 법이 없다는 것이다.16일 관련 업계에 따르면 금융당국은 네이버파이낸셜에 대한 검사를 진행해 내부 업무용시스템과 정보처리시스템의 내외부 망분리를 하지 않은 것에 대해 최근 2360만원의 과태료와 임원 주의 조치를 내렸다. 네이버파이낸셜 관계자는 "분사 이후 추가된 일부 사내시스템의 망 분리 미흡에 대해 지적을 받은 것"이라며 "고객 거래에는 영향이 없고 개선을 완료했다"고 해명했다.그러나 네이버파이낸셜의 망분리 규정 위반은 처음이 아니다. 네이버에서 분리되기 전인 2019년 7월에도 내부 업무용 시스템에 대한 망분리 이행을 하지 않아 역시 과태료와 직원 주의 조치를 받았다.망분리 원칙 준수에 소홀한 건 다른 빅테크도 마찬가지다. 카카오페이도 지난 5월 마찬가지로 망분리 의무를 위반해 네이버파이낸셜의 3배 가량인 6960만원의 과태료와 경영유의 조치를 받았다. 토스도 4월 관련 조치 위반으로 3720만원의 과태료를 냈다.이는 은행이나 카드사 등 기존 제도권 금융기관에서는 찾아볼 수 없는 일이다. 금융권 한 관계자는 "기존 금융사들은 강화돼 온 망분리 규정과 절차를 그대로 따라 왔기 때문에 위반 소지가 거의 없다"고 설명했다. 금융당국은 엄연히 규정이 존재하고 기존 금융사들의 망분리에 관한 참고사례가 널려 있음에도 빅테크가 거듭해서 이를 위반하고 적발되는 건 가볍게 볼 일이 아니라고 판단한다. 무엇보다 빅테크 3사는 3분기 말 기준 선불충전금 잔액이 총 5628억원 규모다. 망분리가 제대로 돼 있지 않으면 악성코드 감염이나 해킹을 통한 고객 정보와 자금 유출 등의 보안 문제를 겪을 수 있다. 내부 통제를 하기 어려운 상황이 발생할 수도 있다. 과거 선불충전금과 기업 고유 자산을 제대로 분리해 보관하지 않는 전자금융업자들도 있었다. 돈에 꼬리표가 붙어있지 않은 만큼 고객 자금이 회사 부동산 구입이나 사업자금으로 쓰일 수 있다는 의심을 받아온 까닭이다. 이 때문에 간편결제업자들은 '전자금융업자의 이용자금 보호 가이드라인'에 따라 은행 등 외부기관에 신탁하거나 지급보증보험에 가입해야 한다. 문제는 행정지도 수준이라 법적 강제성이 없고 제재할 방법도 없다는 점이다. 이 때문에 빅테크 망분리 이슈가 계속될수록 빅테크 등 간편결제 선불충전금 보호를 위한 법적 규제가 마련돼야 한다는 의견이 대두될 수 밖에 없다.금융당국 관계자는 "빅테크가 규모가 커졌음에도 불구하고 금융관련 규정을 인지하는 수준이 기존 금융권에 비해 현저히 낮다"며 "일부 미흡한 사항을 점검하고 있다"고 말했다. 금융당국 일각에서는 갑작스런 서비스 중단 사태로 이용자들이 맡긴 돈을 즉시 찾지 못했던 머지포인트의 사례를 들어 전자금융업체만이라도 관리·감독할 수 있는 법안의 필요성을 제기한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>中출발 美 해상운임 일주일새 20% 급락…물류대란 숨통 트이나</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004880062?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>벌크선 이어 컨테이너선도운임지수 안정세로 돌아서9월 정점 찍은 후 하향연말 쇼핑물량 선주문 끝나고원자재값 진정에 운임 하락롱비치 등 항만정체는 여전하역작업 2주이상 대기해야국내업계는 체감 못해화물운송사 많이 활용하는상하이운임지수 여전히 최고"춘제 앞둔 중국수요 여전내년초까지 하락분위기 아냐" "지난 9월 중순 2만달러까지 치솟았던 중국발 미국 서부행 컨테이너 운임(40피트 컨테이너 기준)이 최근 1만4000~1만5000달러로 하락했습니다. 물량이 큰 화주는 이보다 더 낮은 가격에도 계약하는 추세입니다. 하지만 물류대란 자체는 수개월간 더 지속될 것 같습니다."중국산 제품을 주로 캘리포니아 롱비치항을 거쳐 수입해 아마존에 공급하고 있는 A씨 이야기다. A씨는 15일(현지시간) 매일경제와의 통화에서 "최근 중국에서 롱비치항까지 컨테이너 운임은 1만달러 초반대로 떨어졌다"며 "피크는 지났다"고 말했다. 그는 "하지만 아직도 항만 정체가 심각하다"며 "11월 초 롱비치항에 도착한 컨테이너는 12월 16일 하역이 가능하다고 연락받았을 정도"라고 말했다.코로나19 사태 이후 세계 경제를 옥죄던 해상운임 급등세가 진정될 기미를 보이고 있다.철광석 석탄 곡물 등을 운송하는 벌크선 운임지수인 발틱운임지수(BDI)는 하락세가 뚜렷하다. 1월 4일 1374였던 BDI 지수는 10월 7일 5650까지 치솟았다. 9개월 새 4배 이상 오른 것이다. 하지만 그 이후부터 급하게 하락해 16일에는 2759까지 내렸다. 10월부터 석탄 등 원자재 가격이 안정세로 돌아서며 해상운임도 함께 하락한 것이다. 한국해양진흥공사 관계자는 "최근 벌크선 운임 하락은 투기적 수요 감소가 직접적인 원인이다. 벌크선 시장은 완전경쟁 체제여서 운임 변화가 더 가파르게 나타난다"며 "과열 상태였던 운임이 정상화되는 과정"이라고 설명했다.컨테이너선 운임 역시 10월부터 상승세가 꺾이는 조짐이 나타나기 시작했다. 세계 해운 컨설팅 업체 드루리(Drewry)에 따르면 전 세계 컨테이너운임지수는 9월 말 1만달러(40피트 컨테이너 기준)를 넘어섰으나 지난주에는 9193달러로 하락했다. 상승세가 꺾였다고는 하지만 연초 대비 250% 높은 수준이다.화물운송 가격 서비스 기업 프레이토스가 집계하는 해상운임지수(FBX)에 따르면 중국·동아시아발 미 서부행 운임은 지난주 1만4885달러(40피트 컨테이너 기준)로 낮아졌다. 직전 주(1만8730달러) 대비 20.5% 떨어진 것이다. 해당 노선 해상운임은 연초부터 급하게 오르기 시작해 9월 둘째주에는 평소 10배 수준인 2만586달러까지 치솟았다. 이후 등락을 반복하다가 지난주 큰 폭의 하락세로 돌아섰다. 월스트리트저널(WSJ)은 "이 같은 해상운임 하락은 마침내 해상운송 수요가 완화하고 있음을 시사한다"고 평가했다.가격이 천정부지로 올랐지만 컨테이너를 확보하지 못했던 현상에도 다소 숨통이 트이고 있다. 유다 레빈 프레이토스 리서치대표는 WSJ에 "물량 확보를 위해 지불하던 프리미엄(웃돈)이 지난 6월 이후 처음으로 낮아졌다"고 말했다. 최근 컨테이너선 운임이 하락한 것은 '선주문 효과'에 따른 것으로 보인다. 추수감사절과 크리스마스 등 대목을 앞두고 물류난을 우려한 미국 수입업체들은 앞다퉈 조기 주문에 나섰고 이 시기를 노린 화물 주문은 거의 마무리됐기 때문에 운임이 내려가고 있는 셈이다. 미국에서 포워딩 사업을 하는 B씨는 "해상운임이 다소 안정됐지만 내년 초 재차 급등할 가능성을 배제할 수 없다"며 "내년 설 등을 앞두고 불안 요인이 많다"고 설명했다.하지만 국내 화물운송 업체들은 아직 운임 하락을 체감하지 못하고 있어 일부 운임지표가 내려가고 있는 것이 전 세계 물류대란 완화로 이어질 수 있을지는 미지수다.국내에서 컨테이너선 운임지표로 주로 활용하는 상하이컨테이너운임지수(SCFI)는 지난 12일 기준 종합 지수가 4554.04로 하락했지만 미주 서안노선 지수는 6730으로 역대 최고치를 경신했다. SCFI는 주간 단위로 발표된다. 국내 해운업계 관계자는 "현장에서 느끼기에 미주 노선 컨테이너선 운임은 역대 최고 수준을 유지하고 있다"며 "체감상 변화가 거의 없다"고 말했다.또 다른 관계자는 "컨테이너선 운임은 당분간 현 상태를 유지할 것으로 보인다"며 "내년 1월 말 춘제 연휴를 앞두고 중국 화주들이 물량을 밀어내고 있어 쉽게 내려갈 분위기가 아니다"고 전했다. 항만물류 정체도 쉽게 해소되지 않을 전망이다. 롱비치항과 같은 미국의 대표 항구 앞바다에는 여전히 80척 안팎의 선박이 하역하지 못해 2주 이상 대기 중이다. WSJ에 따르면 해운업체들은 일러도 내년 2월까지는 물류난이 해소되지 않을 것으로 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜도 망분리 과태료...제도 개선 시급</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002982357?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크토스(비바리퍼블리카)와 카카오페이에 이어 네이버파이낸셜도 망분리 조치를 제대로 이행하지 않아 금융감독원으로부터 과태료를 부과받았다. 핀테크 망분리 규제 완화에 속도를 내야 한다는 업계의 요구가 거세지만 이 문제를 해결할 전자금융거래법(전금법) 개정안은 17일 열리는 국회 정무위원회 법안심사소위원회에서 논의되지 않을 것으로 보인다.네이버파이낸셜은 내부 통신망과 연결된 내부업무시스템을 인터넷 등 외부통신망과 분리해 차단하고 전산실 내 정보처리시스템과 이에 접속하는 단말기를 외부통신망과 물리적으로 분리하지 않아 최근 금감원으로부터 과태료 2360만원을 처분받았다.이에 앞서 토스와 카카오페이도 똑같은 이유로 각각 3720만원, 6960만원의 과태료를 부과받았다.빅테크 3사가 나란히 망분리를 지적받자 전자금융업을 수행하는 핀테크 업계는 금융당국이 망분리 규제 완화 방침을 약속한 만큼 빠른 조치를 촉구했다.한국핀테크산업협회는 대선 주자에게 제안하는 정보통신기술(ICT) 금융혁신 분야 공약 가운데 하나로 망분리 규제 완화를 꼽았다. 핀테크 기술 혁신을 촉진하기 위해 고객정보 유출 위험이 없는 개발 목적 단말기를 망분리 규제에서 제외하는 형태로 규제를 개선해 달라고 요구했다.금융 분야 망분리 규제는 물리적으로 업무용 망과 인터넷용 망을 분리해 보안성은 높지만 업무 효율성이 지나치게 떨어진다는 지적을 받아 왔다. 외부 오픈소스 등 신기술을 활용할 수 없어 개발자가 일일이 소스코드를 반입·반출하는 신고를 해야 한다. 업무 효율성이 크게 저하된다. 데이터와 분석도구가 분리돼 데이터를 효과적으로 활용할 수 없다.생산성 저하 문제는 인력 투입으로 해결할 수밖에 없다. 전문인력 확보와 그에 따른 비용 부담이 발생한다. 대략 30% 추가 인건비가 필요하다는 게 업계의 분석이다. 개발자가 개발 업무가 아닌 망분리 환경을 조성하고 적응하는 데 더 많은 시간을 쓴다는 지적도 나온다.당장 규제 샌드박스 제도를 이용해 망분리 규제 우회를 택할 수 있지만 이마저도 여의치 않다는 것이 업계의 중론이다. 전금법에 금융보안 원칙과 적용 기준이 모호하고, 감독규정상 내부업무시스템 등에 대한 적용 범위도 명확하지 않기 때문이다.핀테크산업협회 관계자는 “규제 샌드박스를 신청하려면 명확하게 분야를 지정해야 하는데 현 망분리 규제 적용범위가 모호해 샌드박스를 신청하기가 까다로워 현업에서 이러지도 저러지도 못하는 실정”이라고 토로했다.금융당국도 망분리 규제 완화의 필요성에 공감하고 있다. 전금법 개정안이 국회를 통과하면 하위규정을 개정해 규제를 완화할 계획이다. 그러나 이 법안은 약 1년째 국회에 표류하고 있다. 17일 열리는 국회 정무위 법안소위에서도 전금법 개정안은 다뤄지지 않을 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>빅테크 만나는 고승범…어떤 이야기 나올까</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005006061?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>빅테크 대표와 금융지주, 은행 등 참석'동일기능 동일규제' 논의 이어질지 관심고승범 금융위원장고승범 금융위원장이 이르면 다음주 주요 빅테크(대형 정보기술기업) 대표들과 취임 후 첫 회동에 나선다. 최근 금융당국이 ‘동일기능 동일규제’ 입장을 강조하고 있어, 규제와 관련해 구체적인 논의가 나올 수 있을 지 관심이 모아지고 있다.26일 금융권에 따르면 고 위원장은 내주 ‘디지털 혁신금융 간담회’를 개최하기로 하고 관련사들과 일정을 조율 중이다. 이번 간담회에서 빅테크 기업 대표로는 최인혁 네이버파이낸셜 대표와 이승건 비바리퍼블리카(토스) 대표가 참석할 예정이다. 류영준 카카오페이 대표는 한국핀테크산업협회 협회장 자격으로 참석한다.고 위원장은 간담회를 통해 산업 현장의 건의사안과 애로 등을 청취하고 소통에 나설 계획이다. 특히 플랫폼화, 데이터 혁신 인프라 구축, 인공지능(AI)을 통한 금융혁신, 디지털 트러스트 등 디지털 금융의 주요 이슈가 한자리에서 논의될 예정이다. 업계에서는 이번 간담회 결과가 올 연말 ‘디지털 혁신금융 발전 전략’ 주요 추진방향 발표와 내년도 업무계획에 반영될 수 있을 것으로 보고 있다.무엇보다 고 위원장이 핀테크 업계를 위한 지원 정책으로 무엇을 제시할 지가 관심사다. 그는 취임 이후 금융지주, 은행사, 보험사, 카드사 등과 연쇄 회동을 가지면서 업계 맞춤형 지원 정책들을 제시한 상황이기 때문이다. 가장 핵심 화두는 최근 논란이 되고 있는 빅테크들의 공정경쟁이 될 것으로 보인다. 고 위원장은 취임 직후부터 빅테크 기업들에 대해 ‘동일기능 동일규제’ 원칙을 강조해 왔다. 그는 지난 9월 금융지주와의 간담회에서 "(동일기능 동일규제는) 금융소비자 보호와 금융안정 차원에서 필요하다"면서도 "핀테크 육성이라든지 금융위가 그간 해오던 정책을 수정하는 것은 아니다"고 말한 바 있다.반면 핀테크들은 이같은 방침이 불합리하다는 지적이다. 장성원 핀테크산업협회 사무처장은 "라이선스의 특성에 따라 수익의 구조나 보장받는 혜택이 다른 상황에서 단순히 표면의 ‘기능’만을 보고 동일한 규제를 적용하자는 것은 불합리하다"고 강조했다. 그는 "전자금융업자들이 ‘동일라이선스 동일규제’를 준수하고 보호받을 수 있도록, 디지털 금융 발전에 부합하는 제도와 규제 체계 개편이 반영돼 있는 전자금융거래법 개정이 반드시 필요하다"고도 했다.또한 이날 간담회에는 빅테크를 비롯 금융지주와 시중은행, 보험사, 카드사, 증권사, 인슈어테크, 핀테크 보안 솔류션, 협회 및 유관기관도 참석하기 때문에 핀테크 업계의 적극적인 의견이 반영되기는 쉽지 않을 것이라는 관측도 나온다.한편 금융위는 이날 간담회와는 별개로 핀테크 육성지원을 위한 간담회를 계획 중에 있다. 이 간담회는 중소·스타트업 핀테크 기업들 주축이 되는 자리로 당초 25일 예정돼 있었지만, 최근 코로나19 상황의 영향을 받아 다음달 중순 이후로 미뤄진 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>10만원도 헤지펀드처럼 굴려줘…로보어드바이저 3社 자산 1.7兆</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004632435?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>'넥스트 토스' 뛴다…핀테크 혁명 시즌2(3) AI 투자서비스 업체…관리자산 2년 만에 600%↑파운트, 짐 로저스도 투자자로펀드·ETF·연금 등 알아서 운용핀트, 김택진 대표가 대주주KB증권과 연금저축 서비스도에임, 글로벌 ETF로 자산배분인공지능(AI)을 기반으로 모바일 자산관리 서비스를 제공하는 로보어드바이저 앱을 이용하는 투자자가 늘고 있다. 사진은 서울 중구 서울스퀘어에 있는 파운트의 사무실. /김영우 기자로보어드바이저 앱 핀트의 도움을 받아 글로벌 상장지수펀드(ETF)에 90만원을 투자한 20대 A씨. 지난 1년간 18.6%의 수익률을 올렸다. 핀트는 인공지능(AI)으로 개인의 투자 성향을 분석해 맞춤형 투자 전략을 제공한다. 코로나19 이후 초저금리 상황이 지속되면서 로보어드바이저 핀테크 업체들의 성장세가 가파르다. 선두주자인 파운트와 핀트의 관리자산은 지난 9월 말 기준 9835억원을 기록했다. 두 회사의 앱에서 앱에서 계좌를 열고 자산을 운용 중인 이용자는 15만7000명이며 MZ세대(밀레니얼+Z세대)가 주축이다.로보어드바이저 서비스는 크게 투자자문형과 일임형으로 구분된다. 자문형은 종목이나 매수·매도 타이밍 등을 추천만 하고, 일임형은 말 그대로 AI가 알아서 돈을 굴려주는 방식이다. 핀트는 일임형 업체다. 지난해까지 자문형 서비스만 제공하던 파운트는 올해 일임형도 선보였다.이용자는 먼저 안전 추구형인지 위험을 감수하는 편인지 등 투자 성향을 진단받는다. 각자의 성향과 투자 금액 등에 맞춰 AI가 맞춤형 솔루션을 제공하는 구조다. 투자금액이 10만~300만원일 정도로 진입장벽이 낮다. 소액으로도 은행·증권사의 프라이빗뱅킹(PB)에 버금가는 서비스를 받을 수 있어 MZ세대에서 입소문을 탔다.관리자산 8924억원인 파운트는 보스턴컨설팅그룹 컨설턴트 출신인 김영빈 대표가 2015년 설립했다. 투자 거물인 짐 로저스가 엔젤투자자로 참여했다. 최소 10만원부터 펀드와 국내외 ETF, 연금 등 다양한 상품의 일임·자문 서비스를 받을 수 있다.2024~2026년께 기업공개(IPO)를 목표로 하고 있는 파운트의 기업가치는 약 2400억원으로 평가받는다. 김 대표는 “몸값을 1조원(유니콘 기업)으로 끌어올린 뒤 상장할 것”이라며 “투자 상품군에 대체불가능토큰(NFT)을 포함시킬 것”이라고 밝혔다. 파운트는 최근 직접 메타버스와 구독경제 관련 ETF를 만들어 뉴욕증시에 상장시킨 것으로도 화제를 모았다. 그는 “앞으로도 장기간 우상향할 수 있는 ETF 상품을 내놓을 예정”이라며 “최근 2년간 마이너스 수익률을 본 고객은 1%에도 미치지 않을 정도로 최소 수익률 보장 측면에서 강점이 있다”고 덧붙였다. 파운트는 우리은행과 삼성생명 등 20개 금융회사에도 AI 솔루션을 제공하고 있다. “퇴직연금 시장 열리면 ‘퀀텀점프’”안정적이고 대중적인 투자일임 서비스를 표방하고 있는 핀트는 ETF 상품을 전문으로 취급한다. 작년 말 32만 명이던 앱 가입자가 이달 59만 명으로 급증했다. 전체 이용자의 78%가 2030세대다. 이용자들의 초기 평균 투자일임금은 83만원이지만 추가로 돈을 더 넣은 금액 평균이 276만원에 달할 정도로 만족도가 높다는 평가다.김택진 엔씨소프트 대표 부부가 핀트 운영사인 디셈버앤컴퍼니자산운용의 대주주이며, 정인영 대표와 송인성 최고기술책임자(CTO) 등 주요 경영진도 엔씨소프트 출신이다. 핀트는 지난해 10월 엔씨소프트와 KB증권으로부터 각각 300억원의 투자를 유치했다. 최근 KB증권과 제휴해 연금저축 서비스를 내놓은 데 이어 내년 초 맞춤형 경제뉴스를 전달해 주는 큐레이션 서비스도 출시할 예정이다.전문가들은 300조원 규모의 퇴직연금 시장이 로보어드바이저에 열리는지 여부가 업계의 ‘퀀텀점프’를 이끌 변수로 보고 있다. 고용노동부는 최근 투자일임사가 퇴직연금을 취급할 수 없도록 하는 유권해석을 내렸다. 그러나 국회에는 퇴직연금으로 랩어카운트 등 투자일임형 상품에 가입할 수 있도록 한 근로자퇴직급여보장법 개정안(윤창현 국민의힘 의원 대표발의)이 계류 중이다. 업계 관계자는 “AI가 가장 강점을 보일 수 있는 게 중장기 투자”라며 “퇴직연금 시장이 열리면 업계가 크게 성장할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>클래스101, 국가별 니즈 반영한 글로벌 강의 인기</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004745410?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>온라인 강의 플랫폼 클래스101, 미국과 일본 공략12월 11일 테크 컨퍼런스...삼성전자, 몰로코 연사  [파이낸셜뉴스] 온라인 강의 플랫폼 클래스101이 국가별 고객 니즈(수요)를 반영한 수업으로 글로벌 성과를 보이고 있다. 기존 온라인 클래스 카테고리 한계를 넘어 취미, 커리어, 머니 등 다채로운 분야에서 약 2600개가 넘는 강의를 선보인 클래스101은 수업 준비물까지 챙겨주는 서비스로 인기를 모으고 있다.    클래스101 로고. 클래스101은 현재 누적 크리에이터 11만명, 누적 크리에이터 정산액 600억원을 돌파했다고 25일 밝혔다. 누적회원수는 340만명이다.   2018년 3월 서비스를 시작한 클래스101은 미국과 일본 시장에도 공을 들이고 있다. 미국은 2019년 7월 ‘클래스101 US’를 출시한 이후 120개국에 240여 개 클래스를 제공하고 있으며, 230여 명의 다국적 크리에이터들이 활동하고 있다. 지난해 3월 오픈한 ‘클래스101 일본’은 230여 개 클래스와 약 500여 명 누적 크리에이터를 보유하며 빠르게 사세를 확장하고 있다.   클래스101은 “이미 시장을 선점하고 있는 대규모 기업들과 정면 승부해야 하는 상황인 만큼 대대적 마케팅이나 홍보 활동보다는 현지 소비자가 어떤 강의를 원하는지에 대한 고객 분석을 통해 클래스 방향성을 정하고 있다”고 설명했다.   일례로 새로운 IT 기기와 엔터테인먼트 등에 관심이 많은 미국 소비자를 위해 시작한 ‘디지털 드로잉 클래스’와 ‘원밀리언 댄스 클래스’는 미국 전체 매출에서 각각 1, 2위를 차지할 정도로 인기를 얻고 있다. 일본은 아기자기한 공예품을 좋아하는 특성에 맞춰 공예, 자수 등 콘텐츠에 더 많은 공을 들이고 있다.   클래스101은 또 각 국가별 크리에이터 수강은 물론 다른 국가 수업도 수강할 수 있도록 자막지원을 하고 있다. 이와 함께 DC와 마블 등 글로벌 코믹스 회사에서 300여 권 커버 아트를 작업한 이인혁 아티스트는 물론 미국 브라이스 만화 일러스트, 일본 모모치 디지털 일러스트 등 유명 아티스트들이 클래스101과 협업하고 있는 점도 해외 소비자를 끌어들이는 요인으로 꼽힌다.  클래스101은 오는 12월 11일 온라인으로 ‘101 Path; 2021 테크 컨퍼런스’를 개최한다. 클래스101 제공 클래스101은 해외 현지 네트워크를 통해 글로벌 시장 공략에 더욱 속도를 낼 계획이다. 앞서 지난 10월 미국 시애틀에서 열린 ‘2021 창발 테크 서밋’에 참가한 것도 같은 맥락이다. ‘창발 테크 서밋’은 아마존, 마이크로소프트(MS), 구글, 페이스북 등에서 일하는 전문가들이 모여 2014년 발족한 북미 지역 대표 한인 IT 비영리단체 '창의와 발명(창발)'이 여는 행사다. 또 클래스101은 오는 12월 11일 온라인으로 소프트웨어(SW)와 데이터 분야 엔지니어들이 참여하는 ‘101 Path; 2021 테크 컨퍼런스’를 개최한다. 이날 컨퍼런스는 ‘기술·개발 리더에게 커리어 길을 묻다’라는 주제에 맞춰 클래스101, 삼성전자, 몰로코, 그렙, 우아한형제들, 핵클, 힐링페이퍼 등에서 일하는 엔지니어들이 강연한다.   한편 클래스101은 최근 300억원 규모 추가투자(시리즈B)를 유치했다. 이번 투자 라운드는 굿워터캐피털이 리드했다. 기존 투자사인 스트롱벤처스, KT인베스트먼트, 미래에셋캐피탈, 끌림벤처스도 참여했다. 리드 투자사인 굿워터캐피털은 페이스북과 스포티파이 등 글로벌 기업은 물론 카카오, 쿠팡, 토스, 당근마켓 등 국내 기업 투자에 성공한 글로벌 투자사이다. #클래스101 #열정이코노미 #창발테크서밋</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>‘알라미’ 딜라이트룸 "인앱 광고 체계화, 파트너십으로 달성 가능"</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003395178?sid=105</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>스마트폰이 이용이 일반화되면서 잘 만든 앱 하나로 시장의 리더가 될 수 있는 시대가 열렸다. 메신저 하나로 시작해 종합 플랫폼 회사로 발전한 카카오, 간편 송금 앱으로 시작해 종합 금융 서비스로 확장된 ‘토스’등이 대표적인 사례다.다만, 이러한 진화를 위해서는 웹이나 앱 서비스 자체를 잘 만드는 것 외에 개발사의 안정적인 수익 모델을 마련하는 것도 중요하다. 그래서 앱 유료화나 인앱 결제, 인앱 광고 등 다양한 수익 모델이 등장했으며, 이 중에서도 최근 대세로 자리잡게 된 것이 인앱 광고 시스템이다.다만 무조건 이용자들에게 천편일률적인 광고를 시청하게 하는 것 만으로는 안정적인 수익 창출 및 효과적인 홍보를 기대할 수 없다. 사업자의 수익성 개선과 더불어 해당 서비스의 장점을 극대화할 수 있는 모바일 광고 전문 플랫폼의 도입도 늘어나고 있다.딜라이트룸의 션 리(Sean Lee) 비즈니스 개발 리드 (출처=팽글)모닝콜 앱 ‘알라미(Alarmy)’를 통해 시장의 강자가 된 ‘딜라이트룸(Delight Room)’도 대표적인 사례다. 딜라이트룸은 완성도 높은 앱을 통해 97개국 앱스토어 카테고리에서 1위를 기록했을 뿐 아니라, 모바일 광고 전문 플랫폼 팽글(Pangle)과의 파트너십을 통해 안정적인 수익 모델을 확보했다고 전했다. 취재진은 딜라이트룸의 비즈니스 개발 리드 션 리(Sean Lee)와의 인터뷰를 통해 이를 살펴봤다.- 회사에 대한 간단한 소개를 부탁한다: 우리는 앱 퍼블리셔로, 모닝콜 앱 ‘알라미’가 대표작이다. 한국, 미국, 일본, 러시아 인도 등 다양한 국가에 진출해 전 세계 5,000만 명 이상의 사용자를 확보했다. 직접 만든 벨소리로 아침을 깨우는 등 다양하고 효과적인 벨소리를 지원하며, 이용자를 침대 밖으로 이끄는 효과적인 알람을 지향한다. 그리고 날씨와 운세, 뉴스 등 하루 시작에 필요한 아침 정보를 눈뜨자 마자 체크할 수 있도록 지원하는 등 ‘매일 전 세계 사람들의 성공적인 아침을 여는’ 앱 제공을 모토로 삼았다.이용자를 효과적으로 깨우기 위한 ‘알라미’의 부가 기능 (출처=딜라이트룸)- 안정적인 수익을 확보하기 위해 어떤 전략을 도입했는가?: 물론 가장 중요한 건 앱의 품질을 높이는 것이지만 이용자들이 납득할 수 있는 수익 모델을 적용하는 것 역시 중요하다. 이용자들은 앱 구독료를 내고 점 더 다양한 부가기능을 이용할 수도 있고, 인앱 광고가 달린 무료 버전의 이용도 가능하다. 이는 이용자의 선택이다. 아무래도 무료 이용자가 더 많기 때문에 체계적인 인앱 광고 전략을 고심했다. 팽글의 솔루션을 도입한 것도 그 일환이다.- 인앱 광고 전략 체계화를 추진하면서 겪은 고민은?: 최근 모바일 앱 산업에서 중요한 변화가 있었는데 이는 iOS 14/14.5의 출시와 더불어 데이터 수집 및 IDFA(Identity for Advertisers, 광고주 식별자) 정책의 변화다. 효과적인 맞춤형 광고를 위해서는 이용자의 특성을 분석하기 위한 데이터 수집이 필수지만 iOS 14/14.5 부터는 이를 위해 사용자의 동의 절차를 거치는 옵트인(Opt-in)이 필수가 되었다.이 때문에 eCPM(유효비용)의 악화가 예상되었는데, 우리는 정공법으로 나섰다. 프롬프트를 이용해 이용자에게 옵트인을 요청하는 이유를 정직하게 설명했고, 또한 데이터가 광고 목적으로 사용된다는 사실, 그리고 이를 통해 얻는 수익이 앱 실행에 도움이 된다는 사실도 알리기로 했다.이렇게 이용자의 동의를 얻기 위해 노력한 덕분인지 초기 옵트인 비율은 약 30%였으나 이후 52%로 증가했다. 그리고 이용자들이 이런 프롬프트로 제공되는 정보에 얼마나 세심한 주의를 기울이는지도 알 수 있었다. 향후 1~2년 사이에 안드로이드 시장에서도 이런 변화가 발생할 수 있으니 우리는 큰 교훈을 얻은 셈이다.- 인앱 광고 전략과 관련, 팽글을 어떻게 활용하고 있나?: 팽글은 다양한 광고형식에 대응할 수 있는 전문 지식 및 기능을 제공한다. 이를테면 현재 딜라이트룸은 일반적인 배너 광고 형식 및 앱 콘텐츠에 자연스럽게 광고를 녹이는 네이티브 광고 형식을 이용한다. 특히 배너 광고가 안정적인 ePCM과 유효 노출율에 유효한점, 그리고 네이티브 광고는 개선된 사용자 경험(이하 UX)을 제공한다는 점에 주목했다.(왼쪽부터)보상 동영상, 인터스티셜 동영상, 네이티브, 배너 광고 형태의 예시 (출처=팽글)그래서 우리는 상황에 따라 최적의 형식과 디자인을 갖춘 인앱 광고를 적용하고 있다. 이를테면 네이티브 광고가 UX면에서 유리하지만 이를 제공하는 수요 파트너가 많지 않다. 그래서 이런 경우에는 더 큰 이미지의 배너 광고로 교체해 노출율을 높였다.하지만 최적의 UX가 중요한 영역도 있다. 앱의 홈 화면 같은 경우가 대표적이다. 이 때는 광고 수익보다 UX가 중요하므로 네이티브 광고를 적용해 수익을 완전히 표기하지 않으면서도 이용자들의 편익을 동시에 추구할 수 있다. 팽글을 통해 이러한 전략을 손쉽게 구현할 수 있었다. 통합 후에도 수익화 성과 개선 방법에 대한 지침과 제안을 제공하는 점 역시 도움이 된다.- 전통적인 워터폴 방식과 인앱 입찰 방식, 어느 쪽이 더 나은가?: 딜라이트룸은 워터폴과 인앱 입찰을 결합한 하이브리드 방식의 광고 게재 위치 모델을 이용한다. 워터폴 전략이 3단계의 광고 게재 위치를 포함한다는 점에 주목하고 있는데, 이는 수요 파트너에 여러 목표 eCPM 지점을 제공하기 위함이다.팽글 인앱 입찰의 성과도 인상적인데, 우리 최고 입찰자 중 승률과 노출수가 가장 높다. 클릭률도 높은데, 이는 각 이용자에 적합한 맞춤형 광고가 적시에 노출되고 있음을 의미한다. 효율성 면에서 좋은 평가를 하고싶다. 우리는 현재 모바일 광고 분야에서 약 18개사의 수요 파트너와 협력하고 있다. 그 중에 팽글이 차지하는 비중이 10%에 도달할 것으로 예상한다. 인상적인 성과다.- 수익 모델에 고민하는 앱 개발사에게 전하고자 하는 메시지가 있다면?: 앱이나 웹 서비스를 잘 만들어 놓고도 수익을 내지 못하는 분들을 종종 본다. 기술력이나 아이디어는 있지만 경영이나 운영 관련 경험이나 노하우가 없기 때문이다. 이러한 점은 솔루션을 적용하거나 적절한 파트너십을 통해 극복이 가능하다. 이러한 노력은 단순히 돈을 잘 버는 것을 넘어 고객들에게 더 좋은 서비스를 제공할 수 있는 원천이 된다는 점을 강조하고 싶다.동아닷컴 IT전문 김영우 기자 pengo@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>VCNC, `타다 넥스트` 2기 드라이버 모집</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002706771?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>'타다' 운영사 브이씨엔씨(VCNC)가 대형택시 서비스 '타다 넥스트'의 2기 드라이버 모집을 진행한다. &lt;브이씨엔씨 제공&gt;    '타다' 운영사 브이씨엔씨(VCNC)가 대형택시 서비스 '타다 넥스트'의 2기 드라이버 모집을 진행한다고 18일 밝혔다.타다 넥스트는 택시 면허를 보유한 드라이버의 7인승 이상 차량을 기반으로 운영되는 호출 중개 서비스다. 현대자동차의 '스타리아' 등 모빌리티 서비스에 최적화된 모델을 활용한다.VCNC는 2기 드라이버에게 다양한 혜택을 제공한다. 최대 1000만원의 홍보비를 일시 지급하며 일정 운행 조건을 충족할 경우 12개월 동안 매월 50만원의 활동비를 지급한다. 또한 계약 기간 동안 플랫폼 수수료 50% 할인 혜택을 매월 제공한다.앞서 모집한 1기와 동일하게 2기 역시 현재 '타다 라이트' 혹은 '타다 플러스'를 운행 중인 드라이버가 타다 넥스트로 전환할 경우 타다 서비스 참여 기간에 따라 최대 200만원을 추가 지급한다.드라이버 신청 자격은 △서울 개인택시 면허를 보유하고 △행정처분 이력이 없으며 △5년 무사고 경력의 중형 개인 택시 사업자이거나 1년 무사고 경력의 대형 혹은 모범 개인 택시 사업자다. 해당 조건에 부합하는 누구나 신청할 수 있다. 신청을 완료한 드라이버에게는 순차적으로 개별 안내 연락을 취할 예정이다.타다 넥스트는 오는 25일 서울 지역 대상 베타 서비스를 시작한다. 이후 서비스 안정화, 토스의 결제 서비스 등과 연동을 거쳐 내년 초 정식 출시할 예정이다.이정행 타다 대표는 "이번 2기 모집은 타다 넥스트 드라이버 모집에 대한 많은 관심이 이어지고 있어 조기 진행하게 됐다"며 "이용 고객과 드라이버 모두 만족할 수 있도록 충분한 베타 서비스 운영 기간을 거쳐 선보일 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>요즘 대세는 스타트업 간 M&amp;A</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004629278?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>토스, 타다 흡수해 시너지 노려그린랩스, 스마트팜 업체 3곳 인수올 들어 유망 스타트업들이 동료 스타트업을 잇달아 인수하고 있다. 사업 확장, 인재 확보, 경쟁사 견제 등 다양한 목적에서다.금융서비스 토스를 운영하는 비바리퍼블리카가 지난달 모빌리티 스타트업 타다를 인수한 게 대표적이다. 동남아시아 지역 1위 모빌리티 기업인 그랩처럼 핀테크와 모빌리티 서비스의 시너지를 노린다는 전략이다. 타다에 토스 결제 서비스를 적용해 이용자와 거래액을 확대할 계획이다.데이터농업 스타트업 그린랩스는 올해 들어 다른 스타트업 세 곳을 인수했다. 지난달 축산 스마트팜 통합솔루션 기업 리얼팜을 사들였다. 리얼팜은 양돈, 낙농, 축우 등 축산 분야에 사물인터넷(IoT), 빅데이터 기술을 활용해 통합 스마트팜 서비스를 제공하고 있다. 비슷한 시기에 축산 유통판매 전문 스타트업 예술소도 인수했다. 예술소는 고가의 프리미엄 축산물을 전문 유통·판매하는 업체다. 그린랩스는 지난 1월 농장 설계 자동화 전문 스타트업인 브이하우스도 인수했다.자영업 경영관리 서비스 ‘캐시노트’를 운영하는 한국신용데이터는 지난 8월 사업자 대상 정부 지원 안내 서비스 ‘비즈봇’ 운영사인 페르소나를 인수했다. 비즈봇은 소상공인, 중소기업 등 사업자가 정부 지원 사업을 스마트폰에서 쉽게 확인할 수 있는 맞춤형 정보를 카카오톡으로 제공하는 서비스다. 한국신용데이터는 비즈봇 인수로 소상공인 지원을 강화했다.중고거래 플랫폼 스타트업 번개장터는 3월 중고 골프용품 플랫폼 에스브릿지와 중고 의류 유통 서비스 마켓인유를 인수했다. 최근 빠르게 성장하고 있는 골프용품과 의류 중고거래 시장에 대응하기 위해서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.11.21.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>우티·타다, 택시기사 프로모션 확대…카카오 '머니게임' 추격</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000637694?sid=105</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>우티, 운행 완료시 건당 수천원 추가 지급…타다는 '타다 넥스트' 기사 물색에 심혈택시기사들과의 상생이 부족하다는 논란으로 카카오모빌리티가 도마 위에 오른 틈을 타 우티와 타다 등 후발 주자들이 공격적인 택시기사 마케팅을 토대로 입지 확대에 나서고 있다. 택시기사 대상 프로모션 확대로 택시기사를 최대한 많이 확보해 택시호출 사업에 박차를 가하겠다는 취지다.20일 업계에 따르면 우버와 티맵모빌리티의 합작사인 우티는 지난 16일부터 23일까지 비가맹 택시를 대상으로 운행 완료 건당 4천원을 추가로 지급하는 프로모션을 진행하고 있다. 지난주까지는 운행 완료 건당 3천원(최대 50건)을 추가로 지급했는데 건당 지급액 상한을 올린 것이다. 가맹 택시에 지급하는 액수는 이보다 더욱 많다.다만 이번에는 건당 지급액에 시간·지역별로 차등을 둔 것으로 알려졌다. 최대 건당 지급액은 4천원이지만 이는 서울 지역, 피크시간대에만 적용된다. 출근 시간에 해당하는 오전 7시부터 10시, 퇴근·심야 시간대를 아우르는 오후 6시부터 다음날 오전 1시까지가 프로모션이 적용되는 시간이다.우티는 11월 한달 동안 승객은 물론 택시기사들에게도 막대한 프로모션을 쏟아붓고 있다. [사진=우티]최근 출퇴근, 심야 시간 등 택시 수요가 많은 시기에 서울 지역을 중심으로 택시가 잘 잡히지 않는 현상이 심해지면서 우티가 이 시간대를 중심으로 프로모션을 진행하는 것으로 풀이된다. 이 시간대의 택시 공급 부족은 심각한 수준으로, 택시호출 앱 중 최대 점유율을 차지하는 카카오T 앱으로 택시를 호출해도 택시가 잘 잡히지 않는 경우가 많을 정도다. 이런 가운데 우티가 피크 시간대에 프로모션을 집중하면서 카카오T를 따라잡기 위해 안간힘을 쓰고 있는 모습이다.우티는 이와 함께 11월 한 달 동안 승객들을 대상으로 가맹택시 이용시 25%, 일반택시 이용시 20% 상시 할인 혜택을 제공하는 마케팅도 진행하고 있다. 우티는 이 같은 공격적인 마케팅을 토대로 연내 가맹택시 1만대를 확보해 한국에서의 입지를 빠르게 굳히겠다는 계획이다. 여기에 내년 초 차량공유 서비스 '우티 풀(가칭)'까지 선보여 한국 모빌리티 시장의 '게임 체인저'로 자리매김한다는 목표를 세웠다.지난 10월 토스를 운영하는 비바리퍼블리카에 인수된 VCNC(타다) 역시 자사의 택시 호출 서비스인 '타다'에 공을 들이는 모습이다. 특히 오는 25일 베타 서비스를 시작하는 대형택시 서비스 '타다 넥스트'에 프로모션을 집중하고 있다. 정식 서비스는 내년 초다.지난 10월 '타다 넥스트' 1기 기사를 모집한 타다는 1기 드라이버를 대상으로 타다 서비스 홍보비 1천500만원 등 총 4천100만원을 지급했다. 지난 18일부터는 2기 드라이버를 모집 중이다. 이들에게는 최대 1천만원의 홍보비가 일시 지급되며 일정 운행 조건 충족 시 12개월 동안 매월 50만원의 활동비를 지급한다. 여기에 플랫폼 수수료 절반 할인 혜택도 제공한다. 1기보다는 혜택이 다소 줄었으나 여전히 막대한 지원금을 투입했다.타다 넥스트가 드라이버 2기를 모집한다. [사진=타다]최근 대형택시 기사를 구하는 것은 '하늘의 별 따기'로 평가된다. 가뜩이나 택시기사 수 자체가 부족한 데다가, 대형택시를 몰기 위해 필요한 대형택시 면허를 따기 위해서는 5년 이상 일반 택시를 무사고로 운전해야 한다는 조건을 충족해야 하기 때문이다. 이에 한정된 풀 내에서 기사를 확보해야 하는데 대형택시 서비스는 이미 카카오모빌리티의 '카카오T벤티'가 선점하고 있다. 새롭게 대형택시 운전에 뛰어드는 기사들은 물론 카카오T벤티를 몰던 기사들을 적극적으로 끌어오기 위한 조치로 풀이된다.이처럼 우티와 타다가 그야말로 돈을 쏟아부으며 점유율 확대에 골몰하는 사이 택시호출 시장 점유율 80% 이상을 차지하는 선두 주자인 카카오모빌리티는 상대적으로 조용한 모습이다.카카오모빌리티는 지난 9월 기준으로 가맹택시 '카카오T블루' 숫자가 3만대를 넘어섰다고 발표하며 여전한 성장세를 나타내고 있다는 입장이다. 다만 택시 수요 부족 속 우티가 빠르게 치고 올라오고 있는 데다가 타다도 기존 '타다 베이직' 시절 강점이었던 대형 차량 기반 서비스 출시를 앞두고 있어 시장 상황에 촉각을 곤두세우고 있다.물론 우티와 타다가 카카오T를 단기간에 따라잡지는 못할 것이라는 전망은 여전하다. 아직 가맹택시 숫자 차이가 큰 데다가 우티와 타다가 역점으로 삼은 신규 서비스 모두 본격적인 서비스는 내년 이후에나 시작될 예정이기 때문에 당분간은 카카오모빌리티의 독과점 시장이 이어질 전망이다. 더욱이 카카오모빌리티 역시 물밑으로 카카오T블루, 카카오T벤티 기사를 모집하기 위한 작업을 지속하고 있다.그러나 우티와 타다가 당초 목표대로 올해 안으로 자신들의 서비스를 안착시키는 데 성공할 경우 향후 택시호출 시장에 변수가 일어날 가능성이 크다는 전망이 나온다. 업계 한 관계자는 "후발 주자들이 실탄을 마련해 공격적인 마케팅에 불을 댕긴 데다가 '위드 코로나' 이후 택시 수요 불균형이 심해지면서 카카오T가 꽉 잡고 있던 시장에 역동성이 어느 정도 생긴 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>이번 연말정산은 ‘카톡 지갑’으로 인증받아 볼까</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002568873?sid=105</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2800만명 쓰는 ‘카카오인증서’, 전자서명인증사업자로 인정카카오인증서 화면. 카카오 제공카카오가 네이버, 토스 등에 이어 정부로부터 전자서명인증사업자로 인정받았다. 카카오톡 애플리케이션에 연동된 카카오인증서는 2800만명의 이용자가 보유하고 있다.카카오는 과학기술정보통신부와 한국인터넷진흥원으로부터 전자서명인증사업자로 최종 인정받았다고 23일 밝혔다. 전자서명인증 평가·인정제도는 지난해 12월 국가 지정 공인인증서 폐지 이후 정부가 사설인증서들의 안정성과 신뢰도를 심사하는 제도다. 카카오는 가입자 보호를 위한 기술적 보안조처와 개인정보 보호방안 등 70개 심사 항목을 통과해 인증을 받았다. 앞서 네이버, 토스, 한국정보인증, 케이비(KB)국민은행 등이 전자서명인증사업자로 인정된 바 있다.카카오인증서는 카카오톡 앱의 ‘지갑’ 탭을 통해 이용할 수 있다. 별도 회원 가입이나 앱 설치 없이 간편하게 발급받을 수 있다는 점을 앞세워 2800만명의 이용자를 확보했다. 국세청 홈택스 앱과 국민권익위원회의 국민신문고, 질병관리청의 코로나19 백신 사전예약 시스템 등 여러 공공서비스에서 본인인증 수단으로 쓰인다.카카오는 마이데이터 통합인증 등으로 카카오인증서 활용 범위를 넓힐 계획이다. 마이데이터 통합인증이란 여러 기관에 흩어진 개인의 신용·금융 정보를 하나의 사업자가 제공받아 맞춤형 금융서비스 등을 제공하는 사업이다. 양주일 카카오 지갑사업실장은 보도자료에서 “지난해 공공분야 전자서명 시범사업자로 선정된 데 이어 전자서명인증사업자 인정으로 카카오인증서의 높은 보안수준과 기술력, 확장성을 확인받았다”며 “인증이 필요한 곳에서 쉽고 빠르게 편의를 제공하는 서비스를 만들겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>위메프, 5일간 '위메프데이'…초특가 아이템 공개</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002552748?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>ⓒ위메프[데일리안 = 이나영 기자] 위메프는 내달 1~5일 ‘위메프데이’에서 매일 새로운 행사 콘셉트를 공개하고 연관 아이템을 특가에 선보인다고 30일 밝혔다.행사 첫날 1만원 이하로 구매할 수 있는 상품만 모은 ‘만원의행복’을 시작으로 ▲2일 패션·뷰티 ▲3일 베이비 ▲4일 푸드·리빙 ▲5일 디지털·가전·E쿠폰 순으로 카테고리별 TOP10상품을 선보인다.요일별로 정해진 콘셉트 상품은 1만원 이상 결제 시 카드·간편결제(국민·우리·농협·하나·롯데·비씨·현대·전북·카카오페이·토스)10% 할인 쿠폰을 제공한다.만원의 행복 주요 상품은 ▲흑토농원 제주 조생귤 5kg ▲핫팩부심 핫팩 손난로형(70g)*50개 ▲락피쉬·케이스위스 키즈 패딩 슬리퍼 ▲오에이데스크 원형의자 ▲캐니언파크 평택점 입장권(1인)등이다.행사기간 매일 ‘타임세일’도 진행한다. 1일 0시부터 하루 6번(0시, 9시, 12시, 15시, 18시, 21시) 시간대별10개씩, 행사 기간 총 300개 상품을 초특가에 선보인다.대표 상품은 ▲닌텐도스위치 마리오카트8 디럭스세트 ▲휘닉스평창 동계시즌 객실 패키지 ▲눈오리집게 오리 스노우볼 메이커 ▲민화샵 2022달력 DIY 만들기 등 연말연시 맞춤 상품이다.또한 평소 위메프 유저들이 선호하는 인기 브랜드를 모은 ‘브랜드관’도 있다. LG생활건강, 삼성전자, 닌텐도 등 40개 브랜드가 참여하며,특히 LG생활건강 브랜드관 상품은 최대 45%까지 할인 판매한다.이 밖에도 VIP클럽 회원만을 위한 혜택도 준비했다. 행사 기간 오전 10시부터 10% 할인 쿠폰을 1000매 한정 수량 선착순 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>"테크핀에 뺏긴 10대 잡아라"…보폭 넓히는 은행권</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010852695?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>기사내용 요약은행권, Z세대 공략 본격화미래엔 Z세대가 핵심 고객10대 전용 금융서비스 확장[서울=뉴시스] 최선윤 기자 = 은행들이 새로운 플랫폼을 출시해 10대 사용자 확보에 나섰다. 향후 시장의 새로운 게임체인저가 될 10대들이 다른 테크핀 플랫폼으로 빠져나가는 것을 막기 위한 적극적인 대응으로 은행권의 Z세대(1995년 이후~2000년대 초반 출생) 공략이 본격화 될 것으로 전망된다. 25일 은행권에 따르면 KB국민은행은 최근 Z세대를 위한 금융플랫폼 '리브넥스트'를 선보였다. 리브넥스트는 미래 잠재 성장고객인 Z세대를 타깃으로 한 플랫폼으로 특히 독립적인 금융 활동이 어려운 10대 고객의 '금융 독립'에 초점을 맞췄다. 10대 고객이 독립적으로 금융생활을 시작할 수 있는 공간을 마련한 것은 물론, 금융 경험을 확장해나갈 수 있도록 돕는 Z세대 취향의 콘텐츠도 추가했다.하나은행도 부모와 자녀가 함께 금융활동을 할 수 있는 금융플랫폼 '아이부자 앱'을 운영하고 있다. Z세대인 자녀와 X세대 부모가 함께 각자의 휴대폰에 앱을 설치하고 모바일을 통해 주고 받는 용돈을 기반으로 금융활동을 체험할 수 있는 플랫폼이다. 만 14세 미만 어린이도 부모의 휴대전화 동의 절차를 통한 인증을 거치면 가입할 수 있다. 아이부자 앱을 2개월 사용하면 부자가능성 지수 리포트를 받아볼 수도 있다.은행권이 10대 전용 앱을 선보이고 다양한 금융경험을 제공하는 것은 이들이 향후 자사 서비스를 계속 이용하는 충성 고객이 되주기를 바라는 마음이 녹아있다. 와이즈앱이 지난해 11월 스마트폰 사용자의 세대별 금융 앱 사용 현황을 조사한 결과 10대는 토스가 가장 이용자가 많았다. 또 10대 대상 금융서비스를 가장 먼저 선보인 카카오뱅크 미니는 지난달 2일 기준 가입자 100만명을 이미 넘어섰다. 젊은 세대일수록 이미 테크핀의 금융플랫폼을 주로 사용하고 있다는 것을 보여준 통계다.은행권은 Z세대의 소비력에도 주목하고 있다. 이들은 기본적인 경제력은 다소 부족하지만 자신의 취향을 자극하는 서비스를 얻기 위해서는 과감히 지갑을 여는 등 다른 세대를 상회하는 높은 구매력을 보인다. 온라인 광고 대행사 플레이디의 마켓리서치팀 보고서에 따르면 2035년에는 Z세대가 X세대(1970~1980년생)의 구매력을 뛰어넘을 전망이다. 이에 은행들도 Z세대를 핵심고객으로 분류하고 메타버스 등 새로운 트렌드를 접목해 10대 전용서비스를 확대해나가는 등 이들을 공략하기 위한 강력한 공세에 나서겠다는 의지를 드러내고 있다.은행권 관계자는 "앞으로 인공지능(AI), 메타버스 등 새로운 트렌드를 접목해 10대 전용 금융 서비스를 확장해 나가겠다"며 "미래 금융의 주역인 Z세대 고객 의견에 귀를 기울여 더욱 새로운 금융 경험을 제공하겠다"고 강조했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>서울상품권 플랫폼 만든다…5대은행·카카오 등 10여곳 수주 전쟁</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004629627?sid=102</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>서울시 新모바일플랫폼 구축…금융·행정·복지 결합금융그룹· 빅테크 ·공공기관까지 가세…합종연횡 예상이달 우선협상대상자 선정, 내년 초 시스템 운영내년 초 서울 지역화폐인 서울사랑상품권을 판매하는 새로운 플랫폼이 탄생한다. 1000만 서울시민이 잠재고객인 이 플랫폼의 수주전에 5대 은행을 비롯해 네이버, 카카오, 토스, KT 등 내로라하는 기업 10여 곳이 뛰어들었다.17일 서울시에 따르면 시는 오는 19일까지 서울사랑상품권 판매대행업체를 공모한다. 지역화폐 선불결제 플랫폼을 운영하고 모바일 앱, 가맹점 등을 관리하는 위탁 사업자를 모집하는 것이다. 지금까지 서울시는 중소기업벤처부와 함께 지원해 온 간편결제시스템인 제로페이 앱을 중심으로 총 22개 모바일앱에서 서울사랑상품권을 판매해왔다. 앞으로는 지역화폐 판매 뿐 아니라 정책바우처 지급 등 각종 복지, 행정, 금융 서비스를 결합한 서울시만의 모바일 혁신 플랫폼을 만들겠다는 복안이다. 서울시 관계자는 "내년에 선보일 플랫폼을 통해 상품권 이용자들의 편의성을 크게 개선하고  중장기적으로 행정혁신 서비스를 장착하는 방안도 검토 중"이라며 "상품권 발행수수료를 20% 가량 낮춰 예산 절감 효과도 있을 것"이라고 설명했다. 이번 공모는 대형 금융사와 빅테크, 공기업 등 기업들의 수주 경쟁이 뜨거울 것으로 예상된다. 우선 5대 금융그룹이 모두 군침을 흘리고 있다. 국민·신한·하나·우리·농협은행이 각 카드 계열사와 공동으로 공모 참여를 검토하고 있다. 시중은행 관계자는 “130만명에 달하는 기존 상품권 이용자 뿐 아니라 잠재 수요가 크기 때문에 신규 고객 유치와 새로운 영역 확대를 위해 이번 공모사업은 충분히 매력이 있다"고 말했다.특히 카카오와 토스, KT, 네이버 등 핀테크 사업을 하는 기업들이 적극적인 관심을 표명하고 있는 것으로 전해졌다. 비씨카드, 티머니, 코나아이, NICE정보통신, 비즈플레이 등 카드사·전자금융업체들과 한국조폐공사 등 공기업들까지 줄잡아 10~16개 기업들이 공모 참여를 타진하고 있는 것으로 전해졌다.  물밑에선 은행과 핀테크 기업 등간 합종연횡 움직임이 일어나고 있는 것으로 알려졌다. 서울시가 결제 안전성 등을 고려해 은행을 포함한 컨소시엄을 구성할 것을 제안했기 때문이다. 이 사업에 참여를 결정한 한 기업 관계자는 "국내 최대 지역 커뮤니티 플랫폼에 진입할 수 있는 기회"라며 "사업 시너지를 낼 수 있는 파트너를 잡아 공모에 들어갈 것"이라고 했다. 지역사랑상품권은 코로나19 이후 소상공인 매출 증진과 소비 촉진을 위해 지난해 초 도입됐다. 발행액의 7~10%를 할인 판매하고 이를 정부와 지방자치단체가 예산으로 보전해준다. 서울사랑상품권은 지난해부터 올 11월까지 1조7676억원 발행됐다. 서울시는 이번주중 사업자 공모절차를 마치고 이달 중 우선협상대상자를 선정, 내년 1월에는 시스템 시범운영과 상품권 판매를 개시한다는 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>토스, 미국 비상장주식 거래 플랫폼에 60억원 투자</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005004269?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[이미지출처=연합뉴스]토스를 운영하는 비바리퍼블리카가 미국 비상장주식 투자 플랫폼 리퍼블릭에 지분 투자를 단행한다. 이는 토스의 첫 해외 투자다. 토스는 지난해부터 LG유플러스 전자결제(PG) 사업부 인수, 타다 인수, 카페24 지분 투자 등을 성공시켰다.토스 관계자는 "리퍼블릭 지분 약 1%를 500만달러(약 60억원)에 인수하는 지분 투자를 최근 마무리했다"면서 "해외 비상장주식 투자와 관련해 잠재적 사업제휴 기회를 확보하려는 차원이라는 게 투자 목적"이라고 23일 밝혔다.리퍼블릭은 유망 스타트업과 비상장 기업에 누구나 투자할 수 있도록 중개해주는 플랫폼으로 2016년 미국에서 설립됐다.플랫폼에 지금까지 모인 투자자가 100만명에 달하며 투자계약이 500건 이상 이뤄졌다. 플랫폼에서 진행된 총 투자 금액은 약 5억달러다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>음식배달앱 '옐로우박스' 음식값 20% 상시 적립</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002982916?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>키스톤핸즈가 음식 배달 서비스인 옐로우박스를 시작한다. 배달 음식 결제금액 5000원당 1000원을 쌓아주는 '포인트 적립 서비스'를 진행한다.옐로우박스는 키스톤핸즈와 한양대학교가 산학협력으로 PIF(Pay It Forward)라는 자체 비즈니스 모델과 NFSC라는 모바일 결제기술을 개발, 접목시켜 만들었다.옐로우박스 서비스는 충북혁신도시 진천에서 시작한다. 진천은 인구 3만 소도시로, 지역 통계적 분석이 용이하고 주거와 상업 공간이 골고루 분포돼 있다는 점을 고려했다는 설명이다. 검증 작업이 끝나는 내년 1월, 타 도시로 서비스 영역을 확장할 예정이다.옐로우박스는 NFSC라는 모바일 결제기술을 보유하고 있어 음식 주문 시 신용카드, 카카오페이, 토스 등으로 간편 결제를 진행할 수 있다.앞서 진천에서 진행된 옐로우박스 패밀리 쿠폰 이벤트에서는 이틀만에 230개 가맹점이 등록했다.키스톤핸즈 관계자는 “더욱 많은 가맹점이 입점할 수 있도록 선물 쿠폰, 후기 쿠폰, 훌리(훌륭한 리뷰)서비스, 옐로우 캐시 등 다양한 마케팅을 지속적으로 진행할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>중금리대출에 사활 걸었지만…인터넷은행 사실상 목표 달성 실패</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005750537?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>4분기에 카뱅 1.4조원·케뱅 5000억원 더 공급해야…토뱅은 이미 달성 실패은행도 당국도 `현실적으로 어렵다`…연말까지 고신용자대출 문닫고 총력전인터넷전문은행 3사© 뉴스1(서울=뉴스1) 송상현 기자 = 인터넷전문은행들이 금융당국과 약속한 올해 중저신용자(중금리) 대출 비중을 맞추기 위해 총력을 다하고 있지만 목표 달성에 사실상 실패한 것으로 보인다. 금융당국이 목표치 달성 실패시 신사업 제한 등의 패널티를 경고한 상황이어서 인터넷은행들의 고민이 커지고 있다.28일 금융권에 따르면 카카오뱅크와 케이뱅크가 연말까지 목표로 한 중금리대출 비중을 맞추기 위해선 4분기(9~12월)에 각각 1조4000억원, 5000억원 정도를 신규 중금리대출로 취급해야 하는 것으로 추산된다. 이는 고신용자대출을 전혀 취급하지 않는다는 것을 전제로 한 수치다. 고신용자대출을 늘리면 중금리대출 공급액도 더 늘려야 한다.지난 9월말 기준 가계 신용대출에서 중금리대출이 차지하는 비중을 보면 카카오뱅크가 13.4%, 케이뱅크가 13.7%를 각각 기록했다. 두 은행의 올해 목표치인 20.8%, 21.5%에는 크게 못미치는 수준이다. 카카오뱅크는 1~9월에 약 1조원을, 케이뱅크는 1~10월에 4650억원을 중금리대출로 각각 공급했다. 지금껏 취급한 중금리대출보다 더 많은 금액을 앞으로 취급해야 하는 실정이다. 인터넷은행들은 "최선을 다하고 있다"면서도 현실적으로 목표 달성이 어렵다는 데 공감하고 있다.지난 10월초 출범한 3호인터넷은행 토스뱅크는 중금리대출 비중 목표를 34.9%로 제시했는데, 총량관리에 묶여 신규대출을 중단하면서 중금리대출 비중이 33%를 기록한 채 올해 영업을 마감했다. 인터넷은행들은 마지막까지 중금리대출 공급에 사활을 거는 모습이다. 카카오뱅크는 지난달부터 연말까지 전·월세 대출을 제외한 고신용자 대출을 중단하는 등 신용대출의 거의 100%를 중저신용자에게 공급하는 상황이다. 케이뱅크도 최근 고신용 고객의 마이너스통장 대출 상품 신규 및 증액 신청을 연말까지 중단했다. 중·저신용 고객 대상 대출 상품 금리를 일제히 인하하고 두 달 치 이자를 돌려주는 캐시백 행사를 연말까지 연장한 상태다.올해들어 대형 은행들이 금융당국의 고강도 총량 규제 압박에 대출 한도를 줄이자 인터넷은행으로 수요가 쏠리는 풍선효과가 발생했다. 예상치 못한 수요로 신용대출 총량(분모)이 늘어나자 인터넷전문은행들은 중금리대출(분자)도 당초 목표보다 늘려야 하는 상황에 처했다. 목표 달성을 위해선 자체 신용평가모델(CSS)에 부합하지 않는 저신용자들까지 포용해야 하지만 은행 건전성 차원에서 선택할 수 없는 방안이다.  금융당국도 인터넷은행들이 제시한 목표를 달성하기 어렵다고 보고 있으며 목표 달성 실패가 바로 패널티로 이어지는 건 아니라는 입장을 나타내고 있다. 금융당국 관계자는 "중금리대출 목표를 넘어서지 못했다고 기계적으로 제재나 패널티를 주겠다는 것은 아니다"면서 "중금리대출 비중 공시를 중심으로 인터넷은행들의 자발적인 노력을 보겠다는 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.11.21.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>금융권 회장들, 새바람 부나</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010844772?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>기사내용 요약KB 계열사 다수 CEO 임기 만료 임박허인 국민은행장 등 연임할지 관심하나금융 '포스트 김정태' 함영주 부회장 유력한 후보권광석 우리은행장 연임 여부도 주목[서울=뉴시스] 추상철 기자 = 허인 KB국민은행장과 권광석 우리은행장이 지난달 28일 오전 서울 중구 명동 은행연합회에서 열린 은행업계 간담회에 참석해 대화를 나누고 있다. (공동취재사진) 2021.10.28. photo@newsis.com[서울=뉴시스] 박은비 기자 = 금융권 최고경영자(CEO) 인사 시즌이 다가오면서 다음달 말 임기가 만료되는 허인 KB국민은행장을 시작으로 내년 3월 김정태 하나금융지주 회장, 권광석 우리은행장 등 후임이 누가 될지 귀추가 주목된다. 금융회사 전반적으로 올해 실적이 좋았던 데다 코로나19 이후 변화와 빅테크 경쟁, 지배구조 문제 등으로 안정을 추구하지 않겠냐는 관측이 나온다. 특히 KB금융그룹의 경우 상당수 계열사 CEO 임기가 조만간 만료되는 데도 예년과 달리 조용한 분위기다.21일 금융권에 따르면 허인 국민은행장은 다음달 31일 임기가 만료된다. 허 행장은 지난 2017년 11월 취임해 임기 2년을 채우고 두차례 연임에 성공했다. 리딩뱅크 자리를 지키는 압도적인 실적과 함께 안정적으로 은행을 이끌어왔다는 점에서 윤종규 KB금융지주 회장의 신임을 받고 있다.국민은행은 내년에 글로벌과 플랫폼 확장에 방점을 두고 있다. 이를 위해 허 행장만 한 적임자가 없다는 이유로 연임이 점쳐진다. 다만 이미 4년간 은행을 이끌어왔다는 점에서 1년 전 신설된 지주 부회장 자리로 이동할 가능성도 있다.특히 KB금융그룹 내 계열사 CEO 상당수도 허 행장과 동시에 임기가 끝난다. 박정림·김성현 KB증권 대표, 이동철 KB국민카드 대표, 황수남 KB캐피탈 대표, 허정수 KB생명보험 대표, 신홍섭 KB저축은행 대표, 김종필 KB인베스트먼트 대표, 이현승 KB자산운용 대표가 인사 대상이다. 이들은 지난해 말 연임이 결정돼 임기 1년이 추가됐다.KB금융지주 계열사대표이사후보추천위원회(대추위)는 이들 회사 CEO 자격요건에 부합하는 내·외부 후보 풀(Pool)을 검토하고 있는 것으로 전해졌다.당장은 아니지만 내년 3월 차기 하나금융지주 회장이 누가 될지도 관심이다. 김정태 하나금융 회장은 정관상 나이 제한으로 임기를 더 이어가는 게 불가능하다.지난해 말 함영주·이은형·지성규 부회장 3인 체제가 구성되면서 박성호 하나은행장까지 포함해 '포스트 김정태' 경쟁이 본격화했다는 평가를 받았다. 이들 중에는 함 부회장이 현재 가장 유력한 후보로 거론된다.우리금융의 경우 권광석 우리은행장 임기가 내년 3월 만료된다. 완전 민영화와 맞물려 지배구조에 어떤 변화가 생길지가 이번 인사의 핵심이다. 권 행장은 이례적으로 짧은 임기 1년으로 시작했지만 조직 안정을 꾀하고, 디지털 환경에 신속하게 대응한 점 등을 인정받아 임기 1년이 추가된 상태다. 최수연 네이버 신임 대표를 비롯해 최근 1980년대생 CEO를 파격 발탁하는 재계 분위기 속에 금융권은 여전히 안정 추구형 인사를 고수하는 분위기다. 올해 출범한 토스 계열사 박재민 토스증권 대표, 홍민택 토스뱅크 대표가 각 1981년생, 1982년생이고, 하나금융지주 부회장을 겸임하고 있는 이은형 하나금융투자 대표가 1974년생으로 젊은 축에 속한다.다만 단순히 연령대가 낮은 게 문제가 아니라 금융을 이해하고 산업 전반을 내다볼 수 있는 안목이 중요하지 않겠냐는 목소리가 나온다. 금융권 관계자는 "기술 기반으로 시작한 신생 회사와 달리 금융 특수성을 고려하면 CEO 나이가 확 낮아지기는 어려울 것으로 보인다"며 "변화무쌍한 시기에 업권 전반을 살피고 장기적인 안목으로 이끌 리더십이 요구된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>마이데이터사업 시범서비스 18곳 중 16곳이 대형사</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003113407?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[경향신문] 은행, 카드사, 보험사 등에 흩어진 정보를 소비자가 한 눈에 확인하고 자산과 신용을 통합 관리할 수 있도록 하는 마이데이터사업(본인신용정보관리업)이 1일 시범서비스를 시작한다. 선점효과를 기대할 수 있는 첫 서비스 제공 업체 대부분은 기존의 대형금융사이다. 플랫폼 경쟁력을 앞세운 핀테크 업체가 금융부문의 ‘혁신’을 이끌 것이라는 당초 기대가 실현될지는 좀 더 지켜봐야 한다는 분석이 나온다. 금융당국은 마이데이터사업자가 온라인에서 보험상품을 비교·추천할 수 있는 서비스와 관련된 규정을 아직까지 마련하지 못해 뒤늦게 우회방법을 검토하고 있다.금융위원회는 금융사 18곳이 12월1일부터 마이데이터사업 시범서비스를 운영할 예정이라고 30일 밝혔다. 국민·신한·우리·하나·농협·기업 등 은행 6곳, 미래에셋·키움·하나금융투자·NH투자증권 등 증권사 3곳, 신한·국민·현대·하나·BC 카드사 5곳, 농협중앙회, 뱅크샐러드·핀크 등 핀테크사 2곳 등이다.네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 19개사는 12월 중 순차적으로 시범사업에 참여할 예정이다. 교보생명, 한국투자증권 등 16곳은 내년 상반기 중 서비스 시작을 목표로 준비하고 있다.당초 금융위는 마이데이터사업을 올해 8월4일부터 시행할 예정이었지만 핀테크 등 일부업체가 사업에 필요한 애플리케이션 프로그래밍 인터페이스(API) 구축에 시간이 더 필요하다고 요구해 전면시행 시기를 내년 1월1일로 미뤘다. 그럼에도 5대 시중은행, 대형 증권사 및 전업카드사 등을 제외한 다수 업체가 시범기간에 맞춰 서비스를 준비하지 못했다. 새로운 서비스인만큼 선점효과는 대부분 대형 금융사들이 누릴 가능성이 있다. 금융업계 관계자는 “정보기술(IT) 개발 인력 수급이나 시스템 개발 시간을 맞추지 못한 경우가 있다”면서 “정보제공자이자 마이데이터사업자인 금융사들이 시범서비스 기간부터 자사 고객을 우선 붙잡고 경쟁사 고객도 끌어오려고 할 것”이라고 말했다.금융위는 마이데이터 사업자가 소비자에게 맞춤형 보험상품을 추천할 수 있도록 보험업법 시행령에 온라인플랫폼 보험대리점 규정을 신설할 예정이다. 현행 법령은 보험대리점 등록요건으로 임직원의 10% 이상이 보험설계사 자격을 갖고 있어야 한다는 조건 등을 규정하고 있다. 온라인플랫폼이 보험대리점업을 하는 것은 현실적으로 어려워 광고 형태의 제한적 서비스만 가능하다. 금융당국은 카카오페이가 보험 중개업이나 대리점 인가를 받지 않고 보험상품 비교·추천 서비스를 하는 것은 금융소비자 보호에 관한 법률(금융소비자보호법) 위반이라는 유권해석을 한 바 있다. 이 때문에 카카오페이의 기업공개(IPO) 일정이 연기되기도 했다. 금융위는 지난 3월에 온라인플랫폼 사업자가 보험 모집행위를 할 수 있도록 올 상반기까지 관련 규정을 개선하겠다고 밝혔지만 지금까지 법령이 바뀌지 않았다.금융위 관계자는 “온라인플랫폼 보험대리점 규정 신설 전까지는 금융규제 샌드박스를 통해 마이데이터사업자의 보험상품 서비스를 허용할지 검토하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>인터넷은행, 중금리대출 비중 목표 달성 어려울 듯…중·저신용자 돈 빌리기 더 힘들어진다</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003113140?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[경향신문] 인터넷은행들이 중금리대출을 늘리는데 사활을 걸고 있지만 금융당국에 약속한 대출 비중 목표치 달성은 사실상 불가능할 것으로 예측된다. 29일 각 인터넷은행 집계를 종합하면 지난달 말까지 카카오뱅크(카뱅)는 연간 누적 1조1727억원, 케이뱅크는 4650억원의 중금리대출을 공급했다. 3분기 말 기준 가계 신용대출에서 차지하는 비중은 카뱅이 13.4%, 케이뱅크는 13.7%를 기록했다. 두 은행의 목표치인 20.8%, 21.5%에 크게 못 미치는 수치로 연말까지 목표달성이 어려운 수준이다. 목표를 달성하려면 4분기에만 카뱅과 케이뱅크 각각 1조4000억원, 5000억원 규모의 신규 중금리대출을 취급해야 한다. 올해 들어 3분기까지 취급한 대출 공급량보다 많은 수치다. 이마저도 고신용자 대상 대출은 취급하지 않는다는 전제 아래 가능하다. 이에 따라 카뱅은 지난달부터 연말까지 전·월세 대출을 제외한 고신용자 대출을 중단했다. 케이뱅크도 고신용 고객의 마이너스통장 대출 상품 신규 취급 및 증액 신청을 연말까지 중단하기로 했다. 올해 출범한 토스뱅크는 당국에 제시한 목표치 34.9% 달성에 이미 실패했다. 대출영업 개시 9일 만인 지난달 14일 당국의 가계대출 총량관리에 묶이면서 신규 대출 취급이 중단됐기 때문이다. 중단 시점 토스뱅크의 중금리대출 비중은 33%였다.주요 시중은행들이 가계대출 관리를 위해 대출을 중단하거나 한도를 줄이면서 인터넷은행으로 대출 수요가 쏠린 ‘풍선효과’ 영향으로 풀이된다. 인터넷은행의 신규 가계대출 취급량 자체가 늘면서 비율을 맞추기 위해서는 중금리대출 규모 역시 대폭 늘려야 하기 때문이다. 업계 관계자는 “주요 시중은행 대출이 막힌 고신용자들이 인터넷은행으로 몰린 데다, 중저신용자 대비 많은 대출금을 받아가면서 한도도 빨리 줄어들었다”면서 “얼마 남지 않은 한도 내에서 중금리대출 비중을 맞춰야 하는데 자체 신용평가모델(CSS)에 부합하지 않는 저신용자들까지 받게 되면 리스크가 급증해 어려움이 많다”고 말했다.제2금융권에서는 대출을 중단하거나 금리를 올리는 추세가 뚜렷해 중·저신용자들의 돈 빌리기는 더 어려워질 전망이다. 당국에 제시한 가계대출 총량을 초과한 것으로 알려진 새마을금고는 이날부터 전 금고에서 주택구입 자금대출과 분양주택 잔금대출 등 가계대출 상품 4종의 판매를 중단했다. 기준금리 인상으로 카드업계 자금조달 비용이 증가해 카드론 대출 금리가 올라가는 것도 중·저신용자 차주들에게는 부담이다. 여신금융협회에 따르면 지난달 7개 전업카드사와 NH농협은행 등 8개 카드업체 중 6개사의 신규 카드론 평균금리가 2개월 전보다 0.04~0.63%포인트 상승한 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>"의료계의 '토스' 꿈꾼다"… 원격진료 300만 시대 연 닥터나우 [스타트업 리포트]</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000642865?sid=105</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>장지호 닥터나우 대표, 의대 휴학하고 창업한시 허용된 원격진료, 코로나19 이후 불투명해 고민"우리나라에서 원격진료가 가능해?" 아직도 이렇게 묻는 사람들이 많다. 정답은 가능하다. 정부는 지난해 2월 24일 감염병 예방 및 관리법에 따라 보건복지부 장관령으로 신종 코로나바이러스 감염증(코로나19)이 심각 단계인 경우에 한해서 원격진료와 약 배달을 한시적으로 허용했다. 코로나19 때문에 병원이나 약국에 가기 힘든 상황을 감안한 조치다.여기서 말하는 원격진료란 병원에 가지 않고 집이나 사무실에서 스마트폰이나 컴퓨터를 이용해 영상대화로 의사의 진료를 받고 약을 처방 받는 것이다. 약도 필요하면 원하는 곳으로 배달 받을 수 있다. 그만큼 편리해 원격진료를 이용하는 사람들이 급속도로 늘면서 1년 만에 이용건수가 300만 건을 넘어섰다.그런데 정부가 임시 허용한 원격진료는 조건이 붙는다. 코로나19 상태가 심각 단계인 경우만 가능하다. 코로나19 상태가 지금의 심각 단계보다 완화되면 원격진료를 할 수 없다는 뜻이다.그런 점에서 현재 시행 중인 원격진료는 미래를 알 수 없다. 여기에 관련 신생기업(스타트업)들의 고민이 크다. 국내에서 가장 많은 사람들이 이용하는 원격진료 1위 스타트업 닥터나우의 장지호(24) 대표를 만나 고민을 들어봤다.한국일보에서 만난 장지호 닥터나우 대표가 회사 옷에 붙어있는 로고를 가리키고 있다. 그는 의대에 다니던 중 원격진료 도입을 위해 스타트업 닥터나우를 창업했다. 한지은 인턴기자의대 휴학하고 창업장 대표는 처음부터 원격진료를 하고 싶어 한양대 의대에 갔다. "대입 면접 때 진학 이유를 묻는 질문에 원격진료하는 의사가 되고 싶다고 답했어요. 수술 잘하고 병을 잘 고치는 의사도 좋지만 의료 접근성을 개선해 많은 사람들을 편하게 하는 의사가 되는 것도 의미 있는 삶이라고 생각해요. 의사의 일을 산업으로 푸는 거죠."그는 이런 일을 의사가 해야 한다고 생각한다. "원격진료 문제는 의료지식이 있고 의료인들과 소통 가능한 사람이 풀어야 해요. 그래서 의대에 갔죠."대학 진학 후 5년간 장애인과 노숙자를 위한 봉사센터에서 활동한 경험은 그에게 원격진료에 대한 확신을 심어줬다. "사회 곳곳에서 여러 이유로 병원에 가기 힘든 사람들을 직접 봤어요. 그때 장애인과 노숙자들에게 약 배달을 하며 원격진료와 약 배달의 필요성을 절감했죠."그렇게 그는 의대 본과 3학년 때인 2019년 휴학하고 닥터나우를 창업했다. "소문으로 들은 네이버, 토스, 쿠팡, 카카오 등 대형 정보기술(IT) 업체에서 일하던 유명 개발자들을 무작정 찾아갔어요. 초면이지만 원격진료로 국민의 삶을 바꿀 수 있다고 설득했죠."무모할 정도로 강한 그의 확신은 많은 사람들을 움직였다. 반신반의했던 개발자들이 속속 합류했고 네이버, 미래에셋, 소프트뱅크벤처스 등의 투자로 이어졌다. "지난달 100억 원 규모의 시리즈A 투자를 받으며 누적 투자액이 총 120억 원이 됐어요. 그만큼 많은 사람들이 원격진료의 가능성을 본 거죠."평점 보고 원하는 의사 선택해 영상진료닥터나우의 원격진료 절차는 간단하다. 소프트웨어(앱)를 스마트폰에 설치한 뒤 회원 가입하고 원하는 진료 과목과 의사를 고르면 된다. 의사 목록에 의사 소개와 진료비가 표시되고 현재 원격진료가 가능하면 ‘진료 가능’ 표시가 뜬다. 만약 병원에서 다른 환자를 보고 있거나 휴진이면 ‘진료 종료’로 표시된다.특히 의사 정보에 이용 후기가 있어서 의사 선택에 도움을 준다. 여기에 다른 이용자들이 5점 만점 기준으로 부과한 별점도 표시된다.의사를 선택해 ‘진료 요청’을 누른 뒤 나타나는 창에 건강보험 적용을 위한 주민등록번호와 증상을 입력하면 접수가 이뤄진다. "접수 후 평균 5분 정도 기다리면 의사와 앱을 이용해 영상으로 원격진료가 진행돼요."진료 과목은 내과부터 피부과, 산부인과, 비뇨기과, 치과, 한방 등 대면 진료와 동일하다. "치과도 구내염 등으로 급하게 약이 필요한 경우 원격진료를 받을 수 있어요. 한의과에서는 보약 처방도 가능하죠."진료 후 의사가 병원에서 컴퓨터로 처방전을 작성하면 자동으로 앱에 뜬다. 처방전은 해당 약을 보유한 약국으로 자동 전송돼 이용자가 원하는 장소에서 약을 배달 받을 수 있다. "직접 약국 방문을 원하면 약국에 가서 앱에 나타난 처방전을 보여주면 돼요."수수료 따로 받지 않아원격진료 비용은 대면 진료와 동일하다. 장 대표는 병원과 환자들을 위한 원격진료 플랫폼을 제공하지만 수수료를 따로 받지 않는다. 따라서 그는 원격진료를 통해 돈을 버는 것이 없어 아직 적자 상태다. "진료비는 건강보험이 적용돼 평균 5,000원 선이에요. 원격진료 활성화를 위해 수수료를 따로 받지 않아요."약국도 마찬가지. 약을 배송하면 조제비 외에 배송비가 들지만 닥터나우에서 부담한다. "코로나19 상황이어서 배송비를 회사에서 부담해요. 이용자들은 약국 방문과 동일한 비용으로 약 배달까지 받을 수 있어요."그렇다면 어떻게 수익을 올릴까. 그는 원격진료 이후를 본다. "원격진료가 활성화되면 여기 맞는 원격 청진기나 환자들의 자가 진단을 위한 디지털 도구들이 필요해요. 향후 그런 장비를 판매해 원격진료 생태계를 구축하는 것이 목표에요."장지호 닥터나우 대표가 원격진료하는 모습을 대형 디스플레이에 띄워놓고 설명하고 있다. 한지은 인턴기자"시간과 비용 절약에 사생활 보호까지 가능""침대에 누워 진료받고 침대에서 약을 받아요." 장 대표는 원격진료의 편리함을 이 한마디로 요약했다. 무엇보다 환자는 시간과 교통비 등을 줄일 수 있다. 특히 고혈압, 당뇨, 고지혈증 등 매번 동일한 약 처방을 위해 병원을 계속 방문하는 기저질환자들은 원격진료를 이용하면 여러 모로 편리하다. "국내 1차 병원의 진료 대기시간이 평균 20.8분이에요. 병원 가면 무조건 20분 이상 기다린다는 뜻이죠. 대형병원은 더 오래 기다려요. 반면 원격진료는 평균 대기시간이 5분이니 비교가 안되죠."무엇보다 병원을 드나드는 모습을 드러내지 않을 수 있는 점은 원격진료의 또다른 장점이다. "생리통이 심해 비뇨기과를 찾거나 사후피임약 처방을 위해 산부인과를 가야 하는 여성, 탈모나 피부치료로 병원을 자주 찾는 사람들이 사생활을 지킬 수 있죠. 약 배송을 시키면 굳이 약국에 가서 말하기 힘든 내용을 얘기하지 않아도 돼요."장 대표에 따르면 의사와 약사들도 수입이 늘 수 있다. 따로 휴가를 내는 것이 귀찮거나 눈치 보여 병원에 가지 않던 직장인들이 원격진료를 받으면 병원과 약국의 수입이 늘어나기 때문이다. 특히 의사들에게는 정부에서 원격진료를 하면 돈을 준다. "건강보험 청구시 가산수가를 얹어 받을 수 있어요."직장인들 선호하며 이용 급증그 바람에 국내 원격진료 이용자는 급증했다. "지금까지 국내 원격진료 이용은 건강보험 적용건수만 300만 건이 넘어요. 건강보험 적용 되지 않은 비급여 항목을 포함하면 400만 건 이상이죠."닥터나우는 이용자 규모에서 단연 1위다. 남녀를 불문하고 직장인들이 많이 이용하며 아이를 키우며 직장에 다니는 워킹맘들이 선호한다. "닥터나우 이용자는 누적으로 50만 명이에요. 270개 병원과 약국이 원격진료에 참여하고 있어요."코로나19 때문에 자가격리되거나 재택치료하는 사람들도 병원에 갈 수 없어 원격진료를 많이 이용한다. "자가격리나 재택치료 중 다른 병으로 아프면 원격진료 외에 해결 방법이 없어요. 꾸준히 약을 받지 못하면 병이 악화되는 기저질환자들도 원격진료가 유일한 해결책이에요."한시 허용된 원격진료, 앞으로 어떻게 되나현재 경제협력개발기구(OECD)의 37개 회원국 가운데 미국 영국 프랑스 독일 일본 등 32개국이 원격진료를 허용한다. 딜로이트 보고서에 따르면 2022년 전세계 진료에서 원격진료 비중이 5%를 차지할 것으로 나타났다. "오죽하면 북한과 남한 빼고 원격진료를 다한다는 농담이 있어요."한국은 법에서 원격진료를 허용하지도 않지만 금지하지도 않았다. "의료법에서 원격진료를 하면 안 된다고 규정한 것은 아닌데 의사가 환자를 직접 진찰해야 한다는 것을 금지로 해석하죠. 약 배달도 금지 규정이 없어요. 약사는 약국 내에서 약을 팔아야 한다는 규정을 배달 금지로 확대 해석해요. 약 배송은 전달행위일 뿐이고 약사의 약국 내 판매를 벗어난 것이 아니거든요."정부는 코로나19 상황이 심각 단계에서 완화되면 원격진료를 어떻게 할 지 명확하게 정하지 않았다. 하지만 한시적 허용을 전제로 한 복지부 장관령 대로라면 코로나19가 완화되면 원격진료를 더 이상 할 수 없다.그렇다 보니 원격진료를 둘러싼 찬반 양론이 팽팽하게 맞선다. 대한의사협회, 대한치과사협회, 대한약사회 등 3개 단체는 지난달 25일 정부와 여당을 상대로 원격진료 플랫폼 허용을 중단하라는 성명서를 냈다. 이들은 "단순 편의성 때문에 환자 대면 원칙을 훼손하면 국민 건강에 위험을 초래할 것"이라고 주장했다.반면 닥터나우가 공동 회장사를 맡은 원격의료산업협의회에서는 코로나19 상황이 완화돼도 원격진료를 허용해야 한다는 입장이다. 협의회에는 관련업체 20개사가 참여하고 있다. "원격진료 업체들은 아무것도 결정되지 않은 지금 상황이 굉장히 불안해요. 300만 건의 이용횟수를 보면 그만큼 많은 사람들이 원한다는 뜻이죠. 국민들의 1인당 연간 병원 방문횟수는 평균 17회로 OECD 회원국 평균의 3배에요. 그런데 서울시에서 밤 12시 이후 문 여는 약국이 10개도 채 안 돼요. 그만큼 대도시에서도 의료 접근성이 떨어져요."장 대표는 원격진료가 대형병원 쏠림 현상을 해소해 동네병원에 도움이 될 것으로 본다. "복지부에서 원격진료 이용현황을 조사해 보니 75%가 동네병원에서 이뤄졌다는 자료가 있어요. 원격진료 이용자들이 바로 진료가 가능한 병원을 찾다보니 대형병원보다 동네병원 이용이 늘며 자연스럽게 주치의 제도가 자리잡는 셈이죠. 한 번 진료를 받으면 해당 의사를 계속 찾거든요."앞으로 그는 정부, 의료단체와 원격진료 허용을 위해 계속 협의할 예정이다. "정부 및 의료단체들을 계속 만나서 국민 편익과 의료 발전을 위해 생각해달라고 설득해야죠. 이러다가 원격 진료에 관심 많은 구글 등 해외 거대 IT 기업이 국내에 들어오면 병원들도 당할 수 있어요."장지호 대표가 원격진료용 앱을 들어 보이고 있다. 그는 정부, 의료계와 협의를 통해 불투명한 원격진료 상황을 타개하려고 원격의료산업협의회를 만들었다. 한지은 인턴기자대표 연봉이 사내 평균…앞으로 의료 데이터 사업할 것"의료계의 토스가 되고 싶어요." 장 대표는 금융하면 스타트업 토스를 떠올리듯 의료 분야에서 닥터나우를 떠올리도록 의료 데이터를 이용한 사업을 검토하고 있다. "닥터나우를 질병 예방을 위한 건강관리부터 원격진료까지 사람들의 의료생활을 책임지는 슈퍼 앱으로 키우고 싶어요. 이를 위해 복지부에서 추진 중인 의료 마이데이터 사업에 참여할 생각이에요. 관련 사업을 허가 받기 위한 준비를 하고 있죠."건강진단 기능이 있는 디지털 휴대기기 개발도 고려 중이다. 장 대표는 여기 필요한 경력 개발자들을 전 직장 대비 1.5배 연봉을 주며 뽑고 있다. "전체 직원 40명 중 숫자를 공개할 수 없지만 개발 인력이 많아요. 이들은 대표보다 연봉을 많이 받죠. 저의 연봉은 사내 평균이에요."그는 전통적인 의사의 삶을 포기한 것에 대해 후회하지 않는다. "사내에 의사, 약사 출신 직원들이 많아요. 저를 포함해 이들은 의료계와 환자들을 위한 미래를 만든다는 자부심이 있어요. 앞으로 한국에 원격진료를 뿌리 내린 사람으로 기억되고 싶어요."</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>족쇄 풀린 '해외주식 소수점 거래'…연말까지 5곳 개시</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004628972?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>KB·KTB투자·NH투자·대신·삼성 등 5개사 연내 출격교보·메리츠 등 9개사는 내년 상반기 개시최대 소수점 아래 여섯째 자리까지 가능할 듯사진=REUTERS해외주식을 1주 미만으로 쪼개 사고팔 수 있도록 하는 소수단위 거래 서비스가 본격 개화한 가운데 일부 증권사가 빠른 개시를 위해 준비작업을 서두르고 있다. 연내 서비스 개시를 앞둔 곳만 5곳에 이른다.예탁결제원은 지난달 증권사 20곳과 함께 금융위원회에 해외주식 소수단위 거래를 위한 혁신금융서비스 지정을 신청했고 금융위는 지난 12일 정례회의에서 신규 지정을 최종 결정했다. 금융위의 의결로 예탁결제원과 증권사들은 현행법 특례를 적용 받게 됐다. 자본시장법에 따르면 주식을 예탁할 때 금융투자회사 소유분과 투자자 소유분을 구분해야 하고 해외시장 거래 중개 시 자기계산 계좌와 고객계산 계좌를 구분해 개설해야 한다. 하지만 혁신금융서비스 지정으로 구분예탁의무와 계좌 구분개설의무를 적용 받지 않고 중개할 수 있게 된 것이다.16일 &lt;한경닷컴&gt;이 대상 증권사 20곳의 서비스 개시 시점을 취재한 결과 최대 5곳이 연내 개시를 목표로 시스템 개발을 진행 중인 것으로 나타났다.이보다 앞선 2019년 혁신금융서비스 지정을 받아 관련 서비스를 제공해온 신한금융투자와 한국투자증권을 제외하면 KB증권, KTB투자증권, NH투자증권, 대신증권, 삼성증권 등 5곳이 올해 출격을 준비 중이다. 특히 삼성증권은 이달 안에 서비스를 내놓는다는 계획이다.나머지 증권사들은 내년 개시가 목표다. 기획과 전산개발 등 업무 추진 속도가 달라 증권사별 개시 시기가 많게는 1년가량 차이가 나는 모습이다. 교보증권과 메리츠증권, 미래에셋증권, 신영증권, 유안타증권, 키움증권, 토스증권, 하나금융투자, 한화투자증권 등이 상반기 중 서비스를 선뵐 예정이다.DB금융투자와 유진투자증권은 준비 단계가 초기인 만큼 내년 하반기 들어 서비스를 개시할 계획이다. 카카오페이증권과 하이투자증권의 경우 내년 중 소수단위 거래 서비스를 시작하지만 시기는 특정하지 않은 상태다.투자자들은 전산시스템 구축을 마친 증권사에 한해 원하는 곳을 골라 해외주식 소수단위 거래를 시작할 수 있다. 증권사가 투자자의 소수단위 주문을 취합, 온주화해 매매 후 결제를 지시하고 자기·투자자 보유 소수단위 내역을 투자자계좌부에 기재하는 형태다. 예를 들어 투자자 A가 주문한 애플 2.7주에 증권사 자기재산 0.3주를 합한 총 3주를 예탁결제원에 결제 요청하면 예탁결제원이 3주를 결제·보관하는 식이다. 금융위에 따르면 향후 증권사별 전산개발 상황에 따라 최대 소수점 아래 여섯째 자리까지 서비스가 제공될 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.11.21.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[거꾸로읽는스포츠] 축구 혐오하던 여성들 요즘 왜 '골때리나'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000731943?sid=110</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>스포츠 예능 프로그램, SNS 영향 풋살 인기…호기심으로 입문하지만, 재미에 푹 빠져지난 13일 열린 대구시장배 여성풋살대회에서 참가 선수들과 대회 관계자들이 기념촬영을 하고 있다. 대구시풋살연맹 제공여성들이 듣기 싫어하는 남성들의 얘기로 꼽히는 것이 군대 경험담이다. 더 듣기 싫어한다는 것은 군대 축구 얘기라는 우스갯소리가 있다. 휴가 나온 남자친구의 군대와 축구 얘기에 질려 고무신을 바꿔 신은 여자친구도 꽤 있을 것이다.그런데 축구는 더는 남성 전유물이 아니다. 미니 축구 격인 풋살이 활성화되면서 여성 축구 인구가 급격히 늘고 있다. 축구를 남자애들의 놀이로 여기는 학교 문화도 초등학교부터 바뀌고 있다.여자축구가 1996년 애틀랜타 올림픽에서 정식종목이 되고, 1991년부터 여자월드컵축구대회가 4년마다 열리고 있는 점을 고려하면 여성 축구 붐은 새삼스러운 일이 아닐 수도 있다. 국내에서도 여자축구는 전국체육대회와 전국소년체육대회에서 정식종목으로 매년 열리고 있다.최근 풋살을 중심으로 축구 하는 재미에 푹 빠진 여성들을 만나보면 열정이 대단함을 알 수 있다.지난 13일 대구 북구 J풋살파크. 대형 건물의 옥상에 자리 잡은 이곳에서 대구시풋살연맹이 대구에서 처음으로 마련한 여성 풋살대회가 열리고 있었다. 경기장 바로 앞의 옥상 주차장에서 내리자마자 열기가 뿜어져 나왔다. 파이팅을 다지는 선수들의 함성과 응원 목소리 등 경기장 분위기가 남자축구 이상으로 뜨거웠다.축구선수들의 강인함을 상징하는 허벅지와 종아리는 굵고 근육은 탄탄했다. 다리에 깁스를 한 채 시합하는 동료를 응원하는 이들도 보였다. 격렬한 몸 다툼으로 부상자가 발생하는 등 단순히 여성들이 공놀이하는 수준이 아님을 반영한다. 소통하며 조직적인 플레이를 하는 등 축구 실력도 상당했다.대회 참가 팀마다 지도자가 있는 등 짜임새가 있기에 풋살장에서 운영하는 클럽 소속으로 보였으나 회원 회비로 운영하는 순수한 여성 풋살 동호회였다. 이날 열린 대구시장배 대회에는 토스FS, 다옴FS, 푸파FS, 위 아 매드, 하이두FS, 매드FS 등 6개 팀에서 70여 명의 여성 풋살 동호인들이 참가했다. 대구에는 20, 30대 여성 중심으로 10여 개의 여성 풋살 동호회가 활동하고 있다. 동호회에는 외국인들도 포함돼 다국적 팀이 여럿이다. 이번 대회 참가 선수들도 다수가 20대 여성들이었다.지난 13일 대구 북구 J풋살파크에서 열린 대구시장배 여성풋살대회에서 선수들이 경기하고 있다. 김교성 기자이번 대회를 마련한 대구시와 대구시풋살연맹 관계자들은 젊은 여성들의 풋살 열기에 놀라움을 표시했다. 여성 축구라고 하면 실업이나 학교 등 엘리트 팀이나 지자체에서 운영하는 주부 팀 정도로 여겼는데, 혈기 넘치는 20대 남성의 모습을 그대로 보였다는 게 이들의 평가다. 대구시풋살연맹은 여성 풋살 동호인들의 호응도가 높은 만큼 내년에는 전국 대회로 격을 높일 계획이다.젊은 여성들 사이에서 축구 붐이 일고 있는 이유는 무엇일까. 여성 풋살 동호회에서 활동하는 중학교 체육 교사 방우리(대구 고산중) 씨는 요즘 축구는 여자들의 대화에서 가장 뜨거운 주제로 떠올랐다고 했다. 그는 몇 해 전까지만 해도 여성 풋살 동호회 활동에 관심을 가진 사람이 남자 선생님이라면 요즘은 여자 선생님이 더 많은 관심을 보이며 대화에 참여한다고 했다.여성들의 스포츠 참여는 미디어의 스포츠 예능 프로그램을 통해 크게 높아졌다. 박세리가 나오는 '노는 언니들'을 시작으로 2020 도쿄 올림픽 여자배구의 김연경, 양궁의 안산 등 여자 스포츠 스타들이 미디어를 통해 퍼포먼스를 과시하면서 스포츠 활동을 끌어낸 것으로 볼 수 있다.이런 시너지 효과 속에 '골때리는 그녀들'이란 프로그램은 여성 축구에 불을 지폈다. 방 교사는 TV에서 이 프로그램이 나온 뒤부터 "선생님, 골때리는 그녀들 보셨어요, 축구 어떻게 하는 건가요, 정말 재밌어 보이는데 저도 할 수 있을까요"라는 질문을 많이 받고 있다고 했다.SNS도 여성들의 스포츠 활성화에 한몫하고 있다. 예전에는 축구를 하고 싶어도 여성들은 어디서 하는지, 어떤 동호회가 있는지 막막했는데 이제 SNS를 통해 쉽게 문제를 해결할 수 있게 됐다. 몇 가지 키워드 검색으로 집이나 직장 가까운 곳의 팀을 찾을 수 있다. 동호회는 훈련 모습이나 경기 영상 등을 담은 홍보물을 SNS에 적극적으로 올리고 있다.방 교사는 여성 축구 붐에 가장 큰 역할을 한 것은 '축구가 지닌 재미'라고 강조한다. 그는 동호회에는 전문 선수를 했거나 체육 교사 준비를 하는 사람도 있지만, 다수가 일반 직장인이라고 했다. 체육 관련 직업을 구하거나 다이어트 등 건강 관리를 위해서라기보다는 공을 차보고 싶다는 호기심 때문에 축구에 입문한다는 것이다. 초기 입문자들이 다른 친구들을 데리고 오면서 동호회는 자연스럽게 활성화되고 있다.스포츠에서 종목별 성 평등은 거의 이뤄진 상태다. 피를 흘리는 격투기 종목에서도 여성들의 경기 장면을 볼 수 있다. 남성의 체력적인 우월성에 기반한 종목들도 여성 참가의 문을 활짝 열고 있다.스포츠는 앞으로 혼성 종목의 확대로 성 구분이 없어질 전망이다. 양궁과 탁구 등 일부 종목에서는 이미 남녀가 한 팀이 돼 실력을 겨루는 혼성 종목을 출범시켜 인기를 끌고 있다. 올림픽뿐만 아니라 프로야구나 월드컵 축구대회에서 남녀가 함께 뛰는 장면을 볼 날이 올 것 같다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>SC제일은행, 다소 아쉬운 3분기…연간 성장동력은 확보</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004819?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>[워치 전망대]SC제일은행3분기 순익 795억…1Q 이후 연이은 후퇴코로나로 꺾인 성장모멘텀 다시 회복세로외국계 은행인 SC제일은행이 다소 아쉬운 3분기를 보냈다. 지난 2분기에 비해 순익이 줄면서다. 국내 주요 은행들이 3분기에 전분기와 엇비슷한 수준의 순익으로 호실적 행진을 이어간 것과 비교된다.그나마 위안거리는 올해 3분기까지 벌어들인 순익이 지난해 연간 순익을 뛰어넘었다는 점이다. 올해 1분기 어닝 서프라이즈 영향이 3분기까지 이어지면서 지난해 끊겼던 연간 순익 성장 모멘텀이 되살아날지 주목된다.15일 SC제일은행은 올해 3분기 795억원의 순익을 올렸다고 밝혔다. 지난해 3분기 9억원의 순익을 낸것에 비해 순익이 8722.2%나 증가한 수치다.다만 지난해 3분기에는 코로나19로 인해 대규모 충당금을 적립했고 올해 3분기 한국은행의 기준금리 인상 등의 영향으로 국내 은행들이 전분기와 비슷하거나 더 많은 순익을 낸 것과 비교하면 다소 아쉬운 성과다. SC제일은행은 지난 2분기 819억원의 순익을 낸 바 있다.올해 3분기 실적이 2분기보다 소폭 줄어든 데는 비이자이익 감소 영향이 컸다. SC제일은행은 올해 3분기 716억원의 비이자이익을 거뒀다. 전분기 960억원에 비해 25%나 줄었다. 그나마 위안거리는 비이자이익 감소가 SC제일은행의 강점인 WM(자산관리)분야에서 영업력이 떨어진 것이 아닌 달러-원 환율 변동으로 인한 환차손 영향이 컸다는 점이다. 최근 달러-원 환율이 치솟으면서 외환 트레이딩 부문이 주춤한 탓에 비이자이익이 감소했다는 게 SC제일은행의 설명이다.아울러 지난 8월 한국은행이 기준금리를 인상했음에도 불구하고 이자이익이 역성장 한 점도 아쉬웠다. SC제일은행의 올해 3분기 이자이익은 2467억원으로 전분기 2528억원에 비해 2.42%줄었다.그럼에도 연간으로는 순익 성장의 모멘텀은 확실하게 확보할 수 있을 것으로 보인다. 올해 3분기까지 벌어들인 순익은 2643억원으로 지난해 같은 기간 1829억원에 비해 44.5%나 늘었다. 이는 지난해 연간순익 2571억원을 이미 뛰어넘은 수준이다.SC제일은행은 지난해 3분기 대규모 충당금을 적립하면서 9억원의 순익밖에 올리지 못하 만큼 미래 리스크에 대한 대비는 국내 시중은행에 비해 착실하게 마련돼 있다. 올해 3분기 고정이하여신비율은 0.21%, 연체율은 0.11%로 국내 최상위 수준이다. 아울러 대손충당금적립비율 역시 238.33%로 국내 시중은행 평균(130%)보다 훨씬 높다. 때문에 아쉬운 3분기를 보냈더라도 앞으로 꾸준한 성장세는 시현가능할 것으로 보인다. SC제일은행은 소매금융과 WM분야에 집중하면서 가계부문에서는 충분한 충성고객을 확보했고, 기업금융이 경우 모기업인 SC그룹의 인프라를 활용한 만큼 충분한 경쟁력을 갖추고 있다. 게다가 최근 출범한 토스뱅크에 주주사로 참여하면서 사업 포트폴리오를 다각화 했으며 경쟁 외국계 은행인 씨티은행이 소매금융 철수를 발표하면서 국내 유일 소매금융 서비스를 제공하는 외국계 은행이라는 희소성을 갖추게 된 것도 미래 성장동력이 될 것이라는 분석이 나온다. 따라서 지난해 코로나19로 꺾였던 순익성장의 모멘텀을 올해부터 다시금 갖출 수 있을 것이란 기대도 나오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>[증시캘린더]이번주(12월 1주) 툴젠 공모청약 등</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005095314?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[이데일리 김겨레 기자] 이번주 기업공개(IPO) 시장에서는 대신밸런스스팩11호와 미래에셋글로벌리츠가 상장한다. 코넥스 시장에서 코스닥 시장으로 이전 상장하는 툴젠은 일반 청약을 받는다. 케이티비네트워크와 래몽래인은 기관투자자 대상 수요예측을 실시한다. 11월 29일(월)~30일(화)△케이티비네트워크 수요예측- 1981년 설립된 국내 1세대 벤처캐피털(VC). 토스(비바리퍼블리카), 알비더블유(361570), 툴젠 등 투자. -공모가 5800∼7200원, 공모금액 최대 1440억원.-운용자산 1조1195억원, 지난해 당기순이익 358억원. 12월 2일(목)△래몽래인 수요예측- ‘성균관 스캔들’과 ‘어쩌다 발견한 하루’ 등 제작한 드라마 제작사, 코스닥 이전상장.- 공모가 희망범위 1만1500원∼1만3000원, 공모 금액 최대 156억원.- 3분기 누적 매출액 217억4200만원, 영업이익 20억5500만원. △툴젠 일반 청약 -유전자 내 DNA의 염기 서열을 잘라내 형질을 변형시키는 ‘유전자 가위 기술’ 보유한 툴젠 코스닥 이전상장. -인간뿐 아니라 모든 생명체에 적용 가능해 높은 확장성을 지녔다는 평가.-공모가 희망범위 10만~12만원. 공모금액 최대 1200억원.△대신밸런스스팩11호 상장-향후 합병 대상으로 특정 업종을 지정하지 않은 기업인수목적회사-공모가 2000원, 공모금액 130억원. 12월 3일(금)△미래에셋글로벌리츠 상장-미국 휴스턴 아마존 물류센터·미국 탬파 페덱스그라운드 물류센터·미국 인디애나폴리스 페덱스그라운드 허브물류센터(펀드 수익증권 지분 48.6%)를 기초자산으로 만든 리츠. -공모가 5000원, 공모금액 651억원. -일반 공모 청약 경쟁률 753.4대 1. 국내 공모 리츠 사상 최고</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>티맵모빌리티, 토스 전략담당 출신 김유리 CPO 영입</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002548727?sid=105</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>삼성전자·애플·SKT·쿠팡·토스 거쳐 합류김유리 티맵모빌리티 최고제품책임자(CPO).ⓒ티맵모빌리티[데일리안 = 김은경 기자] 티맵모빌리티가 김유리(사진) 전 비바리퍼블리카 비즈니스전략담당을 최고제품책임자(CPO)로 영입했다고 17일 밝혔다.김 CPO는 2003년 삼성전자 무선사업부 소프트웨어 개발자로 시작해 해외영업, 프로덕트 매니저(PM)등을 거쳤다. 2011년부터는 애플 본사의 글로벌 서플라이 매니저를 비롯해 SK텔레콤, 쿠팡, 토스에서 개발·사용자경험(UX)·전략·스텝 등 다양한 경험을 쌓았다.김 CPO는 정보기술(IT)산업에서의 다양한 직무 수행 경험을 기반으로 티맵모빌리티의 서비스 전략을 담당한다. 다양한 모빌리티 수단을 연계하는 통합모빌리티서비스(MaaS), 올인원모빌리티(AIM) 등의 조직을 이끌 예정이다.김 CPO는 “이동에 관한 모든 고객 접점을 빠르게 점령해 나갈 것”이라며 “사람들이 이동하고자 할 때 가장 먼저 떠오르는 강력한 모빌리티 플랫폼을 만들겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>'규제發 가뭄' 은행 신용대출 우대금리 '천차만별'</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002551240?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>최대 1.5%P 격차…하나銀 '최고'가계부채 옥죄기에 줄어드는 혜택은행별 개인 신용대출 우대금리 현황.ⓒ데일리안 부광우 기자[데일리안 = 부광우 기자] 국내 은행 간 신용대출 우대금리 격차가 최대 1.5%p에 달하는 것으로 나타났다. 은행이 제시하는 요건을 얼마나 잘 갖추는지에 따라 대출 이자율이 크게 달라질 수 있는 만큼 세심한 비교가 필요하다는 지적이다.금융당국의 가계부채 규제로 대출의 이자율 혜택이 날이 갈수록 축소돼 가는 가운데 그나마 남은 우대금리를 둘러싼 은행권의 셈법도 더욱 복잡해지는 모습이다.25일 은행연합회에 따르면 국내 은행이 개인 신용대출에 적용한 가감조정금리는 지난 달 신규 취급액 기준 평균 0.48%로 집계됐다.가감조정금리는 급여 이체나 카드이용 실적 등에 따라 감면받을 수 있는 우대금리를 가리키는 표현이다. 아울러 지점장 전결 권한으로 할인되는 금리도 여기에 포함된다. 대출 상품의 최종 이자율은 시장 원가에 해당하는 기준금리에 각 은행이 붙이는 영업비용과 마진을 담은 가산금리를 더한 뒤, 마지막으로 우대금리를 빼 정해지는 구조다.은행별로 보면 하나은행의 우대금리가 제일 높았다. 하나은행의 개인 신용대출 가감조정금리는 1.50%를 나타냈다. 이어 부산은행이 1.14%, KB국민은행이 0.98%, 케이뱅크가 0.90%로 개인 신용대출 우대금리가 높은 편이었다.반대로 카카오뱅크와 토스뱅크는 신용대출 이자율을 산정할 때 기본금리와 가산금리만 책정하고 우대금리는 적용하지 않고 있었다. 이밖에 ▲Sh수협은행(0.13%) ▲IBK기업은행(0.18%) ▲KDB산업은행(0.22%) ▲우리은행(0.22%) ▲DGB대구은행(0.23%) ▲광주은행(0.29%) 등의 개인 신용대출 우대금리가 낮은 편이었다.이 같은 우대금리는 신용대출 이자율 수준을 결정하는 중요 요인이다. 실제로 가장 큰 폭의 우대금리를 적용하고 있는 하나은행의 개인 신용대출 최종 평균 금리는 4.19%로 은행권 평균인 4.66%를 0.50%p 가까이 밑돌았다.다만, 우대금리가 낮다고 반드시 대출 이자율이 높은 건 아니다. 우대금리 혜택이 적은 대신 기본금리와 가산금리 자체를 낮게 책정하는 경우도 있어서다. 대표적인 곳이 우리은행이다. 우리은행은 우대금리가 상대적으로 부족했지만, 개인 신용대출 최종 금리는 3.69%에 그쳤다.◆대출 이자율 계산방식 잘 살펴야이런 와중 은행의 우대금리 혜택이 계속 줄어들고 있는 현실은 소비자들의 머릿속을 더욱 복잡하게 만들고 있다. 정부의 가계부채 규제를 강화하자, 은행들이 우대금리를 줄이는 방식으로 대출 속도조절에 나서고 있어서다.농협은행은 거래 실적에 따라 혜택을 주는 최대 0.3%p의 신용대출 우대금리를 지난 달 폐지했다. 대신 소상공인 컨설팅 수행기업에 대해 0.1%p의 우대금리를 신설했다. 우리은행은 같은 달 11개 신용대출 상품의 우대금리 요건을 축소했다. 27일부터는 역전세지원담보대출과 우리그린리모델링대출, 우리인테리어대출 등 기타 가계대출 상품에 대한 0.3~0.7%p의 우대금리도 폐지했다.금융권 관계자는 "신용대출 시 우대금리 요건을 얼마나 채울 수 있는지에 따라 자신에게 유리한 은행이 달라질 수 있는 만큼, 전체 평균만 보지 말고 꼼꼼히 조건을 따져봐야 할 것"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>소고기 패티서 말 DNA가?...브라질 갱단의 범죄, 음식 파는 식당도 몰랐다</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000732322?sid=104</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>사진과 기사내용은 무관함. 사진 게티이미지뱅크브라질 남부에서 도살용 말을 훔쳐 소고기로 위장해 식당에 판매한 갱단 6명이 체포됐다.19일(현지시각) CNN은 브라질 리오그란데 두 술 검찰(MPRS)의 성명을 인용해 한 갱단이 카시아스 두 술 지역의 식당에 매주 800kg 이상의 말고기를 소고기로 위장해 유통했다고 보도했다.이들은 말고기뿐만 아니라 부패한 돼지고기, 칠면조, 돼지 사료 등으로 만든 음식을 패티에 섞어 판매하기도 했다.때문에 해당 지역에서 소고기 메뉴를 판매하는 식당 60% 가량이 자신도 모르게 말고기나 상한 음식이 포함된 음식을 손님에게 내준 것으로 알려졌다. 이번 사건을 맡은 알신오 바스토스 검사는 "음식에서 말의 DNA가 검출됐다"고 전했다.당국은 두 달 전 지역 농업방위조사단의 제보를 받은 이후 수사를 시작해 갱단 6명을 검거했다고 밝혔다. 체포된 이들은 비위생적인 불법 도살장을 운영하고 허가 없이 고기를 가공하거나 판매한 혐의를 받고 있다.보도에 따르면 마리아 크리스티나 레흐 판사는 이들 6명이 공중 보건에 심각한 위협을 가하고 있다면서 재판 도중 이들에 대한 예방적 구금 조치를 내렸다.한편, 지난 2013년에도 유럽에서 소고기로 표시된 제품에 말고기가 사용된 사건이 있었다. 이로 인해 말고기를 금기시하는 영국의 많은 육식가들이 반란을 일으키기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>수시채용 늘리는 시중은행 ...내년 '공채 길' 더 좁아진다</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003989802?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>정보기술분야 넘어 경력 채용 확대우리은행은 "연내 공채 실시 안해"경험 갖춰야 취업기회 잡는데 유리[서울경제] 은행권의 신입직원 공개채용이 내년에도 좁아질 전망이다. 올해 대규모 공채보다 수시채용에 방점을 둔 시중은행이 속속 나오면서 내년에도 이 같은 경향이 확산될 가능성이 높기 때문이다. 지원자 입장에서는 수시채용의 일정을 예측하기 어렵고 경력자가 우대되는 만큼 취업 준비에 어려움이 커질 것으로 전망된다.25일 금융권에 따르면 시중은행이 경력 직원을 중심으로 수시 채용을 진행하고 있다. KB국민은행은 글로벌 플랫폼 고객을 위한 여·수신, 외환 등 비대면 거래를 개발하고 운영할 개발자를 모집 공고했다. 디지털 뱅크를 개발한 경력뿐만 아니라 해외에서 금융시스템을 운영한 경험을 가진 사람을 우대하는 게 특징이다. 신한은행 역시 이달 초까지 로보어드바이저, 투자금융, 자금운용, 금융공학, 부동산 투자자문 등에서 경력직을 모집했다. 하나은행은 프라이빗뱅커(PB), 펀드 투자 및 사후관리 업무, 기업컨설팅 등에서 경력을 가진 인력 모집을 진행하고 있다. 은행들이 비단 디지털·정보기술(IT) 분야뿐만 아니라 은행의 전통적인 업무 분야로까지 수시 채용을 진행하고 있는 셈이다.은행들이 올해 하반기 신입 공채를 모두 건너뛴 것은 아니다. 국민은행은 일반 행원부터 마케팅·정보통신기술(ICT)·UI·UX 전문가 등 분야에서 총 270여 명 규모의 신입 및 경력직 모집해 채용 절차가 진행 중이다. 신한은행도 △일반직(기업/WM) 신입 행원 공개채용 △사회적 가치 특별채용 △디지털/ICT 수시채용 △디지털/ICT 수시채용 삼성청년SW아카데미 특별전형 등을 통해 총 250명 규모의 신입직원을 채용하고 있다. 농협은행은 130명, 기업은행은 100명을 뽑기 위해 채용 공고를 했다.그러나 채용 규모, 조건 등을 고려할 때 공채보다 수시채용에 무게가 옮겨갔다고 업계는 입을 모은다. 대표적으로 하나·우리은행만 해도 올해 하반기 공채를 실시하지 않았다. 하나은행 측은 “현재까지 연내 채용 계획이 아직 정해지지 않았다”고 말했다. 우리은행은 올해 수시채용을 통해 필요한 인력을 모두 확보해 연내 공채를 실시하지 않겠다는 방침이다.이 같은 경향은 내년에도 계속될 가능성이 높다. 카카오, 네이버, 토스 등 빅테크의 금융 서비스에 맞서 은행들이 빠르게 경쟁력을 확보하기 위해서는 공채보다 수시채용이 더 적합하다고 보기 때문이다. 우리은행이 내년 수시채용 등을 통해 올해보다 더 많은 규모의 채용을 계획하고 있는 것도 이 같은 이유에서다. 은행권의 한 관계자는 “수시채용으로 그때그때 필요한 인력을 빨리 확보하는 게 중요해졌다”며 “내년도 채용계획을 짜고 있는 상황이나 수시채용의 기회가 갈수록 더 늘어나는 분위기”라고 언급했다.이에 따라 업계에서는 경험을 갖춘 취업준비생일수록 수시채용에서 기회를 잡을 수 있다고 조언한다. 특히 은행들이 디지털 분야에 대한 인력 수요가 높아 각종 디지털 경험을 갖출수록 유리하다는 지적이다. 실제로 우리은행은 자체 해커톤 수상자에 서류전형을 면제해주고 있고 국민·신한은행 등은 일반 행원 채용에서도 디지털 리터러시 평가, 디지털역량평가 등을 진행하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[IPO출사표]'배민·토스' 대박 신화 KTB네트워크 "VC 대장주 노린다"</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005096173?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>40년 이상 업력 바탕으로 옥석가리기 자신국내 VC 최초 해외 진출…동남아·인도 투자 확대 계획[이데일리 안혜신 기자] “40년 이상의 업력을 바탕으로 옥석가리기에 집중하며 투자하고 있습니다. 동남아와 인도 시장 커버리지 확대 등 상장 이후 내년부터 대규모 해외펀드 결성에 적극 나서겠습니다.”KTB네트워크는 29일 온라인 기업설명회를 열고 코스닥 상장에 따른 향후 전략과 비전을 밝혔다김창규 KTB네트워크 대표가 29일 진행된 IPO온라인 설명회에서 기업 설명에 나서고 있다.지난 1981년 설립된 KTB네트워크는 한국기술개발주식회사를 전신으로 국내외 주요 기관들과 파트너십을 구축하고 국내 벤처캐피탈 최초 해외시장에 진출하는 등 도전을 통해 성장하고 있다.특히 우아한형제들(배달의민족)과 토스(비바리퍼블리카)를 통한 투자 성공으로 유명하다. 우아한형제들을 통해서는 지난 3월 총 23억원을 투자해 629억원을 회수했다. 토스 역시 기업가치가 250억원일 때 최초로 투자, 현재까지 지분을 보유한 국내 유일 VC(벤처캐피탈)이다. 현재 토스 기업가치는 8조원으로 추산되고 있다. KTB네트워크는 58개 펀드(청산 기준) 운용경험, 1조3397억 원 규모 납입총액, 19.8%의 업계평균대비 높은 IRR로 KTB네트워크는 업계 최상위 벤처캐피탈로 평가받고 있다.기업 핵심경쟁력으로는 △검증된 스케일업(Scale-up) 투자전략 △글로벌 투자 경쟁력과 높은 성과 △우수한 맨파워 등 세 가지를 들었다.KTB네트워크는 성장잠재력이 높은 기업을 모색해 유니콘기업으로 성장시키는 스케일업 투자전략을 고수하고 있다. 이는 시리즈 A단계부터 D단계 투자까지 성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원하며 수익성을 극대화한 전략이다. 비바리퍼플리카와 우아한형제들이 대표 스케일업 투자 사례로 꼽힌다. KTB네트워크는 또 업계 최초로 해외 시장에 진출한 1세대 벤처캐피탈이다. 지난 1988년 미국, 2006년 중국시장에 진출해 현지거점을 확보하고 있으며 기업발굴과 투자를 진행하고 있다. 지금까지 미국시장에서는 65개 기업, 중국 등 아시아 지역에는 상해사무소를 통해 49개 기업에 투자해 오리스(AURIS), 버클리라이츠(BERKELY LIGHTS), 샤오펑(Xpeng), 카스젠(CARSGEN) 등이 대표적 성공 사례다. KTB네트워크는 미국과 중국은 물론, 인도와 동남아 시장까지 투자포트폴리오를 확대 중이다.강력한 맨파워 역시 경쟁력이다. KTB네트워크에는 산업별로 전문지식과 투자경험을 보유한 심사역이 다수 포진해 있다. 총 24명의 펀드운용인력 중 10년 이상 투자경력을 가진 심사역이 11명이며, 각 심사역이 전문성을 가진 분야도 바이오, 헬스케어, 반도체, 소비재, 화학뿐 아니라 이제 주목되기 시작한 메타버스, ICT플랫폼, 엔터테인먼트까지 다양하다.김창규 대표는 “내부 시스템이 업력을 바탕으로 다른 회사 대비 잘 운영되고 있고, 심사역의 근속연수도 높고 이직률도 낮은 편”이라면서 “내부 시스템과 운용력의 능력이 잘 조화돼 높은 투자성과를 내고 있는 것으로 보인다”고 설명했다.KTB네트워크의 올해 3분기 실적은 누적 기준 1043억원의 영업수익을 기록하며 이미 지난해 달성한 영업수익 670억원을 크게 상회했다. 당기순이익은 631억에 달한다. 영업이익 부분 역시 지난해 446억원, 영업이익률 66.7%를 기록한 것과 비교해 올 3분기 누적기준 영업이익 774억원, 영업이익률 74.2%를 기록했다.KTB네트워크는 이번 IPO를 통해 향후 국내와 해외로 나눈 투자전략 실행을 통해 벤처캐피탈 대장주가 되겠다는 계획을 밝혔다.국내에서는 지금까지 증명한 펀드운용 성과와 구축된 주요 기관 네트워크를 바탕으로 신규 LP를 모집해 대규모 후속펀드를 결성할 계획이다. 중장기적 관점에서는 섹터전문 펀드, 프로젝트 펀드 등 펀드라인업 다각화에 나선다.해외 시장에서는 기존에 진출한 미국과 중국 시장 확대 신규 국가 진출을 위해 해외 투자거점을 재정비할 예정이다. 특히 동남아와 인도시장 커버리지 확대를 계획하고 있으며 현지 VC와 파트너십 구축에 노력하고 있다. 실제 상장 이후 내년부터 대규모 해외펀드 결성에 적극 나설 전망이다.김 대표는 “코스닥 상장을 통해 대한민국 대표 글로벌 벤처캐피탈로 도약할 것”이라며 “성장 가능성 높은 기업과 시장 투자를 통해 건강한 투자문화를 선도해 나가겠다”는 포부를 밝혔다.한편 KTB네트워크는 이번 상장을 위해 2000만주를 공모한다. 공모예정가는 5800원~7200원으로 총 공모금액은 1160억원~1440억원이다. 수요예측은 이날과 오는 30일 양일간 진행되며, 내달 6~7일 이틀간 청약을 거쳐 내달 중순 코스닥에 상장한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>대출 한파 속 종부세 폭탄에 납세자 '발 동동'</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005003195?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>담보대출 쉽지 않고 마통 한도 축소대출 받아도 내년 DSR 규제 고려해야‘7·10 부동산 대책’에 따른 종합부동산세 인상 조치를 첫 반영한 종부세 고지서 발송이 시작되면서 관련 납세자의 고민이 깊어지고 있다. 지난해보다 3배 이상 고지세액이 늘어날 것으로 예상되면서 목돈이 없는 납세자는 대출까지 고려해야 하기 때문이다.최근 정부와 금융당국이 가계부채 관리 방안의 일환으로 은행권과 비은행권까지 압박하며 돈 빌리기가 어려워진 가운데 특히 억대 종부세를 내야하는 다주택자의 경우 목돈 마련에 비상이 걸렸다.22일 정부와 부동산 업계에 따르면 국세청은 이날부터 올해 주택분 종부세 고지서 발송에 나선다. 더불어민주당 부동산특별위원회에 따르면 1세대 1주택의 종부세 과세 기준은 9억원에서 11억원으로 확대됐다. 전체 종부세 납부 대상자가 76만5000명이다.부동산업계에서는 서울에서 두 채를 보유한 사람이 한 해 부담해야 할 보유세(재산세+종부세)가 1억원을 넘어설 것으로 추정한다.문제는 마땅한 소득이 없는 은퇴자나 별다른 저축이 없는 납부 대상자의 경우 큰 금액을 내기 어려운 상황이라는 것이다. 더욱이 은행권의 가계대출 총량제한에 따라 대출도 쉽지 않은 상황이다. 현재 은행권 담보대출의 경우 15억원 이상의 주택은 대출이 이뤄지지 않는다. 하지만 종부세 대상이 되는 강남의 집값의 경우 대부분 15억원 이상이기 때문에 담보대출은 사실상 불가능하다. 신용대출의 경우 신청 후 실행까지 통상 한달 가량이 걸린다. 종부세 신고·납부 기한은 내달 1일부터 15일까지라 시간이 촉박하다.가장 현실적인 대안은 마이너스통장이지만 한도가 크게 축소되거나 중단된 상태다. KB국민·우리·신한·하나은행은 이미 마이너스통장의 한도를 5000만원으로 축소했다. NH농협은행의 경우 한도가 2000만원이다. 인터넷전문은행인 카카오뱅크와 케이뱅크는 고신용자 마이너스통장 신규 발급을 중단했으며, 토스뱅크는 모든 신규 대출을 중단한 상황이다.이에 따라 영끌(영혼까지 끌어모음)족이나 여러 곳에 빚을 내 추가로 대출 받기 어려운 차주들은 목돈 구하기에 비상이 걸릴 수 밖에 없는 실정이다. 한 은행권 관계자는 "정부의 대출규제로 기존 대출이 있었던 차주의 경우 신규 대출을 하기가 쉽지 않은 상황"이라며 "종부세 납부를 위해 은행권이 아닌 고금리 2금융을 받는 케이스도 배제 할 수 없다"고 했다.여력이 안된다면 분납도 고려해 볼 만 하다. 종부세는 6개월에 걸쳐 분납이 가능하다. 이 기간 동안은 가산세도 부과되지 않는다. 다만 종부세 납부세액이 250만원이 초과돼야만 분납 대상이 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>"VC 대장주 노린다" 토스·배민 찜한 KTB네트워크, 내달 코스닥 '노크'</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000759410?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>김창규 KTB네트워크 대표이사가 저날(29일) 열린 온라인 IPO(기업공개) 간담회에서 발표하고 있다. /사진=KTB네트워크 제공"코스닥 상장을 통해 대한민국 대표 글로벌 벤처캐피탈로 도약해 나가겠습니다."김창규 KTB네트워크 대표이사가 지난 29일 온라인 기자간담회를 통해 코스닥 시장 상장 후 전략과 비전에 대해 이같이 밝혔다.KTB네트워크는 국내 1세대 VC(벤처캐피탈)로 꼽힌다. 1981년 설립된 한국기술개발주식회사를 전신으로 국내·외 주요 기관들과 파트너십을 구축하고 국내 벤처캐피탈 최초 해외시장에 진출하는 등 도전을 통해 성장해왔다.주요 기관과의 긴밀한 파트너십은 우량 펀드 결성 기반이 되어 높은 투자성과로 이어졌다. 그 결과 58개 펀드(청산 기준) 운용경험, 1조3397억원 규모 납입총액, 19.8%의 업계평균대비 높은 IRR(내부수익률)로 KTB네트워크는 업계 최상위 벤처캐피탈로 평가받고 있다.회사의 핵심경쟁력은 크게 3가지 ▲검증된 스케일업(Scale-up) 투자전략 ▲글로벌 투자 경쟁력과 높은 성과 ▲우수한 맨파워로 정리할 수 있다.KTB네트워크는 성장잠재력이 높은 기업을 모색해 유니콘기업으로 성장시키는 스케일업 투자전략을 펴고 있다. 시리즈 A단계부터 D단계 투자까지 성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원하며 수익성을 극대화한 전략이다. 대표 투자 사례로는 비바리퍼블리카(토스)와 우아한형제들(배달의 민족)이 있다. 다양한 해외투자 경험도 눈에 띈다. 1988년 미국, 2006년 중국시장에 진출해 현지거점을 확보하고 있으며 기업발굴과 투자를 진행하고 있다. 지금까지 미국시장에서는 65개 기업, 중국 등 아시아 지역에는 상해사무소를 통해 49개 기업에 투자해 오리스(AURIS), 버클리 라이츠(BERKELY LIGHTS), 샤오펑(Xpeng), 카스전(CARSGEN) 등 다수의 우수 성공사례를 기록한 바 있다. KTB네트워크는 미국과 중국은 물론, 인도와 동남아 시장까지 투자포트폴리오를 확대 중이다.실적도 좋다. KTB네트워크는 2018년부터 최근 4년간 큰 폭의 성장을 이뤄왔다. 특히 올해 3분기 누적실적 기준 1043억원의 영업수익을 기록하며 이미 지난해 한 해 동안 달성한 영업수익 670억 원을 크게 상회했다. 당기순이익은 631억에 달한다. 영업이익 부분은 2020년 기준 446억원, 영업이익률 66.7%를 기록한 것과 비교해 2021년 3분기 누적기준 영업이익 774억원, 영업이익률 74.2%를 기록하며 성장세를 보였다. 향후 KTB네트워크는 국내시장에서는 신규 LP를 모집해 대규모 후속펀드를 결성한다는 계획이다. 중장기적 관점에서는 섹터전문 펀드, 프로젝트 펀드 등 펀드라인업 다각화 계획을 언급했다.김 대표는 "해외 시장에서는 기존에 진출한 미국과 중국 시장 확대 신규 국가 진출을 위해 해외 투자거점을 재정비할 예정"이라며 "특히 동남아와 인도시장 커버리지 확대를 계획하고 있으며 현지 VC와 파트너십 구축에 노력하고 있다. 실제 상장 이후 내년부터 대규모 해외펀드 결성에 적극 나설 전망"이라고 말했다.KTB네트워크의 공모 희망밴드는 5800~7200원으로 공모예정금액은 1160억~1440억원이다. 11월29일부터 30일까지 이틀간 수요예측을 거쳐 공모가를 확정하고 다음달 6~7일 청약을 진행한다. 상장 예정 시기는 다음달 중순이다. 대표주관사는 한국투자증권이다. NH투자증권, 삼성증권, 유진투자증권, 하이투자증권, KB증권은 인수단으로 참여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>인천청년창업사관학교 “인천 특유의 끈끈한 협력관계, 창업에 최적”</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003394281?sid=105</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>열정과 아이디어를 충분히 갖춘 사람임에도 불구하고 자금이나 인력, 경험의 부족으로 뜻을 펴지 못한다면 국가적으로도 큰 손실이다. 그래서 최근 여러 지방자치단체나 대학, 지원 기관 등이 이러한 예비 창업자들을 돕기 위한 다양한 지원 프로그램 및 행사를 마련하고 있다.인천청년창업사관학교 교육 현장 (출처=인천청년창업사관학교)오는 11월 25일에 열리는 인천 지역 최대 창업 페스티벌인 ‘I-STARTUP 2021(아이스타트업, 인천창업벤처한마당)’도 그 중의 하나다. 인천지방중소벤처기업청과 인천광역시가 주최하는 이번 행사엔 다양한 우수 창업 기업과 창업 지원 기관이 참여한다. 아이스타트업 2021 참여 기관 중 하나인 인천청년창업사관학교를 방문, 오현주 센터장과의 인터뷰를 통해 우수 창업 기업의 발굴과 육성에 대한 노하우, 그리고 인천 지역 창업 생태계의 이모저모에 대해 알아봤다.Q1. 본인 및 인천청년창업사관학교에 대한 간단한 소개를 부탁한다: 대기업 전략기획팀을 포함 IT분야에서 15년이상의 경험을 쌓았으며, 직접 스타트업을 창업해 5년 정도 운영하며 웹 및 앱 서비스를 개발하기도 했다. 이런 경험을 배경으로 스타트업 창업지원관련 업무에 나섰다. 인천청년창업사관학교 오현주 센터장 (출처=인천청년창업사관학교)청년창업사관학교는 매년 유망 창업 아이템과 혁신기술을 보유한 우수 창업자를 발굴해 창업교육및 사업화 코칭, 투자 및 컨설팅, 네트워킹 등 창업 전 단계를 패키지로 지원하는 창업성공패키지로 중소벤처기업진흥공단에서 운영하며 전국 18개곳에 거점을 두고 있다. 인천청년창업사관학교는 민간운영사인 엔슬파트너스에서 운영하고 있으며, 작년 IT분과의 코치에 이어 올해부터는 센터장으로 근무하며 청년창업가의 사업화 성공을 위해 다양한 창업 육성 프로그램을 운영 지원하고 있다. 올해 청년창업사관학교 전국 13개 민간운영사의 중간 평가에서 당당히 1위를 차지하는 등 괄목할 만한 성과를 내고 있다. Q2. 청년창업사관학교의 매력은?: 창업 3년 미만, 만 39세 미만의 초기 창업가들을 위한 창업 성공 패키지를 제공한다. 사업화 자금 및 시제품 제작, 판로개척, 투자 유치, 마케팅 등 다양한 지원을 받을 수 있고 인천청년창업사관학교 역시 올해 6.5 : 1의 높은 경쟁률을 기록했다.이렇게 높은 경쟁률을 뚫고 입교한 후에는 총 80학점의 창업교육을 이수해야 하고 각종 네트워킹 행사에도 참여해야 한다. 그럼에도 불구하고 청년창업사관학교가 3년미만의 청년 창업가들에게 인기가 높은 이유는 청년창업사관학교 입교만으로 유망 스타트업으로 인정받았다는 검증과 수많은 창업기관이 운영하는 창업지원 패키지 중 ‘창업생태계의 로얄 코스’라는 청년창업가들 사이의 인식 때문이다. ‘직방’이나 ‘토스’, ‘뱅크샐러드’ 같은 유명 기업들도 청년창업사관학교를 거쳤다. 실제 입교기간 내에 지원 받는 1억 이내의 사업화 자금뿐만 아니라 창업공간, 시제품 제작관련 인프라를 무료로 이용할 수 있고, 11년동안 검증받은 청년창업사관학교의 다양한 창업 지원 프로그램을 통해 단기간 내 기업의 성장을 도모할 수 있다는 점을 들 수 있다. 또한 졸업 후에도 국내 최대 중소기업 종합기관인 중소벤처진흥공단이 수행하는 정책자금, 수출·마케팅, 투자·컨설팅, 글로벌 진출, 내수 판로개척 등 졸업 후 5년까지 연계 지원받을 수 있다는 것이 다른 창업지원 사업과의 차별화된 장점이라 할 수 있다. Q3. 선발 기준은? 인천청년창업사관학교만의 차별점은?: 선발 과정에서 사업성, 기술성, 시장성, 대표의 역량 및 팀 빌딩(team building, 조직 효율을 높이기 위한 기법) 등을 종합적으로 검토하여 선발하고 있다. 인천청년창업사관학교 내에 마련된 스타트업 오피스 (출처=IT동아)인천청년창업사관학교의 강점이라면 기업의 성장에 실질적으로 도움이 되는 차별화 된 창업교육과 특화코칭, 다양한 네트워킹 활동, 투자유치 활동이 가장 강점이라 할 수 있다. 코로나 상황 속에서도 11기 인천청년창업사관학교 입교기업의 성공적 사업화를 위해 145시간의 창업교육과 236시간의 특화코칭 운영하였고, 스타트업 지식공동체 활동인 SCOP도 72회, 20회 이상의 네트워킹 행사도 개최하였다. 덕분에 우리가 다른 지역의 민간 운영사에 비해 창업 교육이나 사업화 코칭, 투자 등의 분야에서 두각을 드러낼 수 있었다고 본다. 이번 달만 해도 7개의 네트워킹 행사가 준비되어 있으며 기업들의 참여율도 높다. 또한 지리적으로 수도권에 위치해 있고 주변에 창업 생태계와 관련한 유관 기관 등의 인프라가 잘 조성되어 있어 다른 창업기관의 각종 지원사업을 연계지원을 받을 수 있다는 점을 꼽을 수 있다. 또한, 중소벤처진흥공단 인천지역본부(김춘근 본부장)에서도 각종 시설투자와 자금 연계 등 기업의 성장 지원을 위해 지원을 아끼지 않고 있다는 점이 강점이다. Q4. 인천청년창업사관학교가 낸 대표적인 성과는?: 2020년에는 45명의 청년 창업가를 배출했으며, 매출 110억원, 신규 고용 112명의 성과를 냈다. 10기 졸업기업 ㈜파블로항공(김영준 대표)은 150억원의 누적 투자를 유치하였고, 11기 졸업기업인 오늘의꽃(임재범대표)도 23억의 투자를 유치하였다.  현재 우리와 함께하는 11기 스타트업 중 대표적인 곳을 소개하자면 TIPS(민간주도형기술창업지원) 프로그램에 선정되어 투자를 유치한 영상 플랫폼 기업 ‘슬레이트미디어(강윤석대표)’, 포스텍홀딩스와 인천창조경제혁신센터로부터 3억의 투자를 유치한 포스코 사내 벤처 출신의 건자재 관련 플랫폼 기업 ‘공새로(남가람대표)’ 가 있다.그 외에도 2000년생의 젊은 대표가 이끌며 AI 기반 자연어(영어) 처리 플랫폼 ‘체리’를 개발한 ‘마이스(유동훈대표)’, 그리고 박사 학위를 가진 외국인 유학생이 설립한 ‘딥팜(LIU WEI대표)’은 동물 움직임을 AI로 분석하는 뛰어난 기술을 보유한 기업이다. 이들 기업은 이미 상당액의 투자를 유치하는 등, 가치를 인정받았다. 또한, 이번 아이스타트업에서 인천지역 창업활성화 유공포상에서 우수 창업지원기관으로 인천청년창업사관학교가 중소벤처기업부장관상을 수상하게 되었고, 케이즈이노텍(최규진대표), 아워픽(유경태대표), 델버(정재준 대표)가 인천지방중소벤처기업청장상을 수상하고, 공새로(남가람 대표)가 창업보육협회장상을 수상하게 되었다. Q5. 원활한 창업지원을 위해 인천시와 어떤 협업을 하고 있는가?: 앞서 말한 것처럼 인천시 특유의 기업 및 기관 간의 끈끈한 연계가 있다. 인천창업실무협의회가 1월에 발족해서 각 기관들이 서로 홍보 및 협조를 하고 있다. 인천테크노파크, 인천창조경제혁신센터, 인천대 등 다양한 기관에서 관계자들 간의 간담회나 협업이 이루어지고 있으며, 인천코트라지원단과는 내수기업수출화 지원사업을 협업하여 추진하였다. 최근 인천테크노파크 바이오산업센터와의 네트워킹 행사를 통해 ‘11기 스타트업 뷰티·바이오 클러스터’가 출범하기도 하였다.  인천청년창업사관학교는 인천지역 창업생태계 활성화를 위해 적극적으로 활동을 하고 있다. 3D 프린터 등 다양한 장비가 마련된 시제품 제작터 (출처=IT동아)오는 11월 25일에 열리는 인천지역 최대 창업 페스티벌인 아이스타트업 2021에선 우리가 각종 프로그램을 홍보하고 기관들의 협조도 얻을 것이다. 특히 아이스타트업 2021 기간 중에는 펫테크 기업인 로이코(장아람대표)와 비건화장품 전문기업 오셰르(김은실대표) 등이 주요 프로그램에 참여하고, 이외에도 44개의 유망 기업이 참여할 예정이라 많은 성과가 기대된다.Q7. 예비창업자들에게 전할 메시지가 있다면?: 아이디어나 창업자의 능력도 물론 중요하지만 이보다 더 중요한 건 코로나19 사태와 같은 예측 불가능한 상황에서도 살아남을 수 있는 기술력과 정신력을 갖추는 것이다. 어려운 상황에서도 팀을 추스르며 생존전략을 짜야 한다. 강한 자가 살아남는 것이 아니라 살아남는 자가 강한 것이라는 말이 있듯이 지금은 큰 물고기가 아니라 빠른 물고기가 살아남는 시대다. 여러 어려운 상황에도 빠르게 변화에 대처하고 적응하며 사업을 이어가고 있는 청년창업분가들을 위해 중소벤처진흥공단 인천지역본부, 인천청년창업사관학교, 그리고 엔슬파트너스는 최선을 다해 지원하겠다.동아닷컴 IT전문 김영우 기자 pengo@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>[단독]네이버·신한銀 인증서도 올 연말정산에 쓴다</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002984202?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>25일 경기도 분당 네이버 그린팩토리 전자서명인증센터에서 센터장과 정책관리자가 건강보험공단 홈페이지를 네이버인증서로 로그인하고 있다. 박지호기자 jihopress@etnews.com2021년도 연말정산부터 네이버와 신한은행 디지털 인증서가 도입된다. 25일 행정안전부는 “네이버·신한은행 인증서를 공공 영역에 적용하기로 했다”면서 “연말정산 홈택스뿐만 아니라 여러 공공기관 사이트로 점차 확대하겠다”고 밝혔다. 행안부는 올해 말까지 총 55개 정부 공공기관 사이트에 사설 간편인증을 도입한다는 목표를 세웠다. 국세청 홈택스·위택스, 행정안전부 정부24, 국민건강보험, 국민권익위원회 국민신문고, 관세청 개인통관 고유부호 조회, 보건복지부 복지로 등 다양한 공공기관 사이트에 간편하게 접속해서 서류를 발급할 수 있을 것으로 전망된다.이로써 정부 공공기관 사이트에 접속할 수 있는 사설인증서는 총 7개가 된다. 지난해 1차 시범사업자로 카카오, KB국민은행, NHN페이코, 한국정보인증(삼성패스), 패스(이통3사) 등 5개가 선정됐다. 네이버와 신한은행까지 가세했다. 행안부는 앞으로 과학기술정보통신부가 선정한 전자서명인증사업자 인증서를 공공기관에 추가 적용할 방침이다. 전자서명인증사업자로 인정받은 토스, 뱅크샐러드 등이 준비하고 있다.지난해 처음 홈택스 연말정산서비스에 사설인증서를 적용한 결과 간편인증 이용 건수는 1000만건이 넘은 것으로 집계됐다. 카카오가 점유율을 압도했다. 지난해 말 기준 전자서명·인증서 시장 규모는 약 700억원이다. 이용자는 사설 인증서를 무료로 사용한다.[표] 공공기관 간편인증사업자 현황 (자료=업계 취합)</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>높은 몸값으로 인력 쓸어간 ‘인뱅’…은행, 자체 인력 육성 ‘꿩 대신 닭?’</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001918017?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>인뱅 공격적 처우 제시에 영입 대신 자체육성 시도[헤럴드경제=서정은·박자연 기자] 토스뱅크와 카카오뱅크·케이뱅크 등 인터넷은행이 스톡옵션과 고연봉으로 디지털 전문 인력을 흡수하자, 시중은행들이 디지털 전환을 위한 인력 확보에 난항을 겪고 있다. 고육지책으로 기존 직원들을 대상으로 자체 디지털 인력 육성에 나서고 있다.29일 금융권에 따르면, 신한은행은 ‘BD 1000’ 프로그램을 내년부터 영업점 직원들 대상으로 확대 운영할 계획이다. 데이터 활용 역량 강화를 위해 올초부터 추진한 이 프로그램은, 행내 데이터 분석 전문가 1000명을 만든다는 취지로 기획됐다. 이달까지 육성된 데이터 전문가는 960명. 신한은행은 인사이력에 인공지능(AI), 데이터 등 디지털분야를 포함한 8개 분야에 직원들이 희망직무를 선택하는 ‘MY직무 지정제도’도 도입했다.KB국민은행 또한 신입행원 과정 내 디지털 전환(DT) 교육프로그램을 운영하고, 프로그램 내 DT 활성화 지표를 측정하고 있다. 전직원들을 대상으로는 IT비전공자 대상으로 코딩역량 함양 프로그램도 진행한다. NH농협은행 또한 직원들을 디지털전문인력, 데이터전문인력으로 구분해 내부 전문가들을 양성하는 작업을 진행해오고 있다. 신한은행, KB국민은행, NH농협은행의 경우 적극적인 인재 육성으로 ‘슈퍼앱’에서 두드러진 실적을 내는 등 디지털 전환을 가속화하고 있다는 평가를 받는다.은행권 관계자는 “내부 직원 육성은 디지털 금융환경 대응을 위한 것이기도 하지만, 각 금융사가 디지털에 집중하면서 외부 인력 몸값 자체가 높아져 기존 은행의 연봉 테이블에서 수용하기 어려운 측면이 있다”며 “시간이 걸리더라도 내부 인력을 육성할 수 밖에 없다”고 토로했다.또 다른 관계자도 “각 사들이 외부인력채용을 통해 디지털 전문파트너를 찾으려고 하지만, 보안을 중시하는 은행 특성상 제휴도 쉽지 않은 부분이 많다”며 “디지털 인력에 대한 성과보상시스템 등을 구축하는 것도 하나의 고민거리”라고 말했다.실제 인터넷뱅크는 높은 몸값을 제시하며 공격적 인력 확보에 나서고 있다. 토스뱅크는 최근 입사 1주년을 맞이한 사내 임직원을 대상으로 주식매수선택권(스톡옵션)을 부여했다. 임직원 30명에게 스톡옥션 60만주가 제공됐다.카카오뱅크 또한 전 직원의 임금을 평균 1000만원 이상 일괄 인상하는 파격 성과보상을 제시했다. 각각 연봉 30%, 20% 규모 스톡옵션과 성과급도 지급한다. 케이뱅크 역시 올 7월 전 직원을 대상으로 스톡옵션 210만주를 부여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>[포럼] 기술혁신은 치열한 시행착오의 산물</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002706928?sid=110</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>이성화 한국지적학회 회장·대구대 교수이성화 한국지적학회 회장·대구대 교수    '네카라쿠배당토'는 최근 채용시장에서 쉽게 접할 수 있는 단어다. 이는 '네이버·카카오·라인플러스·쿠팡·배달의민족·당근마켓·토스'의 줄임말로 국내 대표 플랫폼 기업의 머리글자를 딴 신조어다. 이들은 모두 IT 기술을 기반으로 한 플랫폼을 선점한 기업들로 미래의 성장 가치가 높다. 실제로 카카오와 네이버는 기존 네트워크인 모바일 메신저와 인터넷 검색엔진을 통해 축적된 방대한 데이터를 기반으로 시장 지배력을 선점했다. 카카오톡의 국내 메신저 시장 점유율은 90%에 육박하며, 이를 기반으로 2021년 상반기에 158개의 계열사를 가진 기업으로 성장했다.글로벌 플랫폼 기업으로 평가되는 아마존, 구글, 애플과 같은 빅테크 기업도 마찬가지 수순을 밟았다. 이 경쟁의 본질은 혁신적 플랫폼을 만들어 업의 본질을 재정의하고 새로운 시장을 개척해나가는 것이다.누구의 기술이 시장의 표준이 될 것인가를 놓고 벌이는 한판 승부에서 승리할 경우 미래 시장의 지배권을 거머쥐게 된다. 일정 수준 이상의 점유율을 넘어서면 급격한 지배력이 생기는 플랫폼 산업의 특성에 힘입어 그동안 축적해온 데이터를 기반으로 시장의 대세가 되기 때문이다. 이로 인해 기존 게임의 룰로 생존해왔던 기업들은 경쟁력을 잃게 된다. 이처럼 혁신 기술을 접할 때마다 놀라운 아이디어에 감탄할 때가 많다. 이달 초에 한국지적학회·한국지리정보학회·한국측량학회가 공동으로 마련한 추계학술대회에서도 공간정보산업 발전에 기여할 수 있는 메타버스, VR, 3D 프린팅 기술들을 공유했지만, 이러한 시도는 누군가 하룻밤 새 만들어낸 것이 결코 아니다. 아이디어에 착안해 기술을 접목시켜 현실에 적용해보고 개선사항을 도출하는 도전적 시행착오를 감행한 것이다. 이로 인해 일반평판에서 도면전산화에 의한 전자평판, 토탈시스템, GNSS, 드론에 이르기까지 다양한 혁신을 거듭할 수 있었다.특히 4차 산업혁명 시대를 맞아 첨단 기술이 도입되면서 코로나 상황에 맞는 비대면 모바일 서비스가 구현되고 국민들의 오랜 요구사항이었던 지적서비스 기간 단축을 위한 다양한 서비스가 시도되고 있다. 이 가운데 국토교통부 산하 준정부기관인 LX한국국토정보공사가 최근에 개최한 '지적측량 혁신경진대회'는 매우 의미 있는 시도라 여겼다. 모든 아이디어가 현장에 적용될 수는 없겠지만 국민 눈높이에 맞는 서비스 제공을 위한 공공기관의 혁신 노력은 높이 평가받아야 한다고 생각했기 때문이다. 이런 노력들에 힘입어 국내 지적·공간정보기술이 해외시장에서 빛을 보고 있다. 18종으로 분산된 부동산 관련 공부를 1종으로 통합 관리하는 '일사편리'는 세계 최초의 선진 토지행정 서비스다. 모든 토지정보를 신속·정확하게 구축하고 체계적으로 통합·관리하는 '한국토지정보시스템'(KLIS) 역시 K-한류의 또 다른 축이다. 한국 정부가 UN이 발표하는 전자정부 평가에서 매년 세계 최상위권을 차지하는 것도 이에 힘입은 바가 적지 않다. 최근엔 해외건설시장에도 가상세계에 디지털 쌍둥이를 만드는 '디지털 트윈' 등 공간정보기술이 접목되면서 패키지형 진출이 검토되는 추세다. 따라서 이러한 다양한 시도를 토대로 성공 모델과 표준으로 만들려면 새로운 협력 모델과 연결해야 한다. 다양한 이해관계자들이 참여를 바탕으로 혁신기술의 시행착오를 축적하고 이것이 혁신성과로 이어지는 환경을 만들어야 한다. 이 과정에서 정부 혹은 공공기관의 일관된 지원과 협력은 필요충분조건이다. 하지만 안타깝게도 한국의 혁신생태계에선 이런 스케일업 과정을 뒷받침해주는 지원이 마르는 경우가 많다. 인내자본은 모든 혁신기술과 신산업을 싹트게 하는 원천이다. 도전적 시행착오가 사장되지 않도록 체계적으로 축적하고 활용할 수 있도록 적극 나설 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>토스 출신 CPO, 티맵 합류...통합모빌리티 사업 이끈다</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036981?sid=105</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>(사진=티맵모빌리티)티맵모빌리티가 김유리 전(前) 비바리퍼블리카 비즈니스전략담당을 최고제품책임자(CPO·Chief Product Officer)로 영입했다고 17일 밝혔다.김 CPO는 2003년 삼성전자 무선사업부 소프트웨어 개발자로 시작해 해외영업, 프로덕트 매니저(PM)등을 거쳤다. 2011년부터는 애플 본사의 글로벌 서플라이 매니저를 비롯해 SK텔레콤, 쿠팡, 토스에서 개발·UX·전략·스텝 등으로 일해왔다. 티맵모빌리티는 SK텔레콤의 모바일 내비게이션 ‘티(T)맵’을 중심으로 모빌리티 사업이 분사해 신설된 회사다. 티맵모빌리티에서 김 CPO는 서비스 전략을 담당하게 된다. 각종 운송수단을 연계해 제공하는 통합모빌리티서비스(MaaS), 티맵의 올인원모빌리티(AIM) 등 조직을 이끌 예정이다. 분사 당시 티맵모빌리티는 렌터카·차량공유·택시·단거리 이동수단·대리운전·주차 등을 모두 묶어 할인혜택을 제공하는 월정액 ‘구독형 상품’을 출시해 차별화에 나서겠다는 계획을 밝힌 바 있다. 장기적으로는 도심항공교통(UAM) 사업도 구상하고 있다.김 CPO는 “이동에 관한 모든 고객 접점을 빠르게 점령해 나갈 것”이라며 “사람들이 이동하고자 할 때 가장 먼저 떠오르는 강력한 모빌리티 플랫폼을 만들겠다”고 말했다.한편 티맵모빌리티는 지난해 12월 출범 이후 안심대리, T지금, 플러스 멤버십, 픽업서비스 등을 순차적으로 출시해오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>당국 질책에 마이데이터 ‘자동차 경품 이벤트’ 접은 은행들</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000776802?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>우리·KB국민은행, 마이데이터 사전 예약하면…  1등에 7000만원대 제네시스 차 추첨 제공 이벤트  금융당국 “과도한 마케팅이다” 지적 잇따르자  이벤트 마감 임박해 철회… 소액 경품으로 대체        다음 달 마이데이터(본인신용정보관리업) 서비스 오픈을 앞두고 경품으로 제네시스 자동차를 제공하는 등의 이벤트를 내건 은행들이 금융당국 경고에 결국 이를 철회했다.29일 은행권에 따르면 우리·KB국민은행 등 마이데이터 사전 예약 이벤트로 고액 경품을 내걸었던 곳들이 결국 경품 항목을 수정한 것으로 확인됐다. 두 은행 모두 최근 “내부 사정에 따라 변경된 경품으로 추첨이 진행되니 양해를 부탁한다”고 알렸다.제네시스 GV80        물꼬를 튼 것은 우리은행이었다. 우리은행은 지난 8일부터 마이데이터 사전 예약 이벤트의 일환으로, 추첨을 통해 1등에게 ‘제네시스 GV60′을 증정한다고 홍보했다. 이어 국민은행도 지난 18일부터 ‘숨은 내 돈 찾기’ 서비스 등 마이데이터 예약 고객에게 ‘제네시스GV70′과 ‘제네시스GV80′ 경품 추첨에 응모할 기회를 부여한다고 공지했다. 이들 차량은 평균 7000만원대에 팔린다. 이런 이벤트를 접한 많은 고객이 해당 은행들의 마이데이터 서비스 사전 예약에 참여했다.금융위원회는 이런 현상에 대해 ‘마케팅이 과하다’며 쓴소리를 내기 시작했다. 마이데이터는 개인정보를 집중해 관리하는 서비스일 뿐인데, 가입 경쟁이 자칫 개인정보와 관련한 사고로 이어질 수 있다는 인식에서였다. 잇따라 금융감독원도 지난 19일 8개 시중은행 여신담당 부행장과의 회의 자리에서 “마이데이터 서비스에 대한 마케팅 과정에서 과도한 경품 제공 및 실적 할당 등 불건전 관행이 발생하지 않도록 노력하기로 했다”고 언급하기도 했다.두 은행이 내건 자동차 경품은 따지고 보면 규정 위반 사항은 아니다. 신용정보업 감독규정 등에 따르면, 마이데이터 사업자는 3만원을 초과하는 경품을 내걸 수 없다고 명시돼 있다. 다만 ‘추첨’의 방식일 경우 ‘평균’ 제공 금액이 3만원을 넘어서는 안 된다는 예외 규정이 있다. 은행들은 이벤트 신청자가 많이 몰리면 자동차 1~2대 정도를 포함한다고 하더라도 평균 제공 금액을 넘지 않을 것으로 자체 판단했으나, 금융당국은 이것이 규정 취지에 어긋나는 데다가 오히려 예외 규정을 악용한 사례라고 지적했다.KB국민은행(위)과 우리은행이 최근 마이데이터 관련 사전 예약 이벤트의 경품 내용을 바꿔 공지했다. 내부 사정에 의해 제네시스 경품이 다른 경품으로 대체된다는 내용이 포함됐다. /국민·우리은행 홈페이지 캡처        결국 이벤트 종료일(11월 30일)이 임박해서야 우리은행은 1명에게 추첨해 증정하기로 했던 제네시스GV60 대신, 다수를 대상으로 다양한 경품을 제공하기로 방침을 바꿨다. 국민은행 역시 제네시스GV70 1명 경품 몫 대신 40명에게 아이패드 프로를 제공하기로 했다.12월 중 마이데이터 사업 오픈이 임박한 가운데, 은행을 포함한 전 금융업권에서의 사전 고객 확보 경쟁이 치열한 분위기다. 하나은행은 사전 예약 고객을 대상으로 최대 연 4.1% 금리의 적금 상품에 가입할 수 있도록 했고, IBK기업은행은 갤럭시Z플립·아이폰13프로 등의 추첨 이벤트를 내걸었다. NH농협·신한은행도 자체 포인트나 커피 쿠폰을 지급한다. 핀테크 업체 핀다·토스·뱅크샐러드 등은 마이데이터 서비스 개시를 앞두고 TV 광고를 적극적으로 방영하며 인지도 높이기에 주력하는 모습이다.일각에선 민간 회사의 자율 영역에 금융당국이 사사건건 눈치를 주는 것 아니냐는 볼멘소리도 나온다. 한 금융권 관계자는 “빅테크 등의 애플리케이션(앱)에 비해 무겁고 불편하다는 비판을 받아 온 은행 앱들이 마이데이터 서비스 개시를 계기로 달라진 모습을 보여줄 수 있는 절호의 기회로 판단했을 것”이라며 “이 때문에 적극적으로 고객 유치에 나섰으나 결국 제동이 걸렸다”고 말했다.앞서 금융당국은 지난해 5월에도 긴급재난지원금 신청을 앞두고 캐시백 등 이벤트 경쟁을 벌인 카드사들에 ‘마케팅 자제’를 당부해 논란이 됐다. 이에 따라 일부 카드사들은 하루 만에 이벤트를 철회하기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.11.21.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>뮤직카우 저작권 수익률 年 36%…2030 새 투자처로 뜬다</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004631057?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>'넥스트 토스' 뛴다…핀테크 혁명 시즌2(1) 질주하는 뮤직카우매주 5~7개 곡 저작권 청구권주식처럼 지분 쪼개 경매 부쳐배당처럼 月수익, 팔면 시세차익회원 80만…연내 '선물 서비스'매출 128억→450억 수직상승기업조사업체 CB인사이트에 따르면 올 9월 말 기준 세계 유니콘 기업(기업가치 1조원 이상 스타트업) 848개 중 20%(167개)는 핀테크 업체다. 핀테크 유니콘들의 기업가치는 6545억달러(약 780조원)로 전체 유니콘 몸값(2조7484억달러)의 24%다. 핀테크가 ‘금융산업의 메기’를 넘어 ‘유니콘의 산실’ 역할도 하는 셈이다. 하지만 한국 기업 중에서는 ‘토스’의 비바리퍼블리카와 ‘업비트’로 대박을 친 두나무를 빼면 새 얼굴이 좀처럼 나오지 않았다. 업계는 “정부의 세밀한 규제, 기존 금융회사의 견제 등으로 국내 핀테크 토양은 아직도 척박하다”고 말한다.그런데 이런 척박한 환경을 뚫고 기업가치 1조원을 넘보는 핀테크 스타트업이 다시 나오고 있다. 이들의 특징은 네이버, 카카오, 토스가 선점한 송금·결제시장 대신 새로운 영역에서 기회를 찾는다는 것이다. 대체투자, 대안신용평가, 대체불가능토큰(NFT) 등의 분야를 개척하며 ‘핀테크 붐 시즌2’에 대한 기대를 키우고 있다. “안정적이고 높은 기대수익률”가수 멜로망스의 인기곡 ‘선물’의 저작권은 이 곡을 만든 두 멤버(정동환·김민석)뿐 아니라 3076명이 함께 보유하고 있다. 아티스트의 전유물로 여겨지던 저작권을 일반인도 소유할 수 있게 된 건 뮤직카우가 세계 최초로 선보인 음악 저작권 거래 플랫폼 때문이다.뮤직카우는 음악 원저작자로부터 저작권료 수익을 받을 수 있는 권리인 ‘저작권료 참여 청구권’의 일부를 목돈을 주고 사들인다. 이를 주식처럼 쪼갠 뒤(증권화) 경매한다. 매주 5~7개 곡이 경매에 부쳐진다. 누구든 뮤직카우를 통해 이 저작권 지분에 투자할 수 있다. 구매자는 해당 곡에 대한 저작권료를 매달 배당받고, 다른 사람에게 팔아 시세차익을 얻을 수 있다.서비스를 시작한 2018년 1만여 명에 불과하던 회원 수가 80만여 명으로 불어났다. 짭짤한 수익, 투자하는 재미, 좋아하는 가수를 돕는 기쁨을 함께 얻을 수 있다는 점이 MZ세대(밀레니얼+Z세대)에 먹혀들었기 때문이다. 누적 거래액도 2018년 10억원에서 올해 10월 말 2824억원으로 급증했다. 현재 월간 거래액은 700억원 수준이다. 매출은 지난해 128억원에서 올해는 450억원을 기록할 것으로 예상된다.정현경 뮤직카우 대표(사진)는 기자와의 인터뷰에서 “저작권은 다른 자산과 달리 사회·경제 이슈에 따라 시세가 크게 변하지 않는 게 특징”이라고 설명했다. 연세대·홍익대 경영대학 교수진이 2018년 1월부터 올 6월까지 주요 자산의 수익률을 분석한 결과 음악 저작권의 연평균 수익률(배당+시세차익)은 35.86%로 나타났다. 금(11.09%), 국내 주식(10.18%), 해외 주식(5.45%), 달러(1.65%) 등을 크게 웃돌았다.K팝의 인기와 정보기술(IT) 발달에 따른 저작권료 징수 매체 확대, 리메이크·역주행 신드롬 등이 앞으로 저작권 거래 시장을 넓힐 요인으로 꼽힌다. 다만 정식 수익증권으로 당국의 인가를 받지 못했고, 원금이 보장되지 않는 상품이라는 점은 한계로 지적된다. 뮤직카우는 자산의 수익증권화를 통해 투자자 안전장치를 강화하고자 지난 3월 금융당국에 혁신금융서비스를 신청한 상태다.  “내년 초, 미국에 법인 설립”사업 초기 아티스트들은 뮤직카우에 저작권 지분을 잘 내놓지 않으려 했다. 뮤직카우는 “음악 생태계의 선순환 구조를 구축하겠다”고 이들을 설득했다. 뮤직카우는 원저작자로부터 저작권을 살 때 저작권의 미래가치 상승분을 반영해 값을 쳐준다. 아직 큰 성공을 거두지 못한 아티스트는 목돈을 받아 창작비용 및 생계비용을 충당할 수 있다. 이미 인기를 끌고 있는 아티스트도 팬들과 소통을 강화할 수 있다.뮤직카우 경매에선 특정 가수 팬들의 ‘최고가 입찰 경쟁’도 종종 일어난다. 정 대표는 “저작권을 산 팬들은 수익을 더 내기 위해서라도 해당 음악을 더욱 많이 듣고 부른다”고 말했다.투자업계는 2023년 기업공개(IPO)를 추진 중인 뮤직카우의 기업가치를 최대 1조원 수준으로 평가하기도 한다. 시리즈C까지 총 340억원의 투자를 유치한 뮤직카우는 최근 전략 마케팅과 개발, 데이터 분석 등 분야의 인재 채용에 나서고 있다. 연내 음악 저작권 선물하기 서비스도 선보일 예정이다. 내년 초에는 미국 법인을 세워 해외 진출을 본격화한다는 계획이다.1973년생인 정 대표는 울랄라세션의 ‘너와 함께’와 바비킴의 ‘가슴앓이’ 등 인기곡 작사가 출신이다. 그는 “작사·작곡 등 경험을 살려 사업 모델을 고민한 결과 금융과 문화, 플랫폼 세 가지 키워드를 연결할 수 있었다”고 설명했다. 미국 서던캘리포니아대 경영학과와 서강대 경영대학원을 졸업한 정 대표는 1999년 온라인 교육업체인 중앙ICS를 설립한 1세대 벤처 기업인이기도 하다. 벤처산업협회 이사와 한국여성벤처협회 부회장 등도 지낸 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>대출비교 플랫폼서 씨티은행 상품 조회 못한다…카뱅 신용카드 발급도 중단</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000266058?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>내일(30일)부터는 토스나 카카오페이 등 대출비교 플랫폼에서 한국씨티은행 대출 상품을 조회할 수 없게 됩니다. 아울러 다음달 1일부터는 한국씨티은행과 카카오뱅크의 제휴카드 발급도 중단됩니다. 오늘(29일) 금융권에 따르면 한국씨티은행은 내일 오후 4시부터 현재 제휴를 맺은 대출비교 플랫폼에서 서비스를 중단하기로 했습니다. 대출비교 플랫폼은 은행과 저축은행 등 금융회사의 대출 상품 금리나 한도를 비교하는 서비스를 제공하고 있습니다. 소비자들이 각 금융사의 영업점이나 홈페이지를 방문하지 않고도 자신의 연소득 등 기본정보를 입력해 금리나 한도 등을 한 눈에 비교할 수 있다는 점이 특징입니다. 씨티은행은 그동안 토스와 카카오페이, 뱅크샐러드 등 11곳과 제휴를 맺고 대출비교 서비스를 제공해왔습니다. 씨티은행 관계자는 "대출비교 플랫폼을 통한 적극적인 마케팅을 자제하려는 취지"라며 "대출비교 서비스만 중단될 뿐 영업점을 통한 대출 영업은 동일하게 진행된다"고 설명했습니다. 다음달 1일부터는 카카오뱅크 제휴카드인 '카카오뱅크 씨티카드' 신규 발급이 중단됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>토스·뱅크샐러드 전자서명인증사업자 선정 지원한 이니텍··· “독점적 우위 지속”</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002113652?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] KT그룹 금융 보안기업 이니텍은 토스와 뱅크샐러드의 전자서명인증사업자 인증 사업 인증을 받았다고 16일 밝혔다. 이를 바탕으로 KT 등 다수 기업과 전자서명인증시스템 구축 사업을 진행한다는 계획이다.   전자서명인증사업자는 전자서명법 개정 이후 전자서명인증 서비스의 신뢰성과 안정성 확보를 위해 도입된 제도다.   이니텍은 지난 1월 뱅크샐러드 전자서명인증 시스템 구축 사업을 수주해 ▲전자서명법에 근거한 전자서명인증시스템 인프라 구축 ▲전자서명인증시스템 관련 솔루션 제공 ▲전자서명인증사업자 인증평가 지원 등 뱅크샐러드를 지원했다. 그 결과 뱅크샐러드는 지난 11일 전자서명인증사업자로서 운영기준 준수사실을 인정받았다.   또 지난 2월 토스의 전자서명인증사업자 지위 획득을 위해, 인증서를 발급하는 솔루션을 제공했다. 전자서명인증사업자 평가/인증 과정에서 필요한 영역에 대한 컨설팅도 진행했고, 토스 역시 지난 11일 전자서명인증사업자로 선정됐다.   이니텍은 현재 KT 전자서명인증사업 인증 심사를 진행 중이다. 이밖에 다수 기업과 전자서명인증시스템 구축 사업을 앞두고 있는데, 뱅크샐러드와 토스의 레퍼런스를 바탕으로 전자서명사업 영역에서 독점적 우위를 지속하겠다는 전략이다.   이니텍 보안사업본부 배무건본부장은 “이번 토스와 뱅크샐러드 전자서명인증사업자 인정을 통해 이니텍이 전자서명사업의 최상의 파트너로서 입지를 공고히 했다. 이니텍은 향후에도 공동인증 서비스 구축 및 최신의 레퍼런스 경험을 기반으로 전자서명사업 영역에서 독보적 우위를 지속할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>쿠콘, 제3금융권 대출정보 중계…핀테크 서비스 범위 넓힌다</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002707983?sid=105</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>리드코프와 대출정보 중계 업무 제휴온라인 대출 비교 플랫폼에 대출상품 제공쿠콘(대표 김종현)이 대출정보 연계 서비스 범위를 제1, 2금융권에 이어 제3금융권까지 확대한다고 밝혔다.올 8월 금융위원회는 서민 금융 우수 대부업체의 대출상품을 온라인 대출 비교 플랫폼에 제공할 수 있도록 허용했다.쿠콘은 리드코프와 대출정보 중계 관련 제휴를 맺고 대출 연계 서비스를 제공할 예정이다. 쿠콘의 대출정보 중계 사업을 통해 제공되는 대출정보는 카카오, 토스, 핀다 등 대다수의 대출상품 비교 추천 플랫폼에서 활용되고 있다. 쿠콘은 '간편 대출 서비스 시스템' 특허를 보유하고 관련 시스템도 제공한다. 연계 금융기관은 핀테크 기업과의 인프라 구성에 따른 운영 리스크를 쿠콘과 제휴로 해소할 수 있다. 회사는 금융위 정책에 부합해 금융 소외계층도 중금리로 편리하게 대출을 이용할 수 있도록 서민 금융 우수 대부업체와 연계를 계속 확대한다는 계획이다.김종현 쿠콘 대표는 "리드코프와의 제휴는 제3금융권 대출정보를 제공하는 첫 사례라는 점에서 뜻깊다"며 "앞으로도 여러 금융기관이 쿠콘을 통해 고객 유입 채널을 확대하고, 빠르게 사업을 추진할 수 있도록 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.11.21.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>"흩어지면 죽는다"...'원앱'으로 반전 노리는 은행들</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000642342?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>당국 규제 완화 움직임에 빅테크와의 경쟁 치열마이데이터 사업도 '원앱' 전략에 영향지난달 개편된 KB스타뱅킹 앱에서는 증권부터 보험, 카드 등 다른 KB 계열사 서비스를 별도의 앱을 열지 않고도 이용할 수 있다. KB국민은행 제공디지털 혁신에 몰두하고 있는 은행권이 수십 개의 앱에 흩어져있던 기능을 한곳으로 모으는 작업에 한창이다. 은행 앱이 단순한 은행 관련 업무만 볼 수 있던 앱에서 여러 서비스를 품은 '금융 플랫폼'으로 진화하고 있기 때문이다. 특히 최근 금융당국이 은행권 앱 관련 규제를 완화할 것을 약속하면서 빅테크와의 '슈퍼앱' 경쟁은 더 치열해질 것으로 전망된다.21일 금융권에 따르면 KB국민은행은 지난달 말 기존 KB스타뱅킹 앱을 개편하면서 계열사 기능을 한곳으로 모았다. 지난해 말만 해도 18개에 달하던 앱에 분산돼 있던 금융 관련 기능을 'KB스타뱅킹'과 '리브'에 모은 것이다. 은행 관계자는 "기존 앱을 모두 없앤 건 아니지만, 웬만한 기능은 KB스타뱅킹 앱 안에서도 동시에 구동이 가능하도록 했다"며 "로그인 한 번으로 뱅킹 서비스부터 증권 거래, 보험 가입까지 가능한 것이 특징"이라고 설명했다.이전과 가장 크게 달라진 점은 계열사 간 연계다. 기존에는 은행 업무에서 증권 업무로 넘어가기 위해서는 새로운 앱을 열어야 했지만, 이제는 같은 앱 내에서 KB증권 페이지가 구동돼 앱 자체가 여러 개의 서비스를 품은 하나의 플랫폼 역할을 하게 된 셈이다.파편화된 앱 기능을 한곳으로 모아 '플랫폼화'하는 전략은 다른 금융사들도 적극적으로 채택하고 있다. 신한은행은 이미 2018년부터 '원 앱' 전략을 내세워 6개 금융 앱을 '쏠(SOL)' 하나로 통합했고, 모바일 뱅킹 이용자 수가 수직 상승하는 효과를 봤다. NH농협은행은 7개로 나뉘어 있던 앱을 3개로 통합하는 작업을 꾸준히 진행 중이다. 하나은행과 우리은행도 '하나원큐'와 '우리WON뱅킹' 등 주요 앱 하나에서 다양한 기능을 이용할 수 있도록 개편을 거듭해왔다.토스 앱 안에는 '토스뱅크'와 '토스증권'이 포함돼 있어 별도의 앱을 다운로드받을 필요가 없다. 토스 캡처카카오뱅크나 토스 등 원앱 전략을 내세운 빅테크의 '선전'은 은행의 경계 대상이다. 후발주자인 토스는 지난달 토스뱅크를 출범하면서 은행 서비스를 2,000만 명의 이용자를 보유하고 있는 기존 앱에 녹이겠다고 발표했다. 은행 앱을 기반으로 다른 기능을 붙이거나 새로운 앱을 내놓던 기존의 금융권 방식과 정반대의 길을 택한 것이다. 새로운 은행 앱을 설치하지 않아도 되는  이용자들은 크게 호응했다. 내년부터 본격적으로 시행되는 마이데이터 사업도 금융사들의 '원앱' 전략에 영향을 끼치고 있다. 마이데이터는 각종 금융사에 흩어져 있던 개인의 데이터를 한데 모아 빅데이터로 활용할 수 있도록 하는 제도인데, 다양한 계열사 기능이 한데 모여있어야 데이터 활용에 있어 시너지 효과가 커지기 때문이다.최근 금융당국이 "금융그룹이 하나의 '슈퍼 앱'을 통해 다양한 서비스를 제공하는 것이 가능해지도록 제도적 기반을 조성하겠다"고 밝히면서 은행의 플랫폼 주도권 싸움은 더욱 치열해질 것으로 보인다. 금융권 관계자는 "원앱 전략은 금융의 외연이 확장되면서 나오는 하나의 흐름"이라며 "은행과 빅테크 간의 경쟁도 더욱 심화할 것으로 전망된다"고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[취재현장] 부끄러운 줄 알아야</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000733394?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>경북부 마경대 부장경북도 내 시(市) 단위 지자체들마다 내년도 살림살이 예산이 1조 원 시대를 맞고 있다. 하지만 시세 6위인 영주시의 내년도 예산 성적표는 한심하기 짝이 없다. 초라하다 못해 빈곤하기까지 하다. 도내 10개 시 단위 자치단체 가운데 단연 꼴찌다.그런데도 영주시는 구차한 변명만 늘어놓고 있다. 반성과 대안 제시는 눈을 씻고 찾아봐도 없다. 매일신문 보도(11월 26일 자 2면) 이후 장욱현 영주시장 밴드에는 2022년 영주시 예산 규모가 작다는 것은 사실이 아니라는 글이 올라왔다.한마디로 눈가리고 아웅하는 소리다. 시민들을 두 번 속이는 것이나 다름없는 것이다.'오해가 있는 것 같아서 올린다'는 제목의 이 글은 영주시 관계자가 작성한 것으로 보인다. 이런 글을 작성해서 각종 밴드에 퍼 날랐다면 선거법 위반 소지가 높다. 선관위도 한번 들여다봐야 할 대목이다.장문의 글은 도통 이해하지 못할 말들로 도배되어 있다. 당연히 기사를 쓴 기자도 이해를 못 할 정도다. 그냥 대충 덮고 넘어가자는 식이다. 시민들이 그리 어리석지는 않을 것이다. 오죽하면 이 글을 기자에게 토스했을까.이 관계자는 "영주시는 본예산의 체질을 과감하게 개선했다"며 "영주시는 2022년 추경 예산까지 포함하면 1조 원이 넘는다"고 주장하고 있다. 헛웃음이 절로 나온다. 추경 예산은 본예산이 아니기 때문이다.또 "과거에는 사업 추진 진도와 상관없이 총사업비에 재원을 확보해 과다 현상이 발생했다"면서 "영주시는 예산 편성 횟수와 시기에 대한 예측이 가능해져 본예산을 살찌우는 방식이 아닌 연간 단계적 예산 편성을 통해 계획적으로 관리하고 있다"고 해명했다.이어 "과거에는 허겁지겁 예산을 세워 놓고 집행을 하지 않아 추경에 사용할 자금이 부족해 사업을 미루는 일이 부지기수였다"면서 "이제는 본예산을 최대한 확보하는 시대가 아니라 1차, 2차, 3차 추경 예산까지 탄력적으로 편성해 필요한 시기에, 필요한 만큼 예산을 편성해 효율적으로 사용하는 것이 건전한 재정을 운영하는 것"이라고 설명했다.그 이유로 그는 "올해 영주시의 본예산은 7천687억 원으로 추경과 기금을 포함해 최종 예산이 1조629억 원에 이른다"며 "2022년 예산도 기금을 포함하면 1조 원 규모"라고 덧붙였다.이런 내용을 본 전직 공무원 A씨는 "체질 개선을 했다고 본예산을 축소하는 것은 이해가 안 된다. 타 시군은 기금과 추경 예산을 편성 안 하는가? 변명치고는 궁색하다. 중앙정부도 있는 그대로 예산을 편성하지 줄이거나 늘리지 않는다. 이런 해명은 시민들의 알 권리를 기망하는 처사다. 예산을 의회에 보고하지 않고 숨겨뒀다면 시장 비자금으로밖에 볼 수 없다"고 했다.경북도 내 시세 6위인 영주시의 살림살이는 10여 년째 꼴찌 수준을 면치 못하고 있다. 지역 발전에 적색 경고등이 들어온 것이나 다름없다. 인구 7만 명인 문경시(8천300억 원)를 제외한 대다수 시 단위 자치단체의 내년도 본예산이 1조 원 시대다. 영주시만 고작 7천900억 원대다. 영주시 말대로 체질 개선을 했다면 도내 10개 시 가운데 시세 기준인 6위는 해야 본전일 것이다. 추경 예산을 포함해도 영주시는 꼴찌 수준을 면치 못한다.손바닥으로 하늘을 가리려고 해서는 안 된다. 영주시의 미래가 한 치 앞이 안 보일 정도로 안갯속이다. 선출직들은 명심해야 한다. 변명보다 반성과 자성이 먼저다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>[누이떠] 카드 발급만으로 연 150만원 벌기 어렵지 않아요</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000776277?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>조선비즈 재테크 유튜브 채널 ‘누워서 연 2000만원 떠먹기’  6개월 내 해당 카드사 결제 실적 없으면 혜택 받을 수 있어        ☞ 유튜브 풀 버전 보러 가기 https://youtu.be/zib1Qicr3ns“연초부터 현대카드 발급 이벤트를 시작으로 농협카드, 하나카드, 삼성카드, 바로BC카드, 수협카드, 국민카드, 우리카드 2회, 롯데카드 3회, 신한카드 3회 등 카드 발급으로만 135만원을 벌었습니다. 이외에 상대적으로 혜택 금액이 적은 체크카드 발급 이벤트에도 참여해 20만원 정도 벌었습니다. 카드를 모두 합쳐 1인 발급 이벤트로만 155만원을 번 셈인데, 아내 명의로도 하고 있어서 총 300만원쯤 벌었습니다.”연말정산 시즌을 맞아 13월의 월급을 기대하시는 분들 많으시죠? 이때 유념해야 할 건, 체크카드 공제율(30%)이 신용카드 공제율(15%)보다 높다고 해서 꼭 체크카드를 쓰는 게 유리하지만은 않을 수 있다는 겁니다. 신용카드는 그 자체로 혜택이 훨씬 많기 때문입니다. 가령 신용카드 발급 이벤트만으로도 연 100만원 이상을 쉽게 챙길 수 있습니다.25일 조선비즈 재테크 유튜브 채널 ‘누워서 연 2000만원 떠먹기’(누이떠)에서는 올해 신용카드 혜택으로 300만원 가량을 번 ‘훈민아빠’가 신용카드 재테크 노하우와 혜택 많은 신용카드 찾는 법을 소개합니다.        신규 발급 이벤트는 토스, 네이버페이, 카카오페이, 페이북, 핀크 등 간편결제 앱 내에 카드 혜택, 신용카드 이벤트 등의 카테고리에서 확인할 수 있습니다. 이 외에 네이버 카페 ‘스사사’ 혹은 온라인 커뮤니티 ‘뽐뿌 재테크포럼’에서 요즘 인기 있는 신용카드를 파악하는 것도 방법입니다.이런 혜택을 받으려면 대부분 6개월 내 카드 결제 실적이 없어야 한다는 조건이 있습니다. 또 삼성카드나 롯데카드처럼 발급 혜택을 한 번 받으면 1년간 혜택을 받을 수 없게 해놓은 카드사들도 있습니다. 다만 이런 제약이 없는 하나카드나 우리카드는 6개월마다 반복해 연 2회 혜택을 받을 수 있습니다. 혜택을 자주 받기 위해서는 카드 발급 일자와 해지 일자, 결제일 등이 헷갈리지 않게 따로 문서에 정리해놓는 것을 추천합니다.카드 해지는 대부분 해당 카드사 앱이나 인터넷뱅킹을 통해 할 수 있습니다. 카드를 발급받은 뒤 바로 해지한다고 해서 불이익은 따로 없으나 일부 카드사에서는 악성 고객으로 분류하는 경우도 있다고 합니다. 이런 점이 우려되면 카드를 해지하지 말고 연회비가 없는 카드로 교체 발급을 받는 것도 방법입니다.카드 발급만 했는데 150만원 벌었다고?        이 외 키워드와 더욱 구체적인 연말정산 정보는 조선비즈 유튜브 채널 ‘누이떠’의 &lt;카드 발급만 했는데 150만원 벌었다고? (발급 이벤트/혜택/캐시백/카드 추천)&gt; 편에서 확인할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>증권사, 해외주식 소수점 거래 박차…국내주식은 언제쯤?</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000118896?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>내년 상반기까지 해외주식 소수점 거래가 가능한 증권사는 도합 20곳으로 늘어난다. /더팩트 DB내년 상반기까지 20개 증권사 합류 계획 증권사들의 해외주식 소수점 거래가 확대되는 가운데 국내주식의 거래에도 관심이 쏠린다. 앞서 금융당국은 해외주식 소수점 매매는 올해 안으로, 국내 주식 소수점 매매는 내년 3분기 안으로 시행할 예정이라고 밝힌 바 있다.◆ 삼성증권, 해외주식 소수점 거래 세 번째 주자…내년까지 20곳으로 늘어30일 업계에 따르면 삼성증권은 지난 29일 미국장부터 해외주식 소수점 거래 물꼬를 텄다. 기존에는 신한금융투자(2018년 10월부터)와 한국투자증권(2020년 8월부터)에서만 소수점 거래가 제공돼왔는데 세 번째 주자가 된 셈이다. 네 번째 주자는 KB증권(12월 6일 예정)이 될 전망이며, △KTB투자증권 △NH투자증권 △대신증권 등도 연내 주식거래매체(HTS·MTS)에 소수점 거래 기능을 탑재한다는 방침이다.내년 상반기까지는 상기 회사들을 비롯해 △교보증권 △메리츠증권 △미래에셋증권 △신영증권 △유안타증권 △유진투자증권 △카카오페이증권 △키움증권 △토스증권 △하나금융투자 △하이투자증권 △한화투자증권 △DB금융투자 등 총 20곳이 소수점 거래 서비스를 제공하게 된다. 내년 상반기 무렵에는 수수료 인하 등 증권사간 출혈경쟁도 이어질 것으로 점쳐진다.단, 투자자 입장에서는 해외주식의 거래시 중첩적 업무 구조, 국가별 법령 및 제도 차이 등을 고려할 필요가 있다. 해외주식 소수점 거래는 모든 종목에 대해 서비스가 제공되지 않고, 증권사별로 거래 가능한 종목이 다르다는 점도 인지해야 한다. 증권사별로 △주문방법(수량 단위, 금액 단위 등) △최소 주문 단위 △주문 가능 시간 △주문 경로(MTS 등) 제한 여부 등이 다르게 적용될 수 있다.◆ 내년 3분기, 국내주식 소수점 거래 가능 전망해외주식 소수점 거래가 활성화됨에 따라 투자자들은 국내주식 소수점 투자 시점에도 주목하는 분위기다. 국내주식에도 소수점 거래가 적용되면 한 주당 가격이 100만 원이 넘는 이른바 '황제주'도 노려볼 수 있기 때문이다. 현재 황제주에 이름을 올린 종목은 LG생활건강이 유일하지만, 업황과 실적 모멘텀으로 인해 황제주 달성이 임박한 종목도 다수다. 삼성바이오로직스와 엔씨소프트가 황제주 재등극을 노리고 있으며, F&amp;F와 삼성SDI 등도 100만 원을 향해 뛰고 있다.현재 금융위원회는 국내 주식 소수점 거래는 세부 제도 설계 및 전산구축 및 테스트 등 소요시간을 감안, 내년 3분기 중 서비스 개시를 예상하고 있다. 금융위는 지난 9월 국내주식에 대해 권리의 분할이 용이한 신탁방식을 활용, 기존 원칙과 인프라를 훼손하지 않고 소수단위 거래가 가능하도록 한 상태다. 증권사별로 규제특례를 인정하는 기존 방식과 달리, 예탁결제원에 소수단위 거래를 위한 별도 인프라를 구축하고 희망하는 증권사가 이를 이용할 수 있도록 제도화한 것이다.증권사는 투자자의 소수단위 주식주문을 취합하여 온주를 만들어 자신의 명의로 한국거래소에 호가를 제출한다. 예탁결제원은 증권사로부터 온주단위 주식을 신탁받아 수익증권을 발행하고, 투자자는 주문수량에 따라 수익증권 취득한다. 투자자는 수익증권 보유자로서 주식의 배당금 등 경제적 권리를 향유하되, 소수지분의 의결권은 원칙적으로 인정되지 않으므로 예탁결제원이 자본시장법에 따라 의결권을 행사하는 구조다.금융위 관계자는 "소수 단위 거래로 투자자는 고가 주식에 대한 접근성을 높이고 소규모 투자 자금으로도 다양한 포트폴리오를 구성할 수 있을 것"이라고 말했다. 이진우 메리츠증권 연구원은 "국내 증시에서 상대적으로 고가로 분류돼 있는 종목에 대한 투자 기회가 열린다는 데 주목해야 한다"며 "소수점 거래 허용은 개인투자자들의 종목 선택권을 보다 넓혀주는 효과가 있을 것"이라고 평가했다.◆ "MZ세대 잡겠다!" 토스·카카오페이증권 기대감 고조국내주식 소수점 거래를 가장 크게 반기는 증권사는 토스증권과 카카오페이증권이다. 두 증권사는 MZ세대(밀레니얼+Z세대)를 주력 고객으로 삼고 있기 때문이다. 한국예탁결제원에 따르면 지난해 기준 주식을 소유하고 있는 20대는 107만1000명으로, 2019년(38만2000명) 대비 180.5% 증가했다. 30대 또한 107만2000명에서 181만2000명으로 69.1% 늘어났다.토스증권의 경우 올해 3월 간편 MTS를 선보인지 약 7개월 만에 계좌 수 390만 개(11월 중순 기준)를 돌파했다. 토스증권은 2100만 명이 이용하는 기존 토스앱 하단의 증권 탭에서 활용 가능하다. 계좌 개설부터 인증까지 하나의 어플리케이션 내에서 해결할 수 있다는 게 토스증권의 특징이다.토스증권 관계자는 "국내주식 소수점 거래 오픈 시점에 맞춰 서비스를 준비하는 중이다. 다만 국내주식 소수점 거래는 신탁 방식이다 보니 예탁원에서 인프라를 구축하는 이슈가 선결돼야 한다"고 말했다.지난해 2월 출범한 카카오페이증권도 MZ세대에 접근하기 쉬운 증권사 중 하나다. 국민 메신저 '카카오톡'과 연계되는 증권사기 때문이다. 카카오페이증권은 올해 3분기 말 기준 518만 명의 가입자를 유치했다. MTS 없이 펀드 투자와 자산관리 서비스만을 운영해 이뤄낸 성과다. 카카오페이증권은 이르면 올해 말, 늦으면 내년 초 MTS를 출시한다는 계획이다.카카오페이증권 관계자는 "금융당국이 발표한 국내외 주식 소수점 거래에 따라 서비스 일정을 준비하고 있다. 카카오페이증권의 경우 이전부터 소액 분산 투자 환경을 조성해 왔다. 카카오페이증권은 MZ세대뿐만 아니라 사실상 전연령대가 서비스 대상으로, 소수점 거래에도 적극적으로 나설 계획"이라고 답변했다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>'제휴 은행이 책임져라'...빅테크 감독 방안 보고서 첫 공개</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000643949?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>빅테크 금융 진출에 따른 감독 방안보고서 "관리 책임은 제휴 금융사에"다양한 감독당국과의 협업 필수적게티이미지뱅크금융사와 제휴해 금융산업에 진출한 빅테크와 핀테크에 대한 리스크 관리를 기존 금융사가 책임지도록 해야 한다는 제언이 나왔다. 플랫폼을 통한 금융상품 판매 과정에서  발생할 수 있는 각종 사고를 금융사가 관리해야 한다는 뜻이다.29일 국회 정무위원회 윤창현 의원실이 금융감독원에서 입수한 '빅테크 금융업 진출에 대한 세부 감독 방안 연구서'에는 빅테크의 진출로 발생할 수 있는 각종 사고 위험을 금융사 이사회에서 책임지도록 해야 한다는 내용이 담겼다. 빅테크 감독 방안이 언급된 보고서가 나온 것은 처음이다. 해당 보고서는 금감원 발주로 서울대 금융법센터가 연구용역을 맡은 것으로, 올해 9월 제출됐다.보고서에서 가장 눈에 띄는 지점은 빅테크·핀테크가 야기할 수 있는 제3자 리스크를 금융사 지배구조 차원에서 접근해야 한다고 지적한 부분이다. 제휴 관계에 있는 플랫폼에서 사고가 터질 경우 금융사 수익성과 지속가능성이 당장 영향을 받을 수밖에 없기 때문에, 이사회가 리스크 관리의 최종 책임을 부담해야 한다는 것이다. 이 과정에서 금감원은 업무 개별 건이 아닌, 금융사가 관련 리스크 전체를 적절하게 관리하는지 여부를 감독하게 된다.예를 들어 보험사가 네이버나 토스, 카카오페이 등 플랫폼을 통해 보험상품이나 대출상품을 판매할 경우, 과대광고나 서비스 장애 등 플랫폼 내에서 발생할 수 있는 각종 리스크를 체크리스트 형식으로 만들어 관리해야 한다. 만약 리스크가 크다고 판단될 경우 금융당국과 사전 협의가 필요하다. 의무 위반 시에는 행정제재까지 부과될 수 있다.금융업과 비금융업 간 경계가 모호해지고 빅테크가 진출한 산업 종류가 다양한 만큼, 여러 감독기관과의 업무 협조 및 제휴도 중요해졌다. 보고서는 금융당국이 공정거래위원회나 방송통신위원회, 과학기술정보통신부, 개인정보보호위원회 등과도 정보를 공유하고 종합적인 감독 방안을 수립해 나가야 할 필요성을 강조했다.금융당국에서도 그동안 빅테크 감독의 필요성을 누차 강조해온 만큼, 해당 보고서를 기반으로 조만간 감독 방향이 결정될 것으로 보인다. 금감원 관계자는 "금융시장의 빅테크 영향력이 갈수록 커지고 있다"며 "플랫폼을 통한 금융상품 중개에 따른 리스크에 대해 모니터링을 강화하고 감독할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>[판교통신] 휴가도 밥값도 마음대로…'개발자 천국' 키운 자율성</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004676249?sid=105</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[편집자주] [혁신을 이끄는 '네카라쿠배' 등 IT기업 사람들의 이야기를 다룹니다. 취업 꿀팁부터 서비스 출시에 얽힌 뒷얘기를 솔직·담백하게 전합니다.정상호 당근마켓 피플팀 매니저. /사진=당근마켓'네카라쿠배당토'(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스) 중 당근마켓은 역사가 짧고 규모도 가장 작지만, 국내 대표 IT기업과 어깨를 나란히 하며 신흥 '인재 블랙홀'로 떠올랐다. 이제 겨우 6살 된 막내 당근마켓에 A급 인재가 몰리는 이유는 뭘까. 대기업 이상의 초봉(6500만원)과 업계 최고 수준의 계약금·스톡옵션(주식매수선택권)이 화제가 됐지만, 정작 직원들은 장점으로 '일을 즐겁게 할 수 있는' 조직문화를 꼽는다.'워라밸'(Work-life balance·일과삶의균형)이 화두인 요즘, 일이 곧 삶인 '워라인'(Work-life integration·일과삶의통합)형 인재들이 눈치 보지 않고 몰입해 일할 수 있는 환경이라는 설명이다. 쉼이 필요할 땐 자유롭게 휴가를 떠나면 된다. 일수 제한도 없고 조직장 승인을 받지 않아도 된다. 업무 중 식사비나 자기 계발을 위한 도서·교육비는 무제한이다. 일과 삶의 비중을 어떻게 가져갈지 개인의 판단에 맡기되, 이를 전폭적으로 지원하겠다는 철학이 담겼다."최고의 복지는 유능한 동료"라고 했던가. 자발적으로 일을 사랑하는 사람들이 모이자, 당근마켓에 지원하는 사람들도 늘기 시작했다. 특유의 조직문화가 알려지기 전부터 이미 IT업계에선 '개발자의 천국', '창업가들이 창업을 배우는 곳'으로 입소문이 났다는 후문이다. 덕분에 2019년만 해도 30여명에 불과했던 조직 규모는 올해 240여명으로 2년 만에 8배 성장했다.조직이 급성장하면 문화도 그만큼 변화하는 법. 2019년 당근마켓에 34번째 멤버로 합류한 정상호 피플팀 매니저를 서울 서초구 당근마켓 사옥에서 만나 특유의 조직문화와 담당자로서의 고민을 물었다. 그는 당근마켓식 아고라인 '문화회의'를 만든 인물이기도 하다. LG디스플레이 인사팀 출신인 그에게 스타트업의 인사 철학은 "한 대 맞은 것처럼" 놀랍고 새롭게 다가왔다고 한다. ━대기업→스타트업, 조직문화 '하늘과 땅' 차이━정상호 당근마켓 피플팀 매니저. /사진=당근마켓-대기업을 다니다 스타트업에 들어오게 된 계기는?▶개발자 친구와 창업하기 위해 회사를 왔는데, 막상 법인구성이나 투자·채용·IR 쪽에 대해 아는 바가 없었다. 스타트업에 가서 처음부터 배워야겠다고 생각했다. 2019년 8월에 당근마켓에 합류했는데, 그땐 인사뿐 아니라 경영지원업무를 하는 분도 없어 혼자 HR 전반을 담당해야 했다. 현재는 팀원이 많이 늘어 평가보상 및 내부 시스템관리, 조직문화 등을 담당하고 있다.-대기업에서 스타트업까지 모두 경험했는데, 조직 규모별 특징이 있나?▶신뢰와 공감대 형성 차원에서 정보공유는 매우 중요한데, 조직이 클수록 쉽지 않다. 당근 마켓 초창기엔 '탁구대를 치운다'는 작은 정보도 전사에 공유됐다. 임직원 간 '척하면 척'이었지만, 최근엔 커뮤니케이션이 줄다 보니 관심을 기울이지 않으면 놓치는 정보도 많아졌다. 이때문에 대기업은 주로 제도와 규칙으로 소통하려 하지만, 자칫 구성원 간 오해가 발생할 수 있다.당근마켓이 급성장하면서 그에 따른 조직문화와 커뮤니케이션 방법을 고민하고 있다. 우리만의 핵심 DNA는 유지·강화하면서 새로운 방식을 어떻게 도입할지다. 인사 담당자 입장에선 단계마다 제도와 문화가 완전히 다른 모습이 돼야 한다. 30명일 때 모습을 200명일 때도 유지하려고 하면 좋은 회사가 아니라 어설픈 회사가 된다.━복리후생은 비용 아닌 '투자'…"'워라인' 자율성 믿는다"━-당근마켓은 자율 출퇴근제와 휴가제를 운용 중이다. 일각에선 근무시간을 특정하지 않으면 부서 간 협업이 어렵고, 자칫 일이 많은 부서는 휴가를 가지 못해 워라밸이 무너질 수 있다는 우려도 나온다. 이에 대해 어떻게 생각하나.▶당근마켓은 회사가 규칙을 정해주지 않아도 구성원들이 자율적으로 근무·협업할 수 있다고 믿는다. 유능한 인재에게 과도하게 일이 몰려 휴가를 가지 못한다면 채용을 늘리는 등의 대안을 찾지만, 그 외 영역에 대해선 개인의 판단을 존중한다. 본인이 쉬고 싶으면 쉬고, 일하고 싶을 때 일할 수 있어야 한다는 것이다.더욱이 당근마켓엔 워라밸보단 워라인형 인재가 많다. 워라밸은 일 이후 나의 진짜 삶이 찾아온다는 전제를 깔고 있다. 일을 부정적으로 보는 거다. 그런데 일을 통해 삶의 만족을 느끼는 사람들도 있다. 일과 삶을 구분 짓지 않는 사람들은 퇴근하고서도 동료들과 '어떻게 서비스를 개편하면 이용자가 좋아할까' 신나게 이야기하는데, 이런 분들의 자율성을 믿는 거다. 다만, 동료 간 신뢰를 위해 업무 진행 상황을 잘 공유하는 데 방점을 둔다.-식사비·도서비·교육비·구독비 무제한 지원도 눈에 띈다. 비용관리 차원에서 고민이 많겠다.▶성장하는 스타트업이 전통적인 기업과 가장 다른 점은 파이가 고정돼있지 않다는 점이다. 성장을 끝낸 기존 기업은 매출이 크게 성장해도 10~20% 내외기 때문에 비용관리에 사활을 건다. 이미 정해진 파이를 어떻게 나눌 것인지 분배의 이슈가 등장하는 셈이다. 이 때문에 인사담당자들은 각종 기준을 만든다.반면 스타트업은 성장 잠재력이 어마어마하다. 내년에 갑자기 500%, 5000% 성장할 수도 있다. 이런 환경에선 복리후생을 비용이 아니라 투자로 바라본다. 구성원 한 명에게 1000만원을 지원하면, 향후 10억원을 벌어줄 서비스를 개발할 수 있다고 믿는 거다. 또 외부교육을 들은 직원들이 이를 업무에 적용하거나, 동료들과도 공유할 수 있다. 이처럼 긍정적 외부효과를 일으키는 복지에 아낌없이 지원하려 한다.-법인카드로 무제한 식사비를 지원하는 건 국내선 좀처럼 찾아보기 힘든 복지다.▶식대를 정하자는 의견이 나온 적은 있었다. 신규입사자들이 대체 얼마를 먹어야 할지 모르겠다더라. 결론적으론 정하지 않기로 했다. 한번 규칙을 정하면 꼬리에 꼬리를 물고 그에 대한 절차와 예외사항에 대한 규칙을 정해야 하기 때문이다. 직원들이 밥 걱정 없이 맛있는 걸 먹으며 동료들과 친해지길 바란 건데, 자칫 이상한 결과가 나타날 수 있던 셈이다.━취중진담 같은 회사얘기도 공개적으로…"문화 핏(fit) 맞는지가 관건" ━-매월 마지막주 수요일에 진행하는 '문화회의'가 인상적이다. 조직문화에 대해 직원들이 자유롭게 참여해 이야기할 수 있는 자리인데, 이를 만들게 된 배경이 있나?▶문화회의는 의사결정기구가 아니라 맥락을 공유하는 자리다. 통상 80여명이 참석해 근무제도나 커뮤니케이션 방법 등에 대해 자유롭게 의견을 공유한다. 흔히 회식 후 얼큰하게 취한 상태에서 얘기할 법한 암묵지를 회사 내에서 공유할 수 있게 한 것이다. (최근 입사한 한 직원은 직급과 관계없이 자유롭게 이야기하는 문화회의를 보고 '새로운 충격'이었다고 했다) 피플팀은 이를 반영해 제도를 만드는데, 다양한 의견이 나오다 보니 조율이 쉽지 않을 때도 있다. 하지만 사람들과 함께 조직문화를 만들어가는 게 중요하다고 본다.-유능한 인재에 전폭적인 지원을 한다는 점에서 넷플릭스의 자유와책임(F&amp;R) 원칙이 떠오른다. 다만 국내에선 넷플릭스처럼 성과가 부진한 직원을 해고할 수 없는데, 당근마켓의 인재관리 방법이 있나.▶그래서 당근마켓은 채용을 강조한다. 면접관들은 '나보다 뛰어나다'라고 생각하는 사람에게 합격점을 준다. 그러다 보니 당근마켓 채용기준이 너무 높다고 얘기하는 분들도 있다. 당근마켓이 비슷한 서비스 대비 인원수가 적은 이유이기도 하다. (당근마켓  과제전형을 따로 두는 등 채용과정이 어렵고 긴 것으로 알려져있다.)일반적으론 실무면접 다음에 형식적인 경영진 면접을 진행하지만, 당근마켓은 마지막에 문화적합성(컬처핏) 면접을 본다. 지원자 1명당 최소 3명의 면접관이 1시간 이상 면접을 보며 우리 문화에 어울릴만한 사람인지 평가한다. 지원자가 3명이면 하루에만 4시간30분 이상을 면접에 할애해야 하지만, 그만큼 채용을 중요시하는 거다. 이렇게 뽑힌 분들이다 보니 근무 태만 등 우려할만한 일들이 적다.-조직문화 담당자의 고충도 클 것 같은데, 어떤 사람이 어울리나?▶조직문화는 정답이 없다. 추상적이고 모호해서 딱 맞아떨어지는 것을 좋아하는 사람보단 황량한 사막에서 자신만의 정답을 만들어가는 사람에게 재밌는 일이다. 또 조직문화는 담당자가 만드는 게 아니라 구성원들이 회의하고 커뮤니케이션하는 방식, 옷차림 등이 영향을 미친다. 이들이 좋은 문화를 만들어갈수 있도록 지원하는 역할이라는 점에서 수용성이 높은 사람이라면 구성원들이 편하게 얘기할 수 있을 것 같다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>태평양 컨테이너 운임, 2년 만에 최대폭 하락…지난주 26%↓</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012795063?sid=104</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>"해상운송 수요 완화 시사"…미 항만 병목 해소에는 몇 달 걸릴 듯미국 로스앤젤레스(LA) 항만에서 화물을 내리는 컨테이너선[AP 연합뉴스 자료사진. 재판매 및 DB 금지](로스앤젤레스=연합뉴스) 정윤섭 특파원 = 글로벌 공급망 대란과 미국의 연말 쇼핑 시즌 수요가 겹치며 급등했던 태평양 횡단 컨테이너선 운임이 일주일 새 26% 하락해 2년 만에 최대 낙폭을 기록했다.    미국 일간지 월스트리트저널(WSJ)은 15일(현지시간) 화물운송 가격 서비스 업체 프레이토스가 집계하는 해상 운임 지수(FBX)를 인용해 이같이 보도했다.    FBX에 따르면 중국에서 출발해 미국 서부 해안에 도착하는 컨테이너선 운임은 지난주 TEU(20피트짜리 컨테이너 1대)당 1만3천295달러를 기록했다.    이는 4천200달러였던 올해 초와 비교하면 여전히 3배 이상 높은 가격이다.    하지만, 지난주 컨테이너선 운임은 그 전주와 비교해 26% 빠지며 2년 만에 가장 크게 하락했다.    프레이토스 리서치 책임자 유다 러빈은 화주들이 컨테이너선을 확보하기 위해 더 얹어줘야 했던 프리미엄도 지난 6월 이후 처음으로 하락했다고 전했다.    WSJ은 "태평양 횡단 컨테이너선 운송비가 4분의 1 이상 하락한 것은 마침내 해상 운송 수요가 완화하고 있음을 시사한다"고 진단했다.    해상 운임 하락은 전통적인 성수기 종료와도 맞물려 있다. 연말 쇼핑 시즌을 겨냥한 미국 유통업체들의 대아시아 수입품 수요도 완화하는 조짐이다.    미국 9월 도매 재고는 작년 동월과 비교해 13% 증가했는데, 아마존과 월마트, 홈디포 등 유통업체들이 글로벌 공급망 대란에 대비해 미리 제품을 확보한 것으로 보인다고 WSJ은 전했다.    해상 운송업체들은 미국 유통업체가 임대해 태평양 노선에 투입했던 소형 화물선에 대한 수요도 줄면서 이들 선박이 소규모 해상 무역 경로로 다시 철수할 것이라고 내다봤다.    다만, 미국 로스앤젤레스(LA)와 롱비치 항만 앞바다에는 여전히 80여 척 화물선이 떠 있고 짐을 내리기 위해 최소 2주 이상 입항을 기다려야 하는 상황이 이어지고 있다.    WSJ은 미국 서부 항만 병목 현상이 해소되려면 앞으로 몇 달이 더 걸릴 것이라며 "선박회사 임원들은 빨라야 내년 2월에 항만 정체가 완화될 것으로 기대하고 있다"고 전했다.    jamin74@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>11월 말부터 해외주식 소수점 거래 활성화…주의사항은?</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000117691?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>이달 말부로 기존 2곳에 불과했던 소수점 거래 증권사는 20곳으로 늘어나게 됐다. /AP.뉴시스기존 2개 사 포함 20개 사로 대폭 확대 이달 말부터 국내에서 해외주식 소수점 거래가 가능해지는 증권사가 대폭 늘어나는 가운데 금융당국이 투자자들에게 각별한 주의를 요구했다.23일 금융감독원은 "한국예탁결제원이 해외주식 소수점 거래를 지원하는 서비스 구축을 완료함에 따라 기존 2개 증권사를 포함한 20개 증권사는 전산구축 및 테스트 일정 등에 따라 11월 말부터 관련 서비스를 개시할 예정"이라고 밝혔다.20개 증권사는 신한금융투자, 한국투자증권 등을 비롯해 △DB금융투자 △KB증권 △KTB투자증권 △NH투자증권 △교보증권 △대신증권 △메리츠증권 △미래에셋증권 △삼성증권 △신영증권 △유안타증권 △유진투자증권 △카카오페이증권 △키움증권 △토스증권 △하나금융투자 △하이투자증권 △한화투자증권 등이다.다만, 금융당국은 소수점 거래의 경우 기존 주식 거래와 약간 방식이 다른 데다 증권사별로 주문 방법이나 주문 가능 시간 등이 상이하다는 점을 인지해야 한다고 강조했다.금감원은 "모든 종목에 대해 소수점 거래 서비스가 제공되는 것은 아니며, 증권사별로 거래 가능한 종목을 확인해야 한다"며 "증권사마다 최소 주문 단위나 수량 단위, 금액 단위 등이 다를 수 있다"고 말했다.주문 집행 방식에도 적응이 필요하다. 증권사는 여러 투자자의 소수 단위 매매 주문을 취합해 집행하기 때문에 매매 주문과 체결 시점 차이가 있을 수 있다. 매매 가격이나 실제 배정받는 주식 수량이 변할 수도 있다.금감원 측은 "해외주식은 국내공시가 이루어지지 않아 투자관련 정보 취득이 제한적이고, 주식 가격 하락에 따른 매매손실 외에 환차손이 발생할 수 있다"고 부연했다.더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>보폭 넓히는 토스·카페證…MTS 출시에 해외주식 서비스도</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0000997362?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;증권업계 신생사인 토스증권과 카카오페이증권이 각각 해외주식 거래 서비스와 MTS 출시를 앞두고 있습니다.이렇게 핀테크 계열 증권사들이 빠르게 보폭을 넓히자, 기존 증권업계는 긴장감 속에 촉각을 곤두세우고 있습니다.보도에 문형민 기자입니다.&lt;기자&gt;지난 15일 해외주식 소수점 거래 허가 승인을 받은 토스증권과 카카오페이증권.이렇게 새내기 증권사들은 주식 매매 서비스 확대에 박차를 가하고 있습니다.토스증권은 지난달 국내주식 브로커리지(위탁매매) 시장점유율에서 교보와 현대차, KTB증권 등을 제치며 경쟁사들을 빠르게 따라잡고 있습니다.서학개미까지 잡기 위해 오는 22일부터 개시될 5백개 종목의 해외주식·ETF 거래 서비스를 앞두고 ‘해외주식 1주 선물받기’ 등의 이벤트를 진행하고 있습니다.[토스증권 관계자 : (해외주식 계좌개설) 사전 가입자, 사전 신청자가 50만명 정도 됐어요. 500여 종목으로 시작하는데 향후에 확대될 계획입니다. 해외주식 소수점 거래는 내년 상반기, 내년 1분기 중에 선보일 수 있을 것 같습니다.]토스증권의 해외주식 서비스는 주요 해외 기업에 대한 뉴스를 번역해 투자 정보를 실시간으로 제공함과 동시에 ‘자동 환전’으로 편리함을 강화한 것이 특징입니다.카카오페이증권도 올해 안에 국내외 주식 거래가 가능한 MTS(모바일트레이딩시스템)를 내놓고 동·서학개미 모시기에 나설 예정입니다.3,600만명의 가입자를 보유한 카카오페이 애플리케이션(앱) 안에서 주식 매매가 이뤄지기 때문에 기존 증권사에 위협이 될 수 있다는 평가가 나옵니다.[김대종 세종대학교 경영학과 교수 : 우리가 일상생활에서 매일 접하는 것을 가지고 주식과 연계하는 것이 가장 좋은 전략입니다. 충분히 메기효과를 가지고 와서 기존의 증권사들을 위협할 수가 있다. 시장을 잠식할 수 있을 것이다. 그렇게 보고 있습니다.]토스증권과 카카오페이증권의 성장 동력이자 무기는 높은 비중을 차지하는 ‘2030 고객`.이처럼 신생 증권사들이 실용성과 편리함을 바탕으로 MZ 세대를 공락해 시장을 빠르게 잠식하자, 기존 증권사들도 새로운 서비스를 선보이며 변신에 열을 올리고 있습니다.KB증권은 라이브 커머스를 주식거래에 접목한 ‘마블 미니’를 출시한 지 4개월 만에 35만 여명의 가입자를 확보했고, 키움증권은 국내주식과 해외주식으로 나뉜 앱을 하나로 통합한 ‘차세대 MTS’ 런칭을 앞두고 있습니다.토스증권과 카카오페이증권의 공격적인 행보에 기존 업체들도 `MZ 모시기`에 동참하는 등 증권가 서비스 경쟁이 가열되고 있습니다.한국경제TV 문형민입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>‘2000년 된 희귀 은화’ 이스라엘 소녀가 발견…30개밖에 없어</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003232513?sid=104</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[서울신문 나우뉴스]‘2000년 된 희귀 은화’ 이스라엘 소녀가 발견…30개밖에 없어이스라엘 예루살렘에서 11세 소녀가 약 2000년 된 희귀 은화를 발견했다.23일(현지시간) 이스라엘 문화재청(IAA)에 따르면, 현지 고고학 프로젝트의 자원봉사자로 참여하고 있는 리엘 크루토코프(11)라는 이름의 소녀가 발견한 은화는 ‘제1차 유대-로마 전쟁’(이하 유대독립전쟁) 당시 유대인 사제들이 주조한 것이다.유대독립전쟁은 로마 제국에 저항한 유대인들의 세 차례에 걸친 중요한 항쟁 중 첫 번째 전쟁이다. 따라서 이번에 발견된 주화는 유대인의 항쟁과 독립의 상징물로 만들어진 것으로 추정된다. 당시 만들어진 이런 주화는 현재 30개 정도밖에 발견되지 않아 이번 발견은 희소성 면에서도 매우 귀한 것이다.소녀는 예루살렘 성벽 국립공원에서 고고학자들과 함께 조사 작업을 하던 중 이 은화를 발견했다. 이에 대해 소녀는 “양동이 담긴 흙을 체에 거르며 돌맹이를 골라낼 때 무언가 둥근 것이 보였다”고 당시를 회상했다.무게 14g의 주화에는 유대인의 항쟁을 나타내는 문양과 비문이 새겨져 있다. 한쪽 면에는 유리잔 그림과 ‘이스라엘 셰켈’(화폐 단위), ‘2년’이라는 글자가 각인돼 있다. 2년은 항쟁 2년차(기원후 67~68년)를 뜻한다. 나머지 면에는 고대 히브리 문자로 ‘성스러운 예루살렘’이라고 쓰여 있고, 그 뒤에는 성전의 대제사장 본거지를 나타내는 또 다른 글귀도 적혀 있다.동전에 사용된 은은 유대교 성전에 숨겨놨던 것으로 추정되며 주조 작업은 성전의 동산 광장에서 이뤄진 것으로 보인다. 이 가설은 주화에 순도 높은 은이 사용돼 있다는 점에서 이런 은은 성전에만 있는 것으로 추측된다.유대인의 항쟁은 기원후 63년 로마인이 시리아 지방을 완전히 지배한 이듬해인 기원후 64년부터 예루살렘에서 잔혹한 통치를 시작하면서 시작됐다. 애초 항쟁은 유대인들에게 가해진 종교적 제한과 로마인들이 예루살렘의 신성한 유적 위에 도시를 건설한 것에서 비롯됐다. 로마인은 과거 유대교의 신성한 성전이 있던 자리에 이교의 성전을 건설하기도 했다.유대인과 로마인 사이에는 70년간 세 차례의 큰 전쟁이 일어났다. ‘제1차 유대-로마 전쟁은 66년부터 70년까지, 두 번째 ‘키토스 전쟁’은 115년부터 117년까지, 그리고 세 번째 ‘바르 코크바의 반란’은 132년부터 135년에 걸쳐 일어났다. 결국 유대인이 패하고 나서 예루살렘에는 로마군이 상주하게 된다. 그전까지는 유대인의 민족 감정을 자극하지 않기 위해 다른 곳에 주둔하고 있었다.사진=IAA 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>韓 유니콘 핀테크 '단 하나'…업계 "전금법 개정안 절실"</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000638317?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>핀테크산업협회 "한국 핀테크 초기단계에 불과…지속적 육성지원책 필요"국내 핀테크 산업이 글로벌 핀테크 산업 대비 초기 단계에 머무르는 만큼 전자금융거래법(전금법) 개정안 통과 등을 통해 산업을 적극 육성해야 한단 지적이 제기됐다.24일 한국핀테크산업협회는 기자간담회를 열고 핀테크 산업의 성과, 협회의 역할 및 비전 등을 논의했다.한국핀테크산업협회 기자간담회에 참석자들이 발언하고 있다. [사진=박은경 기자]류영준 한국핀테크산업협회장은 "기존 금융기관이나 글로벌 핀테크 시장과 비교해 아직 한국 핀테크는 초기 단계에 불과하다"면서 "앞으로 글로벌 시장에서 경쟁할 수 있는 핀테크 기업이 많이 등장할 수 있도록 지속적인 육성지원책이 필요하다"고 말했다.실제 국내 핀테크 산업은 글로벌 핀테크 기업과 비교했을 때 규모면에서 초기 단계에 머무르고 있다. 전세게 핀테크 유니콘 94개 기업 중 한국기업은 '토스' 단 1개에 불과하다. 핀테크 산업 발전 순위도 지난해 18위에서 26위로 8단계 하락했다.이에 협회는 전자금융거래법(전금법) 개정이 신속히 이뤄져야 한다고 강조했다.장성원 한국핀테크산업협회 사무처장은 "전금법 개정안은 시대의 변화에 따른 '디지털 금융 기본법'으로 핀테크 뿐만 아니라 금융 산업 전체가 앞으로 나아가야 할 방향"이라며 "전금법 개장안이 통과되면 '스몰 라이센스' 도입으로 신규 플레이어 진입이 원활해지면서 역동적 금융 생태계 조성에 이바지하고 소비자 편익 증진으로 나아갈 수 있다"고 말했다.또 고승범 금융위원장이 강조한 '동일기능 동일규제' 원칙이 지켜지기 위해서도 전금법 개정안 통과가 필요하다고 덧붙였다.사업에 따라 수익의 구조나 보장받는 혜택이 다른 핀테크 산업 특성상 단순히 '기능'만을 보고 동일한 규제를 적용하다는 것은 불합리하단 것이다.장 사무처장은 "전자금융업자들이 '동일라이선스 동일규제'를 준수하고 보호받을 수 있도록, 디지털 금융 발전에 부합하는 제도와 규제 체계 개편이 반영돼있는 전금법 개정이 반드시 필요하다"고 설명했다.핀테크 산업에 맞는 맞춤형 규율 체계가 필요하다는 지적도 따랐다.김시목 변호사는 "온라인 금융플랫폼 서비스 특성을 감안한 새로운 맞춤형 규율 체계가 마련돼야 한다"면서 "다양하고 혁신적 핀테크 서비스 제공을 위해 금융상품별 금융플랫폼 진입규제 신설 및 합리화가 필요하다"고 제언했다.더불어 망분리 규제를 완화해야 한단 주장도 제기됐다.정인영 한국핀테크산업협회 부회장은 "망분리 규제로 모바일 개발 시에 필수적인 오픈소스나 라이브러리 사용이 제한돼 개발자들이 핀테크 기업을 꺼려한다"면서 "핀테크 업권 뿐만 아니라 금융권 전체의 디지털 전환을 위해선 개발 단계만 망분리 예외로 하는 등 합리화가 필요하다"고 주장했다.이어 "이런 기술 변화와 흐름을 거스를 수 없다면 연결을 차단하지 않으면서 중요 서비스와 데이터를 보호할 수 있는 최선의 방안을 찾아야 할 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>"통신비 호갱탈출 할수 있다"…2030 하루 만명씩 몰리는 이 회사</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004885508?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>"부모님께 사드리는 효도폰의 대명사인 알뜰폰을 이제는 20·30대가 더 많이 사용합니다. 모두의요금제에선 24개 알뜰폰 회사의 1000여 개 요금제를 모두 비교할 수 있죠"안동건 모두의요금제 대표(사진)는 최근 매일경제와 만나 이 같은 트렌드 변화를 전했다. 알뜰폰은 통신 3사의 망을 임차해서 소비자에게 이동통신 서비스를 제공하는 가상이동통신망사업자(MVNO)를 뜻한다. 안 대표는 "알뜰폰은 통신비 인하를 위해 정부가 내놓은 대책 중 하나인데 그동안은 소비자들의 심리적인 저항이 강했다"면서 "하지만 올해 알뜰폰 비중이 전체 번호이동 가입자의 20%를 넘을 것으로 예상되는 등 사용자가 점차 늘고 있다"고 설명했다. 특히 유명 정보기술(IT) 유튜버들의 알뜰폰 및 자급제 관련 영상을 본 젊은 세대가 빠르게 기존 이동통신사에서 알뜰폰으로 이동하고 있다. 올해 말까지 회선 수가 1000만개를 돌파할 것으로 예상되는데, 기업용을 제외하면 순수 알뜰폰 후불 가입자는 400만명 정도로 추정된다. 모두의요금제 단말기 자급제와 알뜰폰을 결합해서 사용하면 통신사 요금제보다 얼마나 저렴한지를 몇 번의 클릭으로 쉽게 알 수 있다. 안 대표는 "지난 8월 서비스를 시작한 지 3개월 만에 방문자가 15만명을 넘었다"면서 "일일 방문자가 4000~6000명에 달하고 최근 1만명을 돌파한 날도 있었을 정도로 큰 반응을 얻고 있다"고 말했다. 안 대표는 리멤버, 토스 등을 거쳐서 모두의요금제를 창업했다. 모두의요금제를 만들게 된 것은 이동통신시장의 불투명성을 해결하고 싶어서다. 그는 "휴대전화 가입시장은 누군가는 싸게 휴대전화를 쓰지만 누군가는 많은 돈을 내고 있다"면서 "알뜰폰을 통해서 이 문제를 해결할 수 있을 것이라고 생각했다"고 설명했다. 아울러 안 대표는 "모두의요금제는 플랫폼 기업이지만 이 시장 자체를 키워야 한다고 생각하기 때문에 제휴 업체들과 성과를 나누려고 한다"고 덧붙였다.  모두의요금제는 요금제 비교를 통해 알뜰폰 가입 사이트로 고객을 연결해주고 있다. 여기서 수수료를 받는 것이 비즈니스 모델이다. 모두의요금제는 장기적으로는 이동통신과 관련한 모든 서비스를 제공하는 것을 목표로 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>IPO 전 잘만 고르면 '대박'...비상장 주식 투자 어떻게 하나요? [친절한 금·자씨]</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000643680?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>수익률 높아 MZ세대 사이서 인기제도권과 비제도권 플랫폼 투자방식 상이리스크 커 신중한 투자 필요편집자주친절한 ‘금융+자산’ 설명입니다. 어려운 금융을 알면, 자산 쌓기도 쉬워집니다.게티이미지뱅크#. 직장인 안모(33)씨는 코스피·코스닥 분위기가 가라앉고 코인 수익률도 시들해지기 시작한 올해 중순부터 '비상장주식'에 관심을 갖기 시작했습니다. 겨우 1, 2주 배정받는 공모주마저 최근 들어  '따상(공모가 대비 2배 시초가 형성 후 상한가)'조차 못 하는 경우가 늘자, 기업공개(IPO)보다 더 앞선 단계에서 투자를 시작해야겠다고 생각한 거죠. 안씨는 "비상장 기업 중엔 생각보다 유명한 알짜 기업들도 많다"며 "최근 거래 플랫폼이 급격히 늘면서 젊은 세대에선 가장 '핫'한 투자처가 됐다"고 귀띔했습니다.2030세대를 중심으로 비상장주식 투자 열풍이 불고 있습니다. 국내에서도 비바리퍼블리카(토스)나 컬리(마켓컬리), 야놀자 등 유니콘(기업 가치 1조 원 이상 비상장 기업) 및 데카콘(10조 원 이상)으로 인정받는 스타트업이 늘고 비상장주식 매매가 쉬워지자, IPO 단계 이전 낮은 가격에 투자해 고수익을 노리려는 돈이 몰리고 있는 겁니다.  1년 만에 시장 규모 2배로... MZ세대 몰려드는 비상장주식 투자비상장주식 투자처는 크게 제도권과 비제도권으로 나뉩니다. 제도권 시장은 금융투자협회에서 운영하고 있는 한국장외시장(K-OTC)이 유일한데요, 25일 기준 이 시장에 상장된 종목 수는 146개,  시가총액은 34조 원에 육박합니다. 종목 수가 10개 적었던 지난해(약 16조 원) 대비 시총이 2배 이상 불어난 셈이죠. 하루 평균 거래 금액도 2018년 27억7,000억 원에서 지난해 51억5,000만 원으로 늘었고, 올해 상반기는 이 수치가 64억7,000만 원까지 뛰어올랐습니다.제도권 외 사설 비상장주식 투자 플랫폼도 덩치를 키우고 있습니다. 두나무가 삼성증권과 함께 서비스하는 '증권플러스 비상장'은 출시 2년 만에 회원 수가 80만 명까지 불어났는데, 회원의 45%가량은 2030세대인 것으로 조사됐습니다. 거래 가능한 종목 수는 무려 6,000개가 넘습니다. 이밖에 400개 종목이 활발히 거래되는 '스타트업 PSX'와 신한금융투자의 '서울거래소 비상장'이나,  '비마이유니콘', '네고스탁' 등의 선택지도 있습니다.비상장주식에 관심이 쏠리는 가장 큰 이유는 지난해부터 이어진 'IPO 대박' 사례 덕분입니다. 상장 전이지만 기업 가치가 높게 평가되는 곳에는 일찌감치 투자해 수익률을 높이고자 하는 수요가 늘어난 겁니다. 공모주보다 저렴한 가격에 많은 수량을 보유할 수 있다는 점도 매력 요소 중 하나죠.일반적 주식 투자와는 방식 달라요두나무와 삼성증권이 운영하는 '증권플러스 비상장'에서 거래되고 있는 비바리퍼블리카. 파는 사람과 사는 사람이 게시글을 통해 1:1로 협의하는 방식으로 매매가 진행된다. 증권플러스 비상장 캡처비상장주식 거래는 제도권과 비제도권 플랫폼에 따라  주식 거래 방식이 조금 다릅니다. K-OTC에서는  홈트레이딩시스템(HTS)이나 모바일트레이딩시스템(MTS)을 활용해 비상장주식을 거래할 수 있어, 일반 주식 거래와 방법이 크게 다르지 않습니다. 기본적으로 매도호가와 매수호가가 일치하는 경우에만 매매가 체결되는 식이죠. 금투협이 지정한 34개 증권사 중 어떤 곳의 계좌를 이용하든 상관이 없고, 투자금 10억 원 미만 소액주주에게는 양도세를 면제해주는 등의 세제 혜택도 있습니다. 특정 요건을 만족해야만 등록이 가능하기 때문에 비교적 튼실하고 검증된 비상장기업이라는 장점도 있죠. 그러나  거래 가능한 기업 수가 적다는 한계가 뚜렷합니다.반면 증권플러스 비상장이나 서울거래소 비상장 등 비제도권 플랫폼의 경우 기본적으로 매도자와 매수자의 '1대 1 거래'에 기반해 거래 방식이 다릅니다. 관심 있는 종목을 원하는 가격에 내놓은 판매자에게 개별적으로 연락해 1:1 협의를 진행하거나, 본인이 직접 특정 가격에 매수하고 싶다는 게시글을 등록해 판매자를 찾는 겁니다. 모바일 중고거래 플랫폼 '당근마켓'과 시스템이 비슷하다고 보면 됩니다. 통상 거래는 증권사 안전거래 시스템 아래 이뤄져 비교적 안전합니다. 그러나 소기업 10%, 중견·대기업 20%의 양도소득세가 부과되는 데다 증권거래세가 0.45%로 꽤 높은 편입니다.이 밖에 개인투자조합이나 엔젤클럽, 신기술사업투자조합 등을 활용하면 훨씬 큰 규모의 투자를 진행할 수 있습니다. 사설 장외주식 사이트 게시판에서도 이메일과 전화를 이용한 개인 간 거래가 이뤄지는 경우가 많습니다. 다만 이 경우엔 허위매물이나 '먹튀'의 위험성이 높기 때문에 개인 투자자의 각별한 주의가 필요합니다. 어떤 회사에 투자할까... 플랫폼·바이오가 '대세'비상장주식시장에선 '숨은 보석'을 찾는 것이 가장 중요합니다. 무엇보다 상장 가능성이 높지만 저평가된 기업을 발굴해내야 하죠.현재 장외시장에서 가장 주목받는 종목은 대체로 유니콘 기업으로 평가받는 친숙한 스타트업들입니다. 핀테크, 플랫폼이나 제약·바이오 기업이 대표적이죠. 기업 가치가 28조 원에 가까운 비바리퍼블리카(토스)나 가상자산 거래소 '업비트'를 운영하고 있는 두나무, '마켓컬리'의 컬리, 야놀자 등은 이미 높은 가격에 활발히 거래되고 있습니다. 비교적 '우량 종목'이 모이는 K-OTC에서 LS전선이나 포스코건설, SK에코플랜트 등 대기업 계열사도 많습니다.그러나 주의해야 할 점은 상장기업 대비 거래량이 많지 않아 시장 가격이 왜곡될 가능성이 크다는 것입니다. 주가가 실적 대비 과도하게 높아 '거품' 논란이 항상 따라다니며, 상장에 실패할 경우 가격이 폭락하기도 합니다. 시세조종에도 취약하죠. 실제로 K-OTC에서 9월부터 거래된 '두올물산'의 경우 107원으로 시작한 거래가가 연일 폭등해 한 달 만에 12만 원대까지 높아졌다가, 또다시 한 달 만에 4만 원대로 떨어진 뒤 곧장 14만 원대로 다시 오르는 '롤러코스터' 행보를 보였습니다.전문가들은 여러 지표를 활용해 기업 가치를 충분히 살펴본 뒤 비상장주식 투자에 뛰어들어야 한다고 조언합니다. 비상장기업은 정보가 제한적이기 때문에 개인 투자자들에게 절대적으로 불리한 경우가 많거든요. 서울거래소 비상장이 밝힌 투자 원칙은 다음과 같습니다. ①공신력 있는 벤처캐피털(VC)이 투자한 곳인지 확인하고 ②기업의 발표를 100% 믿지 않아야 하며 ③유사한 상장사와 기업가치를 비교해봐야 한다. 여윳돈으로 소액을 분산투자해야 한다는 것 정도는 기본이겠죠.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>美 출장 마친 이재용, ‘뉴 삼성’ 내부 정비 가속화</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003396335?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>이재용 삼성전자 부회장이 24일 미국 출장을 마치고 서울 강서구 서울김포비즈니스항공센터로 귀국해 차에  타고 있다. 삼성전자는 23일(현지 시간) 미국 텍사스주 테일러시에 170억 달러(약 20조 원)를 투자해 반도체  위탁생산(파운드리) 신규 생산라인을 짓겠다고 발표했다. 뉴시스최근 열흘간의 미국 출장을 마치고 돌아온 이재용 삼성전자 부회장이 이번엔 ‘뉴 삼성’으로의 가속화를 위한 내부 정비에 나선다.  28일 재계에 따르면 삼성전자는 다음주 초 내부 인사제도 개편 발표를 앞두고 있다. 그 직후로는 사장단을 비롯한 임원 인사가 예정돼 있다. 앞서 24일 귀국길에서 이 부회장이 “시장의 냉혹한 현실을 직접 보고 오니 마음이 무겁다”며 위기론을 언급한 만큼 적극적인 내부 조직 개편을 통한 쇄신에 나설 것이란 전망에 무게가 실린다.  앞서 이달 중순 삼성전자는 중장기 인사제도 개편안을 임직원들에게 설명했으며 이후 구성원 의견을 반영해 최종안 발표를 앞두고 있다. 다양한 안들이 검토된 것으로 알려졌지만 개편안의 핵심 방향은 기존의 직급 체계를 벗어나 성과 위주의 평가와 연차에 무관한 승격 기회가 주어진다는 것이다.  현행 삼성전자 직급은 내부적으로 CL(Career Level)로 통칭되며 CL1~CL4까지 총 4단계로 구성돼 있다. 현재는 통상 한 직급을 승격하려면 8~10년의 근속 연한을 채워야 하지만 앞으로는 필수 조건이 아니게 될 가능성이 제기된다. 부장~사장급 팀장의 승격 검토 절차를 거쳐 일정 성과를 인정받으면 근속 연한과 무관하게 파격 승진도 이뤄질 수 있게 되는 것이다.  직원 고과 평가에서는 성과 위주의 절대평가를 확대할 것으로 알려졌다. 최고성과자 10% 할당을 제외한 나머지 90%의 업적평가는 절대평가로 이뤄진다. 현행 삼성전자의 임직원 고과 평가는 5개 등급으로 각 등급별 비율이 정해져 있지만, 이에 따르면 실질적인 개별 성과에 따라 고성과자나 저성과자 비율이 더 높게 도출될 수도 있는 셈이다.  상급자가 하급자를 일방적으로 평가하는 현행 평가 방식에도 변화가 예상된다. 카카오, 토스 등 일부 정보통신기술(ICT) 기업에서 도입하고 있는 ‘동료평가제’를 들여와 동료들 간의 상호 평가를 병행하는 방안도 추진하는 것으로 알려졌다.  이처럼 임직원 개인의 승격과 평가에 대해서는 철저한 성과주의를 도입하는 반면 내부에서는 수평적인 업무 교류가 이뤄질 수 있도록 할 방침이다. 직급이나 사번은 이전과 달리 더 이상 내부 통신망에 노출하지 않으며 연말에 이뤄지는 정기 승급 발표도 하지 않는 안이 검토되고 있다. 이에 따라 본인과 부서장 이외는 승진 여부를 알 수 없고, 업무 상대방의 직급이나 입사 연도도 알 수 없다. 직원들의 호칭은 ‘프로’로 통일될 예정이다.  재계 관계자는 “뉴 삼성으로의 변화는 속도전이 될 것”이라며 “신산업을 과감하게 이끌어가기 위해서는 성과 위주의, 발 빠른, 의사소통이 활발한 조직으로의 변신이 필요하다”고 말했다. 삼성전자는 내부 인사제도 개편안에 대해 “아직 최종안은 확정되지 않았다”는 입장을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘신용카드업 메기’ 될 수 있을까</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005005379?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>업계서는 이르면 내년 상반기 출범 관측데이터 축적으로 여신 업무 시너지 기대국내 3호 인터넷전문은행인 토스뱅크가 20년만에 새로운 신용카드 업체로 나설 수 있을 지 관심이 모아지고 있다. 토스뱅크가 출범 당시 신용카드 사업에 진출하겠다는 의지를 보인 만큼 업계에서는 이르면 내년 상반기 ‘토스뱅크 신용카드’가 현실화될 것으로 관측한다.25일 금융권에 금융위원회는 지난 18일부터 여신전문금융업 시행령 개정안 시행에 나섰다. 이 시행령은 빅테크(대형 정보기술기업)들의 건의를 받아들여 올 7월 만들어진 신용카드업 진입 요건을 일부 완화가 골자다. 대주주 자기자본이 출자금액의 4배 이상에서, 별도 재무 요건을 보지 않고 ‘부실 금융기관의 대주주 여부 심사’만 적용해 은행이 신용카드업을 영위할 수 있도록 했다.토스뱅크는 출범 당시부터 줄 곳 신용카드업 인가를 받겠다는 입장을 피력해왔다. 이를 위해 토스뱅크는 지난달 출범 이후 신용카드 인력의 상시 채용을 진행 중에 있다. 인터넷은행의 신용카드업 진출은 이번이 처음으로 카카오뱅크, 케이뱅크 등 인터넷전문은행 가운데 신용카드업 허가권을 획득한 곳은 아직 없다.토스뱅크가 신용카드업에 진출하는 것은 여신 업무에서 시너지를 내기 위해서다. 토스의 운영사 비바리퍼블리카는 전자지금결제대행사(PG), 은행, 증권, 보험 등 여러 금융 계열사를 보유하고 있지만 아직 카드업을 가지지는 못했다. 특히 신용카드사가 되면 고객과 가맹점 인프라를 중심으로 막대한 결제 데이터를 쌓을 수 있다. 여기에 다음달 본인신용정보관리업(마이데이터) 시대가 본격화 되면 카드 결제 정보를 빅테이터화 하고 분석 할 수 있게 된다. 이를 바탕으로 고객들에게 맞춤형 금융상품 추천에서 더 높은 경쟁력을 갖추게 될 수 있는 것이다.토스뱅크가 체크카드 부분에서 선전하고 있다는 것도 의미가 있다. 체크카드는 신용카드 고객 확보전쟁의 전초전으로 통하는 시장이다. 체크카드를 통해 ‘락인효과(고객 묶어두기)’를 얻을 수 있기 때문이다. 국내 체크카드 발급률은 연일 내리막길을 걷고 있다.여신금융협회에 따르면 국내 체크카드 총 발급 건수(은행·카드업계 포함)는 지난해 4분기 1억1001만장에서 올해 1분기 1억815만장으로 늘어났다. 2분기와 3분기에는 각각 1억749만장, 1억719만장으로 감소했다. 반면 토스뱅크는 한달 4만6500원을 현금으로 환급받을 수 있는 체크카드를 통해 공격적인 영업을 이어가고 있다.다만 카드시장이 포화상태에 이르러 더 이상 성장을 기대할 수 없어 출혈경쟁이 불가피 하다는 부담감은 여전하다. 이와 함께 토스뱅크는 정부의 가계대출 총량규제에 막힌 대출영업을 정상화시키는 것도 당면과제다.업계 관계자는 "다른 인터넷은행과 마찬가지로 토스뱅크 또한 초반 적자 경영이 이어질 수 밖에 없다"며 "신용카드업 진출도 차별화는 물론이고 당국이 요구하는 건전성 관리와 금융소비자 보호, 내부통제 시스템 구축 등을 얼마내 해 낼 수 있는냐가 초반 성패로 이어질 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>[단독]타다도 카카오 T ‘택시 연합군’ 합류··· 우티 추격 제동 걸리나</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003990797?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>카카오T가 택시호출 90%이상 점유타다도 지난 10월 서비스 제휴 체결우티, 호출앱 못써 사업 초기 발목에도"시작단계, 아직 제휴 등 고려 안해"독립적 택시호출 유지에 주력 방침사진 설명[서울경제] 업계 3위의 가맹택시 타다가 카카오(035720)모빌리티와 택시 호출 서비스 제휴를 맺으며 ‘카카오 택시 생태계’에 합류했다. 이로써 주요 가맹택시 사업자 중 우티(UT) 홀로 카카오T 애플리케이션(앱) 호출을 쓰지 않고 독자 호출 앱을 쓰게 됐다. 국내 택시 호출의 대부분이 카카오T 앱에서 발생하는 만큼 우티가 사업 확장 초기 단계부터 발목을 잡힐 수 있다는 관측도 나온다.29일 업계에 따르면 카카오모빌리티는 최근 타다와 카카오T 택시 호출 서비스 제휴를 위한 업무협약(MOU)를 체결했다. 이에 따라 지난 11일부터 타다 가맹택시 기사들도 카카오T 앱 일반호출을 이용할 수 있게 됐다. 타다 측은 “상세 제휴 조건은 논의 중"이라며 "카카오 측이 별도의 수수료를 요구하지는 않았다”고 말했다.카카오모빌리티는 올해 초부터 타사 가맹택시들에게 카카오T 택시 호출 서비스를 이용하려면 정식 제휴를 맺자고 요구해 왔다. 카카오모빌리티 관계자는 “여러 호출 플랫폼을 함께 사용하면 이미 배차 완료된 카카오T 호출을 취소하는 경우가 생긴다"며 "이용자들에게 불편을 끼치기 때문에 이를 방지하기 위한 것"이라고 설명했다. 이에 따라 마카롱택시, 반반택시, 고요한M은 지난 7월 카카오와 제휴를 맺었다. 다만 2·3위 사업자인 우티와 타다는 카카오와 손 잡지 않고 버텨왔다. 하지만 이번에 타다가 결국 제휴를 맺으며 카카오 가맹택시 연합군에 들어가게 됐다.타다의 합류는 ‘예견된 수순’이라는 게 업계의 중론이다. 카카오 측이 지난 7월 일부 업체들과 계약을 체결한 직후부터 미제휴 가맹택시 기사들에 대한 카카오T 앱 서비스를 차단했기 때문이다. 카카오T는 택시 호출 시장에서 90% 이상의 점유율을 차지한다. 택시 기사 입장에서는 카카오T를 사용하지 않고서는 호출을 수행하는 것조차 어렵다. 실제 카카오모빌리티가 이날 발표한 ‘2021 카카오모빌리티 리포트’에 따르면 지난 2015년 출시 이후 카카오T 택시 누적 호출 수는 22억 건 이상을 기록했다. 특히 올 상반기 단거리 호출수는 지난 2019년 상반기에 비해 45%나 증가했다. 차두원 차두원모빌리티연구소장은 “타다는 지난 10월 토스에 인수된 이후 새로운 서비스 출시를 예고하며 제 2의 도약을 노리고 있는 상황"이라며 “빠른 성장을 위해선 카카오 T와의 제휴가 필요하다고 판단했을 것"이라고 설명했다.주요 가맹택시 업체 중 유일하게 미제휴인 곳은 우티가 유일하다. 사업 확대에 차질이 생길 수도 있다는 우려도 나온다. 우티는 카카오 가맹택시(카카오 T 블루)보다 낮은 수수료율을 내세워 올해 말까지 가맹택시 수를 1만 대까지 늘리겠다는 목표를 제시했다. 하지만 여전히 카카오T에 비해서는 이용자 수가 미미해 앱 자체에서 생성되는 콜이 적다. 이런 상황에서 카카오T 앱마저 쓰지 못할 경우 택시 기사들이 우티를 이탈할 가능성이 높다. 실제 모바일인덱스에 따르면 우티 앱 일간사용자 수(DAU)는 지난 달 1~2일 1만5,934명에 불과했다. 11월 한달간 20% 요금 할인 혜택에 힘입어 이달 1~2일에는 10만986명까지 급증했지만 지난 21일 다시 4만3,275명 수준으로 줄었다. 이달 21일의 경우 카카오 T의 DAU는 114만694명에 달했다.우티는 이같은 상황에도 불구하고 독립적 택시 호출을 유지할 방침이다. 우티 관계자는 “최근에서야 국내에서 본격적인 사업을 시작한 만큼 합승 서비스, 빠른 배차 서비스 등을 선보이며 우티만의 차별화된 경험을 제공하는 데 집중할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>토스, 5인 미만 사업장 운영자에 급여명세서 보내기 서비스</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012847573?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>[토스 제공=연합뉴스]     (서울=연합뉴스) 한혜원 기자 = 토스는 오는 26일부터 자영업자를 위한 금융서비스인 '사장님' 메뉴에 급여명세서 발급 기능을 추가한다고 25일 밝혔다.     이 서비스를 이용하는 자영업자는 필요한 정보를 입력하면 소득세와 지방소득세 등이 자동으로 계산된 급여명세서를 각 직원에게 발송할 수 있다. 입력 정보는 직원 월 급여와 식대, 상여금 등 지급항목과 건강보험공단에서 매월 발급하는 고용·건강보험료 항목 등이다.    이달 19일부터 시행된 개정 근로기준법에 따라 사업주는 임금 지급일에 근로자에게 임금명세서를 반드시 교부해야 한다.     안지영 토스 프로덕트오너는 "사장님 서비스를 이용하는 자영업자 고객의 70%가 근로기준법 개정에 따른 급여명세서 교부 의무화를 모르고, 작성하는 데도 어려움을 가지고 있었다"며 "실질적인 도움을 줄 수 있길 기대한다"고 말했다.    이 서비스는 우선 5인 미만 월급제 근로자를 고용한 자영업자에게 무료로 제공된다. 토스는 주급제·일급제 사업장과 5인 이상 사업장 운영자 등으로 대상을 확대할 예정이라고 밝혔다.     자영업자에게 매장 장부 관리, 배달 매출 늘리기, 숨은 카드 매출 찾기 등을 제공하는 토스 '사장님' 서비스는 지난해 11월 출시됐고 현재 이용자는 약 40만명이다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>(영상)줄줄이 짐싸는 외국계 은행…韓은행에는 호재?</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005088480?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>캐다나 3위 은행 노바스코셔, 韓 철수외국계은행 10년간 7곳 떠나17일 이데일리TV 뉴스 방송&lt;앵커&gt;미국 씨티은행에 이어 캐나다 노바스코셔 은행도 우리나라에서 철수를 결정하는 등 외국계 은행들이 잇달아 한국을 외면하고 있습니다. 금융환경이 급변하고 있는 가운데 국내 은행들도 과감한 변신이 요구되고 있습니다. 이지혜 기자가 보도합니다. &lt;기자&gt; 미국 씨티은행의 국내 소매금융 부문 철수에 이어 캐나다에 본사를 두고 있는 노바스코셔 은행도 한국을 떠나기로 결정했습니다. 한국 시장에 진출한지 43년만입니다. 금융당국은 최근 노바스코셔 은행의 서울지점 폐쇄를 승인했습니다. 캐나다 3위 규모의 노바스코셔 은행은 1978년 서울지점 설치 이후 기업금융 중심으로 영업을 해왔지만 본사의 세계사업 재편 전략에 따라 한국 시장 철수를 결정한 것으로 알려졌습니다.하지만 잇따른 외국계 은행들의 국내 철수 소식에 대해 금융권에선 과도한 정부 규제와 노동시장의 경직성이 원인이라고 지적했습니다.최근 10년간 국내에서 철수한 외국계 은행은 HSBC은행, 골드만삭스, UBS 등 7곳에 이릅니다. 현재 국내에서 영업 중인 외국계 은행은 미국 제이피모건체이스, 영국계 홍콩상하이은행, 독일 도이치방크 등 35곳입니다.[인터뷰: 현은주 금융연구소 연구위원]“살아남은 외국계 소매은행인 SC은행의 경우 주택담보대출 위주와 WM(자산관리) 집중 등 새로운 돌파구를 마련한 만큼 모든 외국계 은행에 대해 동일한 심각성으로 보지 않아도 될 것으로 보입니다.”그동안 지적되온 금융환경의 한계점과 더불어 디지털 시대를 맞이한 국내 기존 은행들의 도전은 필수 불가결한 과젭니다. 17일 이데일리TV 뉴스 방송[인터뷰: 김대종 세종대 경영학부 교수]“우리나라 금융기관들이 이제는 모바일·인터넷 중심으로 전환을 해야 살아남을 수 있고 외국계 은행들이 철수하더라도 국내의 카카오뱅크·토스뱅크 등의 온라인 진출이 지속되면서 시장점유율 확대에 나서고 있기에 국내은행들은 계속 긴장을 해야 하고…” 우리나라가 금융허브 강국의 목표를 세운 지 20년이 되어 가지만 목표 달성은 아직 요원해 보입니다. 금융당국의 과감한 제도 개선은 물론, 은행 내부적으로도 혁신의 과제를 적극적으로 실천하려는, 양쪽의 노력이 모두 필요한 때입니다.이데일리TV 이지혜입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>태평양 컨테이너 운임 지난주 26%↓…정체는 계속</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010834275?sid=104</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>기사내용 요약성수기 종료 맞물려…"정체 완화는 아직"[로스앤젤레스(미국)=AP/뉴시스]지난 13일(현지시간) 미국 로스앤젤레스 항에 컨테이너, 선박, 트럭들의 모습이 보인다. 2021.10.18.[서울=뉴시스] 유자비 기자 = 공급망 교란, 미국의 쇼핑 대목 시즌 등으로 치솟던 태평양 횡단 컨테이너 운임이 2년 만에 최대폭으로 하락했다고 15일(현지시간) 월스트리트저널(WSJ)이 보도했다. 화물추적 기업인 프레이토스의 해상 컨테이너 운임지수(FBX)에 따르면 중국에서 미국 서해안으로 가는 컨테이너 운임이 지난주 1만3295달러(약 1573만원)를 기록했다고 보도했다. 올해 초 4200달러(약 498만원)보다는 여전히 3배 이상 높지만 전주에 비해선 26% 하락했다. 이는 급증하던 해상 운송 수요가 완화하는 신호라고 WSJ는 진단했다. 운임 하락은 미국의 연말 쇼핑 대목을 앞두고 8월부터 화물을 싣기 시작하는 전통적인 성수기 종료와 맞물려 있다. 미국 인구조사국에 따르면 9월 도매 재고는 전년 동월 대비 13% 증가했다. 아마존, 월마트, 홈디포와 같은 대형 수입업체들이 크리스마스 등 성수기를 앞두고 물류 대란을 우려해 미리 재고를 비축한 것으로 해석된다. 중국에선 수백만명의 근로자들이 가족을 방문하기 위해 일주일간 휴식을 취하며 제조업 생산량이 크게 떨어지는 '춘제'(음력 설)가 2월로 다가온다. WSJ는 대형 선박 용량이 늘어날 것으로 예상되면서 크리스마스 쇼핑 시즌을 앞두고 유통업체들이 초여름부터 임대했던 소형 선박들이 점차 소규모 지역 무역로로 철수할 것으로 예상했다. 현재로선 미 서부 최대 항구인 로스앤젤레스(LA)·롱비치항에는 크리스마스 트리부터 전자제품, 중장비 등을 실은 수십척의 선박들이 하역하기 위해 몇주를 기다리고 있다. 80여척의 화물선이 하역을 위해 2주 넘게 대기하고 있다. 업계는 정체 해소에는 몇 달이 걸릴 것으로 전망하고 있다. WSJ는 "늦어도 2월까지는 정체가 완화되지 않을 것으로 보인다"고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>[오늘의 유통 단신] 위메프, '위메프데이' 5일간 초특가 아이템 공개 外</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000639458?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>◆ 위메프, '위메프데이'…5일간 초특가 아이템 공개위메프가 내달 1~5일 '위메프데이'에서 매일 새로운 행사 콘셉트를 공개, 연관 아이템을 특가에 선보인다고 밝혔다.행사 첫날 1만원 이하로 구매할 수 있는 상품만 모은 '만원의 행복'을 시작으로 ▲2일 패션·뷰티 ▲3일 베이비 ▲4일 푸드·리빙 ▲5일 디지털·가전·E쿠폰 순으로 카테고리별 TOP10 상품을 선보인다.요일별로 정해진 콘셉트 상품은 1만원 이상 결제 시 카드·간편결제(국민·우리·농협·하나·롯데·비씨·현대·전북·카카오페이·토스) 10% 할인 쿠폰을 제공한다.위메프의 '위메프데이' 이미지. [사진=위메프]◆ 안다즈 서울 강남, 컬래버레이션을 통한 크리스마스 장식 선봬하얏트 체인의 호텔 안다즈 서울 강남은 스타일리시한 크리스마스 장식을 내년 1월 9일까지 선보인다. 세계적인 디자이너 피에트분만의 세련된 감각이 돋보이는 안다즈 서울 강남의 로비 및 메인 계단에 설치된 '글린티스트 크리스탈 트리'는  LG생활건강의 메이크업 브랜드 '글린트 바이 비디보브 Glint by VIDIVOV'와의 컬래버레이션으로 탄생했다.'세상 모든 반짝임'에서 영감을 받아 탄생한 감각적인 트리에는 립스틱, 섀도우, 하이라이터 등의 메이크업 제품 등이 오너먼트로 사용됐다. 또한 크리스탈 트리와 조화롭게 어우러진 조명이 한층 더 드라마틱한 분위기를 선사한다. 마치 겨울왕국 같이 반짝이는 페스티브 무드를 안다즈 서울 강남에서 만끽할 수 있다.◆ SPC 던킨, 신규 커피 블렌드 '윈터빌리지' 출시SPC그룹 계열사 비알코리아가 운영하는 던킨이 새로운 커피 블렌드 '윈터빌리지(Winter Village)'를 출시했다. 이번 제품은 원두 고유의 맛과 향을 섬세하게 살린 것이 특징이다.제품명 '윈터빌리지'는 매해 겨울마다 화려한 장식과 생동감 넘치는 연말 분위기로 유명한 뉴욕의 브라이언트 마켓 윈터빌리지에서 착안됐으며, 움츠러들기 쉬운 겨울 던킨 커피를 찾는 고객들에게 올겨울 반짝이는 생동감이 느껴지는 커피를 선물하기 위해 탄생했다.윈터빌리지는 세 가지 원두(에티오피아·콜롬비아 게이샤·콜롬비아)를 풍부한 맛의 비율로 조합돼 최적의 커피향과 맛을 선사하는 제품이다. 원두를 미디엄 로스팅으로 볶아내 부드럽고 산뜻하게 즐길 수 있으며, 에티오피아, 콜롬비아 게이샤 원두 특유의 플로럴하고 상큼한 열대과일 향을 입안 가득 느낄 수 있다. 여기에 콜롬비아 원두가 선사하는 기분 좋은 깔끔한 맛을 선사한다.◆ 그랜드 하얏트 서울 호텔, '스페셜 로맨틱 이스케이프' 패키지 출시 그랜드 하얏트 서울 호텔은 소중한 이와 달콤하게 설레는 추억으로 올 한 해를 마무리할 수 있도록 12월 한정 '스페셜 로맨틱 이스케이프' 패키지를 선보인다.스페셜 로맨틱 이스케이프 패키지는 둘만의 추억을 한층 더 깊이 각인 시켜줄 한강 전망 프리미엄 객실부터 이용 가능하며, 2인 조식 뷔페 혹은 2인 컨티넨탈 룸서비스 조식 혜택 중 선택할 수 있다. 그 뿐만 아니라, 로맨틱한 분위기를 한껏 끌어 올려줄 사랑스러운 컬러의 부케와 오렌지 와인, 그리고 이에 어울리는 치즈 박스 및 달콤한 한라봉 치즈 타르트가 함께 제공되어 반짝이는 서울 야경을 바라보며 오붓한 저녁 시간을 보내기에 안성맞춤이다. 마지막으로 둘만의 소중한 순간들을 빠짐없이 기록할 수 있도록 일회용 흑백 필름 카메라 또한 제공해 레트로 감성에 빠진 MZ 세대들의 취향을 제대로 저격할 예정이다.◆ 반얀트리 클럽 앤 스파 서울, '베리 베리 베리' 딸기 디저트 뷔페 선보여반얀트리 클럽 앤 스파 서울의 그라넘 다이닝 라운지는 딸기 디저트 뷔페 '베리 베리 베리 프로모션'을 오는 12월 3일부터 2022년 3월 27일까지 선보인다.베리베리베리 프로모션은 매 시즌 만석 행렬을 잇는 반얀트리 서울의 대표적인 디저트 뷔페 프로모션으로 제철을 맞은 신선한 딸기를 주제로 한 풍성하고 다채로운 메뉴들을 무제한으로 즐길 수 있다. 대표적인 메뉴로는 맛과 당도가 최상에 이른 생딸기를 비롯해 크로플, 딸기 케이크, 딸기 판나코타 등 먹음직스럽고 아기자기한 비주얼을 자아내는 딸기 디저트가 차려진다. 또한 쌀국수, 타이 샐러드, 칠리 치킨, 피자 등 속을 든든하게 채울 수 있는 요리도 함께 내보이며 음료로는 커피 또는 차가 제공된다.셀렉스 밀크세라마이드 콜라겐 선물세트. [사진=매일유업]◆ 셀렉스, 연말연시 고객 Flex 모먼트 감동 프로모션 진행지난 10월 1일 별도법인으로 새롭게 출범한 매일헬스뉴트리션이 건강한 연말연시를 기원하며 1등 단백질 셀렉스 코어프로틴 대규모 샘플링 이벤트를 진행한다.매일헬스뉴트리션은 "연말연시 가장 중요한 새해 다짐은 건강"이라며 "장기화된 코로나로 국내에서 Flex 모먼트를 즐기고자 하는 고객들의 '건강한 새해'를 기원하고자 이번 대규모 샘플링을 기획하게 됐다"고 전했다.매일헬스뉴트리션이 롯데호텔 부산, 메르세데스-벤츠코리아 공식 딜러 한성자동차와 함께 마련한 연말연시 고객 Flex 모먼트 감동 프로모션은 12월 내내 부산 지역 중심으로 진행된다.12월 1일부터 연말 리프레시를 위해 롯데호텔 부산을 찾는 투숙객에게는 토털 이너뷰티 제품 셀렉스 밀크세라마이드 콜라겐을, 피트니스센터를 방문해 운동을 하는 회원들에게는 코어프로틴 음료, 코어프로틴 너츠바로 구성된 셀렉스 근육건강세트를 증정한다.◆ 서울드래곤시티, '페스티브 프로모션' 진행서울드래곤시티가 크리스마스 시즌과 연말연시를 맞아 서울 도심에서 따뜻하고 즐거운 추억을 만들어 줄 '페스티브 프로모션'을 마련했다.서울드래곤시티의 페스티브 프로모션은 10여 개의 호텔 레스토랑에서 진행되는 스페셜 다이닝 프로모션부터 안락한 객실에서 편안한 휴식과 취향 맞춤 다이닝 혜택을 동시에 즐길 수 있는 '테이스티 홀리데이(Tasty Holiday)' 패키지, 크리스마스에 달콤함을 더해줄 시즌 한정 스페셜 케이크까지 풍성하게 구성되어 특별한 추억을 선사할 예정이다. 또한 행복한 추억을 기념할 수 있는 포토 프린트 이벤트도 마련되어 있어 즐거움을 더할 예정이다.◆ 조니워커, 'KEEP WALKING' 캠페인 론칭 영상 공개디아지오코리아는 세계 판매 1위 스카치위스키 브랜드 조니워커가 새로운 글로벌 'KEEP WALKING' 캠페인의 한국 론칭 영상을 내달 공개한다고 밝혔다.KEEP WALKING 캠페인은 조니워커의 글로벌 프로젝트의 일환으로, 현실에 안주하지 않고 대담한 행보를 통해 삶을 풍요롭게 만드는 사람들을 응원하기 위해 기획됐다. 조니워커는 한층 더 확장된 브랜드 정신을 알리기 위해 지난 10월부터 뉴욕, 멕시코시티, 케이프타운, 도쿄, 방콕 등 세계 각국에서 다양한 활동을 이어가고 있다.◆ 국순당 쌀막걸리, 리뉴얼 출시국순당이 국산 쌀로 빚은 막걸리인 '국순당 쌀막걸리'를 맛과 품질을 향상하고 친환경 제품으로 개선해 새롭게 출시한다고 밝혔다.새롭게 출시한 '국순당 쌀막걸리'는 세 번의 발효 과정을 거쳐 부드러운 막걸리의 풍미를 더욱 강화했다. 여기에 환경과 제품 품질을 고려한 포장으로 개선했다. 기존 유색 페트병을 투명 페트병으로 변경하고 빛에 의해 품질이 저하되는 것을 차단해 최상의 맛을 유지하도록 페트병 전체를 감싸는 라벨을 적용했다. ESG 경영의 일환으로 라벨에 절취선을 적용해 재활용을 위한 분리배출도 쉽다.◆ 포시즌스 호텔 서울, '비스포크 뷰티 패키지' 출시 포시즌스 호텔 서울은 여유로운 휴식과 피부를 위한 명품 화장품 등 풍성한 선물이 포함된 객실 패키지 '비스포크 뷰티(Bespoke Beauty)'를 내달 1일부터 선보인다.프랑스 럭셔리 뷰티브랜드 비올로직호쉐쉬와 콜라보레이션으로 기획된 이번 패키지는 이용객 모두에게 50만원 상당의 비올로직호쉐시의 스킨케어 제품을 선물로 제공하는 매력적인 상품이다.NAS in Seoul 심포지엄 현장사진. [사진=대웅제약]◆ 대웅제약, NAS in Seoul 심포지엄 개최대웅제약은 지난 27일과 28일 양 일간 서울 플라자호텔에서 개최한 '나보타 에스테틱 심포지엄'을 의료진 70여명의 참가 속에 성황리에 끝마쳤다고 밝혔다.이번 심포지엄에서는 보툴리눔 톡신 나보타를 활용한 시술 노하우와 사례가 공유됐다. 신상호 크리스마스 성형외과 원장은 '성형외과 전문의가 공유하는 보툴리눔 톡신 시술 다빈도 부작용 대처법'을 공유하고 "FDA 승인으로 안전성과 유효성을 입증받은 나보타를 활용해 안전한 시술을 하는데 도움이 되길 바란다"고 말했다. 김진오 뉴헤어의원 원장은 '보툴리눔 톡신을 활용한 탈모 치료 케이스 리뷰 및 시술 노하우 공유' 강의를 맡아 "1천만 탈모인에게 보툴리눔 톡신을 활용한 치료가 좋은 대안이 될 수 있을 것"이라고 설명했다.◆ SPC삼립, '삼립호빵 두유·죽' 제품 출시SPC삼립이 삼립호빵 '호호 단팥 두유'와 '호호 죽'을 출시했다.SPC삼립은 겨울 대표 간식 삼립호빵 펀(fun) 마케팅의 일환으로 전통적인 브랜드 이미지에 재미 요소를 더한 이색 제품을 선보이며 MZ세대 공략에 나섰다.이번에 출시한 호호 단팥 두유는 삼립호빵 단팥 원료를 사용해 부드럽고 달콤한 맛을 살린 두유로 전국 GS25 편의점에서 만나볼 수 있다.100°C 고온에서 삶아낸 팥앙금과 통팥을 사용해 달콤한 맛을 낸 호호 단팥죽과 당근, 파, 마늘 등 야채와 사골육수를 넣어 감칠맛을 살린 호호 야채죽 등 죽 2종도 선보였다. 다가오는 동지는 물론 추운 겨울철에 간편하게 즐길 수 있는 제품이다. 전국 롯데마트와 롯데슈퍼, 온라인 판매처를 통해 구매할 수 있다.◆ 대상 청정원, 100% 통영 굴과 울진 대게 넣은 '대게 굴소스' 출시대상 청정원이 100% 통영산 굴과 울진 대게를 넣어 깊은 감칠맛을 내는 '대게 굴소스'를 출시했다.신제품 청정원 대게 굴소스는 엄선한 경남 통영산 굴과 경북 울진산 대게만 사용해 맛이 진하고 풍미가 깊다. 볶음밥뿐만 아니라 다양한 볶음요리, 파스타 등에 넣으면 해물의 풍부한 감칠맛을 느낄 수 있다. 라면에 한 큰 술 넣어도 깊고 진한 해물 맛이 살아난다. 스테이크 소스나 덮밥 소스, 조림 등에 소량 사용하면 고급스러운 맛을 배가시킬 수 있다.◆ 쿠팡, 지역 청년 창업자 판로 개척에 앞장서 쿠팡은 경상북도, 경상북도경제진흥원과 함께 경상북도 소재 청년창업 기업들의 온라인 판로 개척과 판매를 지원을 위해 '2021 경북 청년창업제품 판로개척 지원' 기획 전을 진행한다.12월 말까지 진행하는 이번 행사에는 38개 경북 소재 청년 기업의 품질 좋은 1천800여개 상품을 한 곳에서 간편하게 만나 볼 수 있다. 고객들은 행사 기간 동안 경상북도 지역 특산물, 가공식품을 비롯해 생활용품, 가구, 홈 인테리어, 패션잡화 등 카테고리별로 우수한 품질과 경쟁력을 갖춘 다양한 상품들을 저렴한 가격으로 구매할 수 있다.고객들이 원하는 상품을 더 알뜰한 가격으로 구매할 수 있도록 풍성한 혜택도 마련했다. 행사기간 동안 일부 상품에 한해 최대 20%까지 할인 가능한 쿠폰도 주어진다. 할인쿠폰은 1인당 3매까지 다운로드 받은 후 이용할 수 있으며, 선착순으로 제공된다.◆ 라연, '라 리스트' 2회 연속 'TOP 150' 선정서울신라호텔 한식당 '라연'이 프랑스 정부가 주관하는 세계적인 미식 가이드 '라 리스트 2022(LA LISTE 2022)'에서 한국 최초∙유일 2회 연속 150대 레스토랑으로 선정됐다. 서울신라호텔의 프렌치 레스토랑 '콘티넨탈'과 일식당 '아리아께'도 3회 연속 TOP 1000 레스토랑에 이름을 올렸다.서울신라호텔은 30일 오전 4시 프랑스 파리 외무성 관저에서 열린 '라 리스트 2022' 공식 행사에서 한식당 '라연'이 한국 레스토랑 중 가장 높은 점수인 94.5점을 획득하며 TOP 150 레스토랑으로 선정됐다고 밝혔다. '라연'은 지난 2017년 한국 최초로 TOP 500에 선정된 후 2018년 TOP 200, 2019년 TOP 150에 선정되는 등 순위가 꾸준히 상승해 왔다. 지난해는 코로나19 팬데믹으로 공식 행사가 취소되면서 2년만에 새로운 리스트가 발표됐다.◆ SPC 배스킨라빈스, 12월 '아이스 고디바 초콜릿' 출시SPC그룹이 운영하는 배스킨라빈스가 12월 '아이스 고디바 초콜릿'을 출시한다.배스킨라빈스는 프리미엄 초콜릿 브랜드 '고디바(GODIVA)'와 협업해 진한 고디바 초콜릿 맛을 활용한 다양한 신제품을 출시한다. 이달의 맛 '아이스 고디바 초콜릿'은 깊고 진한 다크 초콜릿에 초콜릿 칩과 하트 모양의 초코 퍼지를 더해 풍미를 극대화했다. 부드러운 아이스크림과 입안 가득 퍼지는 진한 초콜릿 맛이 조화로운 것이 특징이다.이달의 케이크로는 '아이스 고디바 초콜릿 케이크'를 공개했다. 신제품 아이스 고디바 초콜릿과 배스킨라빈스의 베스트 초콜릿 아이스크림 3종(아몬드봉봉, 초콜릿무스, 초콜릿)이 어우러졌다. 초콜릿 매니아 층의 취향을 저격할 고급스러운 비주얼이 특히 돋보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>두나무·크래프톤으로 대박 난 VC 업계… 우리기술, 작년보다 20배 벌었다</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000775309?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>기업가치 20조 된 두나무, VC 최고 ‘효자’“카카오벤처스, 펀드 성과보수만 1000억”        올해 벤처캐피털(VC) 업계 최고의 캐시카우(수익 창출원)는 가상화폐 거래소 ‘업비트’와 게임 ‘배틀그라운드’였다. 업비트 운영사 두나무와 배그 개발사 크래프톤은 각각 장외 기업가치와 상장 시가총액이 20조원을 넘으며 VC들의 수익 증대에 기여했다.특히 우리기술투자는 3분기까지 누적 영업수익이 지난해보다 20배 이상 증가하며 ‘잭팟’을 터뜨렸다. 카카오벤처스는 두나무를 통해서만 1000억원의 성과보수 실현을 앞둔 것으로 전해졌다.그래픽=이은현  우리기술투자, 3분기 누적 영업수익 9000억원 육박        22일 투자은행(IB) 업계와 금융감독원 전자공시에 따르면, 증시에 상장한 VC 11개사의 1~3분기 누적 영업수익은 8817억원이었다. 지난해 같은 기간(2509억원)과 비교해 250% 이상 증가한 금액이다.VC 영업수익은 보통 펀드의 ‘관리보수’와 ‘성과보수’, ‘피투자사 지분의 공정가치’ 등으로 구성된다.관리보수는 VC가 벤처 펀드를 운용함으로써 얻는 금전적 대가다. 대체로 운용자산(AUM)의 2%를 받기 때문에, 1조원 규모의 펀드를 운용한다면 VC는 약 150억~200억원의 관리보수를 받게 된다.성과보수는 펀드가 청산되거나 청산 전 기준 수익률을 넘을 경우 VC가 얻게 되는 수익이다. 기준 수익률은 출자자(LP)가 VC에 요구하는 수익률이다. 운용 기간에 대해 복리로 계산한다. 예를 들어 VC가 기준 수익률인 5%인 1000억원짜리 벤처 펀드를 잘 운용해 AUM을 2000억원으로 불렸다고 가정한다면, LP에는 1300억~1400억원을 돌려줘야 한다. VC는 차익 600억~700억원 중 20%인 120억~140억원을 가져갈 수 있다.마지막으로 피투자사 지분의 공정가치는 아직 처분하지 않은 주식의 평가 금액을 장부가로 반영한 것이다. VC가 1000억원 규모의 벤처 펀드에 100억원(전체 AUM의 10%)을 출자했다고 가정해보자. 이 펀드에서 A사에 30억원을 투자해 지분 가치가 3000억원으로 늘었다면, 그 중 VC가 출자한 몫은 3억원에서 300억원으로 불어났다고 볼 수 있다. VC가 투자금의 10%를 댄 셈이기 때문이다. 이때 VC의 투자 수익은 300억원에서 3억원을 뺀 297억원으로 간주된다.지난 9월 업비트 개발자 컨퍼런스(UDC)에서 송치형 의장이 발언하고 있다. /두나무 제공        1~3분기 가장 좋은 실적을 낸 VC는 3895억원의 영업수익을 기록한 우리기술투자였다. 이 회사는 지난해 같은 기간 영업수익이 183억원에 그쳤으나, 1년 만에 21배 넘는 돈을 벌게 됐다.우리기술투자의 영업수익은 보유한 두나무 지분 가치의 상승에 기인했다. 올 초부터 3분기 말까지 우리기술투자가 두나무를 통해 벌어들인 것으로 간주되는 평가손익은 3382억원이다.한 VC 관계자는 “우리기술투자는 벤처펀드가 아닌 고유계정(자기자본)으로 투자를 많이 해, 두나무에 투자한 다른 VC들보다 더 많은 수익을 낼 수 있었다”고 설명했다. 벤처펀드에서 투자할 경우 VC가 펀드에 출자한 비율 만큼만 수익을 분배 받을 수 있으나, 고유계정으로 투자하면 모두 VC의 수익으로 잡힌다.다만 시장에서 평가 받은 기업 가치가 회계 상 온전히 반영될 수 없는 만큼, 실제 우리기술투자가 보유한 두나무 지분의 시장 가치는 장부가를 크게 웃돌 전망이다. 현재 두나무 기업 가치는 20조원으로 평가 받는다. 우리기술투자의 두나무 지분율은 7.6%이며, 지분의 취득 금액은 불과 56억원이었다. 미래에셋, 네오이뮨텍·오늘의집이 호실적 이끌어        미래에셋벤처투자 역시 좋은 실적을 냈다. 1~3분기 영업수익이 1588억원을 기록하며 전년 동기 대비 172% 증가했다. 2분기에만 펀드 성과보수와 수익 배분으로 90억원을 벌었으며, 그 외에 피투자사들의 지분 가치도 크게 올랐다.미래에셋벤처투자는 특히 지난 3월 코스닥시장에 상장한 면역 항암제 개발사 네오이뮨텍을 통해 큰 수익을 냈다. 미래에셋벤처투자는 네오이뮨텍이 과거 제넥신에서 분사된 지 얼마 안 돼서부터 총 46억원을 투자했으며, 올 3분기까지 현금으로 약 500억원을 회수했다. 펀드 뿐 아니라 고유계정으로도 투자한 만큼 상장 지분을 처분해 큰 수익을 얻을 수 있었다.IB 업계에 따르면, 미래에셋벤처투자는 그 외에도 인테리어 스타트업 ‘오늘의집’을 운영하는 버킷플레이스 투자 효과를 많이 봤다. 버킷플레이스 기업가치가 100억원에 불과했을 때 초기 투자한 것으로 알려졌다. 현재 이 회사는 약 1조원의 기업가치에 후속 투자 유치를 추진 중이다. 미래에셋벤처투자는 회사 고유계정으로 투자한 버킷플레이스 지분을 통해서만 올해 116억원의 평가이익을 냈다.오늘의집 홈페이지에 인테리어 시공 업체들의 리뷰가 게시돼있다. /버킷플레이스        미래에셋벤처투자는 ‘리디북스’를 운영하는 리디에도 고유계정으로 투자했으며, 인공지능(AI) 기반 의료 영상 진단 업체 루닛 지분도 보유하고 있다. 미래에셋벤처투자가 고유계정을 통해 보유한 리디 지분 가치는 309억원으로 반영됐으나, 시장에서 평가 받는 가치와는 괴리가 있다. 현재 시장에서 평가하는 리디의 기업 가치는 약 1조5000억원으로 알려졌다. 미래에셋벤처투자가 보유한 지분 가치(약 6.37%)는 950억원이 넘는 셈이다.아주IB는 올 3분기까지 1089억원의 영업수익을 냈다. 지난 2017년 200억원을 들여 인수한 야놀자 지분이 ‘효자’ 노릇을 했다. 당시 야놀자 기업가치는 6000억~7000억원 규모였던 것으로 알려졌다. 현재는 그 14~16배에 달하는 10조원의 몸값을 인정 받고 있다.다음 달 코스닥시장 상장을 앞둔 KTB네트워크는 1~3분기 1043억원의 영업수익을 기록했다. 지난해 같은 기간보다 383% 증가한 규모다. 투자조합 수익이 976억원으로 대부분을 차지했다. KTB네트워크는 올 8월 상장한 원티드랩에 투자해 엑시트에 성공했으며, 핀테크 ‘토스’ 운영사 비바리퍼블리카 지분을 통해서도 막대한 평가 이익을 냈다. KTB네트워크는 비바리퍼블리카에 초기 투자한 국내 VC 중 유일하게 현재까지 지분을 보유하고 있는 것으로 알려졌다.그 외에도 에이티넘인베스트먼트와 SBI인베스트먼트, DSC인베스트먼트가 올해 1~3분기 200억원 넘는 누적 영업수익을 기록했다. 나우IB와 대성창투, TS인베스트먼트도 100억원이 넘는 영업수익을 냈다. 크래프톤 투자한 IMM인베·케이넷·프리미어 ‘잭팟’        비상장 VC 가운데서는 크래프톤에 초기 투자한 회사들이 특히 좋은 실적을 낸 것으로 알려졌다.IB 관계자들에 따르면, IMM인베스트먼트는 지난 2009년부터 크래프톤에 투자해 막대한 수익을 냈다. IMM인베스트먼트가 결성한 투자 목적 회사 벨리즈원은 크래프톤의 상장 과정에서 보유 주식 277만주를 구주 매출로 내놓았는데, 그 중 IMM의 몫은 약 7700억원으로 추산된다. 해당 지분의 투자원금이 2000억원이었기 때문에 산술적으로 5700억원의 수익을 본 셈이지만, 이전 투자금까지 더하면 전체 회수금은 이를 크게 웃돌 것으로 추정된다. IMM인베스트먼트는 그 외에도 버킷플레이스와 무신사 같은 이른바 ‘유니콘(기업 가치가 1조원이 넘는 스타트업)’ 지분을 보유하고 있다.케이넷투자파트너스 역시 2009년 펀드를 통해 크래프톤에 99억원을 투자했는데, 상장 후 지분 가치가 1조원을 넘었다. VC 업계에서는 케이넷이 해당 지분을 매각해 투자금을 회수하면 성과보수만 약 2000억원이 발생할 것으로 추산했다. 케이넷은 이미 지난 2018년 보유 지분 일부를 1300억원에 매각해 성과보수 138억원을 받은 바 있다.크래프톤의 '배틀그라운드: 뉴스테이트'. /크래프톤        프리미어파트너스도 올해 실적이 가장 좋은 투자사 중 한 곳이다. 크래프톤에 100억원을 투자했을 뿐 아니라 사모펀드(PEF)를 통해서는 3000억원을 들여 SK IET에 지분 투자를 했는데, 최근 시간 외 대량매매(블록딜)를 통해 약 4700억원을 회수했다.그 외에 당근마켓에 초기 투자해 1000억원 이상의 지분을 보유한 캡스톤파트너스도 올해 호실적을 냈을 것으로 추정된다. 스톤브릿지벤처스의 경우 두나무의 기업가치가 1000억원일 때 15억원을 투자했으며, 지그재그에 투자해 약 20배의 수익을 올렸다. 지그재그는 올해 초 기업가치 1조원을 인정받으며 카카오에 인수됐다.4분기에는 카카오벤처스가 특히 좋은 실적을 낼 전망이다. IB 업계에 따르면, 카카오벤처스는 다음 달 청산하는 ‘케이큐브1호 벤처투자조합펀드’를 통해 1000억원의 성과보수를 얻게 된 것으로 알려졌다.이 펀드는 2012년 결성됐으며 두나무 기업가치가 7억원에 불과했을 때 2억원을 투자했다. 당시 카카오벤처스(옛 케이큐브벤처스)를 이끌던 임지훈 전 대표가 심사한 투자 건이었다.카카오벤처스가 보유한 두나무 지분 가치는 공개된 지분율(11%) 기준으로 2조2000억원에 달한다. IB 업계의 한 관계자는 “카카오벤처스가 주식 일부를 매각해 지분율이 8%까지 낮아졌다 가정하더라도, 지분 가치는 여전히 1조6000억원에 육박할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>[ET] 빌리기도 갚기도 ‘첩첩산중’…은행은 실적 잔치?</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011158637?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>■ 프로그램명 : 통합뉴스룸ET■ 코너명 : ET WHY?■ 방송시간 : 11월17일(수) 17:50~18:25 KBS2■  출연자 : 이인철 참조은경제연구소장■ &lt;통합뉴스룸ET&gt; 홈페이지http://news.kbs.co.kr/vod/program.do?bcd=0076&amp;ref=pMenu#2021.11.17[자료: KBS 드라마 ‘동네 변호사 조들호’]이자가 얼마나 되나요?금년부터 원금하고 이자 합해서 합이 한 달에 112만 원이시네요.혹시 추가 대출은 어려울까요? [앵커]돈을 빌리기도, 갚기도 첩첩산중입니다. 시중은행 대출 금리의 기준금리 역할을 하는 코픽스가 올해 들어 최고치를 찍으며 주택담보대출 금리가 또 인상됐다는 소식입니다. 대출자들 불안감은 높아 가는데 은행권에서는 이자 수익으로 실적 잔치가 벌어지는 상황, 어떻게 봐야 할까요. 이인철 참조은경제연구소장과 이야기 나눠보겠습니다. 소장님, 안녕하세요? 벌써 몇 번째 소장님하고 이 대출 금리 오른다는 얘기를 하는지 모르겠습니다. 이미 오를 만큼 오른 것 같은데 또 올랐습니까? [답변]그렇습니다. 시나브로 대출 금리가 오르고 있습니다. 지금 공식적으로 이제 15일 발표되는 코픽스 금리, 은행들의 자본 조달 평균 금리입니다. 이게 지금 5개월 연속 오르면서 연중 최고를 기록하고 있는데요. 한 달 새 0.13%p가 올라서 16일 신규 주택담보대출에는 모두 오른 금리가 적용됩니다. [앵커]그러니까 쉽게 말해서 코픽스라는 게 시중은행 대출금리의 기준 지표가 되는 그런 기준금리 역할을 하는 거잖아요? [답변]그렇습니다. [앵커]이게 오르면 그러면 대출 금리로 곧바로 반영되는 겁니까? [답변]맞습니다. 매달 시중 8개 은행의 자본 조달 시중 금리를 반영했기 때문에 15일 발표되고 바로 다음 날, 16일부터 신규로 대출받는 주택담보대출의 경우에는 모두 적용이 됩니다. [앵커]그러면 주택담보를대출 말고 신용대출 같은 경우도 금리가 같이 올라갑니까, 코픽스가 올라가면? [답변]조금 시차를 두고 반영이 되는데요. 코픽스 금리는 은행채 5년물 즉 중장기물이 반영된다면 신용대출 금리, 마이너스 통장 대출 금리는 좀 단기물, 은행채 6개월물이 반영되는데, 지금 나타나는 현상은 장기물이 너무 빠른 속도로 뛰고 있습니다. 이 얘기는 한국은행의 기준금리가 앞으로 서너 차례 더 있을 수 있다. 그래서 장기물이 더 크게 뛰다 보니까 신용대출 금리보다도 주택담보대출 금리가 더 뛰는 기현상이 나타나고 있습니다. [앵커]저도 휴대전화로 문자를 한 통 받은 게 있는데, 보면 현재 금리가 4.05%인데 재산정 금리는 4.15%다. 오늘 받은 문자거든요? 앞으로 0.1%p 금리 오른다, 이 얘기인 거죠? [답변]신용대출 안 받으실 줄 알았는데 받으셨군요. 은행의 갑질이 시작됐습니다. 저기 보면 기준금리, 재산정금리에서 우대금리가 0.9에서 0.8로 낮아졌어요. 우대금리라는 건 급여 이체 실적 그리고 자동이체 실적, 카드 사용을 반영하기 때문에 좀처럼 건드리지 않습니다. 그럼에도 불구하고 은행들은 지금 대출자들 밀려들고 있다. 대출 수요가 급증하고 있다는 이유로 저처럼 우대 금리를 낮추는 방식으로 대출 금리, 신용대출 금리를 올리고 있습니다. [앵커]그러니까 금리를 올려도 손님들이 알아서 찾아오니까 굳이 우대 금리까지 적용해줄 필요가 없다고 판단을 한 것 같네요. 문자 말미에 보니까 금리인하요구권 안내가 나오던데, 몇 가지 조건은 있습니다만 저렇게 요구하면 정말 금리 깎아줍니까? [답변]이게 2019년 6월부터 금리인하요구권이 법제화됐습니다. 초기에는 수용률이 높았는데 점점 수용률이 낮아지고 있는데요. 고객님의 신용 상태가 현저하게 반영된 경우, 예를 들어서 중소기업에서 대기업으로 전직을 했다. 아니면 나는 승진을 했다. 아니면 급여가 확실히 많이 올랐다. 이런 재산상의 어떤 이유로 상환 능력이 뛰어나다는 걸 입증할 경우에는 반드시 받아들여야 하는데요. 은행들은 연 2회, 반드시 이 금리인하요구권을 대출자들한테 고지해야 합니다. [앵커]조금 전에 본 것은 신용대출 금리인데 그게 이제 4%대까지 올라왔다는 거잖아요? 그런데 주택담보대출 금리 같은 경우는 담보가 있는데도 지금 보시면 거의 5% 턱밑까지 올라와 있는 상황이에요. [답변]그렇습니다. 이 얘기는 상대적으로 신용대출 금리보다 주택담보대출 금리가 더 높다는 건데요. 주택담보대출 금리는 주로 코픽스 금리에 의존하는데, 코픽스 금리가 5개월 연속 오르다 보니 이런 현상이 나타나고 있고요. 오히려 제1금융권보다 제2금융권이라고 하는 신협이나 단위, 지역 단위 농협이라든가.. [앵커]새마을금고, 수협. [답변]상호신용금고와 같은 이 지역 은행을 찾으시게 되면 여기는 대출 총량 규제에서 조금 자유롭습니다. 워낙에 이들은 이제 올해 목표치, 총량 규제 6~7% 턱밑에 와 있지만 2금융권은 아직 여력이 있기 때문에 오히려 2금융권의 이자가 더 낮은 기현상이 나타나고 있습니다. [앵커]이렇게 대출 금리는 높아지는데 예금 금리는 거의 그대로인 상황이니까 그 이자 차익에 따른, 우리가 흔히 예대마진이라고 하는, 이자 수익이 늘어날 수밖에 없잖아요? 실제로 보면 국내 은행이 이자로만 벌어들이는 수익이 3분기에만 11조, 이거 다 합치면 올해 거의 한 30~40조 되는 금액이에요. [답변]아마 이 정도면 삼성전자 순익하고 맞먹는 수준이거든요? 그런데 지금 국내 은행의 이자 수익, 3분기에만 11조 6,000억 원을 벌어들였습니다. 석 달 새 1조 3,000억 원 늘어났는데요. 이걸 누적해 보게 되면 올해까지 무려 34조 원에 육박하고 있는데, 지난해 전체 은행권 당기순이익을 이제 3분기 만에 초월한 상황입니다. [앵커]물론 은행이 건실하고 또 수익이 좋아야 우리 금융 시스템이 안정적으로 흘러가는 것도 물론 맞는 말이긴 하지만 이렇게 예대마진에 너무 의존해서 수익을 올리는 거, 이거는 좀 선진 금융하고는 조금 동떨어진 게 아닌가 싶기도 하고요. [답변]그렇습니다. 자본금 여력은 굉장히 높지만, 국내 은행들이 이렇게 예금과 대출 금리의 차이를 이용한 예대마진만을 이용하고 있다. 그래서 허가받은 전당포냐는 비아냥거리는 목소리가 나오고 있는데요. 한국판을 골드만삭스가 탄생하기 위해서는 이렇게 국내 영업이 아닌, 예를 들어서 M&amp;A를 중개한다든가 아니면 수수료의 다변화, 수익, 비이자 수익의 부분을 다양화해야 하는데 그런 부분에 대해서는 이제 은행들이 자체적으로 고민할 문제입니다. [앵커]물론 은행들이 자체적으로 고민할 부분도 있지만 기본적으로 우리 은행 산업이 독과점 구조, 그러니까 너무 경쟁이 없어서 그런 결과가 나오는 것 아닐까요? [답변]그렇습니다. 이러한 폭리 논란에 대해서 우리 경쟁 시스템, 특히나 금융 산업의 경쟁 시스템이 좀 미비한 게 아니냐는 지적이 나올 수밖에 없는데요. 그래서 우리가 최근에 인터넷 전문 은행 출시를 계기로 해서 어떤 메기 효과를 기대했는데. [앵커]요즘에 카카오뱅크, 토스, K뱅크 같은 거. [답변]이 3개 은행의 경우 대주주를 살펴보시면, 카카오뱅크의 대주주는 KB국민은행입니다. [앵커] 그러네요. [답변]단일 주주로는 2대 주주고요. 그리고 K뱅크도 비슷합니다, 우리은행이. 토스뱅크는 하나은행이 각각 대주주로 참여하고 있기 때문에 이러다 보니까 기대했던 어떤 메기 효과를 기대하긴 어렵고 대기업 금융 지주회사들의 자회사 역할을 하고 있는 게 아니냐는 지적이 나오고 있는 대목입니다. [앵커]메기 효과를 기대했는데 사실은 새끼 미꾸라지였다, 그런 말씀이신 것 같네요. 뭔가 대안도 없고 출구를 찾기가 어렵다 보니까 서민들 입장에서는 정부가 나서서 뭘 좀 해줘야 하는 거 아니냐, 이런 여론이 생기는 것 같은데, 정부 당국의 입장은 한결같습니다. 일단 시중은행 금리 인상에 대해서 개입하기 어렵다, 직접 개입하기 어렵다. 두 분 다 비슷한 말씀의 맥락인데, 어떻게 보면 금리라는 게 돈의 값이니까 시장에서 결정되는 거 맞고, 정부가 개입하지 않는 게 원칙적으로 맞지만 어떻게 보세요? 서민들 입장에서 뭔가 답답하고 고통스럽다는 거죠. [답변]맞습니다. 일부 말씀하신 것처럼 금융당국이 은행권의 금리를 제어할 수는 없습니다. 그럼에도 불구하고 대출 규제 총량 규제로 인해서 나타나는 부작용이 서민들의 이자 덤터기라는 사실을 좀 간화한 측면이 있다. 그리고 현 정부 출범이었던 2017년에도 비슷한 현상이 나타났습니다. 은행권의 예대마진 차로 인해서 서민들은 이자로 고통을 받고, 은행들의 이자수익이 높아지니까 실제로 현장 감독을 했습니다. 결과도 공개했고요. 그렇다면 지금 은행권의 이런 이자 장사라는 것을 간과하고 있다는 측면이 앞으로도 이런 예대마진이 더 확대될 수 있다는 시그널로 받아들일 수 있기 때문에 이 부분에 대해서 금융당국의 시각도 바꿔야 할 필요가 있습니다. [앵커]그러니까 정책의 의도나 취지와 상관없이 선의의 피해자가 생긴다면, 특히나 그게 취약계층이라면, 그런 더 이상의 취약계층은 만들지 말아야 한다는 관점에서 뭔가 핀셋 정책, 그들을 위한 어떤 집중적인 맞춤형 정책이 나올 때가 되지 않았나요? 금융 시장에서는 그런 정책이 어렵나요? [답변]사실은 정부가 정책 금융 상품도 있거든요. 보금자리론이라든가 여러 가지 상품이 있지만 서민들이 그 문턱을 넘기에 굉장히 굉장히 자격 조건이 까다롭고요. 실제로 보금자리론조차도 지금 금리가 많이 오르고 있는 상황입니다. 그러다 보니까 실질적으로 지금 나타나고 있는 대출의 90%는 전세나 그리고 주택담보대출이고 나머지 10% 정도가 마이너스 통장, 기타 대출이기 때문에 특히 대출이 필요한 서민들의 경우에는 정말 타깃, 맞춤형 대책이 필요한 상황입니다. [앵커]다음 주 목요일 사실상 기준금리 인상이 예고된 상황이죠. 실수요자들에게 뭔가 마지막으로 해 주실 말씀 있으실까요? [답변]정말로 이제 금리가 한 번 오르는 게 아니라 꾸준히 내년에도 오를 가능성이 굉장히 높아졌습니다. 그러면 정말 내가 필요한 대출인가? 정말 주택 마련이라든가 전세 대출이라면 정책 금융 상품을 살펴볼 필요가 있습니다. 특히나 중소기업, 청년이라든가 아니면 이제 버팀목 대출의 경우에는 자격 요건은 까다롭지만, 대출 이자율이 현저하게 낮습니다. 그러니까 이런 상품을 먼저 따져보고, 또 하나 금리 인상기에는 빚을 내서 레버리지로 어떤 자산 재태크를 하는 건 굉장히 금물입니다. 여기에다가 지금 금리 인상기에는 특히나 고정 금리냐 변동 금리냐를 선택해야 하는 시점이거든요. 자기가 필요한 자금 여력, 기준, 이런 걸 따져봐서 현명한 선택을 해 주시기 바라겠습니다. [앵커]지금까지 ET WHY, 이인철 소장과 함께했습니다. 고맙습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>배구 여제 김연경 "겉은 화려하지만 속은 썩어" 女배구 사태에 한 마디</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004882925?sid=102</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>'배구 여제' 김연경(33·중국 상하이)이 최근 여자 프로배구 IBK기업은행에서 벌어진 감독 항명사태를 비판하는 듯한 글을 쓰며 주목을 받고 있다.김연경은 22일 트위터 계정에 "겉은 화려하고 좋아 보이지만 결국 안은 썩었고 곪았다는걸. 그릇이 커지면 많은 걸 담을 수 있는데 우린 그 그릇을 꽉 채우지도 못하고 있다는 느낌. 변화가 두렵다고 느껴지겠지만 이제는 우리 모두가 변해야 될 시기인 거 같다"라고 남겼다.  김연경 자신이 이 글에서 어떤 대상을 비판하는지 명확하게 밝히지는 않았다. 하지만 맥락상 여자 배구가 지난 2020 도쿄 올림픽에서 4강에 오르며 인기 종목으로 떠오르게 만든 일등공신인 김연경이 최근 선수와 감독 사이의 불화가 드러나며 배구계에 파문을 일으킨 IBK기업은행 사태를 두고 변화가 필요하다고 지적한 것으로 읽힌다.IBK기업은행은 최근 주전 세터 조송화와 김사니 코치가 무단이탈 후 복귀 거부를 한 사실이 드러나며 크게 흔들리고 있다. 지난 19일 김사니 코치가 일단 복귀했지만 조송화가 임의해지로 은퇴 의사를 드러냈다. 김우재 전 감독이 이끈 지난 시즌에도 불화설에 시달렸던 IBK기업은행은 서남원 감독이 팀을 맡은 이번 시즌에도 마찬가지로 불화가 포착됐다. 지난 12일 KGC인삼공사전 작전타임 중 서 감독이 "웬만하면 (오버핸드로) 토스해. 왜 자꾸 언더(토스) 해"라고 조송화를 지적하자 조송화가 "실수요"라고 답하는 모습이 생중계되기도 했다.이후 IBK기업은행 팀이 불화에 대처하는 모습도 고개가 갸웃거려진다. 구단은 21일 입장문을 통해 "팀 내 불화, 성적 부진 등 최근 사태의 책임을 물어 서남원 감독과 윤재섭 단장을 경질하기로 했다"고 발표했다. 이튿날에는 "조송화를 임의해지 등록하기로 했다"며 "신임 감독이 선정될 때까지 (김 코치가) 감독대행을 수행할 것"이라고도 밝혔다. 감독에게 반기를 든 코치와 선수는 남고 정작 감독과 단장만 팀을 떠나게 되는 모양새가 된 것이다. 비상식적인 인사라는 뒷말이 나오는 이유다. 더구나 문화체육관광부의 바뀐 선수 권익 규정에 따라 임의해지는 구단이 아닌 선수가 먼저 자발적으로 신청해야 하지만 이마저도 파악하지 못하고 임의해지를 발표한 것 역시 운영상 문제를 보여주고 있다.결국 '한국 여자배구의 얼굴'이나 다름없는 김연경까지 이번 사건이 IBK기업은행을 넘어 프로배구 전체에도 나쁜 영향을 줄 것을 우려하며 한 마디를 남긴 셈이다. 지난 2020-2021시즌 흥국생명에서 뛰었던 김연경은 이재영·다영 선수와의 불화 논란을 직접 겪기도 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.11.19.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>센스톤, 영국 정부 지원 육성 프로그램 ‘사이버 런웨이’ 1기 선정</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002113839?sid=105</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 인증보안 기술 스타트업 센스톤(대표 유창훈)의 글로벌 비즈니스 헤드쿼터 스위치(이하 swIDch)가 영국 정부에서 지원하는 사이버 보안 엑셀러레이터 프로그램인 ‘사이버 런웨이(Cyber Runway)’ 1기로 선정되었다고 밝혔다.플러그앤플레이(Plug and Play), 사이버앳스테이션에프 바이 탈레스(Cyber@StationF by Thales) 등 세계 유수의 액셀러레이터 프로그램에 선정되어 글로벌 역량을 키우고 있는 센스톤은 swIDch의 이번 사이버 런웨이 합류로 총 10개의 글로벌 액셀러레이터 프로그램에 선정되는 쾌거를 이뤄냈다.사이버 런웨이는 영국의 사이버 보안 분야 중소기업 및 스타트업의 성장을 돕기 위한 육성 프로그램으로, 영국 디지털문화미디어스포츠부(DCMS)에서 후원하고 런던의 혁신 허브 플렉설(Plexal)이 딜로이트(Deloitte), 사일란(CyLon), CSIT(Centre for Secure Information Technologies)와 협력 지원한다. 그동안 DCMS가 지원해 온 허트제로(HutZero), 사이버101, 테크네이션 사이버 액셀러레이터(Tech Nation’s Cyber Accelerator)는 사이버 런웨이로 통합 및 대체된다. 올해 처음 진행되는 사이버 런웨이는 영국 전역의 사이버 기업, 스타트업, 중소기업, 스케일업 기업 등 총 108개사가 최종 선정됐다. 각 기업의 비즈니스 성장 단계에 맞춰 출시(launch), 성장(grow), 규모확대(scale), 총 3개 그룹으로 나뉘어 6개월간 지원 프로그램이 제공된다. swIDch는 108개사 가운데 총 20개사만이 선정된 규모확대 그룹에 배정됐다. 최종 선정된 모든 기업에는 비즈니스 마스터 클래스, 멘토링, 제품 개발 지원, 네트워킹, 지역 행사, 투자자 및 기업과의 연결을 통한 성장 촉진 기회 등의 다양한 혜택이 주어진다. 사이버 런웨이의 한 관계자는 “이번 프로그램에는 수많은 기업들이 지원하여 경쟁이 매우 치열했다”며, “swIDch는 그 중에서도 매우 돋보였고, 우리가 프로그램에서 고려하는 품질과 기준을 보여줬다”고 밝혔다. 유창훈 센스톤 및 swIDch 대표이사는 “사이버 보안 기업 육성에 힘을 쏟고 있는 영국 정부의 통합 육성 프로그램에 센스톤의 글로벌 비즈니스 헤드쿼터인 swIDch가 기술과 성장 가능성 모두 인정 받아 1기로 선정된 것은 매우 큰 의미”라며, “영국 정부 및 지원사가 보유한 글로벌 네트워크 등의 기회를 통해 swIDch 앞세워 센스톤의 비즈니스 영토를 계속 확장해 나갈 것”이라고 말했다. 센스톤의 OTAC(One-Time Authentication Code)는 비통신 환경에서도 다른 사용자와 중복되지 않는 1회성 인증코드를 생성하는 세계 최초 단방향 다이내믹 인증 기술이다. 아이디와 패스워드, OTP, 토큰 등 기존 인증 수단의 한계를 극복하며 핀테크, 커넥티드카, 사물인터넷(IoT) 및 드론과 같이 사이버 보안이 중요한 다양한 분야에 적용 가능하다. 앞서 지난 10월에는 토스뱅크의 고액 송금 및 이체 서비스에 OTAC 기반 '스위치 OTP'를 공급한 데 이어, 인도네시아 조폐공사의 전자수입인지 시스템에 OTAC 기술을 잇따라 공급하는 등 국내를 넘어 글로벌 시장에서 기술력과 가치를 인정받고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스, 美 플랫폼에 500만달러 투자</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001916472?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>리퍼블릭 지분 1% 인수 방식토스를 운영하는 비바리퍼블리카가 첫 해외투자를 단행했다. 투자 대상은 미국 비상장주식 투자 플랫폼이다. 이번 해외 투자는 향후 토스증권 등 투자 분야와 제휴·협력할 수 있다는 점에서 기대를 모은다.토스에 따르면 최근 토스는 해외 비상장 주식을 거래할 수 있는 미국의 플랫폼 기업 리퍼블릭에 지분 투자를 실행했다. 유망한 비상장 주식에 투자하려는 수요가 커지고 있어, 잠재적인 사업 시너지가 클 것으로 봤다는 게 토스 측 설명이다. 또 추후 해외 비상장주식 투자와 관련해 사업제휴 기회를 확보할 수도 있다.리퍼블릭은 2016년 미국에서 설립된 플랫폼으로 유망 스타트업과 비상장 기업에 투자할 수 있도록 중개해준다. 플랫폼을 이용하는 투자자는 100만명에 달하며 투자계약 역시 500건 이상 이뤄졌다. 플랫폼에서 진행된 총 투자 금액은 약 5억달러로 집계됐다.투자 규모는 리퍼블릭 지분 약 1%를 500만달러(약 60억원)에 인수하는 방식으로 이뤄졌다.이번 투자는 토스 투자팀인 토스벤처스가 주도했다. 토스는 지난해부터 LG유플러스 전자결제(PG) 사업부 인수와 타다 인수, 카페24 지분 투자 등을 진행했다. 토스 관계자는 “토스와 시너지를 일으킬 수 있는 좋은 투자 기회라면 투자 방식과 규모는 물론, 국내·해외를 가리지 않을 예정”이라고 설명했다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>`마이데이터 인증` 치고나간 네이버…카·토·페·뱅 "게 섰거라"</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005096355?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>사업자 80% 네이버 인증서 도입…페이코 10여곳 확보토스·뱅셀·카카오도 후발주자 참여…12월부터 본격 영업여러 인증서 동시 적용할 가능성↑…소비자 신뢰가 관건당장 돈은 안돼…"인증 시장 주도권 싸움 치열"(사진=이미지투데이 제공)[이데일리 이후섭 기자] 다음 달부터 본격화되는 본인신용정보관리업(마이데이터) 인증 시장을 두고 네이버, NHN페이코, 카카오, 토스, 뱅크샐러드 등이 치열하게 경쟁하고 있다.네이버가 마이데이터 사업자의 약 80%에 인증 서비스를 제공한 가운데 NHN페이코, 토스가 부지런히 뒤쫓고 있다. 카카오, 뱅크샐러드도 전자서명인증사업자를 획득하고 본격 시장에 뛰어들 채비를 갖추고 있다. 당장 수수료 수익이 기대되지는 않지만, 공공기관·민간 부문으로 점차 확대되는 인증 시장에서 주도권을 잡기 위한 선점 경쟁이 달아오르고 있다.네이버 인증서(왼쪽)와 NHN페이코 인증서(사진=각 사 제공)네이버, 사업자 80%에 인증서 제공…페이코도 10여곳 확보29일 네이버에 따르면 현재 마이데이터 본허가 및 예비허가를 획득한 60여곳의 사업자 중에 40개 이상이 네이버 인증서를 도입하기로 했다. 네이버 관계자는 “하나은행, 현대카드, 보맵 등 은행을 비롯해 금융투자, 카드, 핀테크 등 다양한 업권의 선택을 받았다”며 “서비스 안전성, 금융 보안성, 도입 및 이용자 편의성 등에서 높은 점수를 받아 적극적인 제휴가 이뤄졌다”고 설명했다. 개인 맞춤형 금융상품을 추천해 주는 서비스가 핵심으로 꼽히는 마이데이터는 내년 1월 1일부터 기존 스크래핑 방식으로 정보를 긁어오는 것은 금지되고 응용 프로그램 인터페이스(API) 사용이 의무화된다. 이에 앞서 오는 12월부터도 기능적합성 심사를 통과하고, 보안 취약점 점검을 완료하는 등 준비가 되는 업체들은 서비스를 선보일 수 있다.마이데이터 서비스를 이용하려면 `통합인증`이 필수적인데, 이 수단으로는 전자서명인증사업자 인정을 받은 민간 인증서와 공동인증서만 허용된다. 사업자는 민간 인증서를 최소 1개 이상 의무적으로 적용해야 하는 만큼 인증 사업자에게는 새로운 시장이 열리게 됐다. 가장 먼저 금융보안원의 법적요건 심사를 거쳐 통합인증 참여기관으로 확정한 NHN페이코도 신한은행, 한국투자증권, 키움증권을 포함한 10개의 마이데이터 사업자와 계약을 완료했다. 마이데이터 정보 제공자 및 중계기관 68곳과도 연동 단계를 진행 중이다.NHN페이코 관계자는 “빠르게 움직여 제일 먼저 라이선스를 딴 이점을 활용하면서 관련 영업 쪽에도 힘을 실어줬다”며 “최근에도 1~2군데 사업자와 계약을 맺었고 추가적으로 다른 사업자들과도 논의를 계속하고 있다”고 말했다.카카오 인증서(왼쪽)와 토스 인증서(사진=각 사 제공)토스·뱅셀·카카오도 후발주자 참여…“인증시장 새로운 먹거리”토스, 뱅크샐러드, 카카오는 최근 전자서명인증사업자 지위를 획득했다. 토스는 KB카드·NH투자증권·광주은행 등 8개 사업자에 인증서를 제공하기로 했고, 카카오와 뱅크샐러드도 일단 자사의 마이데이터 서비스에 인증 서비스를 적용한 이후 외부 영업에 나설 방침이다.토스 관계자는 “12월 이후 마이데이터 서비스 오픈을 목표하고 있는 기관의 경우, 일정이 너무 촉박하니 일단은 금융인증서로 오픈하고 서비스가 안정화된 뒤 민간 인증서 수단을 추가하자는 접근을 많이 하고 있다”며 “이들을 대상으로 12월부터 본격적으로 영업에 나설 계획”이라고 말했다.마이데이터 통합인증 단계에서 고객에게 선택권을 줄 수 있도록 사업자들이 여러 개의 민간 인증서를 도입할 것으로 예상되는 만큼 후발주자들에게도 충분한 사업 기회가 열릴 것으로 보인다. 업계 관계자는 “인증서에 대한 표준화가 이미 이뤄져 있어 연동은 어렵지 않다. 연초 연말정산 시범사업에 5개의 민간 인증서가 들어간 것처럼 마이데이터 사업자들도 여러 인증서 모델을 채택할 수 있다”며 “소비자 입장에서는 그간 검증을 받고 신뢰를 쌓은 인증서를 선택하려 할 것”이라고 판단했다.이런 점에서 2800만명의 가입자를 보유한 카카오나 네이버(2200만명), 토스(2300만명) 등이 경쟁에서 유리할 수 있다는 관측이다.다만, 당장 회사의 수익에는 별 도움이 되지는 않을 전망이다. 업계 관계자는 “마이데이터 인증 시장은 참여 업체들이 최소 1년간 프로모션 기간을 가져갈 예정이라 돈이 되는 사업은 아니다”라면서 “인증시장에서 미리 주도권을 가져가기 위한 경쟁으로 보면 된다. 플랫폼 전성시대 인증시장도 같이 따라서 커질 수 밖에 없기에 IT기업들에게 인증시장은 새로운 먹거리가 될 수 있다”고 내다봤다.국내 전자서명 시장 규모는 700억원에 불과했지만, 지난해말부터 사설 인증시장이 본격 개화되면서 수조원 규모로 커질 것이라는 관측도 나온다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅, 올해 중저신용자 대상 신용대출 1.7조원 공급</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037094?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>(그래픽=유경아 기자)국내 인터넷전문은행이 올해 10월 말까지 중저신용자를 대상으로 한 중금리 대출 공급 규모가 약 1조7000억원 기록한 것으로 나타났다. 이는 지난 10월 출범한 토스뱅크의 취급 대출 잔액을 제외한 규모다.26일 금융권에 따르면 인터넷전문은행 카카오뱅크가 올해 1~10월 공급한 중저신용자 대상 신용대출 공급액은 1조1721억원으로 나타났다. 이는 사잇돌대출과 햇살론 등 보증부 중금리 상품을 제외한 공급액이다. 같은 기간 케이뱅크의 중저신용 고객 신용대출 규모는 연간 누적 4650억원으로 집계됐다.카카오뱅크의 중저신용 고객 대출 잔액 비중도 지속 증가 추세를 유지하고 있다. 올해 3분기까지 카카오뱅크의 전체 여신 중 중저신용자 대상 신용대출 비중은 13.4%로 연말까지 20.8%까지 확대하겠다는 목표를 세웠다. 10월말까지 카카오뱅크의 중저신용 고객 대출 잔액 비중은 14.6%를 기록, 1개월 새 1.2%포인트 증가했다.앞서 카카오뱅크는 지난 6월부터 고도화한 신용평가모형을 적용, 중저신용 고객 대출 한도를 최대 1억원으로 상향하는 등 본격적으로 중저신용 고객 대출 확대를 진행해 왔다. 8월 초부터는 중신용플러스 대출, 중신용비상금 대출 등 중저신용 고객 전용 신규 대출상품을 출시한 바 있다. 카카오뱅크 관계자는 "전체 신용대출 신규 취급액 중 중저신용 고객 비중 또한 2분기 14.6%에서 9월말 기준 약 41.5%로 증가했다"고 설명했다.케이뱅크는 9월 말까지 전체 여신에서 중저신용 대출 비중이 13.4%를 기록했으며, 연말까지 21.5%를 달성하겠다는 목표를 세웠다. 케이뱅크는 4분기 들어 고객 혜택을 대폭 강화하며 중저신용 고객 신용대출 비중 확대에 박차를 가하고 있다. 지난 9월 중순부터 시행해온 '대출이자 2개월 캐시백' 이벤트를 올해 연말까지로 연장했다. 이벤트 기간 중 케이뱅크의 신용대출 상품 4종을 이용하는 중저신용 고객은 두 달치 대출이자를 돌려받을 수 있다.이달부터는 '대출 안심 플랜' 서비스까지 무료로 제공하고 있다. '신용대출'이나 '신용대출 플러스'를 받은 중저신용 고객이 중대 사고 등으로 대출 상환이 불가능한 상황에 처할 경우, 대출 상환을 해결해주는 서비스다. 관련 비용은 케이뱅크가 100% 부담한다.같은 달 11일부터는 중저신용 고객 대상 대출상품 금리를 일제히 인하했다. 금리 인하 대상 상품은 ▲신용대출 플러스 ▲신용대출 ▲마이너스 통장 등 3종으로, '신용대출 플러스' 이용 고객 중 중·저신용 고객군의 금리는 이전보다 최대 3.27%포인트까지 인하됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>MZ세대의 중요 금융社는 '카뱅'…43.8%로 1위(종합)</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005000438?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>카뱅쓰는 MZ 15%가 "주거래은행 바꿀 계획"연구소 "시중은행도 플랫폼 경쟁력 강화해야'경제 주력'으로 급부상한 MZ세대(밀레니얼+Z세대)들이 가장 중요하게 생각하는 금융서비스 사업자는 카카오뱅크였다. 또 시중은행보다 네이버페이를 더 중요 금융기관으로 꼽는 등 빅테크(대형 정보기술기업)가 MZ세대들에게 일상생활에 없어서는 안 될 금융 사업자로 안착했다는 평가가 나왔다.16일 하나금융경영연구소가 발표한 '빅테크와 은행의 협업 확대 필요성' 보고서에 따르면 MZ세대가 생각하는 중요 금융기관(1,2,3 순위 합산 기준)은 카카오뱅크가 43.8%로 가장 높았다. 이어 네이버페이 38.2%, 시중은행 37.7% 순이었다. MZ세대 10명 중 8명은 시중은행보다 빅테크를 주요 금융 결제 수단으로 생각한다는 얘기다.실제 빅테크 이용자수는 급증하는 추세다. 3분기 말 기준 카카오뱅크 모바일 애플리케이션(앱) 월간 이용자 수는 1470만을 넘어섰다. 전체 은행권 1위에 해당하는 규모다. 고객 수는 지난해 말 1544만명에서 올해 9월 말 기준 1740만명으로 늘었다. 네이버페이를 비롯한 케이뱅크, 토스뱅크 등의 이용자 수도 빠르게 증가하고 있다.이들 세대는 대부분 주거래은행으로 시중은행과 인터넷전문은행을 함께 이용하는 것으로 조사됐다. 전체 응답자 중 79.4%가 시중은행과 인터넷전문은행을 함께 이용한다고 했다. 시중은행만 거래하는 MZ세대는 20.0%에 그쳤고, 인터넷전문은행만 이용하는 사람은 0.6%에 그쳤다.카뱅쓰는 MZ, 15%가 "주거래은행 바꿀 것"김지현 하나금융경영연구소 연구위원은 “MZ세대의 주거래은행은 시중은행 비중이 여전히 높지만 향후 인터넷전문은행 이용 비중이 더 증가할 것”이라고 내다봤다. 시중은행은 급여통장, 인터넷전문은행은 조회·이체 용도, 핀테크는 송금결제·이벤트·프로모션 등 부가서비스 이용 목적 등으로 활용될 것이란 전망에서다.실제 기존 카카오뱅크를 이용하는 MZ세대(70.2%) 중 15.8%가 주거래은행을 카뱅으로 전환할 계획이 있다고 밝혔다. 52.8%는 반반이라고 응답했다.연구소는 빅테크의 이용 편리성과 간결성 때문에 향후 이용비중이 이동할 가능성이 큰 만큼 시중은행들도 자체 플랫폼 경쟁력 강화에 집중해야 한다고 조언했다.김 연구위원은 "은행은 자체 플랫폼을 강화하면서 빅테크와의 마케팅 협업을 지속하는 한편, 서비스형뱅킹(BaaS) 등을 이용한 협력형 신규 수익모델을 구축하는 등 빅테크와의 경쟁과 상생 방안을 고민해야 한다"고 제언했다. 이어 "국내 BaaS 관련 금융서비스는 아직 미미한 수준이나 수수료 모델 확보 및 빅테크·핀테크 고객 유입, 이종업종 제휴 확대 등을 위한 비즈니스 모델 검토가 필요하다"고 덧붙였다.신한은행은 더존비즈온의 전략적 지분투자를 통해 중소기업의 비대면 금융업무를 지원할 예정이다. 올해 안으로 BaaS 기반 기업여신 특화 상품과 임직원 대상 서비스를 출시할 계획이다. 신한은행 관계자는 "고객 관점에서 편의와 혜택이 극대화되는 융·복합 상품을 지속적으로 선보일 것"이라고 말했다.우리은행도 BaaS를 통해 이종업종과의 디지털제휴를 추진할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>[11월17일 이슈 &amp; 핫클릭] 리비안 급등, 구글 폴더블폰 포기, 네이버 후임 대표, 제네시스 GV70 등</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002113696?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>&lt;사진설명&gt; 제네시스측이 공개한 'GV70' 티저# 전기차 광풍 = 테슬라의 대항마로 손꼽혀왔던 전기차업체 리비안의 주가가 연일 급등하고 있다. 지난 10일 나스닥 상장이후 5거래일 연속 상승세다. 16일(현지시간) 리비안 주가는 전장 대비 15.16%오른 172.01달러로 장을 마쳤다. 시가총액 1400억 달러로, 리비안은 아직 공식 매출 실적이 없으나 기대감 만으로도 폭스바겐을 제치고 글로벌 자동차업계 시가총액 3위에 올랐다. 최근 일론 머스크 CEO의 10% 주식 매각 선언으로 약세를 보여왔던 테슬라 주가는 전장 대비 4.98% 오른 1,054.73 달러로 장을 마쳤다.    # 구글, ‘삼성 폴더블폰’ 추격 포기 = 구글이 올해안에 폴더블 스마트폰 출시를 목표로 했지만 삼성전자가 올해 8월 발표한 갤럭시Z 시리즈보다 경쟁력이 떨어진다는 판단에 따라 결국 이를 포기할 것이란 전망이 제기됐다. 외신에 따르면, 구글이 차세대 폴더블폰인 ‘픽셀 폴드’를 출시하지 않기로 결정했으며 내년 상반기에도 출시 계획이 없다고 전했다. ‘픽셀 폴드’는 지난 2년간 구글이 ‘패스포트’라는 코드명으로 개발해온 차세대 스마트폰이다.   # 美 바이든 “하나의 중국”지지 = 전략적 결정인지는 모르나 미국이 중국과의 강대강 대결은 일단 피하는 모습이다. 조 바이든 미국 대통령은 16일 시진핑 중국 국가주석과 가진 화상 정상회담를 통해 ‘하나의 중국 원칙을 고수한다’는 입장을 밝혔다. d는 대만 독립을 반대하고 있는 중국의 입장을 지지하는 것으로 지난 트럼프 정권때부터 이어져온 미-중 갈등이 새로운 국면으로 접어드는 계기가 될 것이란 관측이 나오고 있다.    # 네이버 한성숙 대표 후임은 80년대생? = 네이버 한성숙 대표의 후임 결정에 이목이 쏠리고 있다. 네이버는 17일 오후 이사회를 열고, 경영 쇄신과 조직개편안을 논의한다. 후임으로는 1981년생인 최수연 글로벌 사업지원부 책임리더 등이 물망에 오르고 있다.    # 삼성전자 미국 파운드리 제2공장 부지 = 삼성전자가 투자할 미국내 파운드리 제2공장 부지에 대한 관심이 높다. 삼성전자의 제2 공장의 유력 후보지로 그동안 오스틴, 테일러가 거론돼 왔다. 다만 삼성전자 측은 제2 공장 부지는 아직 검토가 진행중이며 아무것도 결정된 것이 없다는 입장이다.   # 제네시스 세 번째 전기차 모델 ‘GV70’ 19일 첫 공개 = 제네시스의 세 번째 전기차 모델인 ‘GV70’이 오는 19일 중국 광저우 모터쇼에서 최초로 공개된다. 앞서 제네시스는공식 인스타그램 계정을 통해 GV70 전동화 모델의 티저 사진을 공개했다. 제네시스는 2025년부터 출시되는 신차는 수소전기차와 배터리 전기차로 출시할 계획이라고 밝혔다. 오는 2030년까지 수소전기차, 배터리전기차 등을 중심으로 글로벌 시장에서 연간 40만대까지 판매 목표를 제시했다.   # 도이치모터스 주가조작 혐의, 권오수 회장 구속 = 그동안 주가조작 혐의로 검찰 조사를 받아온 받는 도이치모터스 권오수(63) 회장이 16일 구속됐다. 서울중앙지법 이세창 영장 전담 부장판사는 영장실질심사를 통해 증거 인멸의 우려를 이유로 구속영장을 발부했다. 이에따라 이번 사건의 연루 의혹을 받고 있는 윤석열 국민의힘 대선 후보의 부인 김건희 씨로 수사가 본격 확대될 것인지 주목된다.   # 토스, 미국 플랫폼 기업 리퍼블릭 투자 = 타다를 인수한 토스가 이번에는 해외 비상장 주식을 거래할 수 있는 미국의 플랫폼 기업 리퍼블릭(Republic)에 지분 투자를 실행했다. 토스는 유망한 비상장 주식에 투자하려는 수요가 커지고 있어, 잠재적인 사업 시너지가 클 것으로 보고 투자를 단행했다고 밝혔다.   # 故구하라 유화작품 경매 = 그룹 카라 출신 고 구하라씨의 사망 2주기를 맞이해 그의 생전 유화작품 10점이 경매에 나왔다. 구씨의 친오빠인 구호인씨는 인스타그램을 통해 경매 사실을 알렸고, 경매 수익금 일부를 한부모 가정에서 자란 아이들을 돕겠다고 밝혔다.    # 코로나19 부스터샷, 6개월에서 4개월로 단축 = 지난 1일, 위드 코로나 시행이후 위중증 환자가 급증하고 있는 가운데, 정부는 고령층과 요양병원 입원환자 등 고위험군을 중심으로 코로나19 백신 추가접종(부스터샷)을 강화하기로 했다. 정부는 추가접종 시기를 기본접종 완료 뒤 6개월에서 4개월으로 줄이고, 50대 연령층도 추가접종 간격을 5개월으로 단축하기로 했다.    # 2022학년도 대입 수능일 날씨 = 2022학년도 대학수학능력시험일이 하루 앞으로 다가온 가운데, 수능이 치러지는 18일 서울 및 중부지방에는 약한 비가 예상된다. 다만 큰 추위는 없을 전망이다. 서울의 아침 기온은 7도, 대전 5도 등으로 다소 쌀쌀할 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>내년초 출범하는 '타다 넥스트'…2기 드라이버 모집</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004741863?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>최대 1000만원 홍보비, 반값 수수료 등 혜택 제공25일 서울 지역 대상 베타 서비스 시작내년초 출시 예정  [파이낸셜뉴스] 토스 운영사 비바리퍼블리카가 지난달 인수한 모빌리티 플랫폼 '타다'의 운영사 브이씨엔씨(VCNC) 추가 드라이버 모집에 나선다.   VCNC는 '타다 넥스트'와 함께 할 2기 드라이버를 모집한다고 18일 밝혔다.   대형 차량 서비스인 '타다 넥스트'는 택시 면허를 보유한 드라이버의 7인승 이상 차량을 기반으로 운영되는 호출 중개 서비스(타입3)다. 현대자동차의 '스타리아' 등 모빌리티 서비스에 최적화된 모델을 활용한다.   VCNC는 2기 드라이버에게 다양한 혜택을 제공할 예정이다. △최대 1000만원 홍보비 일시 지급 △일정 운행 조건 충족 시 12개월간 매월 50만원 활동비 지급 △계약기간 동안 플랫폼 수수료 50% 할인 매월 제공 등이다.   1기와 마찬가지로 현재 '타다 라이트', '타다 플러스'를 운행 중인 드라이버가 '타다 넥스트'로 전환할 경우, 타다 서비스 참여 기간에 따라 최대 200만원을 추가 지급한다.    '타다 넥스트' 드라이버 2기 모집. VCNC 제공.드라이버 신청 자격은 △서울 개인택시 면허 보유자 △행정처분 이력이 없는 자 △5년 무사고 경력의 중형 개인 택시 사업자 △1년 무사고 경력의 대형 혹은 모범 개인 택시 사업자 등이다.   한편, 타다 넥스트는 오는 25일 서울 지역 대상 베타 서비스를 시작한다. 서비스 안정화 및 토스의 결제 서비스 등과 연동을 거쳐 내년 초 정식 출시할 예정이다.   이정행 타다 대표는 "이번 2기 모집은 타다 넥스트 드라이버 모집에 대한 많은 관심이 이어지고 있어 조기 진행하게 됐다"며 이용 고객과 드라이버 모두 만족할 수 있도록 '타다 넥스트'는 충분한 베타 서비스 운영 기간을 거쳐 선보일 예정이다"고 했다. #토스 #타다 #VCNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>토스, 자영업 사장님 위한 급여명세서 발급 기능 선보여</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003989322?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>지난해 11월부터 시작한 ‘사장님’ 서비스에직원 급여명세서 작성·발송 기능 더해져[서울경제] 토스는 자영업자를 위한 금융서비스인 ‘사장님’ 메뉴에 급여명세서 발급 기능이 추가된다고 25일 밝혔다. 26일부터 5인 미만 사업장을 운영하는 사업주는 무료로 이용할 수 있다. ‘사장님’ 서비스는 자영업자를 위한 매장 장부관리 기능으로 지난해 11월 첫 선을 보였다. △매장 장부관리 △배달 매출 늘리기 △숨은 카드매출 찾기 등 자영업자의 매장 운영에 필요한 기능을 제공하고 있다. 출시 3개월만에 7만명의 가입자가 서비스를 신청하고, 11월 현재 약 40만명이 ‘사장님’ 서비스를 사용하고 있다. 이번에 새로 추가된 ‘급여명세서 보내기’는 이달 19일부터 시행된 근로기준법 개정안에 맞춰 준비됐다. 개정안에 따르면 앞으로 사업주는 임금지급일에 근로자에게 임금명세서를 의무로 교부해야 한다. 위반 시 사업주는 500만원 이하의 과태료를 부과받는다. 서비스 출시에 앞서 토스는 사장님 서비스를 사용하는 자영업자 약 1,000명을 대상으로 설명조사를 진행했다. 그 결과, 급여명세서 교부 의무화에 대해 알고 있는 사장님은 전체 응답자의 29.9%에 불과했고, 급여명세서를 발급하는 사장님의 약 57%가 직접 작성하는 것으로 답했다. 급여명세서 작성에 어려움을 느끼지만 비용부담 등의 이유로 전문가의 도움을 받는 경우는 38% 수준에 머물렀다. 안지영 토스 프로덕트오너(Product Owner)는 “사장님 서비스를 이용하는 자영업자 고객의 70%가 개정된 급여명세서 교부 의무화를 모르고 작성하는데도 어려움을 가지고 있었다”며 “급여명세서 작성부터 교부까지 간편하게 사용할 수 있어 사장님의 매장 운영에 보다 실질적인 도움을 드릴 수 있길 기대한다”고 말했다.토스의 ‘급여명세서 보내기’는 5인 미만 월급제 근로자를 고용한 사장님을 우선 대상으로 26일부터 제공된다. 사장님은 토스 앱 내 ‘사장님’ 메뉴에서 ‘급여명세서 보내기’를 통해 직원의 급여명세를 작성하고 발송할 수 있다. 월 급여와 식대, 상여금 등 지급항목을 입력하고, 건강보험공단에서 매월 발급되는 고용·건강보험료 항목만 입력하면 직원의 소득세와 지방소득세 등이 자동으로 계산된 급여명세서를 각 직원에게 발송할 수 있다.한편, 토스는 5인 미만 사업장을 운영하는 사장님을 시작으로 그 대상을 확대할 계획이다. 월급제 직원 외에 주급제, 일급제 직원을 대상으로 한 급여명세서, 5인 초과 사업장에 대한 서비스도 추가할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>토스·배민 점찍은 KTB네트워크, 'VC 대장주' 청신호</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005005348?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>이달 29~30일 기관 대상 수요 예측…다음달 코스닥 입성연일 최고 실적 경신…VC 대장주 등극KTB투자증권의 자회사 KTB네트워크의 코스닥 입성이 눈앞으로 다가왔다. 일찌감치 토스, 배달의민족 등에 투자하며 꾸준히 호실적을 기록한만큼 향후 벤처캐피털(VC) ‘대장주’로 등극할 수 있다는 전망이 나온다.25일 금융투자업계에 따르면 KTB네트워크는 오는 29~30일 기관투자자 대상 수요 예측을 진행한다. 희망 공모가 상단 기준 시가총액은 7000억원에 달한다. 시총 8400억원가량인 우리기술투자에 이어 창업투자 업종 2위에 해당하는 규모다. 상장 이후 주가 추이에 따라 VC ‘대장주’ 등극도 가능할 것으로 전망된다.KTB네트워크는 1981년 설립된 국내 1세대 VC다. 40여년의 투자 경력과 회수경험이 강점이다. 펀드 청산 기준 671개 기업 투자경험과 58개의 펀드 운용경력, 내부수익률(IRR) 19.8%를 기록한 바 있다. 운용자산(AUM) 규모는 1조1195억원으로 업계 최상위권이다.실적도 우상향하고 있다. 지난해 당기순이익 358억원으로 VC 업계 순이익 1위에 올랐다. 올해 3분기 누적 당기순이익은 631억원이다. 이미 지난해 실적을 훌쩍 뛰어넘으며 사상 최대 실적을 경신했다.그간 꾸준히 유망 기업에 투자한 결과로 풀이된다. 배달 애플리케이션(앱) ‘배달의 민족’을 운영하는 우아한 형제들 투자가 대표적이다. 23억원을 투자해 629억원을 회수했다. 핀테크(금융+기술) 서비스 ‘토스’ 운영사인 비바리퍼블리카에도 초기 투자한 상태다. 투자 당시 250억원이었던 토스의 기업가치는 현재는 8조원 이상으로 평가받고 있다. 그 밖에 지난 22일 코스닥에 상장한 연예기획사 ‘RBW’에도 투자해 10배 이상의 투자 수익을 거뒀다.전체 투자금의 30%에 달할 정도로 해외 투자도 활발하다. 미국 증시에 상장한 중국 전기차 관련 업체 샤오펑(Xpeng)에 투자해 5배의 수익을 거뒀다. 바이오 기업 카스젠(CARsgen)은 지난 9월 말 기준 11배의 평가이익을 내고 있다. 인도네시아 모빌리티 플랫폼 그랩(Grab), 미국 핀테크 플랫폼 소파이(Sofi) 등도 향후 준수한 성과가 기대된다.한편 KTB네트워크는 이번 상장에서 신주 2000만주를 공모한다. 희망 공모가 범위는 5800~7200원, 총 공모금액은 1160억~1440억원이다. 오는 29~30일 기관투자자 대상 수요예측을 거쳐 공모가를 확정하고 다음달 6~7일 일반공모를 진행한다. 주관사는 한국투자증권이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>수익률 1800%…두나무로 1兆 번 한화증권</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004629160?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>2월 두나무 지분 6.14% 매입9개월 만에 수익률 '대박'토스뱅크 지분 가치도 100배로두나무 지분가치만 시총 육박과감한 스타트업 투자 결실사진=연합뉴스한화투자증권이 업비트 운영사 두나무에 투자해 1조원이 넘는 평가이익을 거둔 것으로 나타났다. 지난 2월 지분 6.14%를 매입한 지 9개월 만에 1800%의 수익을 올렸다. 작년 2월 투자한 토스뱅크 지분가치도 100배 가까이 늘었다. 2017년 시작한 디지털 부문 강화와 스타트업 투자가 결실을 보고 있다는 평가다. 투자한 회사의 지분가치만 시가총액의 세 배에 육박할 것이란 분석도 나온다. 시총 20배 불어난 두나무3분기 사업보고서에서 한화투자증권은 두나무 지분 6.14%(206만9450주)를 보유하고 있다고 밝혔다. 지난 2월 기존 주주였던 퀄컴으로부터 사들인 주식이다. 당시 두나무의 기업가치는 약 1조원이었다. 한화투자증권은 인수대금으로 583억원을 지급했다.9개월 사이 두나무의 기업가치는 20배 가까이 높아졌다. 두나무가 운영하는 암호화폐거래소 업비트의 가치가 급등한 영향이다. 16일 장외가 기준 두나무 시가총액은 18조879억원이다. 한화투자증권의 두나무 지분가치도 1조1105억원으로 불어났다. 한화투자증권 시가총액인 1조1843억원과 비슷한 수준이다.투자 당시 한화투자증권은 주식 플랫폼으로서 두나무 가치를 높게 보고 주식을 매입했다. 두나무는 업비트 외에 모바일 주식 플랫폼 증권플러스(옛 카카오스탁)와 비상장 주식 거래 플랫폼인 증권플러스비상장을 운영하고 있다. 토스뱅크 지분 추가 취득토스뱅크 지분가치도 1조원 가까이 늘어났을 것으로 추정된다. 한화투자증권은 작년 2월 토스뱅크 지분 7.5%(150만 주)를 75억원에 인수했다. 장외시장에서 토스뱅크 운영사인 비바리퍼블리카의 시총은 20조5700억원을 기록 중이다.토스뱅크의 별도 기업가치는 발표되지 않았지만 5조~10조원에 이를 것으로 추정되고 있다. 경쟁사의 기업가치를 참고한 계산이다. 상장사인 카카오뱅크의 시총은 29조6938억원, 장외에서 거래되는 케이뱅크의 시총은 6조2000억원이다. 지난달 한화투자증권은 토스뱅크 주식 300억원어치를 추가로 취득해 지분을 8.86%로 확대했다.작년부터 한화투자증권은 핀테크기업 지분을 잇달아 매입하고 제휴를 확대하고 있다. 디지털 강화 전략의 일환이다. 이를 위해 핀테크와 스타트업 투자를 전담하는 디지털전략실을 두고 있다.투자는 한화생명, 한화자산운용 등 한화그룹 금융계열사와 긴밀한 협력을 통해 이뤄진다. 한화생명은 핀테크 전략 강화를 위해 미국 샌프란시스코에 현지 사무소도 개설했다. 세계 혁신 기술의 중심지에서 투자 기회를 발굴하겠다는 것이다. 뮤직카우·센스톤에도 투자한화투자증권은 보안, 미디어, 블록체인 등으로 투자 영역을 넓히고 있다. 3분기에는 음악 저작권 거래 플랫폼 뮤직카우 지분 1.5%를 20억원에 인수했다. 한화는 뮤직카우에 미국 공동 진출을 제안한 것으로 알려졌다. 뮤직카우는 지난 7월 중소벤처기업부가 선정한 2021년 예비유니콘기업(기업가치 1조원 이상 비상장사)으로 선정되기도 했다.이 밖에 인증보안 스타트업 센스톤에도 20억원(지분율 1.66%)을 투자했다. 작년 2월에는 태국 블록체인 핀테크업체 라이트넷에 119억원을 투자해 지분 7.95%를 확보했다.증권업계에서는 한화투자증권의 주가 상승 가능성에 주목하고 있다. 한화투자증권이 보유한 지분가치를 더하면 3조원에 이를 것으로 추산되기 때문이다. 16일 종가 기준 한화투자증권의 시가총액은 1조1843억원으로 지분가치의 3분의 1 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.11.21.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>잠깐 맡겨도 年 2% 이자…주식·코인시장 피난처로 든든</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004630982?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>금리 상승기…눈여겨볼 예·적금금리 좋은 인터넷銀 케이뱅크·카카오뱅크年 0.8% 이자 붙어기업銀 예금 年 1.84%우리銀 적금 年2.3%저축銀, 금리 1%P 높아기준금리 인상 가능성특판 나올때까지기다리는 것도 전략직장인 안현기 씨(35)는 지난달 초 토스뱅크 출범에 맞춰 입출금 통장 개설에 성공했다. 토스 앱에서 다른 통장에 있던 소액 예금을 끌어모아 입금해둔 그는 지난 10월 16일 처음으로 1만원가량의 이자를 받았다. 가입 2개월차 이자 지급일인 지난 20일에는 3만원이 통장에 찍혔다. 토스뱅크 입출금 통장은 별다른 조건 없이 평균 잔액 기준 연 2%(세전)의 이자를 약속한 일종의 ‘파킹통장’이다. 안씨는 “주거래은행 정기예금은 금리가 연 1%에 불과해 토스뱅크 통장에 여윳돈을 넣어 주식이나 환테크 용도로 써보기로 했다”고 말했다. 토스뱅크, MZ 금리 노마드족에게 각광파킹통장이란 차를 잠깐 주차하듯 돈을 일시적으로 맡겨놔도 매달 이자(평균 잔액 기준)를 지급하는 통장을 말한다. 수년간 저금리가 지속되면서 시중은행의 파킹통장은 사라지다시피 했고, 저축은행 파킹통장도 금리가 연 1%대로 내려왔다. 이런 가운데 토스뱅크가 연 2%의 이자를 약속하다 보니 다시 주목받고 있다는 설명이다.인터넷전문은행들은 입출금 통장에 돈을 넣어두는 것만으로 파킹통장과 다름없이 이자를 지급한다. 시중은행 요구불예금 이자가 연 0.1%에 불과한 가운데 짠테크족에게는 한 푼이라도 이자를 더 받는 수단으로 요긴하다.파킹통장은 수신액을 늘려야 하는 인터넷전문은행, 저축은행에 유용한 자금 조달 수단이다. 케이뱅크는 이달 초 파킹통장인 플러스박스의 금리를 연 0.5%에서 0.8%로 올렸다. 케이뱅크 플러스박스의 최대 한도는 3억원으로 용돈 계좌, 비상금 계좌 등 다양한 목적으로 돈을 쪼개 모을 수 있게 한 게 장점이다. 카카오뱅크 통장에도 연 0.8%의 이자가 붙는다. 주식, 코인 못 믿겠는데…‘예테크’ 전략은?향후 경기에 대한 불안감이 크고, 좀 더 안정적인 자금 운용을 원한다면 은행 정기예금을 활용할 만하다. 지난 9월 대형 은행들이 수신금리를 소폭 올리면서 조건이 나아졌다. 그런데 매년 11, 12월이면 은행, 저축은행들이 내놓는 특판 예·적금은 최근 거의 눈에 띄지 않고 있다. 시중은행 관계자는 “가계대출을 신규 취급하지 못하고 있고, 기업대출은 수익성이 낮은 편이라 굳이 예금을 끌어 모아야 할 필요성이 줄어든 게 사실”이라며 “그럼에도 경기 불안이 우려된다면 예금자 보호가 가능한 정기예·적금만 한 게 없다”고 말했다.금융감독원에 따르면 지난 19일 기준으로 금리가 가장 높은 은행 정기예금(1000만원, 12개월 만기 기준)은 기업은행의 ‘D-DAY’ 통장으로 연 1.84%(세전)의 이자를 준다. 대형은행 상품 중에선 농협은행의 ‘NH왈츠회전예금Ⅱ’의 금리가 연 1.67%로 가장 높다. 적금은 우리은행 ‘우리WON적금’이 최고 연 2.3%의 이자를 지급한다. 다만 이 금리를 받으려면 오픈뱅킹을 통해 타행 계좌에서 적금계좌 이체를 약속하거나, 해당 은행의 다른 통장에 가입한 뒤 이체를 하는 등의 조건을 만족해야 한다.저축은행 정기예금은 시중은행 상품보다 1%포인트가량 이자를 더 준다. 조흥저축은행의 비대면 e정기예금의 금리가 연 2.71%로 가장 높고, 동원제일저축은행의 회전정기예금 금리는 연 2.70% 수준이다.한 은행 관계자는 “주식, 코인시장이 최근 ‘횡보세’를 나타내고, 경기 하강에 대한 우려가 높아지면서 소비자들이 정기예금을 찾고 있는 것”이라며 “이달 말 한국은행 기준금리가 인상되면 예·적금 금리도 높아질 수밖에 없어 연말 특판 상품이 나오거나 수신금리가 한 차례 더 뛸 때까지 상품 가입을 미루는 것도 한 방법”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>토스, 첫 해외투자 단행…美 플랫폼 기업에 500만달러</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001916321?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>리퍼블릭 지분 1% 인수[헤럴드경제=박자연 기자]토스를 운영하는 비바리퍼블리카가 첫 해외투자를 단행했다. 투자 대상은 미국 비상장주식 투자 플랫폼이다. 이번 해외 투자는 향후 토스증권 등 투자 분야와 제휴·협력할 수 있다는 점에서 기대를 모은다.토스에 따르면 최근 토스는 해외 비상장 주식을 거래할 수 있는 미국의 플랫폼 기업 리퍼블릭에 지분 투자를 실행했다. 유망한 비상장 주식에 투자하려는 수요가 커지고 있어, 잠재적인 사업 시너지가 클 것으로 봤다는 게 토스 측 설명이다. 또 추후 해외 비상장주식 투자와 관련해 사업제휴 기회를 확보할 수도 있다.리퍼블릭은 2016년 미국에서 설립된 플랫폼으로 유망 스타트업과 비상장 기업에 투자할 수 있도록 중개해준다. 플랫폼을 이용하는 투자자는 100만명에 달하며 투자계약 역시 500건 이상 이뤄졌다. 플랫폼에서 진행된 총 투자 금액은 약 5억달러로 집계됐다.투자 규모는 리퍼블릭 지분 약 1%를 500만달러(약 60억원)에 인수하는 방식으로 이뤄졌다.이번 투자는 토스 투자팀인 토스벤처스가 주도했다. 토스는 지난해부터 LG유플러스 전자결제(PG) 사업부 인수와 타다 인수, 카페24 지분 투자 등을 진행했다. 토스 관계자는 “토스와 시너지를 일으킬 수 있는 좋은 투자 기회라면 투자 방식과 규모는 물론, 국내해외를 가리지 않을 예정”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>창립 53돌 광주은행, 디지털금융 혁신 나선다</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004632428?sid=102</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>100년 은행 향한 4대 전략 제시창립 53주년을 맞은 광주은행이 현장 중심 영업과 글로벌 사업 확대 등 ‘100년 은행’을 향한 목표를 세웠다. 단기적으로는 코로나19 등으로 침체된 지역 경기 회복에 주력할 방침이다.광주은행은 24일 ‘100년 은행’을 위한 4대 전략을 발표했다. 광주은행이 내세운 4대 전략은 패러다임 변화에 대응하기 위한 현장 중심 영업지원 프로세스 혁신을 비롯해 디지털금융 혁신과 글로벌사업 확대로 미래 성장동력 확보, 소통채널 확대 및 수평 기업문화 확립, 지역사회와 지역민에 상생과 동행의 가치 확산 등이다.광주은행은 코로나19 장기화로 어려움을 겪고 있는 지역 경제 살리기에도 힘을 쏟을 계획이다. 지난해부터 코로나19로 피해를 본 중소기업과 소상공인을 대상으로 포용금융을 확대해 지난달 기준 1조2242억원(2만7146건)을 지원했다. 지역 경제 선순환 구조를 이뤄내기 위해 순천사랑통장, 화순사랑통장, 신안1004통장 등 지역명을 딴 통장을 출시하고 판매 실적에 따라 수익의 일부를 해당 지역에 기부했다.지방은행 가운데 처음으로 마이데이터 본허가를 획득한 광주은행은 금융 디지털 시대와 비대면 금융 활성화에 대응하기 위해 디지털 플랫폼 경쟁력 확보에 집중하고 있다. 금융권 최초로 토스와 인적교류 프로그램을 진행하는 등 핀테크 기업과 조직문화를 공유해 디지털 금융환경 변화에 선제 대응한다는 계획이다.광주은행은 1968년 11월 20일 자본금 1억5000만원, 직원 57명으로 첫걸음을 뗐다. 53년 동안 외환위기 등 외풍을 이겨내고 지역 대표 향토은행으로 성장했다. 올해는 3분기까지 당기순이익 1633억원을 올려 역대 최대 실적을 달성했다.송종욱 광주은행장(사진)은 “광주·전남 대표은행의 사명감을 가지고 기업의 사회적 책임에 최선을 다하겠다”며 “지역과의 상생, 지역민과의 동행을 최우선 가치로 추구해 100년 은행으로 성장하겠다”고 강조했다.광주=임동률 기자 exian@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>삼성생명, 토스 손잡고 2030 공략</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003990644?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카와 업무협약보험상담·가입·청구 간편화삼성생명 건물 전경.[서울경제] 삼성생명이 금융 플랫폼 토스의 운영사인 비바리퍼블리카와 업무협약(MOU)을 체결했다고 29일 밝혔다. 보험사와 디지털 금융 플랫폼 간 협업을 통해 새로운 보험 프로세스를 개발하기 위한 행보다.삼성생명은 고객이 토스를 이용해 보험 상담이나 상품 가입, 보험금 청구를 할 수 있도록 새로운 보험 프로세스 개발에 집중할 계획이다. 토스를 통해 최근 주요 고객층으로 급부상한 20~30대 젊은 고객을 다수 확보할 것으로 보고 있다. 삼성생명 관계자는 “생보사는 복잡한 가입 절차나 난해한 상품 구조 등 때문에 고객 접근성과 편의성이 낮았다”면서 “토스와의 협업을 통해 은행이나 증권처럼 간편한 프로세스를 개발한다는 목표”라고 했다. 이를 위해 삼성생명은 토스 인증·알림·페이 등의 서비스를 연계한 뒤 데이터 교류를 통해 고객 맞춤형 상품과 서비스를 개발할 예정이다.토스 측은 이번 협약을 통해 다른 금융업권보다 상대적으로 교류가 적었던 ‘보험업계’에서 입지를 넓힐 수 있는 기회로 작용할 것으로 보인다. 삼성생명의 전속 대면 설계사나 WM서비스 등을 활용해 토스보험파트너·토스 애플리케이션과 연계하고 생명보험에 맞는 새로운 플랫폼 비즈니스 모델 발굴이 가능할 것으로 전망된다. 삼성생명 관계자는 “그간 보험사는 카드사와 달리 토스 알림 서비스나 간편결제 서비스를 거의 사용하지 않았다”면서 “삼성생명 전용 페이지를 오픈해 재무 컨설팅과 계약 체결, 보험료 납입, 보험금 청구 등의 서비스를 토스 앱에서 제공할 수 있도록 할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2021.11.16~2021.11.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.11.16~2021.11.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>토스증권, 올해 9번째 유상증자…기업가치 8천억원 평가</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000638411?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>가치평가 통해 신주 발행가액 3만3천원으로…200억원 추가 조달토스증권이 유상증자를 통해 200억원을 추가 조달한다. 올해 들어서만 9번째다.특히 상반기까지 액면가(5천원)로 신주를 발행하던 것과 달리 최근 유상증자에서는 기업 가치평가를 통해 주당 발행가액을 3만3천원으로 책정했다. 이를 기준으로 하면 토스증권의 기업가치는 약 8천억원에 달한다.토스증권은 지난 22일 이사회를 열어 주주배정 유상증자를 통해 200억원을 추가 조달하기로 결정했다. 주당 발행가액은 3만3천원으로 결정했다.  [사진=비바리퍼블리카]24일 금융투자업계에 따르면 토스증권은 지난 22일 이사회를 열어 200억원 규모의 유상증자를 결정했다. 100% 주주인 비바리퍼블리카가 출자하는 것으로, 보통주 60만6천60주가 신규 발행될 예정이다. 이번 자본확충으로 토스증권의 자본금은 1천208억원 수준으로 늘어난다.토스증권은 올해에만 벌써 9번째 유상증자를 결정했다. 특히 상반기까지 액면가(5천원)로 신주를 발행했던 것과 달리 지난 8월(100억원)과 9월(150억원)에 이어 이번 유상증자도 주당 발행가액을 액면가보다 560% 할증한 금액인 3만3천원으로 정해 신주를 발행한다. 기업가치 평가를 통해 구체적인 주당 가치를 따져 유상증자를 실시한 것이다.이번 유상증자를 통해 발행될 주식을 합친 토스증권의 총 발행주식은 2천416만3천635주다. 이번에 책정한 주당 가격을 고려하면 토스증권의 기업가치는 7천974억원에 달하는 셈이다. 국내 중형 증권사인 SK증권(4천800억원)과 현대차증권(4천75억원)의 시가총액을 훌쩍 뛰어넘고, 유안타증권(9천100억원)에는 조금 못 미치는 수준이다.토스증권 관계자는 "올해 토스증권이 정식 출범한 이후 상반기까지의 성과를 바탕으로 기업가치에 대한 평가를 진행했고, 이를 반영해 하반기부터는 신주 발행가액을 3만3천원으로 정해 유상증자를 결정했다"고 설명했다.지난해 11월 증권업 인가를 받고, 올해 3월 정식 출범한 토스증권은 3분기 628억원의 영업손실을 기록했다. 출범 직후인 2분기 527억원의 영업손실 이후 계속 영업적자가 누적되고 있다. 영업수익(매출액)은 2분기 10억원에서 3분기 35억원 수준으로 1분기만에 3배 증가했지만, 사업 초기여서 투자 비용 대비 미미한 수준이다.토스증권은 아직까지 적자를 벗어나지 못하고 있지만, 향후 시장 경쟁력 확보를 위한 인프라 구축과 인력 보강 등 소요자금 조달이 필요한 상황이어서 유상증자 등을 통한 자본확충은 당분간 이어질 것으로 보인다.토스증권 관계자는 "중장기 투자 플랜을 세워 내부 스케줄에 따라 유상증자 일정을 진행하고 있다"며"이번에 유상증자로 조달하는 자금은 운영자금 목적으로, 올해 12월 선보일 예정인 해외주식서비스와 내년 서비스를 목표로 준비하는 자산관리 서비스 인프라 구축과 인력 보강 등에 사용할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>[사설]한국도 후불결제 서비스 육성해야</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002982592?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지미국에서 후불결제 시장이 커지고 있다. 한국도 네이버, 토스, 카카오 등 빅테크 기업이 후불결제 시장에 뛰어들면서 전통 카드결제와의 경쟁을 예고했다. 언택트 시대가 되면서 결제도 비대면 채널이 주를 이룬다. 간편결제 서비스가 곳곳에서 나타나고, 현명한 소비가 가능한 후불결제가 대안으로 떠오르고 있다. 한국은 아직 걸음마 단계지만 후불결제의 이면에는 중저신용자를 제도권으로 편입하는 효과까지 있다.후불결제는 이용자가 먼저 상품을 구매하거나 교통 등 편의 서비스를 이용하고, 결제 대금은 일정 기간 이후 납입한다. 예를 들어 온라인 쇼핑을 할 때 간편결제에 충전해 둔 선불 잔액이 부족해도 '후불결제 버튼'을 눌러 주문할 수 있다. 별도의 연회비나 이자 없이 평균 30일 이내에 금액을 상환하면 된다. 편의성을 극대화한 지불결제 시스템이다.한국에는 1300만명에 이르는 신용카드 미보유자가 있다. 신용등급 4등급 이하인 사람은 신용카드 발급 자체가 어렵다. 전업주부, 영세 자영업자, 저소득층은 현금성 결제 수단으로만 쇼핑 등을 이용한다. 디지털금융 소외계층에 대한 결제 수단으로 소액 후불결제 서비스 도입이 조속히 시행돼야 하는 이유다.후불결제가 활성화되면 소비자 개인의 안전한 소비 활동을 보장하는 한편 금융 취약계층을 음지에서 양지로 끌어내는 효과까지 볼 수 있다. 온라인 쇼핑몰 사업자의 판매, 반품 이력, 리뷰 등과 같은 비금융 데이터를 활용해 사업자 신용평가 방식 등을 획기적으로 개선할 수도 있다.미국, 호주 등 해외에서 후불결제 서비스가 대중화하고 있다. 대형 금융사는 물론 빅테크 기업이 후불결제 시장 선점을 위해 합종연횡을 시작했다.한국도 후불결제 서비스를 통해 '신파일러' 계층의 금융 활동을 지원하는 마중물로 활용해야 한다. 중장기로는 디지털에 익숙한 MZ세대의 결제 플랫폼으로 육성할 수 있는 제도적 지원책도 보강이 필요하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>연말 실종된 '특판'…목돈 넣고 싶다면 '인뱅' 주목</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005004615?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>토스·케이뱅크 등 수신상품에 2% 금리 제공자영업자 박정욱씨(35·가명)는 최근 모든 은행의 예·적금 상품을 해지했다. 매달 상당한 금액을 저축하고 있는데 금리가 터무니없이 낮다는 생각이 들어서다. 기준금리가 내년 초까지 두 차례 더 오른다는 소식을 접한 박씨는 당분간 모든 돈을 수시입출금 통장에 넣어두기로 했다. 박씨는 지인의 추천을 받아 토스뱅크 수시입출금 통장에 돈을 모두 넣었다. 금리가 연 2%로 기존 예·적금 상품의 두 배에 달해 만족도가 높았다.금리인상기를 맞아 한 푼이라도 더 많은 이자를 얻기 위한 소비자들이 인터넷전문은행을 주목하고 있다. 매년 말이면 쏟아지던 은행권 특판(특별판매) 예·적금 상품이 자취를 감춘 탓이다. 수시입출금 통장에도 연 2% 금리를 제공하는 점이 소비자들의 구미를 당긴 것으로 분석된다.24일 금융권에 따르면 토스뱅크는 정기예금이 아닌 수시입출금 통장에도 아무 조건 없이 연 2% 금리를 제공하고 있다. 단 하루를 맡겨도 맡긴 날짜만큼 이자가 제공되고 중간에 해지하더라도 혜택을 누릴 수 있는 것이 특징이다.주요 시중은행의 수시입출금 통장의 금리가 통상 연 0.1%인 점을 감안하면 한마디로 ‘파격적’이다. 지난달 5일 출범한 토스뱅크는 해당 상품에 힘입어 최근 수신 잔액이 10조원을 돌파한 것으로 알려졌다.케이뱅크와 카카오뱅크 등 다른 인터넷은행도 시중은행 대비 높은 금리의 수신상품을 판매하고 있다. 케이뱅크는 그룹 야구단 ‘KT 위즈’의 한국시리즈 우승을 기념한 특판을 내놨다. ‘코드K정기예금’ 1년 만기 상품에 연 2.1% 금리를 제공한다. 별도의 기한 없이 2021억원의 한도가 소진될 때까지 진행된다. 해당 상품은 가입 후 2주 내 금리가 오르면 자동으로 인상된 금리를 적용해주는 ‘금리보장 서비스’도 제공된다.카카오뱅크의 26주적금도 연 2% 금리를 제공한다. 기본금리 연 1.5%에 26주간 적금을 꾸준히 납입하는 데 성공하면 추가로 연 0.5%포인트를 준다. 카카오뱅크의 정기예금 금리도 연 1.5%로 시중은행 대비 높은 수준이다.한편 인터넷은행과 달리 주요 시중은행에서는 고금리 수신상품을 찾아보기가 힘들다. 굳이 비용을 들여 수신을 늘릴 요인이 없기 때문이다. 가계대출 총량규제로 대출이 막혀 은행이 예금을 통해 대출 실탄을 마련할 필요가 없는 데다 예대율 등 규제 완화 조치가 이뤄진 점도 영향을 끼친 것으로 해석된다. 금리상승기를 맞아 수신이 빠르게 늘어나는 점도 원인이다. 5대 시중은행의 수신 잔액은 지난 한 달 새 20조원 이상 불어났다.금융권 관계자는 "현재 은행들이 처한 상황에서는 굳이 고금리 수신상품을 내놓을 이유가 없다"며 "다만 토스뱅크 등 인터넷은행은 아직 성장 초기단계인 만큼 고금리 상품을 통해 고객을 유인하려는 목적으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>'사라진 특판'…은행 예금금리 불만이라면 '인뱅' 주목</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005006680?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>토스·케이뱅크 등 수신상품에 2% 금리 제공자영업자 박정욱씨(35·가명)는 최근 모든 은행의 예·적금 상품을 해지했다. 매달 상당한 금액을 저축하고 있는데 금리가 터무니없이 낮다는 생각이 들어서다. 기준금리가 내년 초까지 두 차례 더 오른다는 소식을 접한 박씨는 당분간 모든 돈을 수시입출금 통장에 넣어두기로 했다. 박씨는 지인의 추천을 받아 토스뱅크 수시입출금 통장에 돈을 모두 넣었다. 금리가 연 2%로 기존 예·적금 상품의 두 배에 달해 만족도가 높았다.금리인상기를 맞아 하루가 다르게 급등하는 대출금리와 달리 예금금리는 제자리걸음을 면치 못하고 있어 소비자들의 불만의 목소리가 커지고 있다. 특히 매년 말이면 쏟아지던 은행권 특판(특별판매) 예·적금 상품도 올해는 자취를 감췄다. 이에 한 푼이라도 더 많은 이자를 얻기 위한 소비자들은 인터넷전문은행으로 향하고 있다. 수시입출금 통장의 경우 은행에 비해 최대 20배 가까운 금리를 제공하고 있기 때문이다.28일 금융권에 따르면 토스뱅크는 정기예금이 아닌 수시입출금 통장에도 아무 조건 없이 연 2% 금리를 제공하고 있다. 단 하루를 맡겨도 맡긴 날짜만큼 이자가 제공되고 중간에 해지하더라도 혜택을 누릴 수 있는 것이 특징이다.주요 시중은행의 수시입출금 통장의 금리가 통상 연 0.1%인 점을 감안하면 한마디로 ‘파격적’이다. 지난달 5일 출범한 토스뱅크는 해당 상품에 힘입어 최근 수신 잔액이 10조원을 돌파한 것으로 알려졌다.케이뱅크와 카카오뱅크 등 다른 인터넷은행도 시중은행 대비 높은 금리의 수신상품을 판매하고 있다. 케이뱅크는 그룹 야구단 ‘KT 위즈’의 한국시리즈 우승을 기념한 특판을 내놨다. ‘코드K정기예금’ 1년 만기 상품에 연 2.1% 금리를 제공한다. 별도의 기한 없이 2021억원의 한도가 소진될 때까지 진행된다. 해당 상품은 가입 후 2주 내 금리가 오르면 자동으로 인상된 금리를 적용해주는 ‘금리보장 서비스’도 제공된다.카카오뱅크의 26주적금도 연 2% 금리를 제공한다. 기본금리 연 1.5%에 26주간 적금을 꾸준히 납입하는 데 성공하면 추가로 연 0.5%포인트를 준다. 카카오뱅크의 정기예금 금리도 연 1.5%로 시중은행 대비 높은 수준이다.한편 금융감독원에 따르면 5대 시중은행과 지방은행의 특판 예·적금(2020년 이후 출시) 중 지난해 1월부터 올해 9월까지 만기가 도래한 21개 상품의 경우 실제 고객에 지급된 금리는 가입 때 안내한 최고금리 수준의 평균 78%에 불과한 것으로 나타났다.이는 은행들이 최고금리(기본금리+우대금리) 적용을 위해 오픈뱅킹 등록이나 제휴상품 이용실적 달성, 연금이체 실적 등 복잡하고 달성이 어려운 우대금리 지급 조건을 내걸었기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>"내가 못 할 말 했냐" 'NFT 기대주' 위메이드 하락에 안티-찬티 격론</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005004823?sid=102</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>'토스뱅크'서 위메이드 주주-일반 투자자 설전 규정에 따라 댓글 이용 10년 정지 처분까지위메이드의 모바일 MMORPG '미르4' 미르4는 비천왕국과 사북왕국으로 양분되는 미르 대륙을 배경으로, K-판타지 세계를 구현한 게임이다. 사진=위메이드"아니 내가 무슨 범죄자입니까? 말도 못해요?"24일 대체불가능토큰(NFT) 열풍을 타고 급등한 위메이드 주가가 이틀 연속 하락세를 보이면서 '토스 뱅크' 애플리케이션 댓글란에서 위메이드 주주들과 이 주식에 대한 비판 의견을 보이는 투자자들간 설전이 일어났다. 그 과정에서 일부 이용자는 토스 규정에 따라 댓글 이용 10년 정지 처분을 받아, 분통을 터뜨리고 있다. 댓글 정지를 당할 수 있겠으나, 그 기간이 지나치게 길다는 게 분노의 이유다. 이는 NFT 기대주로 꼽히는 위메이드를 둘러싼 격론으로 보인다. 일부에서는 그만큼 NFT 관련 게임주에 대한 관심이 큰 것 아니겠냐는 반증이라는 견해도 있다.  이날 오후 2시30분 기준 위메이드는 전날보다 1.41%(2800원) 내린 19만6300원에 거래되고 있다. 일각에서는 금융위원회가 NFT를 원칙적으로 가상자산으로 규정하고 내년부터 시행 예정인 가상자산 과세 대상에 포함시킨다고 밝힌 것이 영향을 끼친 것 아니냐는 의견도 있다. 지난 22일 도규상 금융위원회(금융위) 부위원장은 지난 17일 제1법안소위에 출석해 "NFT는 지금 현재의 특금법 (특정 금융거래정보의 보고 및 이용 등에 관한 법률) 규정에 따라서 저희(금융위)가 포섭을 할 수가 있다"고 밝혔다.이와 관련해 위메이드 주가는 전날에도 직전 거래일보다 16.09% 하락해 19만8700원에 장을 마감했다. 위메이드는 대표적인 NFT 기대주로 꼽힌다. 지난해 11월 출시된 게임 '미르4'는 NFT 기술을 적용해 게임을 하면서 동시에 돈을 벌 수 있는 '플레이투언(Play to earn·P2E)' 비즈니스 모델을 도입하고, 게임 내 코인을 암호화폐 거래소를 통해 현금화할 수 있도록 하면서 유저들 사이에서 호평을 받았다. 이에 앞서 위메이드 주가는 NFT 사업에 대한 기대감으로 9월 말 이후 지속적인 상승세를 이어왔다. 9월 말 7만원대였던 주가는 지난달 10만원대에 올라섰다. 이어 이달에는 20만원대로 뛰었다. 22일에는 24만원대를 돌파, 52주 신고가를 썼다.그러나 김규철 게임물관리위원장이 20일 이상헌 더불어민주당 의원실이 주최한 '그래서 메타버스가 뭔데?' 토론회에서 사행성이 있다면 현행 게임법상에서는 등급을 내주는 것이 불가능하다며 환전 요소가 있는 NFT 게임에 등급을 줄 수 없다고 발언하고 22일 금융위의 NFT도 특금법 포함, 과세 대상에 포함시킬 수 있다는 의견이 알려지면서 주가는 하락세를 보이고 있다. 외국인과 기관은 규제 이슈가 알려진 이후인 22일부터 23일까지 2거래일간 위메이드 주식을 각각 311억원, 264억원 어치 순매도했다.2021 지스타 기자간담회에서 발언하는 장현국 위메이드 대표. [이미지출처=연합뉴스]관련해 장현국 위메이드 대표는 앞서 18일 한국 게임의 사행성 관련 법 규정에 사회적인 재논의가 필요하다고 주장했다. 그는 이날 부산 벡스코(BEXCO)에서 진행 중인 국제게임전시회 '지스타(G-STAR) 2021' 현장에서 기자들과 만나 "한국에서는 게임 자체가 사행성인지 아닌지가 아니라, 게임의 경제나 재화가 게임 밖으로 나오면 사행이라고 규정한다"며 "그런 기준이 게임 플레이에 맞는지 심각한 의문이 있다"고 말했다.또한 장 대표는 최근 게임사들이 잇따라 NFT 시장 진출을 선언하는 데 대해 "어떤 기조가 시장에서 크게 성공했을 때 그것을 연구하고 따라 하는 것은 매우 자연스러운 현상"이라고 평가했다. 이날 장 대표는 현재 국내 가상자산 거래소 빗썸에 상장된 암호화폐 '위믹스 코인'을 앞으로 세계 50대 거래소에 상장되도록 추진할 예정이라고 밝혔다.이런 가운데 위메이드 주가에 대해 부정적으로 말하는 소위 '안티'와 자신이 보유한 종목의 긍정적인 생각을 하는 '찬티'간 뜨거운 격론이 벌어졌다. 일부 이용자는 신고 누적으로 아예 10년 댓글 이용 정지를 당하기도 했다. 이들은 "(10년 정지를 당할 정도로) 큰 죄를 지었느냐"며 반발하고 있다. 이용자 A 씨가 공개한 토스 고객센터의 상담 내용을 보면 A 씨는 "커뮤니티 정지 기준이 뭔가요?"라고 질문한다. 이에 토스 관계자는 "신고는 각 글당 5회가 누적되어야만 이용제한시간 및 글삭제가 이루어진다"면서 "다른 유저분들께서 직접 신고해주신 내역으로 별도의 해제처리가 불가합니다"라고 설명했다.'10년 정지'에 대해서는 "각 글에 대해 10번 신고가 될 시 1번 숨김 및 경고처리가 되며, 그것이 10번 누적되면 10년 정지가 발생한다"고 부연했다. 관련해 일반 투자자들은 "10년 정지 당할만하다는 얘기냐"고 지적했다. 또 다른 이용자는 "글을 정말 나쁘게 올렸다면 이해할 수 있는데…"라며 황당함을 감추지 못했다.한편 위메이드는 24~29일까지 기업설명회(IR)를 개최한다. IR 주요 내용으로는 2021년 3분기 경영실적 리뷰, 주요 사업현황 및 전망 설명 등이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>업계 1위 삼성생명 토스와 제휴…"빅테크 종속 우려"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010861670?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>기사내용 요약토스에서 삼성생명 보험 가입·청구까지 가능해져외부 플랫폼으로 보험 가입 창구 확대한 첫 사례업계, 우려 시선도…"불가피하지만 위기감 느껴"[서울=뉴시스] 남정현 기자 = 삼성생명이 토스 앱을 통해 보험 가입과 청구까지 가능한 제휴 서비스를 제공한다. 대형 보험사가 외부의 플랫폼에서 보험 가입·청구를 가능하게 한 첫 사례다. 한편 보험업계가 빅테크·핀테크에 종속되는 것 아니냐는 우려도 동시에 나오고 있다. 30일 보험업계에 따르면 삼성생명은 금융 플랫폼 토스의 운영사 비바리퍼블리카와 업무협약(MOU)을 맺었다.이번 협약에 따라 소비자들은 토스를 이용해 삼성생명 상품에 대한 상담, 가입, 보험금 청구를 할 수 있게 됐다. 이를 위해 토스의 인증·알림·페이 등의 서비스는 삼성생명 서비스와 연계된다. 토스 내 삼성생명 전용 페이지도 생길 예정이다.현재 보험사들은 토스·카카오페이 등의 빅테크·핀테크 플랫폼과 업무협약을 다수 맺고 있지만, 이는 단순한 광고성 제휴에 그친다. 보험사들은 해당 빅테크·핀테크· 플랫폼을 통해 상품 공급(광고), 인증 서비스 활용, 알림 서비스 등의 서비스만 제공해 왔다. 소비자가 토스나 카카오페이에서 보험 상품을 선택하면 인터넷 창이 해당 보험사 앱이나 홈페이지로 이동하는 식이었다.삼성생명은 이번 결정이 MZ세대(2030세대)를 잡기 위한 행보라고 설명했다. 삼성생명 측은 "설계사와 고객의 평균 연령이 높아지는 상황에서 주 고객이 2030인 플랫폼이 필요하다고 판단했다"며 "생명보험업은 다른 금융보다 상품 구조, 가입 및 청구 방식이 복잡해 고객 접근성이 낮다는 점을 고려해 가장 직관적인 서비스를 하는 곳을 선택한 것"이라고 말했다.다만 보험업계에선 삼성생명의 이번 결단이 보험업의 빅테크·핀테크 종속화를 불러오지 않을까 하는 우려 섞인 목소리도 나오고 있다. 삼성생명이 생보업계에서 시장 점유율이 25%가 넘는 1위 기업인 만큼 타 생보사로의 영향은 불가피할 것으로 전망된다.한 생보업계 관계자는 "보험사가 생존을 위해서는 빅테크 기업과 어느정도의 협력 또는 치열한 경쟁은 불가피하다"면서도 "인지도나 시장점유율이 가장 높은 삼성생명마저 앞서서 빅테크에 가입과 지급서비스를 위탁한다고 하니 큰 위기감이 든다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크 중저신용자 대출 비중 13%대… 목표는 20%</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000776531?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>연말 목표 20%대… 3분기까지 케이뱅크 13.7%, 카카오뱅크 13.4%        카카오뱅크와 케이뱅크 등 인터넷전문은행의 올해 3분기까지 중·저신용자 대상 대출 비중이 13%대에 그친 것으로 나타났다. 이는 올해 연말까지 목표치인 20%를 밑도는 수준이라, 중저신용자 대출 확대에 열을 올릴 것으로 보인다.중저신용자는 코리아크레딧뷰로 기준 신용점수 하위 50%(820점 이하) 대출자를 말한다.26일 은행연합회 공시에 따르면 케이뱅크의 3분기까지 중저신용자 대상 대출 비중은 13.7%이고, 카카오뱅크는 13.4%로 집계됐다. 케이뱅크와 카카오뱅크이 제시한 올해 말 중·저신용자 대출 비중 목표치는 각각 21.5%와 20.8%다.은행연합회 제공        각 사의 올해 1~10월까지 중저신용 고객 신용대출 누적 공급액 규모를 비교해보면 케이뱅크는 4650억원으로, 전년 동기(2208억원) 대비 약 110.6% 증가했다. 케이뱅크 측은 “전년 대비 2.1배가 넘는 성장”이라며 “4분기 들어 고객 혜택을 대폭 강화했다”고 했다.카카오뱅크의 1~10월 중저신용자 대출 공급액은 총 1조1727억원이다. 카카오뱅크 측은 “전년도 데이터 기준이 달라 이 기간 추이를 분석하는 데 시간이 다소 걸린다”면서 “다만 10월말 기준 중저신용자 대출 비중은 14.6%로 비중이 지속적으로 증가하고 있다”고 설명했다. 카카오뱅크의 올해 3분기(7~9월) 중저신용자의 자체 신용대출 신규 취급액은 6797억원으로, 지난 2분기(1998억원)보다 3.4배 늘었다. 10월 말 기준 중저신용 고객 대출 잔액은 2조1324억원이다.최근 인터넷전문은행들이 당초 설립 취지와 다르게 고신용자 대출에 집중한다는 비판이 나오면서, 금융당국은 중·저신용자 대출 비중을 확대하라고 주문했다. 4분기 들어 카카오뱅크와 케이뱅크는 중저신용자 고객을 늘리는 데 열을 올리고 있다.카카오뱅크는 올해 8월 초 중신용플러스 대출, 중신용비상금 대출 등 중저신용 고객 전용 신규 대출상품 출시했다. 또 중저신용 고객 유입을 위해 지난 6월부터 진행한 중신용고객 대출 이자 지원을 연말까지 지속하는 한편, 신용평가시스템(CSS) 고도화를 통해 상환능력 평가 역량을 강화할 계획이다.케이뱅크는 지난 11일부터는 중저신용 고객 대상 대출상품 금리를 일제히 인하했다. 금리 인하 대상 상품은 ▲신용대출 플러스 ▲신용대출 ▲마이너스 통장 등 3종으로, ‘신용대출 플러스’ 이용 고객 중 중·저신용 고객군의 금리는 이전보다 최대 3.27%p까지 인하됐다. 이에 앞서 9월 중순부터 시행해온 ‘대출이자 2개월 캐시백’ 이벤트를 올해 연말까지로 연장했다. 케이뱅크의 신용대출 상품 4종을 이용하는 중저신용 고객에게 두 달치 대출이자를 돌려주는 행사다. 이달부터는 대출 상환이 어려운 상황에 처했을 때 대출 상환을 해결해주는 ‘대출 안심 플랜’ 서비스도 무료로 제공하고 있다.카카오, 케이뱅크, 토스뱅크는 중·저신용자 대상 신용대출 비중을 2023년 말 30% 상회를 목표로 늘려 나간다는 계획이다. 중·저신용자 대상 신용대출 잔액도 가계부채 관리 규제, 시장 상황 등이 허용하는 범위 내에서 지속적으로 늘려야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>지방·특수銀도 수신금리 인상...인뱅은 조용</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004748023?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>지방, 특수銀 속속 인상 銀 수신금리 1.05~1.3% 기준금리 따라 신속 인상, 이례적 행보 예견된 기준금리 인상, 예대금리차 확대 비판 영향인뱅은 수신금리 인상 계획 無이미 높은 금리, 대출규제 영향  [파이낸셜뉴스] 주요 시중은행들에 이어 지방 및 특수은행들도 이례적으로 기준금리 인상 이후 발빠르게 수신금리 인상에 나서고 있다. 11월 기준금리 인상 예견과 예대금리차 확대에 대한 비판 여론이 신속히 반영됐다는 분석이다. 다만 인터넷전문은행들은 이미 높은 수신금리와 가계대출 총량규제 등으로 인해 상반된 움직임을 나타내고 있다.   30일 금융권에 따르면 지방은행들이 수신금리 인상 대열에 동참하고 있다. BNK부산은행은 이날부터 정기예금과 적금금리를 상품별로 최대 0.5%포인트 인상한다. 적금 상품은 0.3%포인트에서 최대 0.5%포인트, 예금 상품은 0.25%포인트에서 최대 0.4%포인트 오른다. 경남은행은 12월1일부터 거치식, 적립식 단기 수신상품 27종의 금리를 0.2~0.3%포인트 인상할 계획이고, DGB대구은행도 다음달 중에 이와 비슷한 수준으로 금리를 올릴 것이라는 전언이다. 올해 중순 기준금리가 인상됐을 때 적지 않은 시간이 지난 후 수신금리를 올린 것에 비해 상당히 발빠른 움직임이라는 평가다.   아울러 특수은행인 NH농협은행은 이날 거치식예금 기본금리를 0.25~0.35%포인트, 적립식예금 금리는 0.25~0.4%포인트 올렸다. IBK기업은행도 주요 수신상품 금리를 0.25~0.4%포인트 인상했고, 수협은행은 12월1일부터 수신금리를 최대 0.4%포인트 올릴 예정이다.   앞서 주요 시중은행들도 기준금리 인상 직후 수신금리를 신속히 올렸다. 4대 시중은행들(KB국민, 신한, 하나, 우리)은 주요 수신상품 금리를 0.1~0.4%포인트 가량 인상했는데, 우리은행과 하나은행의 경우 기준금리 인상 다음날인 26일부터 반영했고, KB국민은행과 신한은행은 2영업일 이후인 29일부터 인상분을 반영했다. 이로써 은행들의 수신금리는 기존 0.85~1%에서 1.05~1.3%로 올라가게 됐다.   이 같은 은행들의 움직임은 이례적이지만 그만한 이유가 있다는 분석이다. 한 은행권 관계자는 "사전에 이미 11월 금리인상이 예견됐었기 때문에 다른 때에 비해 은행들의 의사 결정이 빨랐던 측면이 있었다"면서 "또한 예대금리차 확대에 대한 비판 여론이 거셌다는 점도 상당한 영향을 미쳤다"고 전했다.   이런 가운데 인터넷전문은행들은 다른 움직임을 보이고 있어 대조를 이룬다. 아직까지 인터넷은행들은 수신금리를 인상할 계획이 없는 것으로 파악됐다. 이는 시중은행들에 비해 인터넷은행들의 수신금리가 이미 높은 상황인 만큼, 추가적으로 수신금리를 인상하는 것에 대한 부담이 있기 때문이라는 분석이다. 현재 케이뱅크, 토스뱅크, 카카오뱅크 등의 수신금리는 1.5~2.1%를 나타내고 있다. 이는 시중은행들이 새롭게 반영하는 변경금리인 1% 초반대에 비해 여전히 높은 것이다.   한 금융권 관계자는 "현재 주요 인터넷은행들의 수신금리는 사실상 기준금리 인상이 선반영됐다고 볼 수 있다"면서 "아울러 일부 인터넷은행의 경우는 정부의 가계대출 총량규제로 인해 연말까지 대출영업이 중단된 상태인 만큼, 현 상황에서 이자 비용이 증가하는 수신상품의 금리 인상이 매우 부담스러울 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>치솟는 신용대출 금리…벌써 코로나 이전 수준 상회</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002552637?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>은행 평균 4.66%…올해만 0.84%P↑2019년 말 4.43%보다 0.23%P 높아은행 신용대출 평균 금리 추이.ⓒ데일리안 부광우 기자[데일리안 = 부광우 기자] 국내 은행권의 개인 신용대출 평균 금리가 올해 들어서만 1%p 가까이 치솟으며 5%에 육박하고 있는 것으로 나타났다. 신종 코로나바이러스 감염증(이하 코로나19) 이후 제로 수준까지 떨어졌던 기준금리가 이제 막 1%대로 올라섰지만, 신용대출 이자율은 이미 그 전보다 높아진 실정이다.한국은행이 추가 기준금리 인상에 나설 것이란 관측이 유력한 가운데, 대출을 받아 투자에 나섰던 빚투족의 어깨는 더욱 무거워질 것으로 보인다.30일 은행연합회에 따르면 지난달 신규 취급액 기준 국내 19개 은행의 개인 신용대출 평균 금리는 4.66%로 지난해 말보다 0.84%p 오른 것으로 집계됐다.은행별로는 전북은행의 개인 신용대출 이자율이 7.33%로 최고를 기록했다. 이어 광주은행과 카카오뱅크의 해당 금리가 각각 6.74%와 6.19%로 높은 편이었다. 이밖에 BNK경남은행(5.36%)과 케이뱅크(5.09%), 토스뱅크(5.07%), SC제일은행(5.02%), DGB대구은행(4.95%), 한국씨티은행(4.84%)의 개인 신용대출 금리가 평균을 웃돌았다.은행권의 이 같은 신용대출 금리는 코로나19를 계기로 제로금리 시대가 열리기 전 수준을 역전한 것이다. 기준금리가 1%대를 유지하고 있었던 때보다 0%대를 지속해 온 현재의 이자율이 더 높다는 의미다.실제로 코로나19가 본격화하기 전인 2019년 말 은행권의 개인 신용대출 평균 금리는 4.43%로 올해 10월보다 0.23%p 낮았다. 당시 기준금리는 수개월째 1.25%를 유지하고 있던 상황이었다.◆기준금리 추가인상 압박…차주 부담↑문제는 한국은행이 기준금리 인상에 속도를 내고 있다는 점이다. 신용대출을 받은 차주의 부담이 앞으로 더 확대될 수 있다는 얘기다.한은 금융통화위원회는 25일에 열린 정례회의에서 기존 연 0.75%였던 기준금리를 1.00%로 0.25%p 올리기로 결정했다. 한은 기준금리는 지난해 3월 0%대로 떨어진 이후 지금까지 제로금리 수준을 유지해 왔다.금융권에서는 이번 결정이 금리 인상의 시발점이 될 것이란 관측이 나온다. 국내 경제가 양호한 회복세를 이어가고 있는 만큼, 한은이 코로나19 영향을 받기 전 수준까지 기준금리를 끌어 올릴 것이란 해석이다. 이 때문에 내년 상반기까지 최소 두 차례의 기준금리 인상이 있을 수 있다는 전망이 유력하다.이렇게 되면 신용대출을 받은 이들의 부담은 더 가중될 수밖에 없다. 특히 낮은 금리에 기대 대출을 받아 투자에 나섰던 빚투족이 느낄 압박은 더 커질 전망이다.한은이 지난 9월 발표한 금융안정 상황 보고서에 따르면, 지난 8월 기준금리가 0.25%p 오른데 이어 연내 0.25%p의 추가 인상이 단행될 경우 가계의 연간 이자 부담은 지난해 말보다 5조8000억원 늘어날 것으로 추산됐다. 대출자 1인당 연간 이자 부담은 같은 기간 271만원에서 301만원으로 불어난다는 계산이다.금융권 관계자는 "기준금리가 오르며 신용대출 증가세에도 어느 정도 제동이 걸리고 있지만, 이미 대출을 받은 변동금리 차주들이 감내해야 할 부담은 이제부터 본격화할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[시그널] 김창규 "펀드 대형화에 1,000억 이상 투입"</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003988138?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[KTB네트워크 대표 인터뷰]내달 상장···벤처캐피털 대장주 예약국내외 대박 낸 벤처 회사들 지분업종 쏠림없이 다양하게 투자 강점성과보수 작년보다 두배 이상 늘것[서울경제] 다음 달 초 코스닥 상장을 준비 중인 KTB네트워크가 국내 벤처캐피털(VC) 업계의 대장주 자리를 예약하고 나섰다. 김창규(사진) KTB네트워크 대표는 22일 서울경제와의 인터뷰에서 “핀테크 유니콘인 토스나 엔터테인먼트 업체 알비더블유(RBW), 원티트랩 같은 플랫폼 벤처들은 물론 해외 유니콘 기업까지 다양한 투자 포트폴리오를 보유한 것이 KTB네트워크의 최대 강점”이라고 밝혔다. 그는 최대 1,440억 원으로 예상되는 공모 자금을 벤처펀드 대형화에 투입하는 한편 ‘액셀러레이터(스타트업 성장 지원 전문 기업)’도 설립해 KTB네트워크에 완결된 벤처 산업 생태계를 구축할 계획이다.김 대표는 공모가(5,800~7,200원) 상단을 기준으로 7,000억 원 넘는 시가총액을 예상하는 주된 배경으로 “그간 축적한 우량 투자 기업도 많지만 특히 투자 포트폴리오가 다양한 것이 최대 매력 포인트”라고 설명했다. KTB네트워크의 투자 기업이 특정 산업에 국한돼 있지 않고 해외에도 포진해 2~3개 우량 투자사에 의존해 기업가치가 출렁이는 벤처캐피털들과 다르다는 얘기다.실제 설립 초부터 투자해 KTB네트워크가 지분 2.8%를 갖고 있는 토스는 최근 기업가치가 8조 원을 넘어서며 유니콘에서 ‘데카콘(기업가치 10조 원의 스타트업)’ 반열에 가까워져 있고 이날 증시에 상장한 마마무 소속사 RBW 투자로도 KTB 측은 10배가량의 수익을 기대하고 있다. 또 메타버스 관련 주로 몸값이 치솟은 엔피와 인재 채용 플랫폼 원티드랩도 최근 상장에 성공해 KTB네트워크가 투자금 회수 시기를 조율하는 투자처다. 김 대표는 “투자금 회수를 극대화하면서 시기를 잘 조정해 꾸준한 이익을 낼 수 있게 할 것”이라고 말했다.그러면서 그는 해외 투자처도 다양해 국내 경제나 증시 상황이 불확실할 때도 리스크를 최소화할 수 있다고 덧붙였다. KTB네트워크가 약 20억 원을 투자한 인도의 부동산 플랫폼 노브로커는 기업가치가 20배가량 늘었고 올해 홍콩 증시에 상장한 바이오업체 칼스젠에는 200억 원을 투자해 10배 이상의 초대박을 예약해놓은 상태다. 동남아의 우버로 불리는 그랩에도 100억 원을 투자해놓고 있다. 김 대표는 “국내외 다양한 벤처 분야에서 꾸준히 좋은 성과를 내는 만큼 높은 밸류에이션과 함께 안정성도 뒷받침될 것”이라고 강조했다.KTB네트워크의 성장성 지표로 볼 수 있는 성과 보수 역시 지난 2018년 10억 원에 불과했지만 지난해 111억 원으로 급증했으며 올해는 전년 대비 100% 이상의 증가율을 보일 것이라고 김 대표는 귀띔했다.김 대표는 아울러 공모 자금 100%를 펀드 대형화에 투자하고 향후 액셀러레이터도 설립해 제2의 도약에 나서겠다는 비전도 제시했다. 그는 “500억 원 규모의 소형 펀드는 스타트업 육성에 자금을 투입하고, 2,000억~3,000억 원 규모 대형 펀드는 성장성이 확인된 벤처에 자금을 지원해 ‘유니콘’으로 성장할 수 있게 할 것”이라고 말했다.그러면서 액셀러레이터 설립 계획을 밝힌 김 대표는 “KTB네트워크와 함께하면 스타트업이 설립 단계부터 상장 전까지 꾸준히 투자금을 유치받고, 성장 전략을 논의할 수 있는 ‘벤처 생태계’에 단숨에 뿌리내릴 수 있게 할 것”이라고 단언했다. 그는 아울러 내부 고객인 VC 심사역을 포함해 전 임직원에게 주식매수선택권(스톡옵션)을 부여해 스타트업 지원 환경을 강화하겠다고 약속했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>인뱅 중저신용자 비중 ‘20% 벽’ 넘을까</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001918251?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>정교한 CSS 구축...한도↑ 금리↓카카오페이 등 데이터 반영 박차인터넷전문은행들의 중저신용자(하위 50%, 820점 이하) 대출 비중이 좀처럼 오르지 않으면서 업계 내 고민도 깊어지고 있다. 이미 높은 한도로 대출을 받은 고신용자들이 많아, 이들이 해당 대출을 상환하지 않는 이상 중저신용자 대출 비중이 10%대를 벗어나는 것은 어렵다는 이야기도 나온다. 인터넷은행들은 신용평가시스템(CSS) 고도화를 통해 중저신용자 리스크를 보다 면밀하게 측정할 계획이다.은행연합회에 따르면 카카오뱅크와 케이뱅크의 3분기 중저신용자 비율은 각각 13.4%와 13.7%로 유사하다. 전 분기와 비교했을 때 카카오뱅크는 2.8%포인트 늘고 케이뱅크는 1.8%포인트 줄었다. 케이뱅크의 경우 다른 시중은행들이 한창 신용대출 연봉한도 제한을 시작했을 때 따로 제한을 걸지 않아 풍선효과의 영향을 받았다는 해석이다.금액은 크게 늘어난 상황이다. 케이뱅크는 올 10월까지 4650억원을 공급하며 전년 동기 대비 두 배 많은 금액을 중저신용자 대출에 투입했고, 카카오뱅크도 같은 기간 1조1727억원을 공급하며 중저신용자 대출 비중을 10월 말 기준 14.6%까지 끌어 올렸다.카카오뱅크와 케이뱅크의 연말 중저신용자 대출 목표는 각각 20.8%, 21.5%이며 두 은행은 현재 고신용자 대상 신용대출을 중단 또는 일부 제한하는 조치를 시행 중이다.마의 20% 벽을 넘기 위한 인터넷은행들의 비책은 CSS 고도화다. 중저신용자들은 통상적으로 집단 특성상 한도가 고신용자에 비해 적기 때문에, 고신용자들이 높은 한도로 대출을 받고 연장 등을 지속하면 중저신용자 대출 비중을 획기적으로 늘리기 어렵다. 실제 인터넷은행 중 초반부터 중저신용자에 초점을 맞춘 토스뱅크만 대출영업 중단 시까지 중저신용자 비중 20%대(28.2%)를 기록한 바 있다.이에 인터넷은행들은 정교한 CSS 모델을 구축해 대출 등 신용을 판단할 수 있는 기록이 부족해 점수가 낮은 이들에게 보다 높은 한도나 보다 낮은 금리를 제공하겠다는 계획이다.CSS 고도화를 위해서는 중저신용자나 금융이력부족자(신파일러)를 판단할 수 있는 풍부한 데이터가 필수적인데 카카오뱅크와 케이뱅크 역시 이 데이터를 확보하고 CSS에 반영하기 위해 노력하고 있다. 카카오뱅크는 모빌리티, 카카오페이 등 업무협약을 맺은 계열사 데이터를 포함해 제휴사들의 데이터를 CSS에 추가적으로 반영할 예정이다. 특히 카카오페이의 풍부한 결제 데이터가 내년께 반영될 예정이라, 더욱 많은 수요자들이 CSS 고도화 효과를 경험할 수 있을 전망이다. 케이뱅크 역시 모회사인 BC카드 결제 데이터와 KT의 통신 데이터를 반영해 CSS 모델을 향상할 방침이다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>IT기업 금융업 선순환하려면[MT시평]</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004671942?sid=110</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[[기고]한국금융연구원 선임연구위원 이병윤] 4차 산업혁명의 확산과 함께 급격하게 성장한 IT기업의 금융업 진출이 늘어나고 있다. 이미 우리나라뿐 아니라 세계적으로도 수많은 핀테크·빅테크 기업들이 지급결제, 자금중개, 자산관리 등 각종 금융업에 진출하여 기존 금융회사들과 경쟁 및 협력을 하고 있다. 우리나라에서는 지난 10월 출범한 토스뱅크를 포함하여 IT기업들이 운영하는 인터넷전문은행도 세 개나 출범했다.IT기업들은 왜 금융업에 진출할까? 단순히 이익을 내기 위해서? 금융업은 규제산업이다. 마음껏 이익을 내기 수월한 업종이 아니다. 그런데 왜 IT기업들은 계속 금융업에 진출하고 있을까? 그리고 왜 과거에는 진출하지 않다가 최근에 폭발적으로 진출하는가? 먼저 소비자들의 수요가 있기 때문이다. 세계적으로 보면 금융서비스가 제대로 제공되지 않는 지역, 예를 들면 인구 중 은행계좌나 신용카드 비중이 작은 지역 등에서 IT기업의 금융서비스가 크게 늘어난다. 즉 기존에 금융회사가 충족시켜주지 못하는 수요를 채워주는 측면이 있다는 것이다. 또 기존에 금융소비자들이 불편하다고 느꼈던 금융서비스들을 IT기업들이 혁신기술을 활용해 편리하게 만들어 제공함으로써 소비자들을 끌어들이는 측면도 있다. 시장에 수요가 있으니 IT기업들이 금융서비스를 제공한다는 것이다.다른 측면은 금융서비스 공급자인 IT기업들의 필요다. 대형 IT기업인 빅테크가 금융서비스를 제공하면 고객들의 빅테크 플랫폼에 대한 충성도가 높아져 다른 핵심 비즈니스를 강화할 수 있다. 또 빅테크는 금융서비스 제공을 통해 다양하고 풍부한 데이터를 확보하여 기존 비즈니스 및 금융서비스 모두에 긍정적인 효과를 가져올 수 있다. 즉 IT기업 입장에서는 수많은 고객을 추가로 확보하고 이들의 플랫폼에 대한 충성도를 높이며 방대한 데이터를 얻는데 금융서비스 제공이 크게 도움이 된다. 과거에도 IT기업들이 금융업 특히 인터넷전문은행 등 은행업에 진출하려는 시도가 있었다. 2001년에는 SK텔레콤·안철수연구소 등 20여 개 기업이, 2008년에는 금융위 주도로 인터넷전문은행 도입 시도가 있었다. 하지만 비대면 본인확인 금지, 은산분리 등 규제에 막혀 실패했다. 표면적으로는 규제가 실패의 원인이었다. 하지만 당시에는 스마트폰도 없어 모바일뱅킹이 되지 않았고 IT기술도 지금처럼 발달하지 않아 인터넷전문은행 설립의 이익이 크지 않았던 것이 진짜 이유라고 할 수 있다. 그러한 환경이 조성된 것이 최근에 인터넷전문은행이 도입되고 많은 IT기업들이 금융업에 진출하는 근본적인 요인이다. 즉 스마트폰, 빅데이터, AI 등 혁신적인 기술의 발달로 IT기업의 금융업 수행에 따른 이득이 커진 것이다. IT기업의 금융업 진출은 시장경쟁을 강화하고, 고객 편의성을 높이는 등 소비자후생 증진에 기여할 것으로 보여 활성화시킬 필요가 있다. 하지만 기존 금융회사와의 과당경쟁, IT기업 리스크의 금융업 전이 가능성 등으로 금융시스템 안정성을 저해할 수 있다. 또 금융회사가 아닌 IT기업들이 기존 금융회사에 비해 규제차익을 누릴 수 있어 공정한 경쟁을 해칠 수 있고 금융회사가 아니기 때문에 금융소비자보호에도 소홀할 수 있다. 금융산업의 발전을 위해 활성화가 필요하지만, 진정한 발전을 위해서는 지혜로운 규제도 함께 요구되는 이유다.이병윤 한국금융연구원 선임연구위원</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[속도내는 데이터경제] `이 구역 1인자 나야` 금융권 vs 빅테크</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002708795?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>마이데이터 시대가 본격 개막하면서 기성 금융권과 빅테크 간의 경쟁이 본격적으로 시작될 전망이다. 마이데이터는 전 산업군에 흩어진 정보를 하나의 모바일 앱이나 웹페이지에서 제공하는 서비스다. 자연스레 '플랫폼 확보전'으로 귀결되는 수순이다.그간 은행 등 주요 금융그룹은 막대한 지점 인프라와 대출 자산을 바탕으로 고객 밀착형 영업을 해오면서 고객 확보에 이점을 누렸다. 반면 네이버와 카카오로 대표되는 빅테크는 검색, 쇼핑 등에서의 압도적인 지위를 바탕으로 금융권에 진출하면서 비금융 정보와 금융 정보를 결합하려고 시도해왔다.마이데이터가 시행되면서 기존 금융회사와 빅테크 간의 경쟁은 더 치열해질 것으로 보인다. 이미 주요 빅테크는 데이터를 끌어오는 스크래핑 방식으로 마이데이터 기반 서비스를 내놓고 있다. 은행 등의 금융회사는 업권별 규제로 인해 그동안 정보 수집과 활용에 애로를 겪었는데, 마이데이터를 통해 정보 수집 범위를 획기적으로 높일 수 있다.현재 카카오페이는 국내 최대 소셜네트워크서비스(SNS) 카카오톡에 연동해 송금, 결제, 자산관리 서비스를 제공하고 있다. 자체 앱 내에서는 카드사 결제내역과 소비내역을 파악해 지출 흐름을 시각적으로 제공한다. 보험, 병원비청구, 주식 투자 현황 등도 한눈에 볼 수 있도록 서비스하고 있다. 네이버파이낸셜 역시 포털서비스 네이버를 통해 네이버페이 서비스를 제공한다. 이뿐만 아니라 은행·카드 연계를 통해 수입·지출내역, 대출잔액 조회부터 부동산, 자동차 시세 조회 등 종합 자산관리 서비스를 운영하고 있다. 네이버를 활용한 음식주문도 마이데이터 서비스의 일환이다. 토스(법인명 비바리퍼블리카) 역시 구체적인 서비스는 내놓지 않았지만 자사의 강점인 '원 앱'의 은행, 결제, 증권 서비스를 활용할 것으로 보인다. 은행권은 자체 모바일뱅킹앱을 리뉴얼하거나 자산관리 등 관련 서비스를 대폭 개선하는 식으로 대응하고 있다. 지난달 KB국민은행은 지난달 은행뿐만 아니라 그룹 계열사 내 증권, 카드, 보험 서비스를 한 번에 담은 'KB스타뱅킹'을 개편했다. '뱅킹'만이 아닌 '금융플랫폼' 앱으로 거듭난다는 취지에서다. 신한은행도 지난 5월 통합자산관리 플랫폼 'MY자산'을 개편해 마이데이터 시대 대비를 마쳤다. 마케팅 강화도 시장 선점의 일환이다. 마이데이터를 통해 제공하는 각 은행 서비스가 자산관리 등으로 차별성이 크지 않다는 판단에서다. 하나은행은 사전예약 신청 고객에 적금 우대금리 혜택을, NH농협은행은 커피 모바일 쿠폰과 NH포인트를 제공하는 이벤트를 진행 중이다. IBK기업은행도 폴더블 휴대전화 등을 추첨으로 준다.마이데이터 예비허가를 신청한 카카오뱅크를 제외하면 다른 인터넷전문은행(케이뱅크·토스뱅크)는 금융당국으로부터 마이데이터 사업자 허가를 받지 않은 상황이다. 다만 두 은행 모두 대주주(KT·비바리퍼블리카)를 통해 허가를 신청했거나 이미 획득하고 있어 향후 협업을 통한 징검다리는 마련했다는 평가다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>연봉 1000만원 인상·스톡옵션 1억...불붙은 인터넷은행 구인전쟁</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004745698?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 인터넷은행 간 경쟁이 본격화 되면서 직원들을 사로잡기 위한 회사의 구애도 불붙고 있다.   카카오뱅크는 전직원 연봉 1000만원을 일괄 인상하는 보상안을 내놨고, 토스뱅크는 입사 1년이 지난 직원들에게 1억원 상당의 스톡옵션을 부여했다.   25일 토스뱅크는 주주총회를 열고 임직원 30명에게 스톡옥션 60만 주를 부여하기로 결정했다고 밝혔다.   주정명 사내이사(CRO, 리스크 담당 최고책임자), 최승락 CCO(소비자 담당 최고책임자) 등을 포함해 대상이 된 임직원에게는 인당 2만 주가 고르게 부여된다.   이번 스톡옵션의 행사가는 주당 5000원(액면가)이다. 대상 임직원은 스톡옵션을 부여받은 날로부터 2년 뒤인 2023년 11월 30일부터 이를 행사할 수 있다.   그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입하겠다고 밝혀왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다.   앞서 7월에는 홍민택 대표를 포함한 임직원 30명에게 68만 주를 부여한 바 있다.   지난 주 카카오뱅크는 전 직원 임금을 평균 1000만원 이상 일괄 인상하는 파격적인 보상안을 내놔 주목받았다. 또 직원들에게 연봉의 각각 30%와 20% 규모로 스톡옵션(주식매수선택권)과 성과급도 지급하기로 했다.   보상안이 그대로 시행되면 카카오뱅크 직원들의 평균 임금은 1000만원 가량 오를 전망이다. 여기에 스톡옵션과 성과급도 별도로 받는다.   카카오뱅크 관계자는 "카카오뱅크가 지금까지 큰 성장을 이뤘고 지속적인 성장을 위해서는 구성원들과 성과를 나눠야 한다는 게 회사의 생각"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.11.26.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1주년 임직원들에 스톡옵션 60만주 부여</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001669819?sid=102</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ⓒYTN토스뱅크가 입사 1주년을 맞은 사내 임직원을 대상으로 '주식매수선택권(스톡옵션)'을 부여하기로 했다.25일 토스뱅크는 주주총회를 열고 임직원 30명에게 스톡옵션 60만 주를 부여하기로 결정했다고 밝혔다. 주정명 사내이사(CRO, 리스크 담당 최고책임자), 최승락 CCO(소비자 담당 최고책임자) 등을 포함해 대상이 된 임직원에게는 인당 2만 주가 고르게 부여된다.이번 스톡옵션의 행사가는 주당 5,000원(액면가)이다. 대상 임직원은 스톡옵션을 부여받은 날로부터 2년 뒤인 2023년 11월 30일부터 이를 행사할 수 있다.토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입하겠다고 밝혀왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다.앞서 지난 7월에도 홍민택 대표를 포함, 임직원 30명에게 68만 주를 부여한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>은행 ATM·지점 정보, 모바일 앱으로 한 번에</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004676114?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>서울 중구 삼성본관에 위치한 한국은행 본부/사진=뉴스1오는 29일부터 금융권이 운영 중인 ATM(현금자동인출기)와 지점 위치, 운영시간 등을 스마트폰 애플리케이션으로 간편하게 확인할 수 있다. 그동안 ATM·지점 정보가 통합 관리되지 않아 어려움을 겪던 금융소비자들의 이용 편의성을 높이겠단 취지다. 한국은행은 28일 "전 금융기관의 ATM 및 지점의 세부정보를 스마트폰을 통해 확인 가능하게 된다"며 '금융대동여지도' 서비스를 출시한다고 밝혔다. '금융대동여지도' 서비스는 △은행 △비은행예금취급기관(우체국·저축은행·상호금융 등) △증권사 △자동화기기 사업자 등 범 금융권 ATM·지점 관련 최신 정보를 통합 제공한다. 총 38개 기관이 참여하며 은행 중 지점과 ATM이 없는 카카오뱅크, 토스뱅크는 제외됐다. 금융권(금융결제원)에서 제공 중인 기존 '어카운트인포 앱'이나 '모바일현금카드 앱'을 다운로드 받아 이용하면 된다. 이를 통해 위치 등 기본사항 외에도 제공서비스나 수수료, 폐쇄 정보, 장애인 지원기능 등의 다양한 정보를 함께 제공하고 검색기능도 이용할 수 있다. 한은과 금융위원회는 지난해 7월부터 금융권과 공동으로 ATM·지점 정보를 통합한 데이터베이스 및 이를 기반으로 하는 모바일 앱 서비스 구축·개발을 진행해왔다. 한은은 "수집된 ATM 데이터 분석 등을 바탕으로 은행권과 함께 ATM 운영 공조방안을 논의하고, ATM·지점 대체인프라 활성화 등을 추진할 예정"이라며 "한은과 금융위는 금융소비자의 현금이용 편의성 및 금융접근성 제고 등 금융포용 확대를 위해 금융권과 함께 지속 노력해 나갈 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>[특징주]핑거, 최초 금융 메타버스 플랫폼…스마트 뱅킹 대체 '독도버스NFT'</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005000148?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>핑거가 강세다. 국내 최초로 금융 메타버스 플랫폼 구축하는 사업이 순항하고 있다는 증권사 분석이 주가에 영향을 주는 것으로 보인다. 핑거는 국내 최초로 금융시스템을 도입한 메타버스 플랫폼 구축사업을 NH 농협은행과 진행 중이다. 가칭 '독도버스'로 명명된 해당 플랫폼은 내년 1분기 오픈을 목표로 하고 있다. 독도버스는 현실과 동일한 시간대로 운영하며 낚시 · 농사 · 전투 등의 콘텐츠 진행도 가능하다. NH 농협은행 가상금융 센터인 메타버스 브랜치가 개점할 예정으로 NH 농협은행 모바일뱅킹인 올원뱅크의 서비스와 연동도 가능하다.16일 오전 9시56분 핑거는 전날보다 20.3% 오른 2만3700원에 거래되고 있다.김도윤 리서치알음 연구원은 "독도버스에서는 도민권 및 부동산 등 게임내 아이템이 NFT로 발행된다"며 "관계사 마이크레딧체인을 통해 유통이 진행될 예정"이라고 설명했다.이어 "NFT 발행 및 거래 수수료 수익을 창출한다"며 "NH 농협은행을 필두로 국내 주요 은행이 독도버스에 메타버스 브랜치를 출점하게될 것"이라고 덧붙였다.아울러 "각각 신규 플랫폼을 구축할 가능성도 존재한다"며 "사용자 기반 확보에 긍정적"이라고 강조했다.그는 "NH 농협은행의 SNS 팔로워 수는 은행권 최초로 300만명을 돌파했다"며 "유저가 많아질수록 플랫폼 내 NFT 가치와 관심도는 점차 증가할 것"이라고 분석했다.김 연구원은 "독도버스 NFT 는 시작점에 불과하다"며 "관계사 마이크레딧체인과 협업을 통한 NFT 플랫폼 사업 역시 점차 확대될 것"이라고 내다봤다.마이크레딧체인은 연내 자체 발행 예정 토큰 MCC 와 교환 가능한 '열매'를 통한 경쟁입찰 서비스를 시작한다. 다음 버전으로 열매입찰 NFT 버전도 출시할 예정이다. 김 연구원은 "개발팀은 이미 열매입찰 NFT 버전 출시를 위한 준비를 시작했다"며 "현재로서는 독도버스 내 NFT 가 상품으로 출시될 것으로 파악된다"고 말했다.  NFT 콘텐츠를 추가적으로 확보하면서 플랫폼 가치의 점진적인 상승이 기대된다고 김 연구원은 기대했다.한국은행경제통계시스템에 따르면 은행 업무처리 채널에서 스마트뱅킹이 차지하는 비중은 2015년 39.4%에서 2020년 66.6 %로 증가했다. 비대면 채널 업무 처리양의 증가로 은행이 온라인 플랫폼에 대한 투자를 확대하면서 스마트뱅킹에 이어 메타버스 플랫폼이 차세대 채널로 부상할 것으로 보인다. 고객에게 금융 상품을 판매해야 하는 은행 입장에서 게임 등의 콘텐츠를 통해 지속적이고 자발적이며 편리하게 지점을 방문하게 하는 구조가 매력적이다. 은행간의 경쟁관계를 고려해볼 때 어느 한곳이 성공적으로 메타버스 브랜치를 출점하면 다른 은행 역시 출점을 이어갈 것이라고 김 연구원은 기대했다. 그는 "국내 최다 스마트 금융 플랫폼 구축 레퍼런스를 보유한 핑거에 대한 고객사의 러브콜을 기대한다"고 말했다.그는 "국내 최초로 개발해 특허를 확보한 인공지능(AI)·블록체인 핀테크 원천기술을 다수 보유하고 있다"며 "해당 기술을 사업화해 기술 개발이 매출로 이어지도록 하는 역량이 뛰어난 기업"이라고 소개했다.이어 "베트남에서 토스비나, 신한은행, 롯데카드, 롯데캐피탈 등을 통해 글로벌 서비스를 구축했다"며 "고객사를 통한 금융 플랫폼 및 솔루션의 베트남 현지화 경험과 더불어 자체 소액해외송금 서비스 '렐레트랜스퍼' 앱을 통해 베트남인 고객 21만명을 확보하고 있다"고 설명했다.이어 "자체 O2O 플랫폼을 개발해 베트남 핀테크 사업 진출을 확대할 계획"이며 "베트남 시장 진출 이후에도 중국, 대만, 인도네시아 등 10개국 이상에서 글로벌 서비스를 구축해 해외 시장으로의 진출이 기대된다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>인뱅에 뺏긴 디지털 인재...은행들 “힘들어도 내부 육성”</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001918257?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>몸값 높아져 외부 영입에 한계신한·국민 등 ‘성과시스템’ 고민토스뱅크와 카카오뱅크·케이뱅크 등 인터넷은행이 스톡옵션과 고연봉으로 디지털 전문 인력을 흡수하자, 시중은행들이 디지털 전환을 위한 인력 확보에 난항을 겪고 있다. 고육지책으로 기존 직원들을 대상으로 자체 디지털 인력 육성에 나서고 있다.29일 금융권에 따르면, 신한은행은 ‘BD 1000’ 프로그램을 내년부터 영업점 직원들 대상으로 확대 운영할 계획이다. 데이터 활용 역량 강화를 위해 올초부터 추진한 이 프로그램은, 행내 데이터 분석 전문가 1000명을 만든다는 취지로 기획됐다.이달까지 육성된 데이터 전문가는 960명. 신한은행은 인사이력에 인공지능(AI), 데이터 등 디지털분야를 포함한 8개 분야에 직원들이 희망직무를 선택하는 ‘MY직무 지정제도’도 도입했다.KB국민은행 또한 신입행원 과정 내 디지털 전환(DT) 교육프로그램을 운영하고, 프로그램 내 DT 활성화 지표를 측정하고 있다. 전직원들을 대상으로는 IT비전공자 대상으로 코딩역량 함양 프로그램도 진행한다.NH농협은행 또한 직원들을 디지털전문인력, 데이터전문인력으로 구분해 내부 전문가들을 양성하는 작업을 진행해오고 있다.신한은행, KB국민은행, NH농협은행의 경우 적극적인 인재 육성으로 ‘슈퍼앱’에서 두드러진 실적을 내는 등 디지털 전환을 가속화하고 있다는 평가를 받는다.은행권 관계자는 “내부 직원 육성은 디지털 금융환경 대응을 위한 것이기도 하지만, 각 금융사가 디지털에 집중하면서 외부 인력 몸값 자체가 높아져 기존 은행의 연봉 테이블에서 수용하기 어려운 측면이 있다”며 “시간이 걸리더라도 내부 인력을 육성할 수 밖에 없다”고 토로했다.또 다른 관계자도 “각 사들이 외부인력채용을 통해 디지털 전문파트너를 찾으려고 하지만, 보안을 중시하는 은행 특성상 제휴도 쉽지 않은 부분이 많다”며 “디지털 인력에 대한 성과보상시스템 등을 구축하는 것도 하나의 고민거리”라고 말했다.실제 인터넷뱅크는 높은 몸값을 제시하며 공격적 인력 확보에 나서고 있다. 토스뱅크는 최근 입사 1주년을 맞이한 사내 임직원을 대상으로 주식매수선택권(스톡옵션)을 부여했다. 임직원 30명에게 스톡옥션 60만주가 제공됐다.카카오뱅크 또한 전 직원의 임금을 평균 1000만원 이상 일괄 인상하는 파격 성과보상을 제시했다. 각각 연봉 30%, 20% 규모 스톡옵션과 성과급도 지급한다. 케이뱅크 역시 올 7월 전 직원을 대상으로 스톡옵션 210만주를 부여했다. 서정은·박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>티맵모빌리티 CPO로 비바리퍼블리카 김유리씨 영입</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012798076?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>김유리 티맵모빌리티 신임 CPO[티맵모빌리티 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 정윤주 기자 = 티맵모빌리티는 김유리 전 비바리퍼블리카 비즈니스전략담당을 최고제품책임자(CPO)로 영입했다고 17일 밝혔다.    김 CPO는 티맵모빌리티 서비스 전략을 맡고 통합모빌리티서비스(MaaS), 올인원모빌리티(AIM) 등의 조직을 이끌게 된다.    김 CPO는 2003년 삼성전자 무선사업부에 입사해 소프트웨어 개발자로 일했고 해외영업, 프로덕트 매니저(PM) 등을 거쳤다. 2011년부터는 애플 본사 글로벌 서플라이 매니저, SK텔레콤, 쿠팡, 토스 등에서 개발·UX(사용자경험)·전략 등 다양한 경험을 쌓았다.    김 CPO는 "이동에 관한 모든 고객 접점을 빠르게 점령할 것"이라며 "사람들이 이동하려 할 때 가장 먼저 떠올리는 강력한 모빌리티 플랫폼을 만들겠다"고 말했다.     jungle@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>"8% 배당 매력에 이익 체력 갖췄다" 달라지는 삼성증권</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004634179?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크증권사들을 둘러싼 대외환경이 녹록치 않다. 금리는 오름세고, 거래대금은 감소 추세다. 토스·카카오페이 등 새로운 경쟁 구도도 펼쳐지고 있다. 증권업계에서는 변화하는 시장 환경 가운데 삼성증권이 고배당 매력과 이익 구조 다변화를 앞세워 차별화된 주가 흐름을 보일 수 있다고 보고 있다. 삼성증권은 29일 4만5150원애 거래를 마쳤다. 증권업종에 대한 투자심리 악화로 최근 한달 새 5% 가량 빠졌다. 하지만 연말로 갈수록 매력이 커질 것이라는 전망이 나온다. 가장 큰 이유는 고배당이다. 신한금융투자에 따르면 삼성증권의 올해 예상 배당금액은 주당 3900원이다. 이날 종가 기준 배당수익률은 8.63%다. 주요 증권주 가운데서 높은 수준이다. 특히 코로나19 변이 바이러스로 인해 변동성이 커진 만큼 배당주의 상대적 매력은 커질 수 있다. 다만 배당은 연말 호재다. 장기적으론 결국 실적이다. 내년 숫자만 보자면 긍정적이진 않다. 삼성증권의 내년 순이익 컨센서스(증권사 추정치 평균)는 올해보다 18.1% 감소한 7768억원이다. 지난해 5078억원이었던 순이익은 올해 개인 브로커리지(거래 수수료) 수입 급증 효과에 9000억원대로 늘어날 전망이다. 내년에는 코로나19 기저 효과가 사라진다. 다만 전문가들은 이익의 양보다 질에 주목하고 있다. 삼성증권이 그 사이 수익 구조 다변화에 성공했다는 평가를 받고 있기 때문이다. 삼성증권은 전통적으로 고액자산가들의 자산관리(WM) 부문의 강점을 갖고 있다. 여기에 부동산 프로젝트 파이낸싱(PF) 등 투자은행(IB) 부문 실적도 빠르게 오르고 있다. WM과 시너지를 낼 수 있는 분야다. 올해 3분기까지 WM 관련 수수료(펀드, 자산관리, 신탁 등)가 분기별로 지난해 동기 대비 40% 이상씩 올랐다. 정준섭 NH투자증권 연구원은 "배당 뿐 아니라 이익 체력에 주목해야 한다"며 "균형잡힌 수익 구조가 안정적인 실적의 토대가 될 것"이라고 설명했다. SK증권은 삼성증권이 내년부터 내후년까지 11%대의 자기자본이익률(ROE)을 유지할 것으로 전망했다. 안정적 실적을 바탕으로 현 주가 기준 6%대 배당수익률을 내후년까지 이어갈 전망이다. SK증권은 삼성증권의 목표주가로 6만4000원을 제시했다. 삼성증권의 증권사 평균 목표주가는 5만8700원이다. 고윤상 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>렌딧 "우리도 예비 유니콘"…틈새 대출 공략, 月 10만건 몰려</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004631445?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>'넥스트 토스' 뛴다…핀테크 혁명 시즌2(2) 주류 금융 올라탄 온투업업계 누적 대출액 10조 웃돌아AI·빅데이터 기반 신용평가로저신용자에도 年 이자 6~8%중금리 대출로 2금융권 강타미국선 개인 신용대출 10%를온라인투자금융업체들이 담당온라인을 통해 투자자를 모집해 개인에게 대출해주는 P2P금융(온라인투자연계금융) 업계가 지난 8월 제도권 금융회사로 편입된 이후 금융업 '주류'로 발돋움하고 있다. 22일 서울 영등포구에 있는 1호 온투업체 렌딧 본사에서 직원들이 대화하고 있다.   김영우 기자급전이 필요했던 직장인 김모씨는 은행의 신용대출이 거절된 뒤 마지못해 캐피털업체를 찾았지만 “최근 개인신용점수가 떨어졌다”며 연 10% 이상의 금리를 제시받았다. 그런데 P2P업체(온라인투자연계금융업체·온투업체) 렌딧에서 김씨는 연 4.5%의 금리로 2000만원을 빌릴 수 있었다.렌딧이 연 4.5%라는 저금리를 제시할 수 있었던 이유는 기존 금융사보다 한층 진일보한 방식의 인공지능(AI)과 빅데이터 기반 신용평가 모형을 사용하기 때문이다. 금융감독원은 지난 6월 렌딧, 8퍼센트, 피플펀드를 1호 온투업자로 등록했다. 경쟁력은 정교한 신용평가 모델투자자를 모집해 개인에게 대출해주는 온투업이 금융업의 ‘변방’에서 ‘주류’로 올라서고 있다. 과거 투자금 돌려막기, 자금 유용 등의 사고가 터져 신뢰를 잃었지만 지난 8월 온투업법 시행 이후 제도권 금융회사로서의 신뢰를 회복하며 수백억원의 투자를 속속 유치하고 있다.미국 스탠퍼드대 출신인 김성준 렌딧 대표는 2014년 미국 생활을 정리한 뒤 한 국내 은행을 찾았다가 ‘해외 거주 4년간 국내 신용 기록이 없다’는 이유로 대출을 거절당했다. 차선책으로 저축은행을 찾았더니 연 22%의 금리를 제시받았다. 김씨가 2015년 개인 신용대출을 주로 다루는 렌딧을 창업하게 된 이유다.렌딧의 기본적인 사업모델은 은행에서 거절된 대출 소비자에겐 보다 낮은 금리로 대출을 내주고, 온라인 기반의 신용평가모형을 통해 투자자에겐 적은 리스크의 대출채권을 공급하는 것이다. 자동화로 비용을 절감하고, 정량화된 심사로 부도율을 낮추면 투자자와 대출자 모두에게 ‘윈윈’이 될 수 있다.렌딧엔 창업 이후 80만 건의 개인 대출 신청이 들어왔다. 최근 금융권 대출 규제가 강해진 이후론 월 10만 건 수준으로 신청이 폭증했다. 김 대표는 “개인신용대출에서 중요한 건 결국 2금융 업체보다 얼마나 대출 금리를 낮추냐는 것”이라며 “신용평가를 사람의 손에 의존하는 기존의 2금융회사들은 7~8%의 예대마진으로 벌어들인 돈의 상당액을 부실채권 처리에 쏟고 있다”고 설명했다. 렌딧은 사모펀드 운용사 H&amp;Q코리아로부터 504억원의 투자금을 유치했다. 기술 고도화로 금융 선순환은행원 출신인 이효진 8퍼센트 대표의 창업 동기도 김 대표와 비슷하다. 이 대표는 ‘은행이 왜 상환 능력이 충분한 고객의 대출을 거절해야 하느냐’는 문제의식을 갖고 2014년 온투업에 뛰어들었다. 8퍼센트는 지난달 페이팔의 초기 투자자로 유명한 미국 벤처캐피털(VC) BRV캐피털로부터 453억원을 투자받았다.8퍼센트는 중금리 개인신용대출, 아파트 담보대출, 기업 크라우드 펀딩 등 온투업체에서 취급 가능한 거의 모든 대출을 다룬다. 개인 신용대출은 신용등급이 4~7등급인 중·저신용자가 주고객이다. 이 대표는 한 명의 차주에게 대출을 내줄 때 500여 가지 정보를 활용하는 등 정교한 신용평가 모델을 갖춘 것을 금리 경쟁력의 원천으로 삼고 있다.또 다른 온투업 등록업체인 피플펀드는 지난 4월 AI 연구소를 설립하고 STT(speech to text·음성인식) 기술 개발에 착수했다. 복잡하고 어려운 금융 용어를 정확히 인식할 수 있는 STT 기술을 만들어 6만 건의 고객 대출상담 녹취 데이터를 텍스트로 풀어낼 계획이다. 이를 통해 특정 단어를 반복하는 유형의 고객은 부실 가능성이 높다는 등의 패턴을 파악해 신용평가 과정에 활용할 예정이다. 美 온투업체, 신용대출 10% 점유업계에선 대표주자인 8퍼센트, 렌딧, 피플펀드 등이 향후 유니콘 기업(기업가치 1조원 이상 스타트업)으로 성장할 가능성이 가장 큰 업체라고 판단한다. 미국의 경우 연간 8000억달러 규모의 무담보 신용대출 중 10%를 한국 온투업체 격인 마켓플레이스 금융업체가 담당하고 있다. 김 대표는 “구글 출신 엔지니어가 창업한 온투업체 업스타트의 시가총액은 160억달러 수준”이라며 “국내 300조원가량의 신용대출 중 10%를 온투업체가 담당하면 신용카드사, 캐피털사 수준으로 성장하는 업체도 등장할 것”이라고 말했다.■온라인투자연계금융업온라인으로 차입자와 투자자를 연결 해 주는 서비스. 희망자의 상환 능력에 따라 책정한 대출 조건을 온라인을 통 해 투자자와 매칭하는 방식이다. 과거 엔 개인 간(P2P) 금융으로 불렸지만 온 라인투자연계금융업법 제정을 계기 로 이름이 바뀌었다. 지난 8월부터 자 기자본 5억원 이상 등 요건을 갖춰 등 록한 업체만 신규 영업을 할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>美물류대란 해소되나…항만 적체 줄고 운임도 하락추세</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004882688?sid=104</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>서부항만 하역 대기 선박 감소연말 앞두고 유통사 재고 확보물가상승 압박 고비 넘긴듯 미국 경제에 가장 큰 짐이 되고 있는 물류·공급망 대란이 피크(정점)를 지나 점차 완화되고 있다는 분석이 나왔다. 완전 정상화까지는 수개월이 더 소요되겠지만 물가 상승 압박을 낮출 수 있게 될 것이라는 기대감이 커지고 있다. 로스앤젤레스(LA)와 롱비치항에서 하역을 기다리는 컨테이너 선박 수는 지난 19일(현지시간) 기준 86척에서 71척으로 감소했다고 월스트리트저널(WSJ)이 21일 보도했다. 컨테이너 해상운임은 계속 하락하고 있다. 프레이토스의 해상운임지수(FBX)에 따르면 중국·동아시아발 미 서부행 운임은 1만4885달러에서 1만4185달러로 약 5% 하락했다. 직전 주에 20.5% 하락한 데 이어 나타난 현상으로 하락세가 추세적으로 이어질지 주목된다. 공급망 위기의 진앙지로 꼽히는 아시아 국가들의 생산도 점차 정상화되고 있다.중국은 정부 차원의 대대적인 석탄 증산으로 전력난 위기를 넘기며 생산능력이 대폭 개선됐다. 뒤늦게 코로나19 사태가 대폭 확산돼 피해를 봤던 베트남도 최악의 터널을 지났다. WSJ에 따르면 수출용 가구를 생산하는 직원 200~500명 규모의 중소기업들은 현재 생산능력의 80%를 회복했다. 최악의 공급망 대란은 지났지만 암초가 많다. 강력한 수요, 운송인력 부족 등이 여전히 공급망을 짓누르고 있으며 코로나19 재확산은 공급망을 다시 위협할 수 있는 요인이다. 공급망 대란으로 인해 블랙프라이데이부터 연말까지 이어지는 최대 쇼핑 시즌이 타격을 받을 것이라는 우려도 잦아들고 있다. 거대 유통업체들이 재고를 순조롭게 늘려가고 있기 때문이다.CNN은 "대형 유통업체들이 배송 지연에 대비해 몇 달 동안 재고를 비축해왔다"며 "연말 쇼핑 시즌에 텅 빈 진열장을 걱정할 필요가 없을지도 모른다"고 보도했다. 미 대형 유통기업 월마트와 코스트코는 아시아 생산지에서부터 선박을 임차해 물건을 실어 날랐다. 월마트의 재고 수준은 1년 전과 비교해 11.5% 증가했으며, 타깃도 재고가 18% 늘었다고 밝혔다. 중저가 제품 아웃렛 TJ맥스도 전년 대비 재고가 4% 증가했다. 어니 허먼 TJ맥스 최고경영자(CEO)는 "연말 쇼핑 시즌에 필요한 재고 대부분이 입고됐고, 나머지는 시간에 맞게 매장과 온라인 창고에 도착할 예정"이라고 했다.치솟은 물류 비용을 감수하면서도 대형 유통업체들이 재고 확보를 마쳤지만 자금력이 충분하지 않은 중소형 업체들은 아직 돌파구를 찾지 못했다. 속옷 브랜드 빅토리아 시크릿은 쇼핑 시즌 재고의 50% 가까이 차질이 생겨 운송이 멈춰 있다고 전했다. 현재 확보한 잠옷 세트 수량은 전년 대비 30%에 불과하다.마이클 라서 UBS 애널리스트는 "상황을 해결할 수 있는 규모나 유연성을 갖춘 대형 유통업체가 재고 확보에 더 유리하다"며 "소규모 업체와 대형 업체 간 재고 확보 능력 차이는 수년간 벌어지고 있다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1주년 임직원에 스톡옵션 60만주 부여</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003805960?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>토스뱅크는 25일 주주총회를 열고 임직원 30명에게 '주식매수선택권(스톡옥션)' 60만 주를 부여하기로 결정했다고 밝혔다. 주정명 CRO, 최승락 CCO 등 입사 1주년을 맞이한 임직원에게는 인당 2만 주가 고르게 부여된다. 이번 스톡옵션의 행사가는 주당 5000원(액면가)이다. 대상 임직원은 스톡옵션을 부여받은 날로부터 2년 뒤인 2023년 11월 30일부터 이를 행사할 수 있다.그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입하겠다고 밝혀왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다. 앞서 지난 7월 홍민택 대표를 포함, 임직원 30명에게 68만 주를 부여한 바 있다.이미선 기자 already@sportschosun.com▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>위시켓, 개발자 등 대상 콘텐츠 '요즘IT' 1000건 달성</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002239825?sid=105</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>국내외 최신 IT정보와 동향, 인사이트 등 주제별로 제공 호응IT아웃소싱 플랫폼 위시켓(대표 박우범)은 IT인사이트 콘텐츠 플랫폼 '요즘IT' 정식 출시 후 콘텐츠 발행 수 1000건을 달성했다고 22일 밝혔다.'요즘IT'는 개발자, 디자이너, 기획자 등 50여 명의 IT전문가가 작가로 활동하고 있다. 국내외 최신 IT 정보와 동향, 인사이트 등 을 주제로 쉽고 재미있게 읽을 수 있는 IT 콘텐츠를 제공하고 있다. 특히 최근 메가트렌드로 떠오른 메타버스를 주제로 한 ‘사례로 보는 메타버스 활용방안’ 과 지난 10월에 출시한 토스뱅크 서비스를 분석한 ‘토스뱅크, 심플함과 불완전의 아슬아슬한 경계’ 콘텐츠는 높은 조회 수를 기록했다.박우범 위시켓 대표는 "IT 분야는 새로운 기술 등장과 활용이 빠르게 일어나기 때문에 개발자 등 IT 전문가들이 실무에 활용할 수 있는 노하우와 정보가 매우 중요하다"면서 “요즘IT는 최신의 IT 정보와 콘텐츠를 바탕으로 IT 프리랜서 및 전문가들이 교류하며 성장할 수 있는 IT 전문가 커뮤니티 및 미디어 플랫폼으로 거듭나겠다”고 밝혔다. 이어 "IT전문가가 필요한 기업과 개발자, 디자이너 등 IT전문 프리랜서 및 기업을 연결하는 국내 최대 규모의 IT 아웃소싱 플랫폼인 위시켓에는 7만개 기업과 9만 여명의 IT전문가가 활동하고 있다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>한국을 글로벌 지급결제플랫폼 헤드쿼터로, 하나금융 'GLN'에 거는 기대</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002113609?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>한준성 대표 “소상공인까지 아우르는 글로벌 결제플랫폼 될 것”[디지털데일리 이상일기자] PG라이선스를 비롯해 기타 외국환 업무, 소액송금 업무, 선불 라이선스 업 인허가 등을 차례로 획득하며 사업을 본격화하고 있는 하나은행의 글로벌 지급결제플랫폼 자회사 GLN인터내셔널(GLN International)이 글로벌 금융사, 투자사들의 투자 유치 등을 통해 사업을 확대할 전망이다.  아시아 지역에서는 GLN인터내셔널을 비롯해 일본의 소프트뱅크와 중국의 알리바바 정도의 기업이 디지털 기반 국가 간 페이먼츠 시장을 놓고 경쟁할 것으로 보이는 가운데 블록체인 기반 인프라와 ‘포인트’ 교환이라는 전략으로 한 발 앞서나간 GLN인터내셔널의 사업모델에 글로벌 금융사들이 주목하고 있는 상황이다. GLN(Global Loyalty Network)는 전 세계적으로 디지털 자산의 국경을 초월한 사용과 혜택을 제공하는 글로벌 통합 플랫폼이다. 전 세계 사용자를 위해 현지에서 제공되는 거래 및 할인을 포함한 혜택을 공유하고 국경을 넘어 디지털 자산의 지불, 이전, 교환, 상환 및 획득 가능을 블록체인 기술을 통해 제공한다. 이 서비스는 현재 하나은행의 자회사 GLN인터내셔널이 GLN 서비스를 하나은행으로부터 양수받아 독자 사업으로 본격화하고 있다. GLN 서비스는 하나금융그룹의 앱은 물론 토스 등 협력을 맺은 간편결제 앱에서 모두 지원된다. 이들 앱의 백그라운드에서 이미 GLN 네트워크가 돌아가고 있는 셈이다. 사용도 간편하다. 하나금융그룹의 하나멤버스 앱은 물론 GLN과 협력하고 있는 토스, SSG페이, SK페이, 제로페이 등 앱에서 사용할 수 있다.하나멤버스의 경우 일본, 대만, 태국, 베트남 현지에서 앱을 실행하면 GLN 네트워크를 통해 현지에서 흔하게 사용되는 QR코드, 바코드 스캔, NFC 결제 등을 지원한다. 고객이 보유하고 있는 계좌, 혹은 GLN과 연결돼 있는 포인트 마일리지에서 결제 금액이 차감된다.   사실상 카드 결제에 있어 비자나 마스터카드와 같이 다양한 카드사와 라이선스를 맺고 글로벌 결제 네트워크를 만드는 셈이다. GLN인터내셔널 한준성 대표는 “포인트 뿐만 아니라 은행 계좌, 필요에 따라는 카드도 연결할 있다. 일본에서 ATM을 통해 엔화를 출금하는 것도 포인트 기반에서 모두 가능하다”고 전했다. 이미 국내 대학에 다니고 있는 중국 유학생들이 하나금융의 GLN 서비스를 통해 등록금을 내고 있으며 지난해 GLN 서비스를 통해 납부된 등록금 규모만 1300억원에 달한다. 현재 한류의 영향으로 한국으로 유학 오고자 하는 외국 학생들의 수요가 많은 상황에서 새로운 수익모델로 가치가 높아지고 있는 상황이다. 또, 국내 소상공인들에게 외국인 고객의 구매를 지원하는 등 글로벌 크로스 보더(cross-border) 역할에도 주목하고 있다. 한준성 대표는 “GLN의 첫 출발은 한국 관광객들이 해외로 갔을 때 현지에서 편하게 포인트 기반 결제서비스를 제공하는 것이었다. 하지만 최근 한류 등의 영향으로 우리나라로 들어오려는 수요가 늘어나고 있다. 코로나19 변수가 있긴 하지만 해외 관광객들의 국내 유입을 고려한 결제 서비스 확보에 노력할 것”이라고 밝혔다. 특히 한 대표는 국내 소상공인을 위한 결제 서비스 강화도 고려 중이다. 예를 들어 지도 서비스와 결합한 관광 명소 및 소상공인 안내 서비스 등이다. 한준성 대표는 “광장시장에 외국인 관광객 유입에 도움을 주기 위해 앱에서 해당 지역 소상공인 점포에 대한 할인을 안내하거나 가이드를 해주게 된다면 소상공인 매출에 도움이 될 것”이라며 “소상공인 매출 확대를 위해 우리나라로 유입되는 해외 사용자 편의성 확보에 집중할 계획”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>태평양 컨테이너 운임, 2년 만에 최대폭 하락</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002982349?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>미국 플로리다 주 마이애미 항만에 지난 4일 컨테이너들이 적재된 모습. AFP/연합뉴스 제공태평양 횡단 컨테이너선 운임이 일주일 새 26% 하락해 2년 만에 최대 낙폭을 기록했다고 월스트리트저널이 15일(현지시간) 보도했다. 이 매체는 화물운송 가격서비스 업체 프레이토스가 집계하는 해상운임지수(FBX)를 인용해 이 같이 전했다.FBX에 따르면 중국에서 출발해 미국 서부 해안에 도착하는 컨테이너선 운임은 지난주 TEU(20피트짜리 컨테이너 1대)당 1만3295달러로 전주와 비교해 26% 떨어졌다. 유다 러빈 프레이토스 리서치 책임자는 “화주들이 컨테이너선을 확보하기 위해 더 얹어줘야 했던 프리미엄도 지난 6월 이후 처음으로 하락했다”고 말했다.월스트리트저널은 “태평양 횡단 컨테이너선 운임이 4분의 1 이상 하락한 것은 해상 운송 수요가 낮아지고 있다는 의미”라면서 “연말 쇼핑 시즌에 대비한 미국 유통업계의 수입품 수요도 줄었기 때문”이라고 분석했다. 미국 9월 도매 재고는 전년 9월보다 13% 증가했는데 이는 아마존, 월마트, 홈디포 등 유통업체들이 공급망 대란에 대비해 미리 제품을 확보했기 때문이라는 것이다.다만 미국 로스앤젤레스와 롱비치 항만 앞바다에는 현재 화물선 약 80척이 떠 있는 상태로 짐을 내리기 위해 최소 2주 이상 입항을 기다려야 한다고 월스트리트저널은 전했다.월스트리트저널은 “미국 서부 항만 병목 현상이 해소되려면 앞으로 몇 달이 더 걸릴 것”이라면서 “선박회사 임원들은 빨라야 내년 2월에 항만 정체가 완화될 것으로 기대하고 있다”고 썼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.11.22.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>'상장·실적 대박' 카뱅 연봉 1000만원 더 준다…스톡옵션도</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004673771?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 모든 직원의 연봉을 일괄적으로 인상한다. 연봉의 20~30%선에서 스톡옵션(주식매수선택권)과 성과급도 지급한다. '상장 대박', '실적 대박'의 성과를 임직원과 나누겠다는 것이다. 인터넷전문은행의 '인재 영입'이 치열해진 현실도 반영됐다. 22일 은행권에 따르면 카카오뱅크는 이러한 내용의 보상안을 제시했다. 연봉을 일괄적인 폭으로 인상하는 것이 핵심이다. 개인마다 차이가 있지만 평균적으로 1000만원가량의 인상이 예상된다. 카카오뱅크는 올해 코스피시장에 성공적으로 입성한 데 이어 최대 실적을 갈아치웠다. 3분기까지 누적으로 1679억원의 순이익을 올리며 1년 전에 비해 95.6%의 성장률을 달성했다. 카카오뱅크의 고객 수는 경제활동인구 10명 중 6명 꼴인 1740만명으로 집계됐다. 보상 확대는 이런 성과를 임직원과 나누기 위해서다.  내부적으로도 인터넷전문은행 처음으로 노동조합이 설립되는 등 보상에 대한 목소리가 커졌다. 다른 인터넷전문은행이나 빅테크에 인재를 뺏기지 않으려 처우를 개선한 측면도 있다. 앞서 세 번째 인터넷전문은행 토스뱅크가 '겨울방학', '주 4.5일제' 등 파격적인 인사제도를 도입하기도 했다. 2017년 7월 출범한 카카오뱅크는 지난 6월 임직원 수 1000명을 돌파했다. 카카오뱅크는 향후 주택담보대출 등으로 사업의 외연을 넓혀야 하는 만큼 채용 규모를 계속해서 늘리고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>금융권 채용시장 확 달라졌다</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002706907?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>취업 '0순위' 은행권 대폭 축소올해 역점과제는 '조직 슬림화'인터넷銀·코인거래소 등 신산업파격조건 내걸고 역대규모 충원이달 4일 오후 서울 강동구청 앞 잔디광장에서 열린 2021 강동 취업박람회에서 구직자들이 채용공고 게시판을 보고 있다. (연합뉴스)    금융권 채용시장이 달라지고 있다. 금융권 취업희망 '0순위'였던 은행이 디지털 흐름에 밀려 채용 규모를 대폭 줄였지만, 고객·자산이 급성장한 인터넷전문은행, 가상자산거래소 등 신산업군은 파격적인 조건을 내걸며 역대급 규모로 인력을 확충하고 있다. 18일 금융권에 따르면 가상자산 거래소 코인원은 출범 이래 최대 규모 공개채용에 나선다. 우수 개발자와 AML(자금세탁방지) 센터를 중심으로 전 직군에서 100여명을 모집한다. 코인원 관계자는 "신생산업 분야에서 함께할 혁신적이고 창의적인 인재를 모집한다"고 전했다.모집분야는 서비스기획, 디자인, 서버 개발, 프론트엔드 개발, AOS(안드로이드 운영체제) 개발, 백엔드 지갑 개발, QA(품질보증), DBA(데이터베이스관리자), 상장지원, 입출금 데이터 모니터링, PM(프로덕트 매니저), STR의심거래 모니터링 등 12개 분야가 대상이다. 임직원 복리후생도 확대한다. 전 직원 연봉을 20% 일괄 인상하고, 내년부터 상·하반기 연 2회 인센티브를 지급한다. 또 1년 이상 재직자 대상으로 주택자금 최대 5000만원까지 무이자 지원한다. 인재 추천 시 300만원, 외부 식대, 교육비, 도서 구매비 등 기타 복지 혜택도 강화했다. 업비트를 운영하는 두나무도 연말까지 개발·비개발 경력직 60명을 채용중이다. 코빗과 고팍스도 개발과 사업개발 등 직군에서 수시로 인력을 확충하고 있다. 빗썸도 지난 10월까지 200여명 규모의 IT인력을 채용한 바 있다. 인터넷전문은행 케이뱅크도 출범 이래 최대 규모 채용을 진행 중이다. 오는 23일까지 IT, 마케팅, 데이터, 리스크, 준법, 재무·회계, 경영지원 등 총 7개 분야에서 두 자릿수 인원을 모집한다. 채용연계형 인턴이지만 별도 정규전환 심사를 통과하면 내년 4월 정규직으로 입사할 수 있다. 카카오뱅크도 개발뿐만 아니라 PR, 상품기획 등에서, 토스뱅크 역시 고객서비스 등 수시채용을 진행 중이다.반면 매년 수백명의 신입행원을 채용하던 은행권 채용시장은 한파가 불고 있다. 우선 하나은행과 우리은행은 올해 신입사원 공개채용을 실시하지 않기로 방침을 세운 것으로 전해졌다. 코로나19 등 특수한 상황에 따른 임시방편이지만 디지털 금융 확대 추세가 이어진 데 따른 불가피한 조치라는 해석도 나온다. 다른 시중은행들도 채용 규모가 줄어들 가능성을 배제할 수 없다. 실제 시중은행들의 올해 역점 과제 중 하나는 조직 슬림화다. 지난달 희망퇴직을 실시한 SC제일은행은 500명의 직원이 퇴직했고, KB국민은행( 800명), 신한은행(350명), 우리은행(470여명)에서도 작년을 뛰어넘는 수준의 퇴직자가 나왔다. 금융권 관계자는 "영업점 등 대면창구 이용 고객이 적어지면서 은행들은 신규 채용을 줄일수밖에 없는 처지"라며 "신산업군에서 파격적인 채용조건을 제시하다 보니 되레 이직 기회를 노리는 은행원들이 늘었다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>"VC업계 대장주 목표"...KTB네트워크 12월 코스닥 상장</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004747114?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>김창규 KTB네트워크 대표이사가 29일 온라인 기자간담회에서 발표하고 있다. / 사진=KTB네트워크 제공  KTB네트워크 섹터별 포트폴리오 / 사진=KTB네트워크 제공 [파이낸셜뉴스] "성장 가능성 높은 기업과 시장 투자를 통해 건강한 투자문화를 선도하며 상장 후 벤처캐피탈(VC)업계 대장주로 자리잡겠다."  김창규 KTB네트워크 대표이사  (사진)는 29일 온라인 기자간담회를 열고 코스닥시장 상장에 따른 전략과 비전을 밝혔다. KTB네트워크는 지난 1981년 설립된 국내 1세대 VC로, 회사의 전신은 한국기술개발주식회사다. 회사는 국내외 주요 기관과 파트너십을 구축하고 국내 VC 최초 해외시장에 진출한 바 있다.   이때 KTB네트워크가 운용한 펀드 및 총 투자기업 수는 각각 58개(청산 기준), 691개사로, 납입총액은 약 1조3397억원이다. 내부수익률(IPR)은 업계 평균 대비 높은 19.8%에 달했다. KTB네트워크는 검증된 '스케일업'(Scale-up) 투자전략과 글로벌 투자 경쟁력 및 성과, 우수한 맨파워를 회사의 세 가지 핵심 경쟁력으로 꼽았다.   회사는 현재 성장 잠재력이 높은 기업을 모색해 유니콘기업으로 성장시키는 스케일업 투자전략을 취하고 있다. 시리즈 A단계부터 D단계 투자까지 성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원함으로써 수익성을 극대화하는 전략이다. 회사의 대표적인 스케일업 사례는 비바리퍼블리카(토스)와 우아한형제들(배달의 민족) 등이다.   김 대표는 "현재 비바리퍼블리카 밸류에이션(기업가치)은 약 8조원인데 외부에선 펀딩 밸류에이션보다 높은 가격에 구주가 거래되고 있다"며 "지분도 우아한형제들 소유분보다 많아 향후 상당한 이익이 예상된다"고 설명했다.   40여년의 업력을 가진 만큼 해외투자 경험도 풍부하다. 회사는 지난 1988년과 2006년 각각 미국, 중국시장에 진출해 현지거점을 확보하고 있다. 현재까지 미국에선 65개 기업, 중국 등 아시아 지역에선 49개 기업에 투자해 AURIS, BERKELY LIGHTS, Xpeng, CARSGEN 등 다수의 성공 사례를 기록했다.   김 대표는 "중국의 경우 최근 정부의 플랫폼 규제 등으로 거점 정비 필요성이 대두됐다"며 "인도 및 동남아 지역 커버리지를 높이는 한편 해외투자 전용 펀드도 만들어 투자를 지속 진행하겠다"고 밝혔다. 실제 회사는 내년부터 대규모 해외펀드 결성에 적극 나선단 방침이다.   아울러 현재 회사는 총 24명의 펀드운용인력을 보유하고 있다. 이중 10년 이상 투자경력을 가진 심사역은 11명으로 각 심사역의 전문 분야는 바이오, 헬스케어, 반도체, 소비재, 화학, 정보통신기술(ICT)플랫폼, 엔터테인먼트 등 다양하다.   회사의 올해 3·4분기 연결 기준 누적 영업수익은 전년 동기 대비 383% 증가한 1043억원을 기록했다. 같은 기간 영업이익과 순이익은 각각 지난해 3·4분기 누적 수치 대비 각각 553%, 534%씩 늘어난 774억원, 631억원이었다. 영업이익률은 74.2%였다.   한편 회사의 총 공모주식 수는 2000만주로 주당 공모 희망가 밴드(범위)는 5800원~7200원이다. 회사는 이번 공모를 통해 밴드 상단 기준 최대 1440억원을 조달한단 방침이다. 조달한 자금은 전액 투자조합의 운용사(GP) 출자 목적으로 사용될 계획이다.   최종 공모가는 오는 29~30일 기관투자자 수요예측을 통해 12월 2일 확정되며 일반 공모주 청약은 12월 6~7일 진행된다. 대표주관사는 한국투자증권이며 NH투자증권과 삼성증권, 유진투자증권, 하이투자증권, KB증권이 인수회사로 참여한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>고신용자 몰려 총량 커진 인터넷은행…올 중금리대출 목표 달성 물 건너갔다</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003113236?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>[경향신문] 3분기까지 카뱅·케이뱅크 13%대4분기도 목표치 20% 못 미칠 듯토스는 총량관리 묶여 신규 중단인터넷은행들이 중금리대출을 늘리는 데 사활을 걸고 있지만 금융당국에 약속한 대출 비중 목표치 달성은 사실상 불가능할 것으로 예측된다.29일 각 인터넷은행 집계를 종합하면 지난달 말까지 카카오뱅크(카뱅)는 연간 누적 1조1727억원, 케이뱅크는 4650억원의 중금리대출을 공급했다. 3분기 말 기준 가계 신용대출에서 차지하는 비중은 카뱅이 13.4%, 케이뱅크는 13.7%를 기록했다. 두 은행의 목표치인 20.8%, 21.5%에 크게 못 미치는 수치로 연말까지 목표달성이 어려운 수준이다.목표를 달성하려면 4분기에만 카뱅과 케이뱅크 각각 1조4000억원, 5000억원 규모의 신규 중금리대출을 취급해야 한다. 올해 들어 3분기까지 취급한 대출 공급량보다 많은 수치다. 이마저도 고신용자 대상 대출은 취급하지 않는다는 전제 아래 가능하다. 이에 따라 카뱅은 지난달부터 연말까지 전·월세 대출을 제외한 고신용자 대출을 중단했다. 케이뱅크도 고신용 고객의 마이너스통장 대출 상품 신규 취급 및 증액 신청을 연말까지 중단하기로 했다.올해 출범한 토스뱅크는 당국에 제시한 목표치 34.9% 달성에 이미 실패했다. 대출영업 개시 9일 만인 지난달 14일 당국의 가계대출 총량관리에 묶이면서 신규 대출 취급이 중단됐기 때문이다. 중단 시점 토스뱅크의 중금리대출 비중은 33%였다.주요 시중은행들이 가계대출 관리를 위해 대출을 중단하거나 한도를 줄이면서 인터넷은행으로 대출 수요가 쏠린 ‘풍선효과’ 영향으로 풀이된다. 인터넷은행의 신규 가계대출 취급량 자체가 늘면서 비율을 맞추기 위해서는 중금리대출 규모 역시 대폭 늘려야 하기 때문이다. 업계 관계자는 “주요 시중은행 대출이 막힌 고신용자들이 인터넷은행으로 몰린 데다, 중저신용자 대비 많은 대출금을 받아가면서 한도도 빨리 줄어들었다”면서 “얼마 남지 않은 한도 내에서 중금리대출 비중을 맞춰야 하는데 자체 신용평가모델(CSS)에 부합하지 않는 저신용자들까지 받게 되면 리스크가 급증해 어려움이 많다”고 말했다.제2금융권에서는 대출을 중단하거나 금리를 올리는 추세가 뚜렷해 중·저신용자들의 돈 빌리기는 더 어려워질 것으로 전망된다. 당국에 제시한 가계대출 총량을 초과한 것으로 알려진 새마을금고는 이날부터 전 금고에서 주택구입 자금대출과 분양주택 잔금대출 등 가계대출 상품 4종의 판매를 중단했다.기준금리 인상으로 카드업계 자금조달 비용이 증가해 카드론 대출 금리가 올라가는 것도 중·저신용자 차주들에게는 부담이다. 여신금융협회에 따르면 지난달 7개 전업카드사와 NH농협은행 등 8개 카드업체 중 6개사의 신규 카드론 평균금리가 2개월 전보다 0.04~0.63%포인트 상승한 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>실적 2배로 늘어난 KTB네트워크, 공모주 참여해볼까</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004676261?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>[[종목대해부]KTB네트워크]벤처투자의 명가 KTB그룹이 KTB네트워크 상장에 나선다. KTB네트워크는 공모가 밴드 상단 기준 예상 시가총액이 7000억원으로 VC(벤처캐피탈)업계 대장주가 될 전망이다. 최근 3년간 성과보수를 받는 펀드가 증가하면서 실적도 급성장하고 있어 기관투자자들의 호응도 긍정적일 것으로 기대되고 있다. 28일 금융투자업계에 따르면 KTB네트워크는 29~30일 기관투자자 대상 수요예측을 진행한다. 내달 6~7일에는 일반 공모 청약이 이뤄진다. 총 신주 2000만주를 공모하며 희망 공모가 밴드는 5800원~7200원이다. 공모가는 비교 VC 평균 PER(주가이익비율) 대비 높은 할인률이 적용돼 다소 보수적으로 산출됐다. 그만큼 투자 매력이 높아졌다는 평가다. IPO(기업공개)로 조달되는 자금은 총 1160억~1440억원 규모다. KTB네트워크는 조달 자금을 신규 펀드 조성 등에 활용한다. 주관사는 한국투자증권이다. 김창규 KTB네트워크 대표이사는 머니투데이와의 전화 인터뷰에서 "주요 출자자들의 재출자율이 높고, 최근 우리도 우수 운용사로 선정되면서 대형펀드를 조성하는데 우호적인 환경이 됐다"며 "내년에는 규모가 한단계 더 큰 펀드 조성까지 기대해볼 수 있을 것"이라고 밝혔다.  VC업계에서는 통상 1000억원 이상의 펀드를 대형 펀드로 보고 있다. KTB네트워크는 올해 초 창사 이래 최대 규모 약정액 2810억원 규모의 펀드 결성에 성공한 바 있다. 그는 "미국·중국·인도를 중심으로 해외투자를 확대하고 있고 해외는 한 건당 투자 자금이 국내에 비해 크다"며 "AUM(운용자산규모)이 증가하면 관리 보수 등의 안정적인 수익도 노릴 수 있다"고 말했다.  /그래픽 = 김다나 디자인기자━펀드 성과보수 구간 진입에 3년간 실적 급성장...VC 순이익 1위━KTB네트워크의 모회사는 KTB투자증권이다. 2008년 KTB투자증권으로부터 물적분할돼 100% 자회사로 있었으나 프리IPO(기업공개) 지분 매각으로 현재 KTB투자증권 보유지분은 65%로 낮아졌다. IPO 이후에도 KTB투자증권은 52%의 지분을 보유하며 대주주로서의 위치를 유지하게 된다. 코스닥시장 상장을 결심한 것은 공모자금을 펀드 결성에 활용하기 위해서다. KTB네트워크는 1981년 설립된 국내 1세대 VC로 40년의 투자 경력과 회수경험을 자랑한다. 지난 40년간 58개 펀드를 청산하며 성공적인 투자를 이어왔다. 청산펀드 기준 투자 기업수는 671개에 달한다.  특히 IRR(내부수익률)이 19.8%로 국내 VC 중 최상위권이다. 업체별 단순비교는 어렵지만 한국벤처캐피탈협회 통계자료에 따르면 2020년까지 청산된 866개 펀드의 평균수익률은 4.8%였다. 10년 이상 경력을 가진 심사역이 11명이 포진해 있다. 국내외 증시에 걸쳐 총 300여 건의 IPO 및 M&amp;A(기업 인수·합병) 실적도 쌓았다. 특히 KTB네트워크가 2011년 창투사 인가를 받은 뒤 운용한 펀드들은 지난 3년간 성과보수 기간에 진입하면서 실적 개선을 이끌고 있다.  KTB네트워크가 올해 3월 배달의민족(우아한 형제들) 투자로 잭팟을 터뜨린 것은 유명한 일화다.  총 23억원을 투자해 629억원을 회수하며 27배의 수익을 거뒀다. KTB네트워크는 또 토스(비바리퍼블리카) 초기 투자자 중에서는 현재까지 지분을 보유한 국내 유일의 VC로 투자 선구안을 인정받고 있다. 토스 기업가치가 250억원일 때 최초 투자했다. 현재 기업가치(8조원 이상)를 고려할 때 평가이익이 수십배에 달할 것이라는 게 업계의 평가다. 지난 22일 코스닥에 상장한 RBW(종합 엔터테인먼트, 마마무 소속사)도 10배 이상의 투자수익을 거뒀고 코넥스 시총 1위 기업 툴젠(바이오)도 12월 코스닥 이전상장이 예정돼 고수익이 기대된다.이에 KTB네트워크 실적도 고공행진 중이다. KTB네트워크의 지난해 영업수익은 670억원으로 전년 대비 2.3배가 증가했다. 올 3분기까지의 영업수익도 1043억원으로 지난해 연간 대비 55.7% 더 늘었다. 지난해 당기순이익 358억을 기록, VC 업계 순이익 1위(개별 재무제표) 자리에 올랐다. 올해는 3분기 누적 당기순이익도 631억원으로 사상 최대실적을 이어가고 있다. ━관리보수·성과보수·자본이익 모두 성장 ━KTB네트워크의 수익원은 크게 3가지로 나뉜다. 펀드를 운용할 때 기본적으로 받는 관리보수와 펀드가 목표 IRR을 초과했을 때 받는 성과보수, 펀드 내 자산 청산시에 얻는 자본 이익(capital gain)이다. KTB네트워크의 AUM은 현재 1조1745억원(11월 결성 펀드 포함)으로 업계 최상위권이다. 이에 따라 관리보수가 탄탄하게 실적을 뒷받침하고 있다. 펀드는 8년 약정에 청산 기간 1~2년을 합쳐 총 9~10년에 걸쳐 장기간에 운용되기 때문에 꾸준한 이익 창출을 기대할 수 있다. 성과보수는 보통 누적 IRR이 8%를 초과하면 초과금의 20%를 받는다. 시장 상황 및 투자 자산에 따라 다르긴 하지만 최근 성과보수를 받고 있는 펀드는 운용 시작 후 5~6년부터 성과보수가 발생하고 있다. 창투사 인가 이후 2013~2014년에 설정된 펀드들이 최근 3년간 성과보수 기간에 접어들면서 고수익을 창출하고 있다는 설명이다. 실제로 영업수익에서 성과보수가 차지하는 비율은 2019년 12.7%에서 2020년 16.7%, 올해 3분기 기준 21.4%로 꾸준히 증가하고 있다.현재 운용하고 있는 펀드 중 올해 성과보수를 받은 펀드는 4개다. 이중 하나가 지난 5월 청산에 들어가 3개가 됐지만 내년에 추가로 한개의 펀드가 성과보수 구간에 들어가면서 지속적인 현금 유입이 기대된다.   KTB네트워크는 자기자본 출자 비율이 높아 자본 이익도 늘어나고 있다. KTB네트워크는 펀드의 자기자본 출자 비율이 15%로 동종업계 대비 상위권을 기록하고 있다. 이번 공모자금도 펀드 투자에 사용할 예정이다. 대형 블라인드펀드를 비롯해 해외투자펀드, 세컨더리 펀드 등 다양한 펀드 라인업을 구축할 계획이다. 한 두개 특정자산으로 실적이 좌우되지 않도록 펀드 규모를 키우고 다양화 해 안정적이고 지속적인 수익을 창출한다는 전략이다.임종철 디자인기자 /사진=임종철 디자인기자━해외 투자 선제적 진출...플랫폼·바이오 투자 강점━앞으로는 해외 투자를 확대할 계획이다. 해외 투자비중이 전체 투자금의 30% 수준으로 국내 VC 중 가장 광범위한 투자를 진행하고 있다. 앞으로 40%까지 늘린다. KTB네트워크는 선제적으로 해외시장에 진출해 해외투자 경쟁력이 높다. 1988년 미주 사무소(현지법인 KTB Ventures)를 설립했고, 2006년에 중국 상하이사무소를 설치에 해외투자에서도 좋은 성과를 거두고 있다. 미국 바이오 연구장비 기업 버클리 라이츠에 투자해 8배를, 미국 증시에 상장한 중국 전기차 관련 업체 샤오펑에서는 5배의 수익을 거뒀다.  바이오 기업 카스젠(CARsgen)은 9월말 기준으로 11배의 평가익을 내고 있다.앞으로 우수한 회수실적이 예상되는 기업으로는 미국 광고솔루션 기업인 몰로코, 인도네시아 모빌리티 플랫폼인 그랩 등이 있다. 인도 소셜커머스인 트렐, 부동산중개 플랫폼인 노브로커, 온라인 식품기업인 그로퍼스 등도 높은 투자수익을 예고하고 있다. 특히 인도 기업 투자는 국내 VC 중 KTB네트워크가 최초다.투자 내역에서 확인할 수 있듯이 KTB네트워크는 ICT 플랫폼, 바이오 투자에 강점을 가지고 있다. 김 대표는 "인도의 거대한 소비 시장에 더해 스마트폰 보급률 상승으로 모바일 인터넷 및 5G 가입자 수가 증가하면서 플랫폼 사업이 더욱 성장하고 있다"며 "앞으로도 주력으로 투자할 것"이라고 말했다. KTB네크워크는 또 상장 후 시장 변동에 적극적으로 대응할 의지를 보였다. 김 대표는 "현재 확언할 단계는 아니지만 상장 후 자사주 매입, 배당 등으로 주주환원 정책을 펼칠 계획이 있다"고 말했다.알짜 자회사 상장에 따라 모회사 KTB투자증권의 기업가치 재평가도 예상된다. KTB투자증권의 현재 시가총액은 3800억원대 수준이다. KTB네트워크가 공모가 밴드 상단 가격으로 상장한다면 7000억원대 가치의 회사로 거듭난다. 자회사의 기업가치 상승에 따라 KTB투자증권에 대한 평가도 달라질 전망이다. 실적도 순조롭게 증가하고 있다. KTB투자증권의 3분기 누적 연결 당기순이익은 1215억원으로 증권사 전환 후 처음으로 순이익 1000억원을 돌파했다. IB(투자은행), 세일즈&amp;트레이딩, 리테일 등 전 영업부문에서 고른 성장세를 보였다. IB에서는 수도권 및 지방 대도시 공동주택, 지식산업센터, 물류센터 등 다양한 형태의 부동산 금융주선을 통해 인수주선수수료가 전년 동기 대비 3배 가까이 급증했다. 세일즈&amp;트레이딩에서는 외화거래이익이 창출됐고, 리테일부문에서는 신규 고객 유치가 이어졌다. KTB투자증권은 또 유진저축은행 인수대금을 완납하고 계열사 편입을 앞두고 있다. 두개의 굵직한 이벤트가 순조롭게 마무리 되면 금융그룹으로서의 면모를 갖춰 주가상승에 긍정적인 요인으로 작용할 것으로 기대되고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.11.19.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>역대 최대 블랙프라이데이 온다… 해외직구 최적화 카드는?</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000774909?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>직구를 즐기는 직장인 김윤화(32)씨는 올해 블랙프라이데이인 11월 26일만 손꼽아 기다리고 있다. 그는 자타공인 ‘블랙프라이데이족(族)’이다. 매년 이맘때면 벼르고 별러서 사고 싶었던 물건을 적어 두고 할인 행사가 시작되기만 기다린다. ‘블랙프라이데이족’은 일년 내내 쇼핑에 뜸했다가 이 시즌에 맞춰 집중적으로 소비하는 사람들을 일컫는 신조어다. 이들은 모처럼 모았던 자금을 한꺼번에 푸는 만큼, 해외 직구에 특화해 할인이나 적립 혜택을 많이 주는 카드를 먼저 준비해 놓다.해외 직구족에 올해 블랙프라이데이는 유별난 기회다. 이미 미국뿐 아니라 전 세계적으로 가장 큰 쇼핑 대목으로 자리 잡은 블랙프라이데이지만, 올해는 규모가 남다르다. 미국 내에서 신종 코로나바이러스 감염증(코로나19) 관련 지원금이 대거 풀린 덕분에 행사 규모가 여느 해보다 커졌다. 미국 오프라인 시장을 덮친 물류 대란 탓에 상대적으로 관리가 용이한 온라인으로 재고가 쏟아질 것이라는 분석도 나온다.국내 직구족이 주로 찾는 전 세계 최대 온라인 쇼핑몰 아마존은 이미 일부 품목을 놓고 조기 할인(Early Black Friday deals) 행사를 시작했다. 토미 힐피거, 바나나 리퍼블릭처럼 국내 소비자 선호도가 높은 미국 의류 쇼핑몰에서도 벌써 후끈한 분위기가 느껴진다.온라인 쇼핑 데이터 분석 애플리케이션 어도비 애널리틱스가 분석한 데이터를 기반으로 한 보고서에 따르면 올해 연말 미국 온라인 쇼핑 시즌 매출액은 코로나 지원금의 영향으로 역대 최고치인 2070억달러(약 245조원)를 기록할 전망이다. 이는 지난해보다도 10%가 더 늘어난 기록이다.블랙프라이데이는 한국 카드업계에도 ‘특수’로 통한다. 소비자들이 같은 물건이라도 국내보다 훨씬 저렴한 해외 직구로 몰리기 때문이다. 카드사들은 가맹점 수수료 인하 조치나 마케팅 비용 최소화 압박 가운데도 블랙프라이데이 기간만큼은 해외 직구 혜택을 강화한다.그래픽=이은현        올해도 카드사들은 대대적으로 ‘블프’ 시즌에 맞춰 해외 직구시 혜택을 주는 프로모션에 나섰다. 국내 카드사들은 주로 이런 쇼핑 대목을 맞아 해외 결제 시 할인이나 캐시백, 해외 이용 수수료 면제 같은 혜택을 주는 식으로 직구족 눈길을 사로잡는다.KB국민카드 ‘KB국민 해외에선 체크카드’는 전월 실적이 30만원 이상이면 해외 이용 수수료가 면제된다. 보통 해외 결제를 하면 국제 브랜드 수수료와 해외 서비스 이용료가 모두 1.25% 정도 추가로 붙는데, 이 수수료를 캐시백으로 돌려준다.우리카드 ‘오늘하루체크카드(#오하쳌)’는 해외 가맹점 이용 시 5% 할인을 제공한다. 다만 매출 건당 최대 1000원까지만 캐시백을 해준다. 전월 실적은 20만원이 넘어야 혜택을 받을 수 있다.하나카드의 비바 엑스(X) 카드는 해외 가맹점 이용시 결제 1건당 해외 이용 수수료(0.5달러)와 국제 브랜드 수수료(1%)가 면제된다.신한카드 체인지업 카드는 외화 계좌에서 미국 달러화로 결제할 수 있는 외화 기반 체크카드다. 모든 해외가맹점에서 국제브랜드수수료(1%)와 해외서비스수수료(0.2%)가 면제된다. 이 체크카드를 사용할 경우, 외화 계좌와 원화 계좌가 동시에 연결돼 해외 사용액은 미국 달러 기반 계좌 ‘신한 외화 체인지업 예금’에서 빠져나간다.현대카드가 대한항공과 함께 내놓은 PLCC ‘대한항공카드’는 해외여행이나 해외출장이 잦은 금융 소비자가 주목해 볼만 한 카드다. 대한항공카드 030·070· 150은 해외 이용금액에 대해 1000원당 2마일리지가 적립되고, 대한항공 우수회원만 신청할 수 있는 ‘대한항공카드 더 퍼스트(the First)’는 해외 이용 시 1000원당 3마일리지가 적립된다.그 밖에도 NH농협카드 올바른 글로벌 체크카드는 직구를 포함한 해외 전 가맹점에서 이용한 금액 2%를 캐시백 제공한다. 최근 발급을 시작한 인터넷 전문은행 토스뱅크의 토스뱅크카드는 실적이나 한도 조건 없이 해외 가맹점 이용 시 3% 캐시백을 제공한다.관세청이 지난달 국회 기획재정위원회의 국정감사를 앞두고 제출한 자료를 보면 지난해 우리 국민이 해외직구로 지출한 금액은 37억5375만달러(약 4조5000억원)에 달했다. 관세청은 올해도 연말까지 해외직구 거래량이 크게 늘 것으로 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.11.18.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>매일유업, 2FL 독점적용 ‘앱솔루트 명작’ 네이버 라방 상륙</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002259942?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>19일 오전 10시 네이버 쇼핑라이브 첫 방송 &amp; 경품 이벤트아기 자기방어 체계 형성하는 2FL 국내 최초, 독점 적용      매일유업(대표 김선희)이 네이버 쇼핑라이브를 통해 국내 최초로 모유 올리고당 2’-O-푸코실락토오스(2’-O-fucosyllactose)을 적용해 리뉴얼한 ‘앱솔루트 프리미엄 명작’을 선보인다고 18일 밝혔다 .   매일유업은 이달 초 앱솔루트 프리미엄 명작에 2FL(투에프엘)을 적용해 리뉴얼 출시했다. 2FL(투에프엘)은 모유에서 세 번째로 많은 영양 성분인 모유 올리고당(HMO, Human Milk Oligosaccharide) 중에서도 함량이 가장 높은 성분이다.   2FL(투에프엘)은 아기의 자기방어 체계를 형성하는 성분으로, 해외 수입 분유에서만 찾아볼 수 있었다. 앱솔루트 프리미엄 명작은 국내 최초이자 독점적으로 2FL을 적용한 조제분유다.   리뉴얼 된 앱솔루트 엄마의 선물 프리미엄 명작은 오는 19일 금요일 오전 10시 네이버 쇼핑 라이브에 진출한다. 1시간 동안 진행되는 라이브방송에는 아나운서 출신 방송인 박은영이 진행자로 나선다. 이번 방송은 앱솔루트 명작의 리뉴얼 출시 후 첫 라이브방송으로, 매일유업은 네이버 쇼핑라이브 론칭을 기념해 방송 중 풍성한 이벤트를 진행한다.   먼저 방송 전 사전 알림을 설정하고 방송 중 제품을 구매하면 추첨을 통해 10만원 상당의 분유 포트 또는 백화점 상품권 5만원권을 선물한다.   방송 중 댓글 이벤트를 통해 총 40명에게 앱솔루트 명작 1캔 또는 맘스앱솔루트 비타민D 드롭을 선물한다.   방송 당일 제품을 구매하고 리뷰를 작성하면 구매 확정 포인트 4천원과 리뷰 작성 포인트 5천원까지 총 9천원의 네이버 포인트를 적립 받을 수 있다. 이후 구매리뷰 중 6건을 선정, 작성자에게 60만 원 상당의 카시트 또는 백화점 상품권 5만원권을 선물한다.   리뉴얼 앱솔루트 프리미엄 명작은 2FL 적용 외에도 다방면에서 업그레이드됐다.   자기방어 체계 형성을 위해 2FL은 물론 또다른 모유 올리고당 성분인 갈락토실락토스(GL), 사이알릭락토스(SL)를 멀티 배합하고 두뇌 구성 성분인 DHA와 MFGM(유지방구막)을 추가했으며 체내에서 합성되지 않아 외부로부터 섭취해야 하는 황반 구성 물질 루테인과 지아잔틴도 포함했다. 뉴질랜드 자연방목으로 풀을 먹고 자란 젖소의 우유로 만든 Grass-Fed 인증 원료를 사용해 안전성을 더했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>온라인 회의로 업무고충 공유…파업 자제, 불공정엔 강력반발</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002492578?sid=102</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>■ 대한민국 30代 리포트 - MZ세대가 만드는 新 노사문화스벅 트럭시위 등 파급력 주목서울교통공사 올(All)바른노조 등 MZ세대 노조들이 새로운 노사문화를 만들어가고 있다. 과거 노조들은 집단으로 모여 정치 투쟁에 나섰기 때문에 최저임금 인상, 국가보안법 폐지 등 정치적 의제에 주력했으나 MZ세대 노조들은 회사와 조직 내부 문제에 ‘화력’을 집중하는 게 특징이다.주요 기업에서 MZ세대 직원들의 비중이 커지면서 노조 문화도 양대 노총 산하의 기존 노조와는 판이한 모습으로 전개되고 있다. MZ세대 노조 단체행동의 가장 큰 특징은 이슈 중심의 SNS 이합집산이다. MZ세대는 개인의 불공정과 절차적 정당성에 민감하다. 또 시위를 하면 해당 이슈에만 집중한다. 서울교통공사의 경우 최대 이슈였던 고객센터 직원들 직접고용과 관련해 노사 및 전문가 협의회(노사전협의회)를 지난 6월 17일 한 차례 열고 자회사 설립을 통한 고용으로 잠정 결론을 냈다. 그러나 ‘공정’을 내세우며 탄생한 올바른노조가 직접고용과 자회사 설립을 통한 고용 둘 다 강력하게 반대하면서 노사전협의회가 더 이상 열리지 않는 등 관련 논의가 중단됐다.지난달 초 스타벅스 직원들의 시위 역시 새로운 노사문화의 대표적인 사례다. 스타벅스 창립 22년 만에 처음으로 펼쳐진 직원들의 단체행동은 시작부터 끝까지 기존 노조와 철저하게 다른 방식으로 진행됐다. 블라인드에서 업무 고충을 내부 공론화한 뒤 간편송금 앱인 토스로 3시간 만에 시위자금 330만 원을 모았다. 이후 법률 자문까지 거친 뒤 이벤트 대행사를 통해 구한 트럭 전광판에 근무 여건 개선 요구를 담은 메시지를 띄웠다. 이들은 서울 시내를 오가는 이 트럭을 통해 온라인에서 파급력을 높였다. 이 시위는 이틀 만에 종료됐지만 스타벅스 측으로부터 “연말까지 1600여 명을 새로 뽑고 임금 체계를 개선하겠다”는 발표를 이끌어냈다. 스타벅스의 트럭시위가 주목을 받자 민주노총이 지원을 약속하며 노조 결성을 권했으나 ‘변질’을 우려해 이들이 거부한 것으로 알려졌다. 기존 정치투쟁, 정규직 기득권 보호에 주력한 86세대 주축의 민주노총 등에 대항해 공정과 투명성을 중시하고 정치투쟁을 지양하는 20∼30대 중심의 노조 설립이 확산되고 있다. 올바른노조는 물론, 전교조에 대항하는 교사노동조합연맹, LG전자 사람중심 사무직 노조, 현대차그룹 인재존중 사무연구직 노조, 금호타이어 사무직 노조 등이 모두 이런 취지로 만들어진 새로운 노조들이다. ◇ 특별기획취재팀 = 김충남(사회부)·임정환(국제부)·김유진(정치부)·민정혜(전국부)·이정민(산업부)·전세원(사회부) 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>인뱅 중신용대출 목표 "아득히 멀다...성공적 실패" 호소</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004676759?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 중저신용자 신용대출 비중 추이/그래픽=김지영 디자인기자인터넷전문은행이 중신용대출 확대를 위해 애쓰고 있지만 금융당국과 약속한 목표치 달성은 사실상 어려워졌다. 인터넷은행들은 결과는 실패여도 '성공적인 실패'라고 역설한다.  신사업 인·허가 등에 불이익을 받지 않으려는 몸부림이다. 29일 금융권에 따르면 카카오뱅크, 케이뱅크, 토스뱅크는 연말까지 중저신용자 대출 비중을 각각 20.8%, 21.5%, 34.9%로 늘리겠다는 목표를 세웠지만 추이를 보면 불가능해 보인다. 인터넷전문은행은 분기별로 현황을 공시하는데 3분기 기준 카카오뱅크 13.4%, 케이뱅크 13.7% 수준이다. 출범하자마자 가계대출 규제로 영업을 못하게 된 토스뱅크는 논외가 됐다. 다음달 중신용대출이 폭증하지 않는 한 목표 달성은 요원하다. 카카오뱅크는 지난달부터 고신용대출 문을 걸어잠그는 초강수 조치를 취했다. 하지만 최근 3개월간 중저신용자 대출 비중이 월별로 1%대 증가하는 데 그쳤다. 8월 말 12.3%, 9월 말 13.4%, 10월 말 14.6% 등이다. 더욱이 케이뱅크는 분기를 지날수록 비중이 감소하는 상황을 맞았다. 1분기엔 18.2%였는데 2분기 15.5%, 3분기 13.7%로 계속해서 줄었다. 2017년 출범 후 4년간 중신용대출 확대에 별다른 노력을 기울이지 않다가 갑작스럽게 목표를 세워 추진하다 보니 '예견된 실패'라는 지적이 나온다. 금융당국이 5월 말 대책을 발표하고 인터넷전문은행이 목표치를 적어내면서 관리가 본격화됐다. 가계대출 총량규제와 맞물려 계획이 꼬인 면도 있다. 인터넷전문은행들은 중신용대출 확대를 위한 노력과 성과를 속속 자료로 만들어 뿌렸다. 분기 공시만 해도 되지만 다분히 금융당국을 의식해 움직인 것으로 풀이된다. 금융당국은 중금리대출 확대 계획 이행여부를 신사업 인·허가 심사 때 감안하기로 했다. 중금리대출에 소홀한 경우 다른 신사업을 추진할 때 불이익을 받을 수 있는 셈이다. 금융당국은 정량평가에 따른 패널티를 주는 방식보다는 질적 판단요소로 감안하겠다고 했다.카카오뱅크는  2금융권 고객을 품는 은행이 된 점을 어필했다. 이날 자료에서 2금융권 대출을 쓰던 소비자가 카카오뱅크로 넘어와 신용점수가 올랐다고 발표했다. 카카오뱅크에서 중신용대출을 받기 전 2금융권 대출을 쓰던 고객 10명 중 6명은 카뱅의 대출금 전부 혹은 일부를 고금리 대출 상환에 썼다. 그 결과 평균적으로 신용점수가 7~30점 올랐다. 이자 부담도 줄었다. 은행이 아닌 곳에서 12~15% 금리로 대출을 받던 이들은 카카오뱅크에서 5.7%의 금리를 적용받았다. 카카오뱅크에서 대출을 받은 후에도 2금융권 대출을 유지한 고객 비중은 27%에 불과했다. 케이뱅크는 지난해와 비교했을 때 올해 중신용대출의 공급 규모가 늘었다고 지난 26일 밝혔다. 지난해 1~10월 공급액은 2208억원이었는데 올해는 같은기간 4650억원을 기록해 2.1배가량 증가했다. 인터넷전문은행 관계자는 "분기별로 공시를 할 때도 목표 달성을 위한 추진 방안을 공개하고 금융당국은 그 내용을 살펴본다"며 "최근  자체적인 발표가 이어진 건 당국이 이런 부분을 감안해 달라는 호소"라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>12월 1일부터 17개 금융사 '마이데이터' 시범 서비스</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004634748?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>계좌 잔액·결제 내역·금리 등흩어진 개인정보 한 곳서 관리효율적인 자산·신용관리 기대금융당국, 과열 마케팅에 제동특정인 경품액 100만원 제한‘내 손 안의 금융 비서’로 기대를 모아온 마이데이터(본인신용정보관리업)가 12월 1일 시범 서비스를 시작한다. 소비자는 원하는 마이데이터 사업자를 골라 흩어져 있는 자신의 신용정보를 한데 모아 관리하고, 이를 토대로 맞춤형 자산관리와 금융 컨설팅 등의 서비스를 받아볼 수 있다. 그간 비슷한 서비스가 있었지만 마이데이터 제도화에 따라 개인정보를 모으는 방식이 더 안전해지고, 소비자 동의를 받아 사업자가 수집할 수 있는 정보의 범위도 크게 넓어진다.30일 금융위원회에 따르면 마이데이터 허가를 받은 53개사 가운데 준비가 완료된 17개사가 12월 1일 시범 서비스를 시작한다. 소비자는 국민·신한·하나·우리·농협·기업은행 등 6개 은행과 하나금융투자·NH투자증권·키움증권, 신한·국민·현대·비씨·하나카드, 농협중앙회, 뱅크샐러드·핀크 중에서 선택할 수 있다. 네이버파이낸셜·토스·카카오페이 등 20개사는 12월 중, 나머지 16개사는 마이데이터가 전면 시행되는 내년 1월 이후 문을 연다.마이데이터를 계기로 소비자는 업권을 불문하고 자신의 신용정보를 훨씬 편리하게 모으고 관리할 수 있다. 은행 계좌 잔액, 카드 결제 내역 외에 대출 금리, 보험 보장 내역, 쇼핑몰 주문 내역, 선불충전금 잔액 등 소비자의 금융생활에 중요한 대부분의 정보가 모두 대상이다.소비자의 선택을 받은 마이데이터 사업자는 이 방대한 정보로 소비자를 더 정확히 파악해 맞춤형 정보를 제공할 수 있다. 김성훈 카카오페이 자산관리실장은 “기존에는 ‘현재 소득과 소비 패턴이 이렇다’고 분석해주는 데서 끝났다면 앞으로는 ‘미래 이런 정보가 예측되는데 A 상품을 이용하는 건 어떠세요’라고 제안하는 것까지 가능하다”고 했다.다만 시범 기간인 만큼 서비스 안착까지는 장애물이 적지 않다. 기본 인프라 구축을 위한 시간이 빠듯하게 주어진 탓에 사업 초기엔 정보가 실시간으로 오가는 것도 힘에 부치는 상황이다. 현재는 개인 자산 정보가 업데이트되는 데 하루 정도 걸리는 것으로 알려졌다. 가령 오늘 쓴 카드 결제 정보가 다음날에야 마이데이터 서비스에 노출된다는 뜻이다.금융당국은 ‘마케팅 경쟁 과열’ 차단에 나섰다. 최근 국민·우리은행은 사전 예약 이벤트로 시가 7000만원이 넘는 자동차를 경품으로 걸었다가 금융위의 경고를 받고 철회했다. 금융위는 이를 방지하기 위해 마이데이터 가이드라인에 ‘마이데이터 사업자가 특정인에게 제공할 수 있는 경품은 100만원을 초과하면 안 된다’는 내용의 단서조항을 추가했다. 민감한 개인정보를 수집하는 서비스 특성상 미끼 성격의 과도한 마케팅은 적절하지 않다는 판단에서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.11.27.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>[D뱅] 토스앱이 멈추지 않는 이유는?</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002114339?sid=105</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>언제 어디서든 금융 서비스를 이용할 수 있는 디지털 금융시대를 맞아 기존 금융사는 물론 핀테크, 통신, 유통, 제조 등이 디지털 금융 시장에 진입하고 있다. 이른바 전 산업 영역의 디지털 뱅킹 시대가 열린 셈이다. &lt;디지털데일리&gt;는 폭발(Bang)하는 디지털 금융시장의 이슈와 흐름 등을 모아보는 ‘D뱅’ 시리즈를 연재한다.  [디지털데일리 이상일기자] 은행권의 다양한 스마트폰 앱을 하나로 통합해 제공하는 ‘원앱(One-App)’ 전략이 본격화되고 있다. 금융당국의 규제완화와 고객 편의성 확보라는 요구사항이 맞물려 은행들은 이제 ‘슈퍼앱’으로 진화하기 위한 첫 단추로 원앱 전략을 구사하고 있는 셈이다. 이러한 배경에는 인터넷은행이 자리 잡고 있다. 편의성과 간결함으로 무장한 인터넷은행의 뱅킹 애플리케이션이 소비자들의 호응을 얻으면서 시중은행들이 이를 따라가는 모양새다. 특히 본격적인 원앱이라는 측면에선 인터넷은행 중에서도 토스의 전략이 주목받고 있다. 토스는 하나의 앱에서 은행, 증권, 보험, 페이먼츠 등 다양한 서비스를 제공하고 있다.  토스 원앱 전략은 토스 앱 하나로 토스가 제공하는 모든 금융 서비스를 이용할 수 있는 수퍼앱 전략을 의미한다. 금융 플랫폼으로서 기존 토스 서비스에 더해 토스증권과 토스뱅크 등 계열사의 서비스를 모두 한 앱에서 이용할 수 있도록 하는 것을 목표로 하고 있다.이 같은 원앱 전략을 추구하는 이유에 대해 토스측은 “고객이 금융과 관련한 서비스가 필요할 때, 어렵고 복잡한 탐색과정을 거치거나 고민할 필요 없이 토스에 들어오면 해결할 수 있도록 하는 것이 원앱 전략의 취지”라고 설명하고 있다.토스의 원 앱 서비스 구조는 앱에 모바일 웹이 내재되는 구조. 즉 'Web in App' 형태를 취하고 있다. 토스 앱에서 뱅크 및 증권 서비스에 접속하면, 각 사의 모바일 웹이 앱 상에서 구현되는 방식으로 각 사의 전산 시스템(서버)은 물리적으로 별도 운영되며, 각 계열사 서비스 이용을 위해서는 각각의 이용 약관 동의 및 가입 절차를 거치도록 돼 있다.올 3월 오픈한 토스증권 서비스의 경우, 토스 앱 하단의 '주식' 탭을 통해 접속할 수 있으며 토스와는 별도로 전산 시스템이 마련돼 있어, 토스 앱 장애/오류 시에도 토스증권은 별도 서버로 운영돼 서비스 로그인이 가능하도록 설계돼 있다.또한, 토스증권 탭의 장애가 발생하는 상황에서는, 고객센터를 통해 매매 주문을 처리할 수 있도록 지원하고 있다는 설명이다. 올 10월 출범한 토스뱅크 역시 토스 앱 내 전체 탭을 통해 서비스되고 있는데 토스뱅크 서비스를 위한 시스템은 모두 물리적으로 토스 시스템과 분리되어 있다.앱이 무거워지거나 속도가 느려질 수 있다. 이에 대해 토스측은 “토스와 각 계열사는 물리적으로 분리된 각각의 데이터센터에서 서비스를 운영하고 있다. 또 각 계열사의 웹 기반으로 제작되어 토스 앱의 성능에 무리를 주지 않는 방식으로 설계했다”고 설명했다. 즉 토스 서버나 앱의 리소스를 쓰는 것이 아니기 때문에 쾌적한 사용이 가능하다는 것이다. 이를 통해 오히려 고객이 앱을 업데이트할 필요가 없어, 고객 반응에 빠르고 민첩하게 대응할 수 있는 장점이 있다는 설명이다. 그렇다면 토스 앱이 오류 났을 때, 토스뱅크와 토스증권 서비스에 영향이 없는지도 관심사다. 이에 대해 토스측은 “지난 2년 간 토스 앱의 서비스 전면 장애는 0건으로 토스 앱 전면 장애 자체가 극히 발생하기 힘든 이벤트”라고 강조하며 “만에 하나 토스에서 서비스 장애가 발생하더라도, 뱅크, 증권의 서비스는 정상적으로 제공될 것으로 예상한다”고 밝혔다.이 같은 자신감에는 각 사의 데이터센터가 모두 별도로 구축되어 있고, 서비스 진입점도 구분돼 있기 때문이라는 설명이다. 실제 토스 시스템에 장애가 발생하는 경우 고객 단말기에 설치된 토스 앱은 실행되며 토스 앱에서 토스뱅크 나 토스증권 서버가 호출되어 서비스가 제공되는 방식을 취하고 있다. 이에 E라 각 서비스의 별도 진입점은 토스 앱 장애와 상관없이 열리게 된다는 설명이다. 기술적으로도 각 계열사의 데이터센터는 분리되어 있으며, 정보 교류가 필요한 경우에는 전용선을 사용해 기존 금융사 간 연동에 쓰이는 수준을 확보하고 있다고 밝히고 있다. 특히 고객의 개인신용정보 데이터를 교류할 때에는 통신구간 암호화를 적용해 유출이 발생하지 않도록 하고, 정보 교류는 정의된 API 호출을 통한 응답으로만 제공한다는 설명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.11.28.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>'1세대 VC' KTB네트워크 수요예측 출격…툴젠은 청약 개시</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004676090?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>[[공모주브리핑]]이번주 IPO(기업공개) 시장에서는 코넥스 대장주 툴젠이 코스닥 이전 상장을 위한 일반 공모 청약에 나선다. 앞서 3차례 실패를 경험하며 우여곡절을 겪었던 만큼 안정적으로 상장 절차를 마무리할지 주목된다. 국내 1세대 벤처캐피털(VC) KTB네트워크와 콘텐츠 제작사 래몽래인은 기관 투자자 대상 수요예측을 진행한다.28일 금융투자업계에 따르면 이번주(29~12월3일) IPO 수요예측에 나서는 기업은 KTB네트워크, 래몽래인 등 2곳이다. 툴젠은 홀로 일반 청약을 진행한다.━벤처캐피탈 1세대 KTB네트워크, 수요예측 출격━국내 1세대 VC로 꼽히는 KTB네트워크는 운용인력 대부분이 10년 이상 VC 심사역 경력자로 꾸려져 경험이 풍부하다는 평가를 받는다. 국내·외 증시에 300건이 넘는 IPO 실적을 보유하고 있고, 운용자산 규모도 1조1195억원으로 업계 최상위권에 속한다. 실적도 탄탄하다. 지난해 VC 업체 중 가장 많은 순이익(358억원)을 올렸고, 올해는 상반기에만 순이익 441억원을 기록했다.  KTB네트워크는 토스의 초기 투자자 중 현재까지 유일하게 지분을 보유한 VC로도 유명하다. 앞서 배달의 민족을 운영하는 우아한형제들 투자로도 대박을 터뜨린 바 있다.주요 투자기업인 엔터테인먼트 회사 알비더블유가 이달 상장을 성공적으로 마무리했고, 코넥스 시가총액 1위 툴젠 역시 다음 달 코넥스 이전상장을 앞두고 있다. 미국 핀테크 플랫폼 소파이, 중국 자율주행 반도체 업체 호라이즌 로보틱스 등 해외기업에도 투자했다. 상장 이후에는 본격적으로 해외 투자를 더욱 확대할 계획이다.오는 29~30일 이틀간 기관투자자 대상 수요예측을 거쳐 공모가를 확정한 뒤 다음 달 6~7일 이틀간 일반 공모 청약을 진행한다. 공모가 밴드는 5800~7200원으로 총 공모금액은 1160억~1140억원 수준이다. 공모가 상단 기준 시가총액은 약 7000억원으로 우리기술투자에 이어 업계 2위 수준이다. 상장 이후 주가 흐름에 따라 VC 대장주에 오를 가능성도 있다. 한국투자증권이 상장 주관사를 맡았고 NH투자증권, 삼성증권, 유진투자증권, 하이투자증권, KB증권 등이 인수단으로 참여했다. 현재 코넥스 상장사인 래몽래인은 다음 달 중순을 목표로 코스닥 이전 상장에 나선다. 2007년 설립된 래몽래인은 방송 드라마를 중심으로 한 콘텐츠 제작사다. 특히 '성균관 스캔들'과 '어쩌다 발견한 하루' 등 대표작으로 잘 알려져 있다. 내년 방송을 목표로  '시멘틱에러', '재벌집 막내아들' '백설공주에게 죽음을' '뉴노멀진' 등을 제작하고 있다. 2019년 7월 위지윅스튜디오가 약 50억원을 투자해 최대주주 자리에 올랐다. 코스닥 상장 이후 위지윅스튜디오와 협력해 콘텐츠 제작과 뉴미디어 시장 진출에 나선다는 계획이다. 앞서 지난 8월 위지윅스튜디오의 자회사 엔피가 코스닥에  상장한 뒤 최근 메타버스 수혜주로 부각되면서 주가가 급등한 바 있다. 래몽래인의 공모가 밴드는 1만1500~1만3000원으로 밴드 상단 기준 공모자금은 156억원이다. 예상 시가총액은 712억~805억원 수준이다. 현재 코넥스 시가총액은 1242억원(26일 종가 기준)이다.공모자금은 IP 확보와 콘텐츠 기획·제작 등에 사용된다. 다음 달 2~3일 수요예측을 거쳐 공모가를 확정한 뒤 7~8일 일반공모 청약에 나선다. 상장 주관사는 IBK투자증권이다. ━코넥스 대장주 툴젠, 4수 끝에 코스닥 데뷔 도전━코넥스 대장주 툴젠은 4수 끝에 다음 달 2~3일 이틀에 걸쳐 코스닥 일반 청약에 나선다. 앞서 3차례 청구에서 상장 심사를 통과하지 못하면서 6년 만에 승인을 받았다. 2019년 8월에는 제넥신과 합병하는 방식으로 우회상장을 추진했지만 결국 무산됐다. 1999년 설립된 툴젠은 유전자가위 기술 업체로 현재 코넥스 대장주다. 유전자가위 기술은 특정 형질에 관한 유전정보를 담고 있는 DNA의 염기서열을 교정해 형질을 바꿀 수 있는 기술이다. 치료제 개발부터 농업·축산, 화학·신소재, 산업바이오에 이르기까지 다양한 분야에서 이용할 수 있다는 평가를 받는다.툴젠은 DNA 특정 유전자를 제거하거나 돌연변이를 교정하는 '크리스퍼 유전자 가위' 원천특허를 가지고 있다. 툴젠의 유전자가위 원천특허는 현재 한국·미국·호주·중국·일본 등 9개 주요국에 20개가 등록돼 있고 응용특허를 포함하면 총 48건으로 늘어난다.툴젠은 현재 코넥스에서 형성된 몸값보다 낮은 가격으로 공모에 나선다. 공모 예정가는 10만~12만원으로 최근 코넥스 6개월 평균 주가(13만4000원) 대비 10~25% 할인한 수준이다. 현재 코넥스 시장에서 툴젠 시가총액은 9134억원(26일 종가 기준)으로 희망공모가 상단 기준 시가총액(9863억원)보다 약 7% 낮다. 올해 바이오 업종 투자심리가 악화된 가운데 코스닥에 이전상장한 코넥스 기업이 부진했던 것도 영향을 미친 것으로 해석된다. 주관사가 투자자들에게 풋백옵션(환매청구권)을 부여한 점도 매력 요소다. 상장 주관사 한국투자증권은 상장일부터 3개월까지 일반공모에 참여한 투자자가 공모가 90% 가격으로 공모주를 되팔 수 있는 권리를 제시했다. 툴젠의 공모 희망가 범위는 10만~12만원으로 공모금액은 1000억~1200억원이다. 총 공모주식수는 100만주로 100% 신주 모집한다. 공모 자금 중 530억원은 임상비용, 210억원은 원천특허 관련 법무비용으로 사용된다.  다음 달 초 코스닥 시장에 상장할 예정이다. 박종현 KTB투자증권 연구원은 "코스닥 이전 상장 기업들은 오버행 이슈 등으로 주가 낙폭 이슈가 우려될 수 있다"며 "다만 치료제 임상 진입과 특허 수익화 사업의 가시화를 고려하면 공모가 밴드 상단에서도 업사이드 매력이 있다"고 평가했다.이어 "해외 3세대(크리스퍼) 유전자편집 기술 기반 치료제 기업의 평균 시가총액은 56억달러로 툴젠은 동종업계 대비 기업 가치가 낮게 형성됐다"면서 "내년 파트너사 고형암 CAR-T(키메라 항원 수용체 T세포) 치료제 임상 1상에 진입하고, 공모 자금을 통해 2023년 자체 파이프라인 임상에도 진입할 예정이라는 점에서 저평가 해소가 기대된다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>류영준 핀테크협회장 "핀테크 아직 초기…규제보다 육성할 때"</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010851299?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>기사내용 요약핀테크 산업 발전 순위 8단계 하락핀테크協 "지속적인 육성지원 필요"전금법·플랫폼 규제·망분리 등 언급"동일라이선스 동일규제가 바람직"[서울=뉴시스] 박은비 기자 = 류영준 한국핀테크산업협회장(카카오페이 대표)은 24일 "기존 금융기관이나 글로벌 핀테크 시장과 비교해 아직 한국 핀테크는 초기단계에 불과하다"며 "앞으로 글로벌 시장에서 경쟁할 수 있는 핀테크 기업이 많이 등장할 수 있도록 지속적인 육성지원책이 필요하다"고 밝혔다.류 협회장은 이날 오전 열린 한국핀테크산업협회 기자간담회에서 핀테크 산업 성과, 협회 역할과 비전과 함께 최근 정책·규제 방향에 대해 이같이 말했다.협회에 따르면 전세계 핀테크 유니콘 94개 중 한국 기업은 비바리퍼블리카(토스) 한 곳에 불과하다. 전체 핀테크 종사자수는 글로벌 핀테크 기업 1개사 수준이다. 핀테크 산업 발전 순위도 지난해 18위에서 26위로 내려갔다는 게 협회 설명이다.그는 "해외 핀테크 기업들은 유니콘을 넘어 더 강력한 드래곤으로 성장해 나가고 있다"며 "아직은 핀테크에 대한 규제보다 육성에 집중해야 할 때"라고 주장했다. 그러면서 "국내 핀테크 기업들의 혁신 서비스로 국민들의 금융생활이 쉽고 편해졌고, 전문적인 금융서비스 문턱이 낮아졌다"며 "금융 소비자들이 시간과 비용을 절약할 수 있게 됐으며 그 과정에서 많은 일자리도 창출해내고 있다"고 언급했다.이날 자리에서 부각된 건 크게 3가지로 전자금융법 개정안, 금융플랫폼 규제, 망분리 현안이다. 특히 전금법 개정안으로 촉발된 '동일기능 동일규제' 문제는 '동일라이선스 동일규제'로 접근해야 한다는 게 핀테크사들의 시각이다.장성원 사무처장은 "라이선스 특성에 따라 수익 구조나 보장받는 혜택이 다른 상황에서 단순히 표면 기능만 보고 동일한 규제를 적용하는 것은 불합리하다"며 "전자금융업자들이 동일라이선스 동일규제를 준수하고 보호받을 수 있도록 디지털 금융 발전에 부합하는 제도와 규제 체계 개편이 반영돼 있는 전금법 개정이 필요하다"고 강조했다.금융플랫폼 규제와 관련해서는 김시목 감사가 "이미 성장한 사업자들뿐만 아니라 핀테크 분야 진출을 고민하는 스타트업들의 고민이 깊다"며 "온라인 금융플랫폼 서비스 특성을 감안한 새로운 맞춤형 규율 체계가 마련돼야 한다"고 설명했다.김 감사는 또 "알고리즘 기반으로 복수상품을 추천하더라도 해당 상품의 제조·판매업자 사이트로 아웃링크 이동하는 경우에는 소비자가 오인·혼동할 우려가 적어 규제 필요성이 낮다고 볼 수 있다"며 "다양하고 혁신적인 서비스 제공을 위해 금융상품별 금융플랫폼 진입규제 신설, 합리화가 필요하다고 부연했다.정인영 부회장은 "망분리 규제로 모바일 개발 시 필수적인 오픈소스나 라이브러리 사용이 제한돼 개발자들이 핀테크 기업을 꺼려한다"며 "핀테크 업권 뿐만 아니라 금융권 전체 디지털 전환을 위해서는 개발 단계만 망분리 예외로 하는 등 합리화가 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.11.30.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>연말정산 얼마 받을지 미리 알 수 있다</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004634656?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>국세청, 미리보기 서비스 오픈13월의 월급일까, 혹은 세금일까. 연말정산 결과를 미리 알 수 있는 ‘연말정산 미리보기’가 열렸다. 이 서비스가 중요한 이유는 연말까지 적절한 소비·투자 등으로 환급액을 늘릴 수 있기 때문이다.미리보기 서비스에서는 1월부터 9월까지 신용·체크카드 등 결제수단별 소비액을 사용처별로 확인할 수 있다. 사용처는 일반, 도서·공연·박물관·미술관, 전통시장, 대중교통 등이 있다. 결제수단과 사용처별로 10월부터 12월까지 사용 예정 금액을 입력하면 올해 신용카드 예상 공제금액이 자동으로 계산된다. 연말정산 미리보기를 통해 소득공제를 더 받으려면 앞으로 어떤 결제수단을 이용해야 할지, 어디서 써야 할지 판단할 수 있는 것이다.절감세액이 ‘0’으로 뜨는 경우도 있다. 결제액이 소득공제 최소 한도인 총급여의 25%를 못 넘겼을 가능성이 큰 경우다. 총급여의 25%를 못 넘겼다면 계속 신용카드를 쓰면서 카드 혜택을 받거나 현금영수증·체크카드를 집중적으로 활용해 공제액을 늘리는 선택도 가능하다. 의료비 등 작년 연말정산 금액으로 미리 채워진 각 항목의 공제금액을 수정하면 올해 예상 세액까지 산출할 수 있다. 개인형 퇴직연금(IRP), 연금저축에 가입하거나 주택청약저축통장 납입액을 통해 공제받을 수 있는 금액을 얼마나 늘릴 수 있는지도 가늠해볼 수 있다.부양가족의 결제액이 반영되지 않았다면 자료제공 동의 신청을 해야 한다. 부양가족이 홈택스에서 본인 인증을 하거나, 세무서를 방문해 자료제공 동의를 신청하면 된다. 미성년 자녀는 별도 절차 없이 부모가 미성년 자료 조회 신청을 하면 된다.연말정산 미리보기는 국세청 홈택스 첫 화면에 나온다. 홈택스를 이용한 연말정산 미리보기가 어렵다면 핀테크 기업인 토스가 운영 중인 서비스를 이용하는 방법도 있다. 토스는 국세청 홈택스에서 계산된 연말정산 데이터를 끌어다 토스에서 볼 수 있도록 만들었다.홈택스 서비스를 간소화하고 복잡한 숫자를 분석할 필요 없이 세금 환급 여부와 금액만 알려준다는 점도 특징이다.박진우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>타다 택시기사도 카카오T 앱으로 호출 받는다…양사 제휴</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000777008?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>타다 웹사이트 캡처.        타다의 가맹택시(타다 라이트) 기사도 카카오T 애플리케이션(앱)으로 승객의 호출을 받을 수 있게 됐다. 카카오모빌리티는 지난달 양사가 택시 호출 서비스 제휴를 위한 업무협약(MOU)를 체결했다고 29일 밝혔다.카카오모빌리티는 자사 가맹택시와 비가맹 일반택시 외 경쟁 플랫폼의 가맹택시 기사도 카카오T 앱으로 호출받을 수 있도록 업체 간 제휴를 추진해왔다. 카카오모빌리티의 제안을 통해 지난 7월 KST모빌리티의 마카롱택시와 코나투스의 반반택시가 카카오T 생태계에 합류한 데 이어 지난달 타다도 합류한 것이다.금융 앱 토스의 운영사 비바리퍼블리카가 인수한 타다는 현재 1000여대 수준인 가맹택시 수를 1만대 이상으로 늘린다는 계획이다. 국내 최대 모빌리티 플랫폼인 카카오T와 호출을 연동하는 게 타다 서비스에도 유리하다는 판단을 한 것으로 보인다. 토스 관계자는 “카카오 측의 제안은 지난 상반기에 받았는데 조건을 조율하느라 MOU 체결이 늦어졌다”라고 말했다.지난 25일 출시된 대형 가맹택시 ‘타다 넥스트’는 이번 제휴 대상이 아니기 때문에 기사가 카카오T로 호출받을 수 없다. 타다 라이트와 넥스트 모두, 기사가 아닌 승객인 일반 이용자가 카카오T 앱으로 타다 택시를 부를 수는 없다.또다른 경쟁 플랫폼 우티(UT) 역시 카카오의 MOU 제안을 받았지만 아직 체결하진 않고 있다. 가맹택시 수를 연내 1만대, 내년까지 2만대로 늘리고 택시 합승 서비스, 탑승 전 요금 결정 기능 출시 등을 통해 독자적인 경쟁력을 확보하겠다는 전략으로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>토스, 미국 비상장주식 거래 플랫폼에 60억원 투자</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012850784?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>토스[비바리퍼블리카 제공]    (서울=연합뉴스) 한혜원 기자 = 토스를 운영하는 비바리퍼블리카가 미국 비상장주식 투자 플랫폼 리퍼블릭에 지분 투자를 단행한 것으로 확인됐다.     토스 관계자는 "리퍼블릭 지분 약 1%를 500만달러(약 60억원)에 인수하는 지분 투자를 최근 마무리했다"고 23일 밝혔다.     토스 측은 "해외 비상장주식 투자와 관련해 잠재적 사업제휴 기회를 확보하려는 차원"이라고 투자 배경을 설명했다.    리퍼블릭은 유망 스타트업과 비상장 기업에 누구나 투자할 수 있도록 중개해주는 플랫폼으로 2016년 미국에서 설립됐다.     플랫폼에 지금까지 모인 투자자가 100만명에 달하며 투자계약이 500건 이상 이뤄졌다. 플랫폼에서 진행된 총 투자 금액은 약 5억달러다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.11.17.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>은행 vs 핀테크 플랫폼 대전...내달 마이데이터 승자는?</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002548698?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>1일부터 개인화 금융 서비스 이용통합 브랜드 출범 및 대표 앱 정비고가 경품 등 사전 고객 확보 치열시중은행의 주요 마이데이터 통합 브랜드 및 앱 서비스 로고 ⓒ 각 사 제공[데일리안 = 이호연 기자] 은행권이 다음달 마이데이터(본인신용정보관리업) 서비스 시작을 앞두고 막바지 준비에 한창이다. 시중은행들은 그간 확보했던 고객 데이터에 기반한 초개인화된 맞춤형 서비스로 빅•핀테크에 도전장을 내밀었다. 미래 먹거리로 떠오른 마이데이터 사업에서 안정적인 시스템 구축과 편의성으로 시장을 선점하겠다는 각오다.17일 업계에 따르면 5대 은행(KB국민·신한·하나·우리·NH농협)은 마이데이터의 마지막 단계라 할 수 있는 금융보안원의 기능적합성 심사를 모두 마치고, 관련 서비스 비공개 베타 테스트(CBT) 등 후속 절차에 돌입했다.마이데이터란 금융회사나 공공기관에 흩어진 모든 개인 데이터들을 한데 모아 관리하는 것이다. 금융사는 고객 동의를 통해 금융·비금융 데이터들을 수집해 정교화된 개인 맞춤형 서비스나 상품을 제공할 수 있다. 이전에도 ‘스크래핑’ 기술을 통해 제한적으로 개인 데이터를 일일이 가져올 수 있었으나, 마이데이터 시행으로 표준 API를 구축해 데이터 활용을 좀 더 쉽게 할 수 있게 됐다.마이데이터 서비스의 핵심은 금융사는 물론 금융소비자의 주도적인 데이터 활용이다. 금융사는 하나로 모아진 고객 데이터를 분석해 금융에서 더 나아가 의료, 유통, 교통 등 일상생활 전반을 아우르는 초개인화 서비스까지 가능해진다. 고객은 마이데이터 앱 하나에만 들어가면 나의 모든 금융자산을 한눈에 파악함은 물론, 유리한 상품으로 갈아탈 수 있다.은행권은 통합 브랜드를 출범하고 애플리케이션(앱) 개편 작업을 통해 발빠른 움직임을 보이고 있다. 현재 국민•신한•우리•NH농협은행, NH농협중앙회 등을 포함한 8곳이 금융보안원의 기능적합성 심사와 함께 보안 취약점 점검까지 모두 통과했다.우리은행은 ‘우리 마이데이터 서비스’ 출시를 앞두고 사전 오픈 알림 이벤트를 진행중이다. 우리 마이데이터를 필두로 개인 자산 분석 등의 통합 분석 리포트와 다양한 금융상품 및 서비스를 제공할 예정이다.KB국민은행은 자동로그인 기능과 개인형 자산관리 서비스인 '마이자산관리' 등을 신설해 1760만명이 사용하는 KB스타뱅킹을 대대적으로 개편했다. 앞서 KB국민은행은 마이데이터 사업을 염두에 두고 신한은행, 토스와 함께 전자서명인증사업자 지위를 획득하는데 성공했다. 마이데이터 서비스 이용자가 각 금융기관에서 본인 신용정보를 조회하려면 통합인증을 해야 하는데, 통합인증기관이 되려면 엄격한 요건을 갖춘 전자서명인증사업자로 지정받아야 한다.하나금융그룹은 은행과 증권, 카드사, 핀테크 등 계열사 간 금융데이터를 합해 최적의 솔루션을 제공하는 마이데이터 브랜드 '하나 합'을 선보였다. 하나은행은 고객 자산관리와 외환 부문에 특화된 서비스를 준비중이다.이 외 신한은행과 NH농협은행은 ‘마이(MY)자산', ’NH마이데이터‘를 대표 서비스로 내세웠다. 신한은행 역시 마이데이터 신규 가입 고객 전원에게 마이신한포인트를, 자산 연결까지 완료한 고객에게는 편의점·올리브영 상품권 등을 추첨으로 증정하며 사활을 걸었다.내년에는 은행, 핀테크에 이어 보험 및 증권사도 마이데이터 시장에 뛰어들며 치열한 격전의 장이 펼쳐질 전망이다. 일각에서는 사업자간 과당 경쟁을 우려하는 목소리도 나온다. 일부 금융사들은 사전 고객 확보를 위해 최신 휴대폰, 고급 자동차 등 값비싼 경품을 내걸거나 직원당 고객 가입건수 할당량까지 배정했다. 이에 금융당국은 상황을 면밀히 모니터링하며 대책을 마련하겠다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.11.23.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스, 美 비상장 주식 투자 플랫폼에 투자</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010849834?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>기사내용 요약"잠재적 사업제휴 기회 확보 차원의 투자"해외 비상장 기업 투자 가능해질까 '기대'[서울=뉴시스] 최선윤 기자 = 토스를 운영하는 비바리퍼블리카가 미국 비상장 주식 투자 플랫폼 '리퍼블릭'에 지분 투자를 단행했다. 23일 업계에 따르면 토스는 최근 리퍼블릭 지분 약 1%를 500만 달러(약 60억원)에 인수하는 내용의 계약을 마무리했다.토스 측은 투자 배경에 대해 "해외 비상장주식 투자와 관련해 잠재적 사업제휴 기회를 확보하기 위한 차원"이라고 설명했다.리퍼블릭은 유망 스타트업과 비상장 기업에 투자할 수 있게끔 중개해주는 플랫폼이다. 최근에는 암호화폐, 대체불가능토큰(NFT) 등으로 투자 대상 범위를 넓혔다.토스는 이번 투자로 향후 리퍼블릭과 손잡고 해외 비상장 주식 서비스를 토스 플랫폼 내에서 제공할 가능성이 높아졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>KTB네트워크 코스닥 상장…"VC 대장주 될 것"</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004634130?sid=004</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>이미지=KTB네트워크국내 1세대 벤처캐피털(VC)인 KTB네트워크가 이달 말 코스닥시장에 상장한다.KTB네트워크는 29일 비대면 기자간담회를 열고 상장 이후 전략과 사업목표를 밝혔다. 김창규 KTB네트워크 대표이사는 "향후 국내와 해외로 나눈 투자전략 실행을 통해 벤처캐피탈 대장주가 되겠다"며 "성장 가능성 높은 기업과 시장 투자를 통해 건강한 투자문화를 선도해 나갈 예정"이라고 말했다.KTB네트워크는 1981년 설립된 한국기술개발주식회사를 전신으로 국내·외 주요 기관들과 제휴관계를 맺고 국내 VC 첫 해외시장 진출 사례를 만들었다. 주요 기관들과의 제휴관계는 우량 펀드 결성의 기반이 돼 높은 투자성과로 이어졌다는 설명이다. 회사는 58개 펀드를 청산했고 납입총액은 1조3397억원에 이른다.회사는 핵심경쟁력으로 크게 ▲스케일업(Scale-up) 투자전략 ▲글로벌 투자 경쟁력 ▲우수한 인력 등을 꼽았다.KTB네트워크는 성장잠재력이 높은 기업을 선별해 유니콘기업으로 성장시키는 스케일업 투자전략일 펴고 있다. 시리즈 A단계부터 D단계 투자까지 성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원하며 수익성을 극대화한 전략이다. 대표 투자 사례로는 비바리퍼블리카(토스)와 우아한형제들(배달의 민족)이 있다.긴 업력 만큼 다양한 해외투자 경험도 장점이다. 1988년 미국, 2006년 중국시장에 진출해 현지거점을 확보하고 있고 기업발굴과 투자를 진행 중이다. 지금까지 미국시장에서는 65개 기업, 중국 등 아시아 지역에는 상해사무소를 통해 49개 기업에 투자했다. 회사는 미국과 중국뿐 아니라 인도와 동남아시아 시장까지 투자포트폴리오를 확대 중이다.아울러 KTB네트워크에는 산업별로 전문지식과 투자경험을 갖춘 심사역이 배치돼 있다는 설명이다. 총 펀드운용인력 24명 중 10년 이상 투자경력을 가진 심사역이 11명이고 각 심사역이 전문성을 가진 분야도 바이오와 헬스케어, 반도체, 소비재, 화학, 메타버스, ICT플랫폼, 엔터테인먼트 등 다양하다.KTB네트워크는 올 3분기 누적 영업수익 1043억원을 기록하며 이미 작년 한 해 달성한 영업수익 670억원을 크게 웃돌았다. 당기순이익은 631억원 수준이다. 영업이익 부분은 작년 기준 446억원을 기록한 것과 비교해 3분기 누적 영업이익 774억원을 기록해 성장세를 보였다.향후 KTB네트워크는 국내시장에서는 신규 LP를 모집해 대규모 후속펀드를 결성한다는 계획이다. 중장기적 관점에서는 섹터전문 펀드, 프로젝트 펀드 등 펀드라인업 다각화 계획을 언급했다.해외 시장에서는 기존에 진출한 미국과 중국 시장 확대 신규 국가 진출을 위해 해외 투자거점을 재정비한다. 특히 동남아와 인도시장 커버리지 확대를 계획하고 있고 현지 VC와 파트너십 구축에 힘을 주고 있다. 실제 상장 이후 내년부터 대규모 해외펀드 결성에 나선다는 입장이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.11.16.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>문턱 높아진 비상금대출… 쪼그라든 한도 오른 금리에 2030 속앓이</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000774261?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>“급전(急錢)이 필요해서 알아봤는데 대출 한도가 100만원밖에 안 나오네요. 심지어 적용 금리가 7.66% 나왔어요. 방법 없을까요?”“졸업 앞둔 마지막 학기라 아르바이트를 못하고 있어서 비상금대출을 받으려 했는데 카카오뱅크에서 연 이자율 6.8% 나왔어요. 금리 상승 무섭네요.”16일 은행업계에서는 쪼그라든 비상금대출 한도와 가파르게 오른 금리를 두고 부담감을 호소하는 2030이 늘고 있다. 최근 2030이 주로 이용하는 유명 온라인 커뮤니티에서는 회원들 간에 비상금대출 한도 조회와 이자율 정보가 담긴 소위 ‘인증샷(모바일 화면 캡처)’을 공유하며 회원들에게 의견을 구하는 게시물이 잇따르고 있다.개인의 신용도와 대출 한도 등에 따라 단순 비교가 어렵지만 각자 대출 심사 결과를 통해 받은 이자율을 비교하며 토론 장이 열린 것이다. 대출 이자와 신용카드 빚을 갚기 위해 다시 비상금대출을 활용하려는 경우도 쉽게 볼 수 있었다. 대출 규모(금액)는 작지만 고정수입이 없는 이들에게 연말 대출 한파 체감 온도는 이미 영하권인 분위기다.인터넷전문은행. /카카오뱅크·케이뱅크 제공        비상금대출은 회사에 다니지 않아도, 고정수입이 없어도 현금이 부족할 때 빠르고 간편하게 대출받을 수 있는 상품이다. 2019년부터 핀크, 카카오뱅크, 케이뱅크, 토스뱅크 등은 스마트폰 본인인증만으로 60초 안에 대출할 수 있다는 점을 앞세워 비상금대출 상품을 경쟁적으로 출시했다.현재 최대 한도는 300만원으로, 급전이 필요한 직장인뿐 아니라 생활비가 필요한 무직자 등에게서 인기를 끌었다. 특히 최근에는 빚을 내서 주식과 코인 등에 투자하는 소위 ‘빚투’, ‘영끌 투자’의 주요 자금원천이 되기도 했다.하지만 최근 비상금대출의 문턱이 높아지고 있다. 은행 금리에 영향을 주는 시중 채권 금리 상승과 대출 규제 강화 등의 여파로 은행 대출 금리가 가파르게 상승하고 있어서다.이미 정부의 가계대출 총량 규제 영향으로 지난 9월부터 일부 시중 은행들은 토스, 핀크 등 핀테크업계 연계 대출 상품인 ‘비상금대출’을 연말까지 전면 중단한 상태다. 하나은행은 하나금융그룹 핀테크 계열사인 핀크의 비상금대출을 연말까지 중단했다. DGB대구은행도 핀크, 토스 등과 연계한 비상금대출 문을 연말까지 닫아둔 상태다.비상금대출 금리도 고개를 들고 있다. 올해 1월 만해도 핀크 비상금대출의 최저 금리가 연 3.08%였는데 9월 기준 최저금리는 4.37%였다. 토스뱅크의 경우 현재(15일 기준) 비상금대출 최저 금리는 연 3.77%다. 카카오뱅크의 최저 금리 연 3.94%. 케이뱅크 비상금대출 최저 연 3.82%다.현재 비상금대출 문을 걸어 잠근 업계는 내년 정상 재개할 것으로 보고 있다. 금융위원회는 지난 5월 인터넷 전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문하기도 했다.다만 비상금대출의 최대 한도 확대 또는 축소 여부는 현재로선 가늠할 수 없는 분위기다. 하나은행 관계자는 “당장 대출이 필요하지 않은데도 최대한 대출을 받아 놓으려고 하는 수요 관리 차원에서 비상금대출도 정면 중단한 것이기 때문에 내년 초에는 대출상품 판매가 재개할 것으로 보고 있다”면서도 “내년 정책 방향과 시장 상황에 따라갈 수밖에 없다”고 말했다.한국은행이 이달 말 기준금리를 추가로 올릴 경우 비상금대출을 비롯한 각종 대출 금리 부담도 더 커질 가능성이 있다. 업계 관계자는 “금리가 더 오르고 내년에도 은행권의 가계대출 규제 강화 기조가 이어지면서 인터넷은행의 소액대출과 제2금융권을 이용하려는 소득이 없거나 적은 청년들의 대출 부담도 더 커질 수 밖에 없다”고 말했다.그는 “금융당국의 주문에 따라 내년에는 인터넷은행들이 중저신용자 대출 비중을 확대할 경우 가계부채 부실 등을 감안해 리스크 관리도 함께 강화해야 한다는 점에서 어려움이 따를 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>토스뱅크, '입사 1주년' 직원에 스톡옵션 쐈다…액면가 1억</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000638714?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>30명에 60만 주 부여...2년 뒤 행사 가능토스뱅크가 입사 1주년을 맞음 임직원에 주식매수선택권(스톡옵션)을 부여했다.25일 토스뱅크는 주주총회를 열고 입사 1주년을 맞은 임직원 30명에게 스톡옥션 60만 주를 부여하기로 결정했다고 밝혔다. 주정명 사내이사(CRO, 리스크 담당 최고책임자), 최승락 CCO(소비자 담당 최고책임자) 등을 포함해 대상이 된 임직원에게는 인당 2만주가 고르게 부여된다.토스뱅크 로고. [사진=토스뱅크]이번 스톡옵션의 행사가는 액면가로 주당 5천원이다. 대상 임직원은 스톡옵션을 부여받은 날로부터 2년 뒤인 2023년 11월 30일부터 이를 행사할 수 있다.전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.11.29.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>코스닥 상장 KTB네트워크, "대한민국 대표 글로벌 VC로 도약"</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004634206?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>1세대 VC로 우수 심사역 포진…우수한 펀드 성과, 탄탄한 투자 네트워크공모자금, 펀드 결성에 활용 ··· 지속적인고 안정적인 수익기반 구축이 기사는 11월 29일 14:29 “마켓인사이트”에 게재된 기사입니다.KTB네트워크가 29일 온라인 기자간담회를 통해 코스닥 시장 상장 후 전략과 비전을 밝혔다. 김창규 KTB네트워크 대표이사는 간담회에서 향후 국내와 해외로 나눈 투자전략 실행을 통해 벤처캐피탈 대장주가 되겠다는 의지를 보였다. 그는 “코스닥 상장을 통해 대한민국 대표 글로벌 벤처캐피탈로 도약할 것”이라며, “성장 가능성 높은 기업과 시장 투자를 통해 건강한 투자문화를 선도해 나가겠다”는 포부를 밝혔다.KTB네트워크는 1981년 설립된 한국기술개발주식회사를 전신으로 하는 벤처캐피탈회사다. 국내 벤처캐피탈 최초 해외시장에 진출했다. 주요 기관과의 파트너쉽을 통해 58개 펀드(청산 기준) 운용경험, 1조 3397억원 규모 납입총액, 19.8%의 업계평균대비 높은 IRR로 KTB네트워크는 업계 최상위 벤처캐피탈로 평가받고 있다.KTB네트워크는 성장잠재력이 높은 기업을 모색해 유니콘기업으로 성장시키는 스케일업 투자전략을 고수하고 있다. 이는 시리즈 A단계부터 D단계 투자까지 성장 가능성이 높은 기업을 단계별로 선별해 지속적인 대규모 후속투자와 경영컨설팅을 지원하며 수익성을 극대화한 전략이다. KTB네트워크의 스케일업 대표 투자 사례로는 비바리퍼블리카(토스)와 우아한형제들(배달의 민족)이 있다.KTB네트워크는 업계 최초로 해외 시장에 진출한 1세대 벤처캐피탈로 긴 업력만큼 다양한 해외투자경험을 보유하고 있다. 1988년 미국, 2006년 중국시장에 진출해 현지거점을 확보하고 있으며 기업발굴과 투자를 진행하고 있다. 지금까지 미국시장에서는 65개 기업, 중국 등 아시아 지역에는 상해사무소를 통해 49개 기업에 투자해 AURIS, BERKELY LIGHTS, Xpeng, CARSGEN 등 다수의 우수성공사례를 기록한 바 있다. KTB네트워크는 미국과 중국은 물론, 인도와 동남아 시장까지 투자포트폴리오를 확대 중이다.KTB네트워크는 2018년부터 최근 4년간 큰 폭의 성장을 이뤄왔으며 특히 올해 3분기 실적이 눈에 띈다. 2021년 3분기 누적실적 기준 1043억원의 영업수익으로 지난 한 해 영업수익 670억원을 뛰어 넘었다. 당기순이익은 631억에 달한다. KTB네트워크는 국내에서는 지금까지 증명한 펀드운용 성과와 구축된 주요 기관 네트워크를 바탕으로 신규 LP를 모집해 대규모 후속펀드를 결성할 계획이다. 해외 시장에서는 기존에 진출한 미국과 중국 시장 확대 신규 국가 진출을 위해 해외 투자거점을 재정비할 예정이다. 특히 동남아와 인도시장 커버리지 확대를 계획하고 있으며 현지 VC와 파트너십 구축에 노력하고 있다. 실제 상장 이후 내년부터 대규모 해외펀드 결성에 적극 나설 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.11.24.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[실전재테크]"0.1% 금리라도 아껴라"…각광 받는 대출 비교 플랫폼</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005004594?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>저축은행 '비교 플랫폼' 대출 비중 2년만에 27배 성장핀테크 특화 서비스 경쟁…가맹점·자영업자 대출 등 다양기준금리 인상 시기가 도래하면서 차주들의 마음도 급해지고 있다. 0.1%포인트라도 더 낮은 금리와 10만원이라도 더 높은 한도를 찾기 위해서다. 이런 분위기를 타고 ‘대출비교 플랫폼’이 각광을 받고 있다. 특히 비대면이라는 강점을 통해 금융사를 꼭 방문하지 않아도 앉은 자리서 한번에 대출 조건을 비교 할 수 있어, 대출전 조건 비교는 필수라는 설명이다.대출비교 플랫폼을 통한 저축은행과 지방은행의 대출규모는 해마다 급증하는 추세다. 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면 올 1∼7월 애큐온·SBI·유진·모아·페퍼·상상인·한국투자·KB·웰컴·OK저축은행 등 10개 저축은행의 누적 신규 개인신용대출 12조2215억원 중 18.9%가 대출 비교 플랫폼을 통해 나간 것으로 나타났다. 이는 2019년 0.7%, 2020년 6.8%보다 크게 늘어난 수치로 2년만에 대략 27배가 성장한 것이다.지방은행도 상황이 비슷하다 올 1∼7월 전북은행과 광주은행이 취급한 개인 신규대출 각각 1조4563억원 중 18.5%, 1조8970억원 중 15%가 플랫폼을 통해 나간 대출이었다.이같은 성장세를 타고 경쟁도 치열해지고 있다. 카카로페이, 네이버파이낸셜, 토스 등 빅테크가 시장을 장악해 가면서 특색있는 서비스로 나름 경쟁력을 키워가고 있는 것이다.지난 10일 핀테크 스타트업 베스트핀은 주택담보대출·전세자금대출 전문 비교 플랫폼 ‘담비’를 공식 론칭했다. 그간 신용대출이 중심이었다면 담비는 여기에 부동산대출을 더한 것이다. 다만 주택담보대출 상품을 이용하는 데에는 다소 시간이 걸릴 예정이다. 금융당국의 가계대출 총량규제로 은행과의 제휴 시기가 지연되고 있기 때문이다. 베스트핀은 전·월세대출, 신용대출 등 일부 상품을 시작으로 11월 말부터 순차적으로 제공할 예정이다.‘알다’를 서비스하는 핀테크 팀윙크는 다음달 시작되는 본인신용정보관리업(마이데이터)를 통해 금융소외계층과 중저신용 고객을 위한 대출 진단·비교·관리 등 특화 서비스와 개인회생자대출, 개인사업자대출  등을 선보인다. 최근에는 ‘개인회생자대출 가이드북’을 카카오톡채널을 통해 무료 배포하고 있으며, 개인회상자를 위한 우대금리 이벤트를 진행하고 있다.뱅크샐러드는 대출·카드·투자·연금·가상화폐 거래소 등 단순 대출 비교가 아닌 다양한 금융상품까지 영역을 확장한 상황이다. 마이데이터가 본격화되면 유전자 검사 서비스도 도입할 예정이다.핀다는 대출 플랫폼 업계 최초로 BC카드에 입점하고 가맹점 대출 연계에 나서고 있다. 핀다는 그동안 직장인 신용대출 중심의 대출 비교 서비스를 제공해왔지만, BC카드와 연계하며 자영업자 대상 대출 서비스로 사용자 범위를 확대한 것이다. 핀다 사용자 중 BC카드 가맹점 운영 중인 개인사업자면 비대면으로 신청할 수 있다. BC카드 가맹점 대출은 대출한도 최대 5000만원, 대출기간 최대 60개월이며 대출금리는 최저 연 6.9% 수준이다. 이 상품은 취급수수료 및 중도상환수수료 등 각종 수수료가 없는 점이 특징이다.핀테크 업계를 넘어 저축은행도 대출비교 플랫폼에 도전장을 던지고 있다. 웰컴저축은행은 지난달 금융당국으로부터 대출 중개업 라이센스를 획득하고 대출비교 서비스 인프라 구축을 검토하고 있다. 대출 중개에 뛰어든 저축은행은 웰컴저축은행이 유일하며, 위기에 빠진 서민금융 경쟁력을 금융서비스 확대로 돌파하겠다는 취지다.다만 이 시장은 큰 변화를 예고하고 있는 것이 변수다. 내년으로 미뤄진 정부주도의 대환대출(대출 갈아타기) 플랫폼이 등장하면 시장은 큰 폭으로 개편될 가능성을 배제할 수 없다. 이와함께 금융소비자보호법에 따른 규제 이슈도 남아있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.11.25.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>쿠콘, 제3금융권 대출정보 중계…"서비스 연계 범위 넓혀"</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005093701?sid=105</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>리드코프와 대출정보 중계업무 제휴온라인 대출 비교 플랫폼에 상품 제공[이데일리 이후섭 기자] 쿠콘(294570)은 대출정보 연계 서비스 범위를 제1·2금융권에 이어 제3금융권까지 확대한다고 25일 밝혔다.쿠콘은 서민금융 우수 대부업체로 선정된 리드코프와 대출정보 중계 업무제휴 계약을 체결했다. 금융위원회는 지난 8월 서민금융 우수 대부업체의 대출상품을 온라인 대출 비교 플랫폼에 제공할 수 있도록 허용했다. 이번 제휴로 쿠콘이 제공하는 대출 정보 연계 서비스 범위가 제1·2금융권에서 제3금융권까지 확대되면서 전 금융권을 아우르는 대출 연계 서비스를 제공한다.쿠콘은 은행, 카드, 증권 등 35개 금융기관이 여러 핀테크 기업에서 요청한 대출 한도·금리 정보를 안정적으로 제공할 수 있도록 대출정보 중계 사업을 전개하고 있다. 이를 통해 제공되는 대출정보는 카카오, 토스, 핀다 등의 대출상품 비교 추천 플랫폼에서 활용하고 있으며, 정보를 연계하는 기관 및 기업은 지속 증가하는 추세다.쿠콘은 `간편 대출 서비스 시스템` 특허도 보유하고 있어 국내에서 유일하게 해당 기술에 대한 시스템을 제공하고 있다. 연계 금융기관은 핀테크 기업과의 인프라 구성에 따른 운영 리스크를 쿠콘과의 제휴로 해소 가능하다.쿠콘은 금융위 정책에 부합해 금융소외계층도 중금리로 편리하게 대출을 이용할 수 있도록 서민금융 우수 대부업체와 연계를 지속 확대할 계획이다. 김종현 쿠콘 대표는 “이번 리드코프와 제휴는 제3금융권 대출정보를 제공하는 첫 사례라는 점에서 매우 뜻깊다”며 “앞으로도 여러 금융기관들이 쿠콘을 통해 고객 유입 채널을 확대하고 신속하게 사업을 추진할 수 있도록 대출정보 연계 사업을 적극 추진해나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
